--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFDF554-3748-7F4B-8A13-952691CA2963}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E067E-559B-254C-BB4D-B10514D8AB8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Source Name</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>Term Accession Number [degree Celsius] (#2; #h; #tUO:0000027; #u)</t>
+  </si>
+  <si>
+    <t>Characteristics [Biological replicate]</t>
+  </si>
+  <si>
+    <t>Term Source REF [Biological replicate] (#h; #tNFDI4PSO:0000042)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [Biological replicate] (#h; #tNFDI4PSO:0000042)</t>
   </si>
 </sst>
 </file>
@@ -346,7 +355,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -415,78 +427,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="A2:BS3" totalsRowShown="0">
-  <autoFilter ref="A2:BS3" xr:uid="{8A7F28C9-E08B-8A4D-99FD-3313667921ED}"/>
-  <tableColumns count="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="A2:BV3" totalsRowShown="0">
+  <autoFilter ref="A2:BV3" xr:uid="{8A7F28C9-E08B-8A4D-99FD-3313667921ED}"/>
+  <tableColumns count="74">
     <tableColumn id="1" xr3:uid="{9B8F9057-2F20-7A45-8C27-9A36422B26D5}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{CC93B5FA-49F4-9B4C-B1F6-452471229F30}" name="Sample Name"/>
-    <tableColumn id="3" xr3:uid="{6A7FF2B3-5F1E-8245-AC4F-6198097A8123}" name="Characteristics [Organism]" dataDxfId="17"/>
+    <tableColumn id="72" xr3:uid="{A33FCD3B-AD29-A742-9D63-6ECAFBEE068E}" name="Characteristics [Biological replicate]" dataDxfId="0"/>
+    <tableColumn id="73" xr3:uid="{4059FECC-FE9D-5947-9219-570196389DAE}" name="Term Source REF [Biological replicate] (#h; #tNFDI4PSO:0000042)"/>
+    <tableColumn id="74" xr3:uid="{E04811ED-EF58-AD4F-84F5-156D9251E904}" name="Term Accession Number [Biological replicate] (#h; #tNFDI4PSO:0000042)"/>
+    <tableColumn id="3" xr3:uid="{6A7FF2B3-5F1E-8245-AC4F-6198097A8123}" name="Characteristics [Organism]" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{CC831F2C-80A0-C84F-829F-23F6C78F2EEB}" name="Term Source REF [Organism] (#h; #tNFDI4PSO:0000030)"/>
     <tableColumn id="5" xr3:uid="{D6E59B6D-D53F-A840-A182-24AE5A460E1D}" name="Term Accession Number [Organism] (#h; #tNFDI4PSO:0000030)"/>
-    <tableColumn id="14" xr3:uid="{000DCCE3-5EF7-4F4E-A82A-AD088FF36730}" name="Characteristics [Genotype]" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{000DCCE3-5EF7-4F4E-A82A-AD088FF36730}" name="Characteristics [Genotype]" dataDxfId="17"/>
     <tableColumn id="15" xr3:uid="{E2A1AEEB-EF2B-F448-824C-2953C18CC24A}" name="Term Source REF [Genotype] (#h; #tNFDI4PSO:0000031)"/>
     <tableColumn id="16" xr3:uid="{A998FE5F-8994-6E40-94FA-F0EF6DC905E4}" name="Term Accession Number [Genotype] (#h; #tNFDI4PSO:0000031)"/>
-    <tableColumn id="17" xr3:uid="{0EB867DC-9BB4-6243-BEE9-01764D9FEB35}" name="Characteristics [Organism part]" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{0EB867DC-9BB4-6243-BEE9-01764D9FEB35}" name="Characteristics [Organism part]" dataDxfId="16"/>
     <tableColumn id="18" xr3:uid="{B0CCF08F-B694-6C4F-94E6-E17AFD4C0A63}" name="Term Source REF [Organism part] (#h; #tNFDI4PSO:0000032)"/>
     <tableColumn id="19" xr3:uid="{6A02A31E-2B72-BE41-BF86-71E587B29D13}" name="Term Accession Number [Organism part] (#h; #tNFDI4PSO:0000032)"/>
-    <tableColumn id="20" xr3:uid="{96C34AC4-65C0-774B-A5A0-1BC98C955028}" name="Characteristics [age]" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{96C34AC4-65C0-774B-A5A0-1BC98C955028}" name="Characteristics [age]" dataDxfId="15"/>
     <tableColumn id="21" xr3:uid="{325D3F43-A306-2F47-AD9C-92F61C0649E5}" name="Term Source REF [age] (#h; #tNFDI4PSO:0000033)"/>
     <tableColumn id="22" xr3:uid="{334AF647-E268-2E41-950D-8973A43E29C8}" name="Term Accession Number [age] (#h; #tNFDI4PSO:0000033)"/>
-    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="14"/>
     <tableColumn id="27" xr3:uid="{5FF2BBBF-350F-9842-8FDF-2F895B07EADF}" name="Term Source REF [study type] (#h; #tPECO:0007231)"/>
     <tableColumn id="28" xr3:uid="{E12790EC-754D-3244-8A7A-1242F7942612}" name="Term Accession Number [study type] (#h; #tPECO:0007231)"/>
-    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="13"/>
     <tableColumn id="24" xr3:uid="{0C19F4A6-F9E8-1F4F-9B61-EB31E6DF451A}" name="Term Source REF [plant growth medium exposure] (#h; #tPECO:0007147)"/>
     <tableColumn id="25" xr3:uid="{7BBED07D-F814-A245-B090-723342B3D631}" name="Term Accession Number [plant growth medium exposure] (#h; #tPECO:0007147)"/>
-    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="11"/>
+    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="12"/>
     <tableColumn id="30" xr3:uid="{86FAE20B-4F89-EE4F-91E6-CE3B7E712F95}" name="Term Source REF [growth plot design] (#h; #tNFDI4PSO:0000001)"/>
     <tableColumn id="31" xr3:uid="{C0949892-595C-9742-BCD1-75134FAC012F}" name="Term Accession Number [growth plot design] (#h; #tNFDI4PSO:0000001)"/>
-    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="10"/>
+    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="11"/>
     <tableColumn id="33" xr3:uid="{4E2448E1-3D08-504C-8FE3-D71B801F4DC9}" name="Term Source REF [Growth day length] (#h; #tNFDI4PSO:0000041)"/>
     <tableColumn id="34" xr3:uid="{D47410BE-0000-B648-8CE5-966EE8968909}" name="Term Accession Number [Growth day length] (#h; #tNFDI4PSO:0000041)"/>
-    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="9"/>
+    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="10"/>
     <tableColumn id="36" xr3:uid="{FD04748E-7F58-4A46-A167-E5EB1375A50B}" name="Term Source REF [light intensity exposure] (#h; #tPECO:0007224)"/>
     <tableColumn id="37" xr3:uid="{D76E6422-DF20-B94A-B5A6-4FD7F7923EBF}" name="Term Accession Number [light intensity exposure] (#h; #tPECO:0007224)"/>
     <tableColumn id="6" xr3:uid="{8E446DD1-817A-E84A-9536-47B88B72BFD8}" name="Unit [microeinstein per square meter per second] (#h; #tUO:0000160; #u)"/>
     <tableColumn id="7" xr3:uid="{BCB29467-6D87-F141-98A0-60243765731F}" name="Term Source REF [microeinstein per square meter per second] (#h; #tUO:0000160; #u)"/>
     <tableColumn id="8" xr3:uid="{D2565EAD-7C86-C343-800D-E37FD463093B}" name="Term Accession Number [microeinstein per square meter per second] (#h; #tUO:0000160; #u)"/>
-    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="8"/>
+    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="9"/>
     <tableColumn id="39" xr3:uid="{8B1D9CC4-6026-674C-9852-06A06365907B}" name="Term Source REF [Humidity Day] (#h; #tNFDI4PSO:0000005)"/>
     <tableColumn id="40" xr3:uid="{8CCA0026-8267-884E-8F9A-369ACCB825EA}" name="Term Accession Number [Humidity Day] (#h; #tNFDI4PSO:0000005)"/>
     <tableColumn id="9" xr3:uid="{9508FD23-5388-F64E-8286-05B533856CA2}" name="Unit [percent] (#h; #tUO:0000187; #u)"/>
     <tableColumn id="10" xr3:uid="{F796BC22-CBE1-6D41-824E-F655C3F9D5B6}" name="Term Source REF [percent] (#h; #tUO:0000187; #u)"/>
     <tableColumn id="11" xr3:uid="{32AC3DD8-82CD-4349-BFD5-0805A34144D8}" name="Term Accession Number [percent] (#h; #tUO:0000187; #u)"/>
-    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="7"/>
+    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="8"/>
     <tableColumn id="42" xr3:uid="{FE26FC08-E3D1-7547-8E20-1363EF47EE86}" name="Term Source REF [Humidity Night] (#h; #tNFDI4PSO:0000006)"/>
     <tableColumn id="43" xr3:uid="{C6D20AF0-60A8-874E-9614-2A2F483EB262}" name="Term Accession Number [Humidity Night] (#h; #tNFDI4PSO:0000006)"/>
     <tableColumn id="12" xr3:uid="{2866C2CF-81B3-694E-B2D9-F69059F54AA2}" name="Unit [percent] (#2; #h; #tUO:0000187; #u)"/>
     <tableColumn id="13" xr3:uid="{A885FE47-7729-3B45-B73D-03FF1F114CD5}" name="Term Source REF [percent] (#2; #h; #tUO:0000187; #u)"/>
     <tableColumn id="65" xr3:uid="{A3AEBB25-5500-F249-866E-C98439259F17}" name="Term Accession Number [percent] (#2; #h; #tUO:0000187; #u)"/>
-    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="6"/>
+    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="7"/>
     <tableColumn id="45" xr3:uid="{23233498-CFC4-9F46-94D5-39E7A6B5AFB5}" name="Term Source REF [Temperature Day] (#h; #tNFDI4PSO:0000007)"/>
     <tableColumn id="46" xr3:uid="{346D483D-D0DE-5140-A015-4AD0367BAD4D}" name="Term Accession Number [Temperature Day] (#h; #tNFDI4PSO:0000007)"/>
     <tableColumn id="66" xr3:uid="{57808D06-1B53-8D41-BEB4-1644A20F7763}" name="Unit [degree Celsius] (#h; #tUO:0000027; #u)"/>
     <tableColumn id="67" xr3:uid="{A7356A0D-0EFD-3D44-9B2F-4566273E79E8}" name="Term Source REF [degree Celsius] (#h; #tUO:0000027; #u)"/>
     <tableColumn id="68" xr3:uid="{AD21FFE5-445B-CB42-B199-FDD8BAD5635D}" name="Term Accession Number [degree Celsius] (#h; #tUO:0000027; #u)"/>
-    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="5"/>
+    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="6"/>
     <tableColumn id="48" xr3:uid="{3A76D4EC-C74F-0A4B-B340-8EF3D8B86ECB}" name="Term Source REF [Temperature Night] (#h; #tNFDI4PSO:0000008)"/>
     <tableColumn id="49" xr3:uid="{87034985-F2AC-A145-AA6A-9EDB63F919F9}" name="Term Accession Number [Temperature Night] (#h; #tNFDI4PSO:0000008)"/>
     <tableColumn id="69" xr3:uid="{6D54D968-A087-944D-BF64-3AC3D5B08F80}" name="Unit [degree Celsius] (#2; #h; #tUO:0000027; #u)"/>
     <tableColumn id="70" xr3:uid="{AE04B49D-BF47-F34B-B52A-752ECD10B8C7}" name="Term Source REF [degree Celsius] (#2; #h; #tUO:0000027; #u)"/>
     <tableColumn id="71" xr3:uid="{2A40040A-D450-EF49-AB82-0CEEB3D8A599}" name="Term Accession Number [degree Celsius] (#2; #h; #tUO:0000027; #u)"/>
-    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="4"/>
+    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="5"/>
     <tableColumn id="51" xr3:uid="{808AA82E-ECE0-AD47-92D3-27D7C93007B7}" name="Term Source REF [watering exposure] (#h; #tPECO:0007383)"/>
     <tableColumn id="52" xr3:uid="{7C45B5F9-759B-E646-A40E-CB5363DF17A8}" name="Term Accession Number [watering exposure] (#h; #tPECO:0007383)"/>
-    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="3"/>
+    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="4"/>
     <tableColumn id="54" xr3:uid="{FD6AD7C0-D253-D04C-8B67-6124B6C5D685}" name="Term Source REF [plant nutrient exposure] (#h; #tPECO:0007241)"/>
     <tableColumn id="55" xr3:uid="{95BC5752-0FFE-8C4E-BFE3-4FED8B72A648}" name="Term Accession Number [plant nutrient exposure] (#h; #tPECO:0007241)"/>
-    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="2"/>
+    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="3"/>
     <tableColumn id="57" xr3:uid="{19EC9032-1152-F940-ADB1-397E054EED4E}" name="Term Source REF [abiotic plant exposure] (#h; #tPECO:0007191)"/>
     <tableColumn id="58" xr3:uid="{40EA0154-215C-C44C-A5D6-852F5DA9A25C}" name="Term Accession Number [abiotic plant exposure] (#h; #tPECO:0007191)"/>
-    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="1"/>
+    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="2"/>
     <tableColumn id="60" xr3:uid="{2836636A-01C7-9C4E-9B41-EE6FEE3D7B80}" name="Term Source REF [biotic plant exposure] (#h; #tPECO:0007357)"/>
     <tableColumn id="61" xr3:uid="{E4A74FCF-2E01-354A-99CE-0602774F8706}" name="Term Accession Number [biotic plant exposure] (#h; #tPECO:0007357)"/>
-    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="0"/>
+    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="1"/>
     <tableColumn id="63" xr3:uid="{D78E63DF-76E2-AE4F-A9AA-86CB096E0FD1}" name="Term Source REF [Time point] (#h; #tNFDI4PSO:0000034)"/>
     <tableColumn id="64" xr3:uid="{4E3E838B-D518-9B41-95E4-AE65DE3C4242}" name="Term Accession Number [Time point] (#h; #tNFDI4PSO:0000034)"/>
   </tableColumns>
@@ -809,88 +824,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3613D5-BDC4-E141-9C9A-87C99351C8EE}">
-  <dimension ref="A1:BS3"/>
+  <dimension ref="A1:BV3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.1640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="57.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="61.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="52.1640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.5" customWidth="1"/>
-    <col min="17" max="17" width="53.6640625" customWidth="1"/>
-    <col min="18" max="18" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="65.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="71.5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="58.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="64.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="57.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="61.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="52.1640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="53.6640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="65.33203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="71.5" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="58.6640625" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="64.83203125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="58.5" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="64.6640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="65.5" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="76.33203125" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="82.5" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="54.6640625" customWidth="1"/>
-    <col min="35" max="35" width="61" customWidth="1"/>
-    <col min="36" max="36" width="35.5" customWidth="1"/>
-    <col min="37" max="37" width="46.33203125" customWidth="1"/>
-    <col min="38" max="38" width="52.5" customWidth="1"/>
-    <col min="39" max="39" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="56" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="62.1640625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="38.5" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="49.33203125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="55.6640625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="57.83203125" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="64" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="41.33203125" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="52.1640625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="58.33203125" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="59" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="65.33203125" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="44.33203125" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="55.33203125" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="61.5" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="54.33203125" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="60.6640625" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="58.33203125" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="64.5" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="57.33203125" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="63.5" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="56.33203125" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="62.5" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="52" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="58.1640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="58.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="64.83203125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="58.5" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="64.6640625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="65.5" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="76.33203125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="82.5" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="54.6640625" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="61" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="35.5" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="46.33203125" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="52.5" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="56" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="62.1640625" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="38.5" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="49.33203125" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="55.6640625" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="57.83203125" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="64" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="41.33203125" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="52.1640625" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="58.33203125" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="59" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="65.33203125" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="44.33203125" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="55.33203125" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="61.5" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="54.33203125" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="60.6640625" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="58.33203125" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="64.5" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="57.33203125" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="63.5" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="56.33203125" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="62.5" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="52" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="58.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -961,9 +979,12 @@
       <c r="BP1" s="4"/>
       <c r="BQ1" s="4"/>
       <c r="BR1" s="4"/>
-      <c r="BS1" s="2"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="2"/>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -971,214 +992,223 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>16</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>33</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>34</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>62</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>63</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>64</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>35</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>36</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>65</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>66</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>67</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>38</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BC2" t="s">
         <v>39</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>40</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>68</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>69</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>70</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>41</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>42</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>43</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>44</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>45</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>46</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>47</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>49</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>50</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>51</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>52</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>53</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>54</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="F3" s="3"/>
       <c r="I3" s="3"/>
@@ -1187,16 +1217,17 @@
       <c r="R3" s="3"/>
       <c r="U3" s="3"/>
       <c r="X3" s="3"/>
-      <c r="AA3" s="5"/>
-      <c r="AG3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AS3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="BE3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AD3" s="5"/>
+      <c r="AJ3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AV3" s="7"/>
+      <c r="BB3" s="7"/>
       <c r="BH3" s="3"/>
       <c r="BK3" s="3"/>
       <c r="BN3" s="3"/>
       <c r="BQ3" s="3"/>
+      <c r="BT3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1211,34 +1242,35 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTable" Worksheet="1SPL01_plants">
-    <TableValidation DateTime="2021-03-03 16:28" SwateVersion="0.4.0" TableName="annotationTable" Userlist="" WorksheetName="1SPL01_plants">
+    <TableValidation DateTime="2021-03-12 12:14" SwateVersion="0.4.0" TableName="annotationTable" Userlist="" WorksheetName="1SPL01_plants">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Characteristics [Organism]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Organism"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Characteristics [Genotype]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="8" ColumnHeader="Characteristics [Organism part]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Organism part"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Characteristics [age]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Characteristics [study type]" Importance="4" Unit="None" ValidationFormat="OntologyTerm study type"/>
-      <ColumnValidation ColumnAdress="17" ColumnHeader="Characteristics [plant growth medium exposure]" Importance="4" Unit="None" ValidationFormat="OntologyTerm plant growth medium exposure"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Characteristics [growth plot design]" Importance="4" Unit="None" ValidationFormat="OntologyTerm growth plot design"/>
-      <ColumnValidation ColumnAdress="23" ColumnHeader="Characteristics [Growth day length]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="26" ColumnHeader="Characteristics [light intensity exposure]" Importance="4" Unit="microeinstein per square meter per second" ValidationFormat="UnitTerm microeinstein per square meter per second"/>
-      <ColumnValidation ColumnAdress="32" ColumnHeader="Characteristics [Humidity Day]" Importance="4" Unit="percent" ValidationFormat="UnitTerm percent"/>
-      <ColumnValidation ColumnAdress="38" ColumnHeader="Characteristics [Humidity Night]" Importance="4" Unit="percent" ValidationFormat="UnitTerm percent"/>
-      <ColumnValidation ColumnAdress="44" ColumnHeader="Characteristics [Temperature Day]" Importance="4" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
-      <ColumnValidation ColumnAdress="50" ColumnHeader="Characteristics [Temperature Night]" Importance="4" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
-      <ColumnValidation ColumnAdress="56" ColumnHeader="Characteristics [watering exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="59" ColumnHeader="Characteristics [plant nutrient exposure]" Importance="4" Unit="None" ValidationFormat="OntologyTerm plant nutrient exposure"/>
-      <ColumnValidation ColumnAdress="62" ColumnHeader="Characteristics [abiotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="65" ColumnHeader="Characteristics [biotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="68" ColumnHeader="Characteristics [Time point]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="2" ColumnHeader="Characteristics [Biological replicate]" Importance="3" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="5" ColumnHeader="Characteristics [Organism]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Organism"/>
+      <ColumnValidation ColumnAdress="8" ColumnHeader="Characteristics [Genotype]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="11" ColumnHeader="Characteristics [Organism part]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Organism part"/>
+      <ColumnValidation ColumnAdress="14" ColumnHeader="Characteristics [age]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="17" ColumnHeader="Characteristics [study type]" Importance="4" Unit="None" ValidationFormat="OntologyTerm study type"/>
+      <ColumnValidation ColumnAdress="20" ColumnHeader="Characteristics [plant growth medium exposure]" Importance="4" Unit="None" ValidationFormat="OntologyTerm plant growth medium exposure"/>
+      <ColumnValidation ColumnAdress="23" ColumnHeader="Characteristics [growth plot design]" Importance="4" Unit="None" ValidationFormat="OntologyTerm growth plot design"/>
+      <ColumnValidation ColumnAdress="26" ColumnHeader="Characteristics [Growth day length]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="29" ColumnHeader="Characteristics [light intensity exposure]" Importance="4" Unit="microeinstein per square meter per second" ValidationFormat="UnitTerm microeinstein per square meter per second"/>
+      <ColumnValidation ColumnAdress="35" ColumnHeader="Characteristics [Humidity Day]" Importance="4" Unit="percent" ValidationFormat="UnitTerm percent"/>
+      <ColumnValidation ColumnAdress="41" ColumnHeader="Characteristics [Humidity Night]" Importance="4" Unit="percent" ValidationFormat="UnitTerm percent"/>
+      <ColumnValidation ColumnAdress="47" ColumnHeader="Characteristics [Temperature Day]" Importance="4" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
+      <ColumnValidation ColumnAdress="53" ColumnHeader="Characteristics [Temperature Night]" Importance="4" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
+      <ColumnValidation ColumnAdress="59" ColumnHeader="Characteristics [watering exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="62" ColumnHeader="Characteristics [plant nutrient exposure]" Importance="4" Unit="None" ValidationFormat="OntologyTerm plant nutrient exposure"/>
+      <ColumnValidation ColumnAdress="65" ColumnHeader="Characteristics [abiotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="68" ColumnHeader="Characteristics [biotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="71" ColumnHeader="Characteristics [Time point]" Importance="None" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDEA89B8-30FE-EC47-941A-CB888A55711B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68619077-37D4-FC49-BBDD-765B5130B077}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E067E-559B-254C-BB4D-B10514D8AB8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C08CDD-8C93-3143-98B0-46F198483705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Source Name</t>
   </si>
@@ -247,6 +247,33 @@
   </si>
   <si>
     <t>Term Accession Number [Biological replicate] (#h; #tNFDI4PSO:0000042)</t>
+  </si>
+  <si>
+    <t>Parameter [Sample Collection Method]</t>
+  </si>
+  <si>
+    <t>Term Source REF [Sample Collection Method] (#h; #tNFDI4PSO:0000009)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [Sample Collection Method] (#h; #tNFDI4PSO:0000009)</t>
+  </si>
+  <si>
+    <t>Parameter [Metabolism quenching method]</t>
+  </si>
+  <si>
+    <t>Term Source REF [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)</t>
+  </si>
+  <si>
+    <t>Parameter [Sample storage]</t>
+  </si>
+  <si>
+    <t>Term Source REF [Sample storage] (#h; #tNFDI4PSO:0000011)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)</t>
   </si>
 </sst>
 </file>
@@ -355,7 +382,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -388,6 +421,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -427,83 +463,92 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="A2:BV3" totalsRowShown="0">
-  <autoFilter ref="A2:BV3" xr:uid="{8A7F28C9-E08B-8A4D-99FD-3313667921ED}"/>
-  <tableColumns count="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="A2:CE3" totalsRowShown="0">
+  <autoFilter ref="A2:CE3" xr:uid="{8A7F28C9-E08B-8A4D-99FD-3313667921ED}"/>
+  <tableColumns count="83">
     <tableColumn id="1" xr3:uid="{9B8F9057-2F20-7A45-8C27-9A36422B26D5}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{CC93B5FA-49F4-9B4C-B1F6-452471229F30}" name="Sample Name"/>
-    <tableColumn id="72" xr3:uid="{A33FCD3B-AD29-A742-9D63-6ECAFBEE068E}" name="Characteristics [Biological replicate]" dataDxfId="0"/>
+    <tableColumn id="72" xr3:uid="{A33FCD3B-AD29-A742-9D63-6ECAFBEE068E}" name="Characteristics [Biological replicate]" dataDxfId="21"/>
     <tableColumn id="73" xr3:uid="{4059FECC-FE9D-5947-9219-570196389DAE}" name="Term Source REF [Biological replicate] (#h; #tNFDI4PSO:0000042)"/>
     <tableColumn id="74" xr3:uid="{E04811ED-EF58-AD4F-84F5-156D9251E904}" name="Term Accession Number [Biological replicate] (#h; #tNFDI4PSO:0000042)"/>
-    <tableColumn id="3" xr3:uid="{6A7FF2B3-5F1E-8245-AC4F-6198097A8123}" name="Characteristics [Organism]" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{6A7FF2B3-5F1E-8245-AC4F-6198097A8123}" name="Characteristics [Organism]" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{CC831F2C-80A0-C84F-829F-23F6C78F2EEB}" name="Term Source REF [Organism] (#h; #tNFDI4PSO:0000030)"/>
     <tableColumn id="5" xr3:uid="{D6E59B6D-D53F-A840-A182-24AE5A460E1D}" name="Term Accession Number [Organism] (#h; #tNFDI4PSO:0000030)"/>
-    <tableColumn id="14" xr3:uid="{000DCCE3-5EF7-4F4E-A82A-AD088FF36730}" name="Characteristics [Genotype]" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{000DCCE3-5EF7-4F4E-A82A-AD088FF36730}" name="Characteristics [Genotype]" dataDxfId="19"/>
     <tableColumn id="15" xr3:uid="{E2A1AEEB-EF2B-F448-824C-2953C18CC24A}" name="Term Source REF [Genotype] (#h; #tNFDI4PSO:0000031)"/>
     <tableColumn id="16" xr3:uid="{A998FE5F-8994-6E40-94FA-F0EF6DC905E4}" name="Term Accession Number [Genotype] (#h; #tNFDI4PSO:0000031)"/>
-    <tableColumn id="17" xr3:uid="{0EB867DC-9BB4-6243-BEE9-01764D9FEB35}" name="Characteristics [Organism part]" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{0EB867DC-9BB4-6243-BEE9-01764D9FEB35}" name="Characteristics [Organism part]" dataDxfId="18"/>
     <tableColumn id="18" xr3:uid="{B0CCF08F-B694-6C4F-94E6-E17AFD4C0A63}" name="Term Source REF [Organism part] (#h; #tNFDI4PSO:0000032)"/>
     <tableColumn id="19" xr3:uid="{6A02A31E-2B72-BE41-BF86-71E587B29D13}" name="Term Accession Number [Organism part] (#h; #tNFDI4PSO:0000032)"/>
-    <tableColumn id="20" xr3:uid="{96C34AC4-65C0-774B-A5A0-1BC98C955028}" name="Characteristics [age]" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{96C34AC4-65C0-774B-A5A0-1BC98C955028}" name="Characteristics [age]" dataDxfId="17"/>
     <tableColumn id="21" xr3:uid="{325D3F43-A306-2F47-AD9C-92F61C0649E5}" name="Term Source REF [age] (#h; #tNFDI4PSO:0000033)"/>
     <tableColumn id="22" xr3:uid="{334AF647-E268-2E41-950D-8973A43E29C8}" name="Term Accession Number [age] (#h; #tNFDI4PSO:0000033)"/>
-    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="14"/>
+    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="16"/>
     <tableColumn id="27" xr3:uid="{5FF2BBBF-350F-9842-8FDF-2F895B07EADF}" name="Term Source REF [study type] (#h; #tPECO:0007231)"/>
     <tableColumn id="28" xr3:uid="{E12790EC-754D-3244-8A7A-1242F7942612}" name="Term Accession Number [study type] (#h; #tPECO:0007231)"/>
-    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="13"/>
+    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="15"/>
     <tableColumn id="24" xr3:uid="{0C19F4A6-F9E8-1F4F-9B61-EB31E6DF451A}" name="Term Source REF [plant growth medium exposure] (#h; #tPECO:0007147)"/>
     <tableColumn id="25" xr3:uid="{7BBED07D-F814-A245-B090-723342B3D631}" name="Term Accession Number [plant growth medium exposure] (#h; #tPECO:0007147)"/>
-    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="12"/>
+    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="14"/>
     <tableColumn id="30" xr3:uid="{86FAE20B-4F89-EE4F-91E6-CE3B7E712F95}" name="Term Source REF [growth plot design] (#h; #tNFDI4PSO:0000001)"/>
     <tableColumn id="31" xr3:uid="{C0949892-595C-9742-BCD1-75134FAC012F}" name="Term Accession Number [growth plot design] (#h; #tNFDI4PSO:0000001)"/>
-    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="11"/>
+    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="13"/>
     <tableColumn id="33" xr3:uid="{4E2448E1-3D08-504C-8FE3-D71B801F4DC9}" name="Term Source REF [Growth day length] (#h; #tNFDI4PSO:0000041)"/>
     <tableColumn id="34" xr3:uid="{D47410BE-0000-B648-8CE5-966EE8968909}" name="Term Accession Number [Growth day length] (#h; #tNFDI4PSO:0000041)"/>
-    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="10"/>
+    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="12"/>
     <tableColumn id="36" xr3:uid="{FD04748E-7F58-4A46-A167-E5EB1375A50B}" name="Term Source REF [light intensity exposure] (#h; #tPECO:0007224)"/>
     <tableColumn id="37" xr3:uid="{D76E6422-DF20-B94A-B5A6-4FD7F7923EBF}" name="Term Accession Number [light intensity exposure] (#h; #tPECO:0007224)"/>
     <tableColumn id="6" xr3:uid="{8E446DD1-817A-E84A-9536-47B88B72BFD8}" name="Unit [microeinstein per square meter per second] (#h; #tUO:0000160; #u)"/>
     <tableColumn id="7" xr3:uid="{BCB29467-6D87-F141-98A0-60243765731F}" name="Term Source REF [microeinstein per square meter per second] (#h; #tUO:0000160; #u)"/>
     <tableColumn id="8" xr3:uid="{D2565EAD-7C86-C343-800D-E37FD463093B}" name="Term Accession Number [microeinstein per square meter per second] (#h; #tUO:0000160; #u)"/>
-    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="9"/>
+    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="11"/>
     <tableColumn id="39" xr3:uid="{8B1D9CC4-6026-674C-9852-06A06365907B}" name="Term Source REF [Humidity Day] (#h; #tNFDI4PSO:0000005)"/>
     <tableColumn id="40" xr3:uid="{8CCA0026-8267-884E-8F9A-369ACCB825EA}" name="Term Accession Number [Humidity Day] (#h; #tNFDI4PSO:0000005)"/>
     <tableColumn id="9" xr3:uid="{9508FD23-5388-F64E-8286-05B533856CA2}" name="Unit [percent] (#h; #tUO:0000187; #u)"/>
     <tableColumn id="10" xr3:uid="{F796BC22-CBE1-6D41-824E-F655C3F9D5B6}" name="Term Source REF [percent] (#h; #tUO:0000187; #u)"/>
     <tableColumn id="11" xr3:uid="{32AC3DD8-82CD-4349-BFD5-0805A34144D8}" name="Term Accession Number [percent] (#h; #tUO:0000187; #u)"/>
-    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="8"/>
+    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="10"/>
     <tableColumn id="42" xr3:uid="{FE26FC08-E3D1-7547-8E20-1363EF47EE86}" name="Term Source REF [Humidity Night] (#h; #tNFDI4PSO:0000006)"/>
     <tableColumn id="43" xr3:uid="{C6D20AF0-60A8-874E-9614-2A2F483EB262}" name="Term Accession Number [Humidity Night] (#h; #tNFDI4PSO:0000006)"/>
     <tableColumn id="12" xr3:uid="{2866C2CF-81B3-694E-B2D9-F69059F54AA2}" name="Unit [percent] (#2; #h; #tUO:0000187; #u)"/>
     <tableColumn id="13" xr3:uid="{A885FE47-7729-3B45-B73D-03FF1F114CD5}" name="Term Source REF [percent] (#2; #h; #tUO:0000187; #u)"/>
     <tableColumn id="65" xr3:uid="{A3AEBB25-5500-F249-866E-C98439259F17}" name="Term Accession Number [percent] (#2; #h; #tUO:0000187; #u)"/>
-    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="7"/>
+    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="9"/>
     <tableColumn id="45" xr3:uid="{23233498-CFC4-9F46-94D5-39E7A6B5AFB5}" name="Term Source REF [Temperature Day] (#h; #tNFDI4PSO:0000007)"/>
     <tableColumn id="46" xr3:uid="{346D483D-D0DE-5140-A015-4AD0367BAD4D}" name="Term Accession Number [Temperature Day] (#h; #tNFDI4PSO:0000007)"/>
     <tableColumn id="66" xr3:uid="{57808D06-1B53-8D41-BEB4-1644A20F7763}" name="Unit [degree Celsius] (#h; #tUO:0000027; #u)"/>
     <tableColumn id="67" xr3:uid="{A7356A0D-0EFD-3D44-9B2F-4566273E79E8}" name="Term Source REF [degree Celsius] (#h; #tUO:0000027; #u)"/>
     <tableColumn id="68" xr3:uid="{AD21FFE5-445B-CB42-B199-FDD8BAD5635D}" name="Term Accession Number [degree Celsius] (#h; #tUO:0000027; #u)"/>
-    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="6"/>
+    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="8"/>
     <tableColumn id="48" xr3:uid="{3A76D4EC-C74F-0A4B-B340-8EF3D8B86ECB}" name="Term Source REF [Temperature Night] (#h; #tNFDI4PSO:0000008)"/>
     <tableColumn id="49" xr3:uid="{87034985-F2AC-A145-AA6A-9EDB63F919F9}" name="Term Accession Number [Temperature Night] (#h; #tNFDI4PSO:0000008)"/>
     <tableColumn id="69" xr3:uid="{6D54D968-A087-944D-BF64-3AC3D5B08F80}" name="Unit [degree Celsius] (#2; #h; #tUO:0000027; #u)"/>
     <tableColumn id="70" xr3:uid="{AE04B49D-BF47-F34B-B52A-752ECD10B8C7}" name="Term Source REF [degree Celsius] (#2; #h; #tUO:0000027; #u)"/>
     <tableColumn id="71" xr3:uid="{2A40040A-D450-EF49-AB82-0CEEB3D8A599}" name="Term Accession Number [degree Celsius] (#2; #h; #tUO:0000027; #u)"/>
-    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="5"/>
+    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="7"/>
     <tableColumn id="51" xr3:uid="{808AA82E-ECE0-AD47-92D3-27D7C93007B7}" name="Term Source REF [watering exposure] (#h; #tPECO:0007383)"/>
     <tableColumn id="52" xr3:uid="{7C45B5F9-759B-E646-A40E-CB5363DF17A8}" name="Term Accession Number [watering exposure] (#h; #tPECO:0007383)"/>
-    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="4"/>
+    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="6"/>
     <tableColumn id="54" xr3:uid="{FD6AD7C0-D253-D04C-8B67-6124B6C5D685}" name="Term Source REF [plant nutrient exposure] (#h; #tPECO:0007241)"/>
     <tableColumn id="55" xr3:uid="{95BC5752-0FFE-8C4E-BFE3-4FED8B72A648}" name="Term Accession Number [plant nutrient exposure] (#h; #tPECO:0007241)"/>
-    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="3"/>
+    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="5"/>
     <tableColumn id="57" xr3:uid="{19EC9032-1152-F940-ADB1-397E054EED4E}" name="Term Source REF [abiotic plant exposure] (#h; #tPECO:0007191)"/>
     <tableColumn id="58" xr3:uid="{40EA0154-215C-C44C-A5D6-852F5DA9A25C}" name="Term Accession Number [abiotic plant exposure] (#h; #tPECO:0007191)"/>
-    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="2"/>
+    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="4"/>
     <tableColumn id="60" xr3:uid="{2836636A-01C7-9C4E-9B41-EE6FEE3D7B80}" name="Term Source REF [biotic plant exposure] (#h; #tPECO:0007357)"/>
     <tableColumn id="61" xr3:uid="{E4A74FCF-2E01-354A-99CE-0602774F8706}" name="Term Accession Number [biotic plant exposure] (#h; #tPECO:0007357)"/>
-    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="1"/>
+    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="3"/>
     <tableColumn id="63" xr3:uid="{D78E63DF-76E2-AE4F-A9AA-86CB096E0FD1}" name="Term Source REF [Time point] (#h; #tNFDI4PSO:0000034)"/>
     <tableColumn id="64" xr3:uid="{4E3E838B-D518-9B41-95E4-AE65DE3C4242}" name="Term Accession Number [Time point] (#h; #tNFDI4PSO:0000034)"/>
+    <tableColumn id="75" xr3:uid="{7FBEC602-6866-EE4C-901B-A620EADE0B55}" name="Parameter [Sample Collection Method]" dataDxfId="2"/>
+    <tableColumn id="76" xr3:uid="{082E37E1-9067-2344-AFED-4C0AB2E6608F}" name="Term Source REF [Sample Collection Method] (#h; #tNFDI4PSO:0000009)"/>
+    <tableColumn id="77" xr3:uid="{23CA10DE-9FDA-A94D-84CF-7C5F7143EE90}" name="Term Accession Number [Sample Collection Method] (#h; #tNFDI4PSO:0000009)"/>
+    <tableColumn id="78" xr3:uid="{DD36BBD7-7DDE-4B4B-B0E7-E088C0737C72}" name="Parameter [Metabolism quenching method]" dataDxfId="1"/>
+    <tableColumn id="79" xr3:uid="{E9A2A827-A7E3-E44F-8034-982633580E8D}" name="Term Source REF [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)"/>
+    <tableColumn id="80" xr3:uid="{ECB588C7-B9C0-8741-BE8A-1CDECCED4ED4}" name="Term Accession Number [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)"/>
+    <tableColumn id="81" xr3:uid="{125431A9-D115-4A4B-A917-1C0A2F361D5C}" name="Parameter [Sample storage]" dataDxfId="0"/>
+    <tableColumn id="82" xr3:uid="{A56F8F05-EAAB-FD40-8F2F-AD66235065C4}" name="Term Source REF [Sample storage] (#h; #tNFDI4PSO:0000011)"/>
+    <tableColumn id="83" xr3:uid="{AB05BD40-EE64-3547-80D7-EDD26BB0F77A}" name="Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -824,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3613D5-BDC4-E141-9C9A-87C99351C8EE}">
-  <dimension ref="A1:BV3"/>
+  <dimension ref="A1:CE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="CC11" sqref="CC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -906,9 +951,18 @@
     <col min="72" max="72" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="52" hidden="1" customWidth="1"/>
     <col min="74" max="74" width="58.1640625" hidden="1" customWidth="1"/>
+    <col min="75" max="75" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="65" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="71.33203125" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="69.1640625" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="75.33203125" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="56.1640625" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="62.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -982,9 +1036,18 @@
       <c r="BS1" s="4"/>
       <c r="BT1" s="4"/>
       <c r="BU1" s="4"/>
-      <c r="BV1" s="2"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="2"/>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1207,8 +1270,35 @@
       <c r="BV2" t="s">
         <v>55</v>
       </c>
+      <c r="BW2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="F3" s="3"/>
       <c r="I3" s="3"/>
@@ -1228,6 +1318,9 @@
       <c r="BN3" s="3"/>
       <c r="BQ3" s="3"/>
       <c r="BT3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CC3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1242,7 +1335,7 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTable" Worksheet="1SPL01_plants">
-    <TableValidation DateTime="2021-03-12 12:14" SwateVersion="0.4.0" TableName="annotationTable" Userlist="" WorksheetName="1SPL01_plants">
+    <TableValidation DateTime="2021-03-12 12:35" SwateVersion="0.4.0" TableName="annotationTable" Userlist="" WorksheetName="1SPL01_plants">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="2" ColumnHeader="Characteristics [Biological replicate]" Importance="3" Unit="None" ValidationFormat="None"/>
@@ -1264,13 +1357,16 @@
       <ColumnValidation ColumnAdress="65" ColumnHeader="Characteristics [abiotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="68" ColumnHeader="Characteristics [biotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="71" ColumnHeader="Characteristics [Time point]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="74" ColumnHeader="Parameter [Sample Collection Method]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="77" ColumnHeader="Parameter [Metabolism quenching method]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="80" ColumnHeader="Parameter [Sample storage]" Importance="4" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68619077-37D4-FC49-BBDD-765B5130B077}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74E0AF51-2E13-E446-923D-1EB873710435}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C08CDD-8C93-3143-98B0-46F198483705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBFFF0D-D095-DD45-957C-F8CE56F4AB2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="12500" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Source Name</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)</t>
+  </si>
+  <si>
+    <t>This is a test</t>
   </si>
 </sst>
 </file>
@@ -869,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3613D5-BDC4-E141-9C9A-87C99351C8EE}">
-  <dimension ref="A1:CE3"/>
+  <dimension ref="A1:CE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="CC11" sqref="CC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1322,6 +1325,11 @@
       <c r="BZ3" s="3"/>
       <c r="CC3" s="3"/>
     </row>
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBFFF0D-D095-DD45-957C-F8CE56F4AB2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0174028-AAC3-FA49-A84C-99FFA2439084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="12500" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Source Name</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>This is a test</t>
+  </si>
+  <si>
+    <t>Parameter [ThisIsATest]</t>
+  </si>
+  <si>
+    <t>Term Source REF [ThisIsATest] (#h)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [ThisIsATest] (#h)</t>
   </si>
 </sst>
 </file>
@@ -385,7 +394,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -466,92 +478,95 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="A2:CE3" totalsRowShown="0">
-  <autoFilter ref="A2:CE3" xr:uid="{8A7F28C9-E08B-8A4D-99FD-3313667921ED}"/>
-  <tableColumns count="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="A2:CH3" totalsRowShown="0">
+  <autoFilter ref="A2:CH3" xr:uid="{8A7F28C9-E08B-8A4D-99FD-3313667921ED}"/>
+  <tableColumns count="86">
     <tableColumn id="1" xr3:uid="{9B8F9057-2F20-7A45-8C27-9A36422B26D5}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{CC93B5FA-49F4-9B4C-B1F6-452471229F30}" name="Sample Name"/>
-    <tableColumn id="72" xr3:uid="{A33FCD3B-AD29-A742-9D63-6ECAFBEE068E}" name="Characteristics [Biological replicate]" dataDxfId="21"/>
+    <tableColumn id="72" xr3:uid="{A33FCD3B-AD29-A742-9D63-6ECAFBEE068E}" name="Characteristics [Biological replicate]" dataDxfId="22"/>
     <tableColumn id="73" xr3:uid="{4059FECC-FE9D-5947-9219-570196389DAE}" name="Term Source REF [Biological replicate] (#h; #tNFDI4PSO:0000042)"/>
     <tableColumn id="74" xr3:uid="{E04811ED-EF58-AD4F-84F5-156D9251E904}" name="Term Accession Number [Biological replicate] (#h; #tNFDI4PSO:0000042)"/>
-    <tableColumn id="3" xr3:uid="{6A7FF2B3-5F1E-8245-AC4F-6198097A8123}" name="Characteristics [Organism]" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{6A7FF2B3-5F1E-8245-AC4F-6198097A8123}" name="Characteristics [Organism]" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{CC831F2C-80A0-C84F-829F-23F6C78F2EEB}" name="Term Source REF [Organism] (#h; #tNFDI4PSO:0000030)"/>
     <tableColumn id="5" xr3:uid="{D6E59B6D-D53F-A840-A182-24AE5A460E1D}" name="Term Accession Number [Organism] (#h; #tNFDI4PSO:0000030)"/>
-    <tableColumn id="14" xr3:uid="{000DCCE3-5EF7-4F4E-A82A-AD088FF36730}" name="Characteristics [Genotype]" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{000DCCE3-5EF7-4F4E-A82A-AD088FF36730}" name="Characteristics [Genotype]" dataDxfId="20"/>
     <tableColumn id="15" xr3:uid="{E2A1AEEB-EF2B-F448-824C-2953C18CC24A}" name="Term Source REF [Genotype] (#h; #tNFDI4PSO:0000031)"/>
     <tableColumn id="16" xr3:uid="{A998FE5F-8994-6E40-94FA-F0EF6DC905E4}" name="Term Accession Number [Genotype] (#h; #tNFDI4PSO:0000031)"/>
-    <tableColumn id="17" xr3:uid="{0EB867DC-9BB4-6243-BEE9-01764D9FEB35}" name="Characteristics [Organism part]" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{0EB867DC-9BB4-6243-BEE9-01764D9FEB35}" name="Characteristics [Organism part]" dataDxfId="19"/>
     <tableColumn id="18" xr3:uid="{B0CCF08F-B694-6C4F-94E6-E17AFD4C0A63}" name="Term Source REF [Organism part] (#h; #tNFDI4PSO:0000032)"/>
     <tableColumn id="19" xr3:uid="{6A02A31E-2B72-BE41-BF86-71E587B29D13}" name="Term Accession Number [Organism part] (#h; #tNFDI4PSO:0000032)"/>
-    <tableColumn id="20" xr3:uid="{96C34AC4-65C0-774B-A5A0-1BC98C955028}" name="Characteristics [age]" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{96C34AC4-65C0-774B-A5A0-1BC98C955028}" name="Characteristics [age]" dataDxfId="18"/>
     <tableColumn id="21" xr3:uid="{325D3F43-A306-2F47-AD9C-92F61C0649E5}" name="Term Source REF [age] (#h; #tNFDI4PSO:0000033)"/>
     <tableColumn id="22" xr3:uid="{334AF647-E268-2E41-950D-8973A43E29C8}" name="Term Accession Number [age] (#h; #tNFDI4PSO:0000033)"/>
-    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="16"/>
+    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="17"/>
     <tableColumn id="27" xr3:uid="{5FF2BBBF-350F-9842-8FDF-2F895B07EADF}" name="Term Source REF [study type] (#h; #tPECO:0007231)"/>
     <tableColumn id="28" xr3:uid="{E12790EC-754D-3244-8A7A-1242F7942612}" name="Term Accession Number [study type] (#h; #tPECO:0007231)"/>
-    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="16"/>
     <tableColumn id="24" xr3:uid="{0C19F4A6-F9E8-1F4F-9B61-EB31E6DF451A}" name="Term Source REF [plant growth medium exposure] (#h; #tPECO:0007147)"/>
     <tableColumn id="25" xr3:uid="{7BBED07D-F814-A245-B090-723342B3D631}" name="Term Accession Number [plant growth medium exposure] (#h; #tPECO:0007147)"/>
-    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="15"/>
     <tableColumn id="30" xr3:uid="{86FAE20B-4F89-EE4F-91E6-CE3B7E712F95}" name="Term Source REF [growth plot design] (#h; #tNFDI4PSO:0000001)"/>
     <tableColumn id="31" xr3:uid="{C0949892-595C-9742-BCD1-75134FAC012F}" name="Term Accession Number [growth plot design] (#h; #tNFDI4PSO:0000001)"/>
-    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="14"/>
     <tableColumn id="33" xr3:uid="{4E2448E1-3D08-504C-8FE3-D71B801F4DC9}" name="Term Source REF [Growth day length] (#h; #tNFDI4PSO:0000041)"/>
     <tableColumn id="34" xr3:uid="{D47410BE-0000-B648-8CE5-966EE8968909}" name="Term Accession Number [Growth day length] (#h; #tNFDI4PSO:0000041)"/>
-    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="12"/>
+    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="13"/>
     <tableColumn id="36" xr3:uid="{FD04748E-7F58-4A46-A167-E5EB1375A50B}" name="Term Source REF [light intensity exposure] (#h; #tPECO:0007224)"/>
     <tableColumn id="37" xr3:uid="{D76E6422-DF20-B94A-B5A6-4FD7F7923EBF}" name="Term Accession Number [light intensity exposure] (#h; #tPECO:0007224)"/>
     <tableColumn id="6" xr3:uid="{8E446DD1-817A-E84A-9536-47B88B72BFD8}" name="Unit [microeinstein per square meter per second] (#h; #tUO:0000160; #u)"/>
     <tableColumn id="7" xr3:uid="{BCB29467-6D87-F141-98A0-60243765731F}" name="Term Source REF [microeinstein per square meter per second] (#h; #tUO:0000160; #u)"/>
     <tableColumn id="8" xr3:uid="{D2565EAD-7C86-C343-800D-E37FD463093B}" name="Term Accession Number [microeinstein per square meter per second] (#h; #tUO:0000160; #u)"/>
-    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="11"/>
+    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="12"/>
     <tableColumn id="39" xr3:uid="{8B1D9CC4-6026-674C-9852-06A06365907B}" name="Term Source REF [Humidity Day] (#h; #tNFDI4PSO:0000005)"/>
     <tableColumn id="40" xr3:uid="{8CCA0026-8267-884E-8F9A-369ACCB825EA}" name="Term Accession Number [Humidity Day] (#h; #tNFDI4PSO:0000005)"/>
     <tableColumn id="9" xr3:uid="{9508FD23-5388-F64E-8286-05B533856CA2}" name="Unit [percent] (#h; #tUO:0000187; #u)"/>
     <tableColumn id="10" xr3:uid="{F796BC22-CBE1-6D41-824E-F655C3F9D5B6}" name="Term Source REF [percent] (#h; #tUO:0000187; #u)"/>
     <tableColumn id="11" xr3:uid="{32AC3DD8-82CD-4349-BFD5-0805A34144D8}" name="Term Accession Number [percent] (#h; #tUO:0000187; #u)"/>
-    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="10"/>
+    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="11"/>
     <tableColumn id="42" xr3:uid="{FE26FC08-E3D1-7547-8E20-1363EF47EE86}" name="Term Source REF [Humidity Night] (#h; #tNFDI4PSO:0000006)"/>
     <tableColumn id="43" xr3:uid="{C6D20AF0-60A8-874E-9614-2A2F483EB262}" name="Term Accession Number [Humidity Night] (#h; #tNFDI4PSO:0000006)"/>
     <tableColumn id="12" xr3:uid="{2866C2CF-81B3-694E-B2D9-F69059F54AA2}" name="Unit [percent] (#2; #h; #tUO:0000187; #u)"/>
     <tableColumn id="13" xr3:uid="{A885FE47-7729-3B45-B73D-03FF1F114CD5}" name="Term Source REF [percent] (#2; #h; #tUO:0000187; #u)"/>
     <tableColumn id="65" xr3:uid="{A3AEBB25-5500-F249-866E-C98439259F17}" name="Term Accession Number [percent] (#2; #h; #tUO:0000187; #u)"/>
-    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="9"/>
+    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="10"/>
     <tableColumn id="45" xr3:uid="{23233498-CFC4-9F46-94D5-39E7A6B5AFB5}" name="Term Source REF [Temperature Day] (#h; #tNFDI4PSO:0000007)"/>
     <tableColumn id="46" xr3:uid="{346D483D-D0DE-5140-A015-4AD0367BAD4D}" name="Term Accession Number [Temperature Day] (#h; #tNFDI4PSO:0000007)"/>
     <tableColumn id="66" xr3:uid="{57808D06-1B53-8D41-BEB4-1644A20F7763}" name="Unit [degree Celsius] (#h; #tUO:0000027; #u)"/>
     <tableColumn id="67" xr3:uid="{A7356A0D-0EFD-3D44-9B2F-4566273E79E8}" name="Term Source REF [degree Celsius] (#h; #tUO:0000027; #u)"/>
     <tableColumn id="68" xr3:uid="{AD21FFE5-445B-CB42-B199-FDD8BAD5635D}" name="Term Accession Number [degree Celsius] (#h; #tUO:0000027; #u)"/>
-    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="8"/>
+    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="9"/>
     <tableColumn id="48" xr3:uid="{3A76D4EC-C74F-0A4B-B340-8EF3D8B86ECB}" name="Term Source REF [Temperature Night] (#h; #tNFDI4PSO:0000008)"/>
     <tableColumn id="49" xr3:uid="{87034985-F2AC-A145-AA6A-9EDB63F919F9}" name="Term Accession Number [Temperature Night] (#h; #tNFDI4PSO:0000008)"/>
     <tableColumn id="69" xr3:uid="{6D54D968-A087-944D-BF64-3AC3D5B08F80}" name="Unit [degree Celsius] (#2; #h; #tUO:0000027; #u)"/>
     <tableColumn id="70" xr3:uid="{AE04B49D-BF47-F34B-B52A-752ECD10B8C7}" name="Term Source REF [degree Celsius] (#2; #h; #tUO:0000027; #u)"/>
     <tableColumn id="71" xr3:uid="{2A40040A-D450-EF49-AB82-0CEEB3D8A599}" name="Term Accession Number [degree Celsius] (#2; #h; #tUO:0000027; #u)"/>
-    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="7"/>
+    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="8"/>
     <tableColumn id="51" xr3:uid="{808AA82E-ECE0-AD47-92D3-27D7C93007B7}" name="Term Source REF [watering exposure] (#h; #tPECO:0007383)"/>
     <tableColumn id="52" xr3:uid="{7C45B5F9-759B-E646-A40E-CB5363DF17A8}" name="Term Accession Number [watering exposure] (#h; #tPECO:0007383)"/>
-    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="6"/>
+    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="7"/>
     <tableColumn id="54" xr3:uid="{FD6AD7C0-D253-D04C-8B67-6124B6C5D685}" name="Term Source REF [plant nutrient exposure] (#h; #tPECO:0007241)"/>
     <tableColumn id="55" xr3:uid="{95BC5752-0FFE-8C4E-BFE3-4FED8B72A648}" name="Term Accession Number [plant nutrient exposure] (#h; #tPECO:0007241)"/>
-    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="5"/>
+    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="6"/>
     <tableColumn id="57" xr3:uid="{19EC9032-1152-F940-ADB1-397E054EED4E}" name="Term Source REF [abiotic plant exposure] (#h; #tPECO:0007191)"/>
     <tableColumn id="58" xr3:uid="{40EA0154-215C-C44C-A5D6-852F5DA9A25C}" name="Term Accession Number [abiotic plant exposure] (#h; #tPECO:0007191)"/>
-    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="4"/>
+    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="5"/>
     <tableColumn id="60" xr3:uid="{2836636A-01C7-9C4E-9B41-EE6FEE3D7B80}" name="Term Source REF [biotic plant exposure] (#h; #tPECO:0007357)"/>
     <tableColumn id="61" xr3:uid="{E4A74FCF-2E01-354A-99CE-0602774F8706}" name="Term Accession Number [biotic plant exposure] (#h; #tPECO:0007357)"/>
-    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="3"/>
+    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="4"/>
     <tableColumn id="63" xr3:uid="{D78E63DF-76E2-AE4F-A9AA-86CB096E0FD1}" name="Term Source REF [Time point] (#h; #tNFDI4PSO:0000034)"/>
     <tableColumn id="64" xr3:uid="{4E3E838B-D518-9B41-95E4-AE65DE3C4242}" name="Term Accession Number [Time point] (#h; #tNFDI4PSO:0000034)"/>
-    <tableColumn id="75" xr3:uid="{7FBEC602-6866-EE4C-901B-A620EADE0B55}" name="Parameter [Sample Collection Method]" dataDxfId="2"/>
+    <tableColumn id="75" xr3:uid="{7FBEC602-6866-EE4C-901B-A620EADE0B55}" name="Parameter [Sample Collection Method]" dataDxfId="3"/>
     <tableColumn id="76" xr3:uid="{082E37E1-9067-2344-AFED-4C0AB2E6608F}" name="Term Source REF [Sample Collection Method] (#h; #tNFDI4PSO:0000009)"/>
     <tableColumn id="77" xr3:uid="{23CA10DE-9FDA-A94D-84CF-7C5F7143EE90}" name="Term Accession Number [Sample Collection Method] (#h; #tNFDI4PSO:0000009)"/>
-    <tableColumn id="78" xr3:uid="{DD36BBD7-7DDE-4B4B-B0E7-E088C0737C72}" name="Parameter [Metabolism quenching method]" dataDxfId="1"/>
+    <tableColumn id="78" xr3:uid="{DD36BBD7-7DDE-4B4B-B0E7-E088C0737C72}" name="Parameter [Metabolism quenching method]" dataDxfId="2"/>
     <tableColumn id="79" xr3:uid="{E9A2A827-A7E3-E44F-8034-982633580E8D}" name="Term Source REF [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)"/>
     <tableColumn id="80" xr3:uid="{ECB588C7-B9C0-8741-BE8A-1CDECCED4ED4}" name="Term Accession Number [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)"/>
-    <tableColumn id="81" xr3:uid="{125431A9-D115-4A4B-A917-1C0A2F361D5C}" name="Parameter [Sample storage]" dataDxfId="0"/>
+    <tableColumn id="81" xr3:uid="{125431A9-D115-4A4B-A917-1C0A2F361D5C}" name="Parameter [Sample storage]" dataDxfId="1"/>
     <tableColumn id="82" xr3:uid="{A56F8F05-EAAB-FD40-8F2F-AD66235065C4}" name="Term Source REF [Sample storage] (#h; #tNFDI4PSO:0000011)"/>
     <tableColumn id="83" xr3:uid="{AB05BD40-EE64-3547-80D7-EDD26BB0F77A}" name="Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)"/>
+    <tableColumn id="84" xr3:uid="{B5209691-29B5-3B4A-BA79-AEAF67B03ACF}" name="Parameter [ThisIsATest]" dataDxfId="0"/>
+    <tableColumn id="85" xr3:uid="{023E05C5-AC7C-864E-9712-2A648CA415E6}" name="Term Source REF [ThisIsATest] (#h)"/>
+    <tableColumn id="86" xr3:uid="{8B222B87-3F15-ED42-A0B1-C770CDC868BE}" name="Term Accession Number [ThisIsATest] (#h)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -872,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3613D5-BDC4-E141-9C9A-87C99351C8EE}">
-  <dimension ref="A1:CE10"/>
+  <dimension ref="A1:CH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="CC13" sqref="CC13:CC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,9 +978,12 @@
     <col min="81" max="81" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="56.1640625" hidden="1" customWidth="1"/>
     <col min="83" max="83" width="62.33203125" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="33.1640625" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="39.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1048,9 +1066,12 @@
       <c r="CB1" s="4"/>
       <c r="CC1" s="4"/>
       <c r="CD1" s="4"/>
-      <c r="CE1" s="2"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="2"/>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1300,8 +1321,17 @@
       <c r="CE2" t="s">
         <v>82</v>
       </c>
+      <c r="CF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="F3" s="3"/>
       <c r="I3" s="3"/>
@@ -1324,8 +1354,9 @@
       <c r="BW3" s="3"/>
       <c r="BZ3" s="3"/>
       <c r="CC3" s="3"/>
+      <c r="CF3" s="3"/>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0174028-AAC3-FA49-A84C-99FFA2439084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5982205E-232C-5A4B-879D-B5BAA251A942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-25000" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>Source Name</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)</t>
   </si>
   <si>
-    <t>This is a test</t>
-  </si>
-  <si>
     <t>Parameter [ThisIsATest]</t>
   </si>
   <si>
@@ -286,6 +283,12 @@
   </si>
   <si>
     <t>Term Accession Number [ThisIsATest] (#h)</t>
+  </si>
+  <si>
+    <t>SWATE annotation table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a test </t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,6 +318,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -372,10 +390,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,9 +410,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{13734DA0-054A-9F4C-97D4-CA0666BA285F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{EA6456B1-9345-674B-83C0-73CFBFB7004A}"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
@@ -478,8 +503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="A2:CH3" totalsRowShown="0">
-  <autoFilter ref="A2:CH3" xr:uid="{8A7F28C9-E08B-8A4D-99FD-3313667921ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="C2:CJ3" totalsRowShown="0">
+  <autoFilter ref="C2:CJ3" xr:uid="{8A7F28C9-E08B-8A4D-99FD-3313667921ED}"/>
   <tableColumns count="86">
     <tableColumn id="1" xr3:uid="{9B8F9057-2F20-7A45-8C27-9A36422B26D5}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{CC93B5FA-49F4-9B4C-B1F6-452471229F30}" name="Sample Name"/>
@@ -887,106 +912,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3613D5-BDC4-E141-9C9A-87C99351C8EE}">
-  <dimension ref="A1:CH10"/>
+  <dimension ref="A1:CJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="CC13" sqref="CC13:CC14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="65.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="57.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="57.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="55.1640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="61.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="52.1640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="53.6640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="65.33203125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="71.5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="58.6640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="64.83203125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="58.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="64.83203125" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="58.5" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="64.6640625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="65.5" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="76.33203125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="82.5" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="54.6640625" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="61" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="35.5" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="46.33203125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="52.5" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="56" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="62.1640625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="38.5" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="49.33203125" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="55.6640625" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="57.83203125" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="64" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="41.33203125" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="52.1640625" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="58.33203125" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="59" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="65.33203125" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="44.33203125" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="55.33203125" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="61.5" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="54.33203125" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="60.6640625" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="58.33203125" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="64.5" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="57.33203125" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="63.5" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="56.33203125" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="62.5" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="52" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="58.1640625" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="65" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="71.33203125" hidden="1" customWidth="1"/>
-    <col min="78" max="78" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="69.1640625" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="75.33203125" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="56.1640625" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="62.33203125" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="33.1640625" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="39.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="65.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="57.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.1640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="57.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="55.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="61.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="52.1640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.5" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="53.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="65.33203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="71.5" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="64.83203125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="64.83203125" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="58.5" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="64.6640625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="65.5" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="76.33203125" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="82.5" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="54.6640625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="61" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="35.5" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="46.33203125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="52.5" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="56" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="62.1640625" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="38.5" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="49.33203125" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="55.6640625" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="57.83203125" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="64" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="41.33203125" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="52.1640625" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="58.33203125" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="59" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="65.33203125" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="44.33203125" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="55.33203125" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="61.5" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="54.33203125" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="60.6640625" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="58.33203125" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="64.5" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="57.33203125" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="63.5" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="56.33203125" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="62.5" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="52" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="58.1640625" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="65" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="71.33203125" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="69.1640625" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="75.33203125" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="56.1640625" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="62.33203125" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="33.1640625" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="39.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1069,296 +1098,306 @@
       <c r="CE1" s="4"/>
       <c r="CF1" s="4"/>
       <c r="CG1" s="4"/>
-      <c r="CH1" s="2"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="2"/>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>16</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>59</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>60</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>32</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>33</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>34</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>62</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>63</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>64</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>35</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>36</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>37</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>65</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>66</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>67</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>38</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>39</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>40</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>68</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>69</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>70</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" t="s">
         <v>41</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>42</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BL2" t="s">
         <v>43</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BM2" t="s">
         <v>44</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BN2" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BO2" t="s">
         <v>46</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BP2" t="s">
         <v>47</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BQ2" t="s">
         <v>48</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
         <v>49</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BS2" t="s">
         <v>50</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BT2" t="s">
         <v>51</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BU2" t="s">
         <v>52</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BV2" t="s">
         <v>53</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BW2" t="s">
         <v>54</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BX2" t="s">
         <v>55</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BY2" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BZ2" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CA2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CB2" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CC2" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CD2" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CE2" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CF2" t="s">
         <v>81</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CG2" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CH2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI2" t="s">
         <v>84</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CJ2" t="s">
         <v>85</v>
       </c>
-      <c r="CH2" t="s">
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="B3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AF3" s="5"/>
+      <c r="AL3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AX3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BJ3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CH3" s="3"/>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AD3" s="5"/>
-      <c r="AJ3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AV3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BH3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BT3" s="3"/>
-      <c r="BW3" s="3"/>
-      <c r="BZ3" s="3"/>
-      <c r="CC3" s="3"/>
-      <c r="CF3" s="3"/>
-    </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>83</v>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A050A96-C1EB-284A-B4B8-7C0B1EDAF26E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566F1BD4-521B-DC47-B013-D7ABB890A444}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25940" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-25900" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -2085,7 +2085,7 @@
   <dimension ref="A1:CK71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555FE9F5-70B4-0346-9E6B-4AB19DCE193F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70074A93-05AC-1048-BC98-B2BBCCF6FCCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25900" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{F6B686F7-5A0C-0946-9A32-03596DAB1E5D}">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{F6B686F7-5A0C-0946-9A32-03596DAB1E5D}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="223">
   <si>
     <t>Source Name</t>
   </si>
@@ -685,9 +685,6 @@
     <t>ER target term</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>ER Pipeline: MetaboLights - Metabolomics - Plants</t>
   </si>
   <si>
@@ -827,6 +824,12 @@
   </si>
   <si>
     <t>ER requirement (cv/m/o/n)</t>
+  </si>
+  <si>
+    <t>User instruction</t>
+  </si>
+  <si>
+    <t>Additional information</t>
   </si>
 </sst>
 </file>
@@ -1151,20 +1154,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1733,6 +1722,20 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1777,92 +1780,92 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="C2:CG3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="C2:CG3" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="C2:CG3" xr:uid="{8A7F28C9-E08B-8A4D-99FD-3313667921ED}"/>
   <tableColumns count="83">
-    <tableColumn id="1" xr3:uid="{9B8F9057-2F20-7A45-8C27-9A36422B26D5}" name="Source Name" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{CC93B5FA-49F4-9B4C-B1F6-452471229F30}" name="Sample Name" dataDxfId="83"/>
-    <tableColumn id="72" xr3:uid="{A33FCD3B-AD29-A742-9D63-6ECAFBEE068E}" name="Characteristics [Biological replicate]" dataDxfId="82"/>
-    <tableColumn id="73" xr3:uid="{4059FECC-FE9D-5947-9219-570196389DAE}" name="Term Source REF [Biological replicate] (#h; #tNFDI4PSO:0000042)" dataDxfId="81"/>
-    <tableColumn id="74" xr3:uid="{E04811ED-EF58-AD4F-84F5-156D9251E904}" name="Term Accession Number [Biological replicate] (#h; #tNFDI4PSO:0000042)" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{6A7FF2B3-5F1E-8245-AC4F-6198097A8123}" name="Characteristics [Organism]" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{CC831F2C-80A0-C84F-829F-23F6C78F2EEB}" name="Term Source REF [Organism] (#h; #tNFDI4PSO:0000030)" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{D6E59B6D-D53F-A840-A182-24AE5A460E1D}" name="Term Accession Number [Organism] (#h; #tNFDI4PSO:0000030)" dataDxfId="77"/>
-    <tableColumn id="14" xr3:uid="{000DCCE3-5EF7-4F4E-A82A-AD088FF36730}" name="Characteristics [Genotype]" dataDxfId="76"/>
-    <tableColumn id="15" xr3:uid="{E2A1AEEB-EF2B-F448-824C-2953C18CC24A}" name="Term Source REF [Genotype] (#h; #tNFDI4PSO:0000031)" dataDxfId="75"/>
-    <tableColumn id="16" xr3:uid="{A998FE5F-8994-6E40-94FA-F0EF6DC905E4}" name="Term Accession Number [Genotype] (#h; #tNFDI4PSO:0000031)" dataDxfId="74"/>
-    <tableColumn id="17" xr3:uid="{0EB867DC-9BB4-6243-BEE9-01764D9FEB35}" name="Characteristics [Organism part]" dataDxfId="73"/>
-    <tableColumn id="18" xr3:uid="{B0CCF08F-B694-6C4F-94E6-E17AFD4C0A63}" name="Term Source REF [Organism part] (#h; #tNFDI4PSO:0000032)" dataDxfId="72"/>
-    <tableColumn id="19" xr3:uid="{6A02A31E-2B72-BE41-BF86-71E587B29D13}" name="Term Accession Number [Organism part] (#h; #tNFDI4PSO:0000032)" dataDxfId="71"/>
-    <tableColumn id="20" xr3:uid="{96C34AC4-65C0-774B-A5A0-1BC98C955028}" name="Characteristics [age]" dataDxfId="70"/>
-    <tableColumn id="21" xr3:uid="{325D3F43-A306-2F47-AD9C-92F61C0649E5}" name="Term Source REF [age] (#h; #tNFDI4PSO:0000033)" dataDxfId="69"/>
-    <tableColumn id="22" xr3:uid="{334AF647-E268-2E41-950D-8973A43E29C8}" name="Term Accession Number [age] (#h; #tNFDI4PSO:0000033)" dataDxfId="68"/>
-    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="67"/>
-    <tableColumn id="27" xr3:uid="{5FF2BBBF-350F-9842-8FDF-2F895B07EADF}" name="Term Source REF [study type] (#h; #tPECO:0007231)" dataDxfId="66"/>
-    <tableColumn id="28" xr3:uid="{E12790EC-754D-3244-8A7A-1242F7942612}" name="Term Accession Number [study type] (#h; #tPECO:0007231)" dataDxfId="65"/>
-    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="64"/>
-    <tableColumn id="24" xr3:uid="{0C19F4A6-F9E8-1F4F-9B61-EB31E6DF451A}" name="Term Source REF [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="63"/>
-    <tableColumn id="25" xr3:uid="{7BBED07D-F814-A245-B090-723342B3D631}" name="Term Accession Number [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="62"/>
-    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="61"/>
-    <tableColumn id="30" xr3:uid="{86FAE20B-4F89-EE4F-91E6-CE3B7E712F95}" name="Term Source REF [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="60"/>
-    <tableColumn id="31" xr3:uid="{C0949892-595C-9742-BCD1-75134FAC012F}" name="Term Accession Number [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="59"/>
-    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="58"/>
-    <tableColumn id="33" xr3:uid="{4E2448E1-3D08-504C-8FE3-D71B801F4DC9}" name="Term Source REF [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="57"/>
-    <tableColumn id="34" xr3:uid="{D47410BE-0000-B648-8CE5-966EE8968909}" name="Term Accession Number [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="56"/>
-    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="55"/>
-    <tableColumn id="36" xr3:uid="{FD04748E-7F58-4A46-A167-E5EB1375A50B}" name="Term Source REF [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="54"/>
-    <tableColumn id="37" xr3:uid="{D76E6422-DF20-B94A-B5A6-4FD7F7923EBF}" name="Term Accession Number [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{8E446DD1-817A-E84A-9536-47B88B72BFD8}" name="Unit [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{BCB29467-6D87-F141-98A0-60243765731F}" name="Term Source REF [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{D2565EAD-7C86-C343-800D-E37FD463093B}" name="Term Accession Number [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="50"/>
-    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="49"/>
-    <tableColumn id="39" xr3:uid="{8B1D9CC4-6026-674C-9852-06A06365907B}" name="Term Source REF [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="48"/>
-    <tableColumn id="40" xr3:uid="{8CCA0026-8267-884E-8F9A-369ACCB825EA}" name="Term Accession Number [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{9508FD23-5388-F64E-8286-05B533856CA2}" name="Unit [percent] (#h; #tUO:0000187; #u)" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{F796BC22-CBE1-6D41-824E-F655C3F9D5B6}" name="Term Source REF [percent] (#h; #tUO:0000187; #u)" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{32AC3DD8-82CD-4349-BFD5-0805A34144D8}" name="Term Accession Number [percent] (#h; #tUO:0000187; #u)" dataDxfId="44"/>
-    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="43"/>
-    <tableColumn id="42" xr3:uid="{FE26FC08-E3D1-7547-8E20-1363EF47EE86}" name="Term Source REF [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="42"/>
-    <tableColumn id="43" xr3:uid="{C6D20AF0-60A8-874E-9614-2A2F483EB262}" name="Term Accession Number [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{2866C2CF-81B3-694E-B2D9-F69059F54AA2}" name="Unit [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{A885FE47-7729-3B45-B73D-03FF1F114CD5}" name="Term Source REF [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="39"/>
-    <tableColumn id="65" xr3:uid="{A3AEBB25-5500-F249-866E-C98439259F17}" name="Term Accession Number [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="38"/>
-    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="37"/>
-    <tableColumn id="45" xr3:uid="{23233498-CFC4-9F46-94D5-39E7A6B5AFB5}" name="Term Source REF [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="36"/>
-    <tableColumn id="46" xr3:uid="{346D483D-D0DE-5140-A015-4AD0367BAD4D}" name="Term Accession Number [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="35"/>
-    <tableColumn id="66" xr3:uid="{57808D06-1B53-8D41-BEB4-1644A20F7763}" name="Unit [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="34"/>
-    <tableColumn id="67" xr3:uid="{A7356A0D-0EFD-3D44-9B2F-4566273E79E8}" name="Term Source REF [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="33"/>
-    <tableColumn id="68" xr3:uid="{AD21FFE5-445B-CB42-B199-FDD8BAD5635D}" name="Term Accession Number [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="32"/>
-    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="31"/>
-    <tableColumn id="48" xr3:uid="{3A76D4EC-C74F-0A4B-B340-8EF3D8B86ECB}" name="Term Source REF [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="30"/>
-    <tableColumn id="49" xr3:uid="{87034985-F2AC-A145-AA6A-9EDB63F919F9}" name="Term Accession Number [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="29"/>
-    <tableColumn id="69" xr3:uid="{6D54D968-A087-944D-BF64-3AC3D5B08F80}" name="Unit [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="28"/>
-    <tableColumn id="70" xr3:uid="{AE04B49D-BF47-F34B-B52A-752ECD10B8C7}" name="Term Source REF [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="27"/>
-    <tableColumn id="71" xr3:uid="{2A40040A-D450-EF49-AB82-0CEEB3D8A599}" name="Term Accession Number [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="26"/>
-    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="25"/>
-    <tableColumn id="51" xr3:uid="{808AA82E-ECE0-AD47-92D3-27D7C93007B7}" name="Term Source REF [watering exposure] (#h; #tPECO:0007383)" dataDxfId="24"/>
-    <tableColumn id="52" xr3:uid="{7C45B5F9-759B-E646-A40E-CB5363DF17A8}" name="Term Accession Number [watering exposure] (#h; #tPECO:0007383)" dataDxfId="23"/>
-    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="22"/>
-    <tableColumn id="54" xr3:uid="{FD6AD7C0-D253-D04C-8B67-6124B6C5D685}" name="Term Source REF [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="21"/>
-    <tableColumn id="55" xr3:uid="{95BC5752-0FFE-8C4E-BFE3-4FED8B72A648}" name="Term Accession Number [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="20"/>
-    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="19"/>
-    <tableColumn id="57" xr3:uid="{19EC9032-1152-F940-ADB1-397E054EED4E}" name="Term Source REF [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="18"/>
-    <tableColumn id="58" xr3:uid="{40EA0154-215C-C44C-A5D6-852F5DA9A25C}" name="Term Accession Number [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="17"/>
-    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="16"/>
-    <tableColumn id="60" xr3:uid="{2836636A-01C7-9C4E-9B41-EE6FEE3D7B80}" name="Term Source REF [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="15"/>
-    <tableColumn id="61" xr3:uid="{E4A74FCF-2E01-354A-99CE-0602774F8706}" name="Term Accession Number [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="14"/>
-    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="13"/>
-    <tableColumn id="63" xr3:uid="{D78E63DF-76E2-AE4F-A9AA-86CB096E0FD1}" name="Term Source REF [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="12"/>
-    <tableColumn id="64" xr3:uid="{4E3E838B-D518-9B41-95E4-AE65DE3C4242}" name="Term Accession Number [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="11"/>
-    <tableColumn id="75" xr3:uid="{7FBEC602-6866-EE4C-901B-A620EADE0B55}" name="Parameter [Sample Collection Method]" dataDxfId="10"/>
-    <tableColumn id="76" xr3:uid="{082E37E1-9067-2344-AFED-4C0AB2E6608F}" name="Term Source REF [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="9"/>
-    <tableColumn id="77" xr3:uid="{23CA10DE-9FDA-A94D-84CF-7C5F7143EE90}" name="Term Accession Number [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="8"/>
-    <tableColumn id="78" xr3:uid="{DD36BBD7-7DDE-4B4B-B0E7-E088C0737C72}" name="Parameter [Metabolism quenching method]" dataDxfId="7"/>
-    <tableColumn id="79" xr3:uid="{E9A2A827-A7E3-E44F-8034-982633580E8D}" name="Term Source REF [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="6"/>
-    <tableColumn id="80" xr3:uid="{ECB588C7-B9C0-8741-BE8A-1CDECCED4ED4}" name="Term Accession Number [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="5"/>
-    <tableColumn id="81" xr3:uid="{125431A9-D115-4A4B-A917-1C0A2F361D5C}" name="Parameter [Sample storage]" dataDxfId="4"/>
-    <tableColumn id="82" xr3:uid="{A56F8F05-EAAB-FD40-8F2F-AD66235065C4}" name="Term Source REF [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="3"/>
-    <tableColumn id="83" xr3:uid="{AB05BD40-EE64-3547-80D7-EDD26BB0F77A}" name="Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9B8F9057-2F20-7A45-8C27-9A36422B26D5}" name="Source Name" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{CC93B5FA-49F4-9B4C-B1F6-452471229F30}" name="Sample Name" dataDxfId="81"/>
+    <tableColumn id="72" xr3:uid="{A33FCD3B-AD29-A742-9D63-6ECAFBEE068E}" name="Characteristics [Biological replicate]" dataDxfId="80"/>
+    <tableColumn id="73" xr3:uid="{4059FECC-FE9D-5947-9219-570196389DAE}" name="Term Source REF [Biological replicate] (#h; #tNFDI4PSO:0000042)" dataDxfId="79"/>
+    <tableColumn id="74" xr3:uid="{E04811ED-EF58-AD4F-84F5-156D9251E904}" name="Term Accession Number [Biological replicate] (#h; #tNFDI4PSO:0000042)" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{6A7FF2B3-5F1E-8245-AC4F-6198097A8123}" name="Characteristics [Organism]" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{CC831F2C-80A0-C84F-829F-23F6C78F2EEB}" name="Term Source REF [Organism] (#h; #tNFDI4PSO:0000030)" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{D6E59B6D-D53F-A840-A182-24AE5A460E1D}" name="Term Accession Number [Organism] (#h; #tNFDI4PSO:0000030)" dataDxfId="75"/>
+    <tableColumn id="14" xr3:uid="{000DCCE3-5EF7-4F4E-A82A-AD088FF36730}" name="Characteristics [Genotype]" dataDxfId="74"/>
+    <tableColumn id="15" xr3:uid="{E2A1AEEB-EF2B-F448-824C-2953C18CC24A}" name="Term Source REF [Genotype] (#h; #tNFDI4PSO:0000031)" dataDxfId="73"/>
+    <tableColumn id="16" xr3:uid="{A998FE5F-8994-6E40-94FA-F0EF6DC905E4}" name="Term Accession Number [Genotype] (#h; #tNFDI4PSO:0000031)" dataDxfId="72"/>
+    <tableColumn id="17" xr3:uid="{0EB867DC-9BB4-6243-BEE9-01764D9FEB35}" name="Characteristics [Organism part]" dataDxfId="71"/>
+    <tableColumn id="18" xr3:uid="{B0CCF08F-B694-6C4F-94E6-E17AFD4C0A63}" name="Term Source REF [Organism part] (#h; #tNFDI4PSO:0000032)" dataDxfId="70"/>
+    <tableColumn id="19" xr3:uid="{6A02A31E-2B72-BE41-BF86-71E587B29D13}" name="Term Accession Number [Organism part] (#h; #tNFDI4PSO:0000032)" dataDxfId="69"/>
+    <tableColumn id="20" xr3:uid="{96C34AC4-65C0-774B-A5A0-1BC98C955028}" name="Characteristics [age]" dataDxfId="68"/>
+    <tableColumn id="21" xr3:uid="{325D3F43-A306-2F47-AD9C-92F61C0649E5}" name="Term Source REF [age] (#h; #tNFDI4PSO:0000033)" dataDxfId="67"/>
+    <tableColumn id="22" xr3:uid="{334AF647-E268-2E41-950D-8973A43E29C8}" name="Term Accession Number [age] (#h; #tNFDI4PSO:0000033)" dataDxfId="66"/>
+    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="65"/>
+    <tableColumn id="27" xr3:uid="{5FF2BBBF-350F-9842-8FDF-2F895B07EADF}" name="Term Source REF [study type] (#h; #tPECO:0007231)" dataDxfId="64"/>
+    <tableColumn id="28" xr3:uid="{E12790EC-754D-3244-8A7A-1242F7942612}" name="Term Accession Number [study type] (#h; #tPECO:0007231)" dataDxfId="63"/>
+    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="62"/>
+    <tableColumn id="24" xr3:uid="{0C19F4A6-F9E8-1F4F-9B61-EB31E6DF451A}" name="Term Source REF [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="61"/>
+    <tableColumn id="25" xr3:uid="{7BBED07D-F814-A245-B090-723342B3D631}" name="Term Accession Number [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="60"/>
+    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="59"/>
+    <tableColumn id="30" xr3:uid="{86FAE20B-4F89-EE4F-91E6-CE3B7E712F95}" name="Term Source REF [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="58"/>
+    <tableColumn id="31" xr3:uid="{C0949892-595C-9742-BCD1-75134FAC012F}" name="Term Accession Number [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="57"/>
+    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="56"/>
+    <tableColumn id="33" xr3:uid="{4E2448E1-3D08-504C-8FE3-D71B801F4DC9}" name="Term Source REF [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="55"/>
+    <tableColumn id="34" xr3:uid="{D47410BE-0000-B648-8CE5-966EE8968909}" name="Term Accession Number [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="54"/>
+    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="53"/>
+    <tableColumn id="36" xr3:uid="{FD04748E-7F58-4A46-A167-E5EB1375A50B}" name="Term Source REF [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="52"/>
+    <tableColumn id="37" xr3:uid="{D76E6422-DF20-B94A-B5A6-4FD7F7923EBF}" name="Term Accession Number [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{8E446DD1-817A-E84A-9536-47B88B72BFD8}" name="Unit [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{BCB29467-6D87-F141-98A0-60243765731F}" name="Term Source REF [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{D2565EAD-7C86-C343-800D-E37FD463093B}" name="Term Accession Number [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="48"/>
+    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="47"/>
+    <tableColumn id="39" xr3:uid="{8B1D9CC4-6026-674C-9852-06A06365907B}" name="Term Source REF [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="46"/>
+    <tableColumn id="40" xr3:uid="{8CCA0026-8267-884E-8F9A-369ACCB825EA}" name="Term Accession Number [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{9508FD23-5388-F64E-8286-05B533856CA2}" name="Unit [percent] (#h; #tUO:0000187; #u)" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{F796BC22-CBE1-6D41-824E-F655C3F9D5B6}" name="Term Source REF [percent] (#h; #tUO:0000187; #u)" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{32AC3DD8-82CD-4349-BFD5-0805A34144D8}" name="Term Accession Number [percent] (#h; #tUO:0000187; #u)" dataDxfId="42"/>
+    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="41"/>
+    <tableColumn id="42" xr3:uid="{FE26FC08-E3D1-7547-8E20-1363EF47EE86}" name="Term Source REF [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="40"/>
+    <tableColumn id="43" xr3:uid="{C6D20AF0-60A8-874E-9614-2A2F483EB262}" name="Term Accession Number [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{2866C2CF-81B3-694E-B2D9-F69059F54AA2}" name="Unit [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{A885FE47-7729-3B45-B73D-03FF1F114CD5}" name="Term Source REF [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="37"/>
+    <tableColumn id="65" xr3:uid="{A3AEBB25-5500-F249-866E-C98439259F17}" name="Term Accession Number [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="36"/>
+    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="35"/>
+    <tableColumn id="45" xr3:uid="{23233498-CFC4-9F46-94D5-39E7A6B5AFB5}" name="Term Source REF [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="34"/>
+    <tableColumn id="46" xr3:uid="{346D483D-D0DE-5140-A015-4AD0367BAD4D}" name="Term Accession Number [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="33"/>
+    <tableColumn id="66" xr3:uid="{57808D06-1B53-8D41-BEB4-1644A20F7763}" name="Unit [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="32"/>
+    <tableColumn id="67" xr3:uid="{A7356A0D-0EFD-3D44-9B2F-4566273E79E8}" name="Term Source REF [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="31"/>
+    <tableColumn id="68" xr3:uid="{AD21FFE5-445B-CB42-B199-FDD8BAD5635D}" name="Term Accession Number [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="30"/>
+    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="29"/>
+    <tableColumn id="48" xr3:uid="{3A76D4EC-C74F-0A4B-B340-8EF3D8B86ECB}" name="Term Source REF [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="28"/>
+    <tableColumn id="49" xr3:uid="{87034985-F2AC-A145-AA6A-9EDB63F919F9}" name="Term Accession Number [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="27"/>
+    <tableColumn id="69" xr3:uid="{6D54D968-A087-944D-BF64-3AC3D5B08F80}" name="Unit [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="26"/>
+    <tableColumn id="70" xr3:uid="{AE04B49D-BF47-F34B-B52A-752ECD10B8C7}" name="Term Source REF [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="25"/>
+    <tableColumn id="71" xr3:uid="{2A40040A-D450-EF49-AB82-0CEEB3D8A599}" name="Term Accession Number [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="24"/>
+    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="23"/>
+    <tableColumn id="51" xr3:uid="{808AA82E-ECE0-AD47-92D3-27D7C93007B7}" name="Term Source REF [watering exposure] (#h; #tPECO:0007383)" dataDxfId="22"/>
+    <tableColumn id="52" xr3:uid="{7C45B5F9-759B-E646-A40E-CB5363DF17A8}" name="Term Accession Number [watering exposure] (#h; #tPECO:0007383)" dataDxfId="21"/>
+    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="20"/>
+    <tableColumn id="54" xr3:uid="{FD6AD7C0-D253-D04C-8B67-6124B6C5D685}" name="Term Source REF [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="19"/>
+    <tableColumn id="55" xr3:uid="{95BC5752-0FFE-8C4E-BFE3-4FED8B72A648}" name="Term Accession Number [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="18"/>
+    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="17"/>
+    <tableColumn id="57" xr3:uid="{19EC9032-1152-F940-ADB1-397E054EED4E}" name="Term Source REF [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="16"/>
+    <tableColumn id="58" xr3:uid="{40EA0154-215C-C44C-A5D6-852F5DA9A25C}" name="Term Accession Number [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="15"/>
+    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="14"/>
+    <tableColumn id="60" xr3:uid="{2836636A-01C7-9C4E-9B41-EE6FEE3D7B80}" name="Term Source REF [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="13"/>
+    <tableColumn id="61" xr3:uid="{E4A74FCF-2E01-354A-99CE-0602774F8706}" name="Term Accession Number [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="12"/>
+    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="11"/>
+    <tableColumn id="63" xr3:uid="{D78E63DF-76E2-AE4F-A9AA-86CB096E0FD1}" name="Term Source REF [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="10"/>
+    <tableColumn id="64" xr3:uid="{4E3E838B-D518-9B41-95E4-AE65DE3C4242}" name="Term Accession Number [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="9"/>
+    <tableColumn id="75" xr3:uid="{7FBEC602-6866-EE4C-901B-A620EADE0B55}" name="Parameter [Sample Collection Method]" dataDxfId="8"/>
+    <tableColumn id="76" xr3:uid="{082E37E1-9067-2344-AFED-4C0AB2E6608F}" name="Term Source REF [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="7"/>
+    <tableColumn id="77" xr3:uid="{23CA10DE-9FDA-A94D-84CF-7C5F7143EE90}" name="Term Accession Number [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="6"/>
+    <tableColumn id="78" xr3:uid="{DD36BBD7-7DDE-4B4B-B0E7-E088C0737C72}" name="Parameter [Metabolism quenching method]" dataDxfId="5"/>
+    <tableColumn id="79" xr3:uid="{E9A2A827-A7E3-E44F-8034-982633580E8D}" name="Term Source REF [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="4"/>
+    <tableColumn id="80" xr3:uid="{ECB588C7-B9C0-8741-BE8A-1CDECCED4ED4}" name="Term Accession Number [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="3"/>
+    <tableColumn id="81" xr3:uid="{125431A9-D115-4A4B-A917-1C0A2F361D5C}" name="Parameter [Sample storage]" dataDxfId="2"/>
+    <tableColumn id="82" xr3:uid="{A56F8F05-EAAB-FD40-8F2F-AD66235065C4}" name="Term Source REF [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="1"/>
+    <tableColumn id="83" xr3:uid="{AB05BD40-EE64-3547-80D7-EDD26BB0F77A}" name="Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2183,13 +2186,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3613D5-BDC4-E141-9C9A-87C99351C8EE}">
-  <dimension ref="A1:CK73"/>
+  <dimension ref="A1:CG75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="20" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3409,27 +3412,27 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="W11" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA11" s="33"/>
       <c r="AB11" s="32"/>
@@ -3439,7 +3442,7 @@
       <c r="AD11" s="32"/>
       <c r="AE11" s="32"/>
       <c r="AF11" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG11" s="32"/>
       <c r="AH11" s="32"/>
@@ -3447,7 +3450,7 @@
       <c r="AJ11" s="32"/>
       <c r="AK11" s="32"/>
       <c r="AL11" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM11" s="32"/>
       <c r="AN11" s="32"/>
@@ -3455,7 +3458,7 @@
       <c r="AP11" s="32"/>
       <c r="AQ11" s="32"/>
       <c r="AR11" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AS11" s="32"/>
       <c r="AT11" s="32"/>
@@ -3463,7 +3466,7 @@
       <c r="AV11" s="32"/>
       <c r="AW11" s="32"/>
       <c r="AX11" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AY11" s="32"/>
       <c r="AZ11" s="32"/>
@@ -3471,7 +3474,7 @@
       <c r="BB11" s="32"/>
       <c r="BC11" s="32"/>
       <c r="BD11" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BE11" s="32"/>
       <c r="BF11" s="32"/>
@@ -3479,27 +3482,27 @@
       <c r="BH11" s="32"/>
       <c r="BI11" s="32"/>
       <c r="BJ11" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BK11" s="32"/>
       <c r="BL11" s="32"/>
       <c r="BM11" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BN11" s="32"/>
       <c r="BO11" s="32"/>
       <c r="BP11" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BQ11" s="32"/>
       <c r="BR11" s="32"/>
       <c r="BS11" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BT11" s="32"/>
       <c r="BU11" s="32"/>
       <c r="BV11" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BW11" s="32"/>
       <c r="BX11" s="32"/>
@@ -3554,17 +3557,17 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
       <c r="T12" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U12" s="36"/>
       <c r="V12" s="36"/>
       <c r="W12" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA12" s="37"/>
       <c r="AB12" s="38"/>
@@ -3574,7 +3577,7 @@
       <c r="AD12" s="36"/>
       <c r="AE12" s="36"/>
       <c r="AF12" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG12" s="36"/>
       <c r="AH12" s="36"/>
@@ -3582,7 +3585,7 @@
       <c r="AJ12" s="36"/>
       <c r="AK12" s="36"/>
       <c r="AL12" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM12" s="38"/>
       <c r="AN12" s="38"/>
@@ -3590,7 +3593,7 @@
       <c r="AP12" s="38"/>
       <c r="AQ12" s="38"/>
       <c r="AR12" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AS12" s="38"/>
       <c r="AT12" s="38"/>
@@ -3598,7 +3601,7 @@
       <c r="AV12" s="38"/>
       <c r="AW12" s="38"/>
       <c r="AX12" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY12" s="38"/>
       <c r="AZ12" s="38"/>
@@ -3606,7 +3609,7 @@
       <c r="BB12" s="38"/>
       <c r="BC12" s="38"/>
       <c r="BD12" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE12" s="36"/>
       <c r="BF12" s="36"/>
@@ -3614,42 +3617,42 @@
       <c r="BH12" s="36"/>
       <c r="BI12" s="36"/>
       <c r="BJ12" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BK12" s="36"/>
       <c r="BL12" s="36"/>
       <c r="BM12" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BN12" s="36"/>
       <c r="BO12" s="36"/>
       <c r="BP12" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BQ12" s="36"/>
       <c r="BR12" s="36"/>
       <c r="BS12" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BT12" s="36"/>
       <c r="BU12" s="36"/>
       <c r="BV12" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BW12" s="36"/>
       <c r="BX12" s="36"/>
       <c r="BY12" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BZ12" s="36"/>
       <c r="CA12" s="36"/>
       <c r="CB12" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="CC12" s="36"/>
       <c r="CD12" s="36"/>
       <c r="CE12" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="CF12" s="37"/>
       <c r="CG12" s="37"/>
@@ -3684,7 +3687,7 @@
       <c r="U13" s="40"/>
       <c r="V13" s="40"/>
       <c r="W13" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X13" s="41"/>
       <c r="Y13" s="41"/>
@@ -3873,7 +3876,7 @@
         <v>165</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -4573,66 +4576,66 @@
         <v>173</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AJ22" s="15"/>
       <c r="AK22" s="15"/>
       <c r="AL22" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
@@ -4640,7 +4643,7 @@
       <c r="AP22" s="15"/>
       <c r="AQ22" s="15"/>
       <c r="AR22" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AS22" s="15"/>
       <c r="AT22" s="15"/>
@@ -4648,7 +4651,7 @@
       <c r="AV22" s="15"/>
       <c r="AW22" s="15"/>
       <c r="AX22" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY22" s="15"/>
       <c r="AZ22" s="15"/>
@@ -4656,7 +4659,7 @@
       <c r="BB22" s="15"/>
       <c r="BC22" s="15"/>
       <c r="BD22" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BE22" s="15"/>
       <c r="BF22" s="15"/>
@@ -4664,42 +4667,42 @@
       <c r="BH22" s="15"/>
       <c r="BI22" s="15"/>
       <c r="BJ22" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
       <c r="BM22" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BN22" s="15"/>
       <c r="BO22" s="15"/>
       <c r="BP22" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BQ22" s="15"/>
       <c r="BR22" s="15"/>
       <c r="BS22" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BT22" s="15"/>
       <c r="BU22" s="15"/>
       <c r="BV22" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BW22" s="15"/>
       <c r="BX22" s="15"/>
       <c r="BY22" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BZ22" s="15"/>
       <c r="CA22" s="15"/>
       <c r="CB22" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CC22" s="15"/>
       <c r="CD22" s="15"/>
       <c r="CE22" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CF22" s="10"/>
       <c r="CG22" s="10"/>
@@ -4709,71 +4712,71 @@
         <v>172</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG23" s="15"/>
       <c r="AH23" s="15"/>
       <c r="AI23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ23" s="15"/>
       <c r="AK23" s="15"/>
       <c r="AL23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
@@ -4781,7 +4784,7 @@
       <c r="AP23" s="15"/>
       <c r="AQ23" s="15"/>
       <c r="AR23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS23" s="15"/>
       <c r="AT23" s="15"/>
@@ -4789,7 +4792,7 @@
       <c r="AV23" s="15"/>
       <c r="AW23" s="15"/>
       <c r="AX23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AY23" s="15"/>
       <c r="AZ23" s="15"/>
@@ -4797,7 +4800,7 @@
       <c r="BB23" s="15"/>
       <c r="BC23" s="15"/>
       <c r="BD23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BE23" s="15"/>
       <c r="BF23" s="15"/>
@@ -4805,42 +4808,42 @@
       <c r="BH23" s="15"/>
       <c r="BI23" s="15"/>
       <c r="BJ23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
       <c r="BM23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BN23" s="15"/>
       <c r="BO23" s="15"/>
       <c r="BP23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BQ23" s="15"/>
       <c r="BR23" s="15"/>
       <c r="BS23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BT23" s="15"/>
       <c r="BU23" s="15"/>
       <c r="BV23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BW23" s="15"/>
       <c r="BX23" s="15"/>
       <c r="BY23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ23" s="15"/>
       <c r="CA23" s="15"/>
       <c r="CB23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="CC23" s="15"/>
       <c r="CD23" s="15"/>
       <c r="CE23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="CF23" s="10"/>
       <c r="CG23" s="10"/>
@@ -4850,7 +4853,7 @@
         <v>172</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="15">
         <v>5</v>
@@ -4945,7 +4948,7 @@
         <v>172</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -5036,7 +5039,7 @@
         <v>172</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -5126,190 +5129,190 @@
       <c r="CF26" s="10"/>
       <c r="CG26" s="10"/>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="8"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
-      <c r="AW27" s="5"/>
-      <c r="AX27" s="9"/>
-      <c r="AY27" s="5"/>
-      <c r="AZ27" s="5"/>
-      <c r="BA27" s="5"/>
-      <c r="BB27" s="5"/>
-      <c r="BC27" s="5"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="5"/>
-      <c r="BF27" s="5"/>
-      <c r="BG27" s="5"/>
-      <c r="BH27" s="5"/>
-      <c r="BI27" s="5"/>
-      <c r="BJ27" s="6"/>
-      <c r="BK27" s="5"/>
-      <c r="BL27" s="5"/>
-      <c r="BM27" s="6"/>
-      <c r="BN27" s="5"/>
-      <c r="BO27" s="5"/>
-      <c r="BP27" s="6"/>
-      <c r="BQ27" s="5"/>
-      <c r="BR27" s="5"/>
-      <c r="BS27" s="6"/>
-      <c r="BT27" s="5"/>
-      <c r="BU27" s="5"/>
-      <c r="BV27" s="6"/>
-      <c r="BW27" s="5"/>
-      <c r="BX27" s="5"/>
-      <c r="BY27" s="6"/>
-      <c r="BZ27" s="5"/>
-      <c r="CA27" s="5"/>
-      <c r="CB27" s="6"/>
-      <c r="CC27" s="5"/>
-      <c r="CD27" s="5"/>
-      <c r="CE27" s="6"/>
-      <c r="CF27" s="5"/>
-      <c r="CG27" s="5"/>
-    </row>
-    <row r="28" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="10"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="10"/>
-      <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="10"/>
-      <c r="BF28" s="10"/>
-      <c r="BG28" s="10"/>
-      <c r="BH28" s="10"/>
-      <c r="BI28" s="10"/>
-      <c r="BJ28" s="10"/>
-      <c r="BK28" s="10"/>
-      <c r="BL28" s="10"/>
-      <c r="BM28" s="10"/>
-      <c r="BN28" s="10"/>
-      <c r="BO28" s="10"/>
-      <c r="BP28" s="10"/>
-      <c r="BQ28" s="10"/>
-      <c r="BR28" s="10"/>
-      <c r="BS28" s="10"/>
-      <c r="BT28" s="10"/>
-      <c r="BU28" s="10"/>
-      <c r="BV28" s="10"/>
-      <c r="BW28" s="10"/>
-      <c r="BX28" s="10"/>
-      <c r="BY28" s="10"/>
-      <c r="BZ28" s="10"/>
-      <c r="CA28" s="10"/>
-      <c r="CB28" s="10"/>
-      <c r="CC28" s="10"/>
-      <c r="CD28" s="10"/>
-      <c r="CE28" s="10"/>
-      <c r="CF28" s="10"/>
-      <c r="CG28" s="10"/>
+    <row r="27" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="15"/>
+      <c r="BM27" s="15"/>
+      <c r="BN27" s="15"/>
+      <c r="BO27" s="15"/>
+      <c r="BP27" s="15"/>
+      <c r="BQ27" s="15"/>
+      <c r="BR27" s="15"/>
+      <c r="BS27" s="15"/>
+      <c r="BT27" s="15"/>
+      <c r="BU27" s="15"/>
+      <c r="BV27" s="15"/>
+      <c r="BW27" s="15"/>
+      <c r="BX27" s="15"/>
+      <c r="BY27" s="15"/>
+      <c r="BZ27" s="15"/>
+      <c r="CA27" s="15"/>
+      <c r="CB27" s="15"/>
+      <c r="CC27" s="15"/>
+      <c r="CD27" s="15"/>
+      <c r="CE27" s="15"/>
+      <c r="CF27" s="10"/>
+      <c r="CG27" s="10"/>
+    </row>
+    <row r="28" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="8"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="9"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="6"/>
+      <c r="BK28" s="5"/>
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="6"/>
+      <c r="BN28" s="5"/>
+      <c r="BO28" s="5"/>
+      <c r="BP28" s="6"/>
+      <c r="BQ28" s="5"/>
+      <c r="BR28" s="5"/>
+      <c r="BS28" s="6"/>
+      <c r="BT28" s="5"/>
+      <c r="BU28" s="5"/>
+      <c r="BV28" s="6"/>
+      <c r="BW28" s="5"/>
+      <c r="BX28" s="5"/>
+      <c r="BY28" s="6"/>
+      <c r="BZ28" s="5"/>
+      <c r="CA28" s="5"/>
+      <c r="CB28" s="6"/>
+      <c r="CC28" s="5"/>
+      <c r="CD28" s="5"/>
+      <c r="CE28" s="6"/>
+      <c r="CF28" s="5"/>
+      <c r="CG28" s="5"/>
     </row>
     <row r="29" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -5397,10 +5400,10 @@
     </row>
     <row r="30" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -5488,10 +5491,10 @@
     </row>
     <row r="31" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -5579,10 +5582,10 @@
     </row>
     <row r="32" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -5668,254 +5671,282 @@
       <c r="CF32" s="10"/>
       <c r="CG32" s="10"/>
     </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="8"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="8"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="9"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="6"/>
-      <c r="BK33" s="5"/>
-      <c r="BL33" s="5"/>
-      <c r="BM33" s="6"/>
-      <c r="BN33" s="5"/>
-      <c r="BO33" s="5"/>
-      <c r="BP33" s="6"/>
-      <c r="BQ33" s="5"/>
-      <c r="BR33" s="5"/>
-      <c r="BS33" s="6"/>
-      <c r="BT33" s="5"/>
-      <c r="BU33" s="5"/>
-      <c r="BV33" s="6"/>
-      <c r="BW33" s="5"/>
-      <c r="BX33" s="5"/>
-      <c r="BY33" s="6"/>
-      <c r="BZ33" s="5"/>
-      <c r="CA33" s="5"/>
-      <c r="CB33" s="6"/>
-      <c r="CC33" s="5"/>
-      <c r="CD33" s="5"/>
-      <c r="CE33" s="6"/>
-      <c r="CF33" s="5"/>
-      <c r="CG33" s="5"/>
+    <row r="33" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="10"/>
+      <c r="BA33" s="10"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10"/>
+      <c r="BG33" s="10"/>
+      <c r="BH33" s="10"/>
+      <c r="BI33" s="10"/>
+      <c r="BJ33" s="10"/>
+      <c r="BK33" s="10"/>
+      <c r="BL33" s="10"/>
+      <c r="BM33" s="10"/>
+      <c r="BN33" s="10"/>
+      <c r="BO33" s="10"/>
+      <c r="BP33" s="10"/>
+      <c r="BQ33" s="10"/>
+      <c r="BR33" s="10"/>
+      <c r="BS33" s="10"/>
+      <c r="BT33" s="10"/>
+      <c r="BU33" s="10"/>
+      <c r="BV33" s="10"/>
+      <c r="BW33" s="10"/>
+      <c r="BX33" s="10"/>
+      <c r="BY33" s="10"/>
+      <c r="BZ33" s="10"/>
+      <c r="CA33" s="10"/>
+      <c r="CB33" s="10"/>
+      <c r="CC33" s="10"/>
+      <c r="CD33" s="10"/>
+      <c r="CE33" s="10"/>
+      <c r="CF33" s="10"/>
+      <c r="CG33" s="10"/>
     </row>
     <row r="34" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="29"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30"/>
-      <c r="AI34" s="30"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="30"/>
-      <c r="AL34" s="30"/>
-      <c r="AM34" s="30"/>
-      <c r="AN34" s="30"/>
-      <c r="AO34" s="30"/>
-      <c r="AP34" s="30"/>
-      <c r="AQ34" s="30"/>
-      <c r="AR34" s="30"/>
-      <c r="AS34" s="30"/>
-      <c r="AT34" s="30"/>
-      <c r="AU34" s="30"/>
-      <c r="AV34" s="30"/>
-      <c r="AW34" s="30"/>
-      <c r="AX34" s="30"/>
-      <c r="AY34" s="30"/>
-      <c r="AZ34" s="30"/>
-      <c r="BA34" s="30"/>
-      <c r="BB34" s="30"/>
-      <c r="BC34" s="30"/>
-      <c r="BD34" s="30"/>
-      <c r="BE34" s="30"/>
-      <c r="BF34" s="30"/>
-      <c r="BG34" s="30"/>
-      <c r="BH34" s="30"/>
-      <c r="BI34" s="30"/>
-      <c r="BJ34" s="30"/>
-      <c r="BK34" s="30"/>
-      <c r="BL34" s="30"/>
-      <c r="BM34" s="30"/>
-      <c r="BN34" s="30"/>
-      <c r="BO34" s="30"/>
-      <c r="BP34" s="30"/>
-      <c r="BQ34" s="30"/>
-      <c r="BR34" s="30"/>
-      <c r="BS34" s="30"/>
-      <c r="BT34" s="30"/>
-      <c r="BU34" s="30"/>
-      <c r="BV34" s="30"/>
-      <c r="BW34" s="30"/>
-      <c r="BX34" s="30"/>
-      <c r="BY34" s="30"/>
-      <c r="BZ34" s="30"/>
-      <c r="CA34" s="30"/>
-      <c r="CB34" s="30"/>
-      <c r="CC34" s="30"/>
-      <c r="CD34" s="30"/>
-      <c r="CE34" s="30"/>
-    </row>
-    <row r="35" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="29"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="H35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="30"/>
-      <c r="AI35" s="30"/>
-      <c r="AJ35" s="30"/>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="30"/>
-      <c r="AM35" s="30"/>
-      <c r="AN35" s="30"/>
-      <c r="AO35" s="30"/>
-      <c r="AP35" s="30"/>
-      <c r="AQ35" s="30"/>
-      <c r="AR35" s="30"/>
-      <c r="AS35" s="30"/>
-      <c r="AT35" s="30"/>
-      <c r="AU35" s="30"/>
-      <c r="AV35" s="30"/>
-      <c r="AW35" s="30"/>
-      <c r="AX35" s="30"/>
-      <c r="AY35" s="30"/>
-      <c r="AZ35" s="30"/>
-      <c r="BA35" s="30"/>
-      <c r="BB35" s="30"/>
-      <c r="BC35" s="30"/>
-      <c r="BD35" s="30"/>
-      <c r="BE35" s="30"/>
-      <c r="BF35" s="30"/>
-      <c r="BG35" s="30"/>
-      <c r="BH35" s="30"/>
-      <c r="BI35" s="30"/>
-      <c r="BJ35" s="30"/>
-      <c r="BK35" s="30"/>
-      <c r="BL35" s="30"/>
-      <c r="BM35" s="30"/>
-      <c r="BN35" s="30"/>
-      <c r="BO35" s="30"/>
-      <c r="BP35" s="30"/>
-      <c r="BQ35" s="30"/>
-      <c r="BR35" s="30"/>
-      <c r="BS35" s="30"/>
-      <c r="BT35" s="30"/>
-      <c r="BU35" s="30"/>
-      <c r="BV35" s="30"/>
-      <c r="BW35" s="30"/>
-      <c r="BX35" s="30"/>
-      <c r="BY35" s="30"/>
-      <c r="BZ35" s="30"/>
-      <c r="CA35" s="30"/>
-      <c r="CB35" s="30"/>
-      <c r="CC35" s="30"/>
-      <c r="CD35" s="30"/>
-      <c r="CE35" s="30"/>
+      <c r="A34" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="10"/>
+      <c r="BA34" s="10"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="10"/>
+      <c r="BE34" s="10"/>
+      <c r="BF34" s="10"/>
+      <c r="BG34" s="10"/>
+      <c r="BH34" s="10"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="10"/>
+      <c r="BK34" s="10"/>
+      <c r="BL34" s="10"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
+      <c r="BO34" s="10"/>
+      <c r="BP34" s="10"/>
+      <c r="BQ34" s="10"/>
+      <c r="BR34" s="10"/>
+      <c r="BS34" s="10"/>
+      <c r="BT34" s="10"/>
+      <c r="BU34" s="10"/>
+      <c r="BV34" s="10"/>
+      <c r="BW34" s="10"/>
+      <c r="BX34" s="10"/>
+      <c r="BY34" s="10"/>
+      <c r="BZ34" s="10"/>
+      <c r="CA34" s="10"/>
+      <c r="CB34" s="10"/>
+      <c r="CC34" s="10"/>
+      <c r="CD34" s="10"/>
+      <c r="CE34" s="10"/>
+      <c r="CF34" s="10"/>
+      <c r="CG34" s="10"/>
+    </row>
+    <row r="35" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="8"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="9"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="6"/>
+      <c r="BK35" s="5"/>
+      <c r="BL35" s="5"/>
+      <c r="BM35" s="6"/>
+      <c r="BN35" s="5"/>
+      <c r="BO35" s="5"/>
+      <c r="BP35" s="6"/>
+      <c r="BQ35" s="5"/>
+      <c r="BR35" s="5"/>
+      <c r="BS35" s="6"/>
+      <c r="BT35" s="5"/>
+      <c r="BU35" s="5"/>
+      <c r="BV35" s="6"/>
+      <c r="BW35" s="5"/>
+      <c r="BX35" s="5"/>
+      <c r="BY35" s="6"/>
+      <c r="BZ35" s="5"/>
+      <c r="CA35" s="5"/>
+      <c r="CB35" s="6"/>
+      <c r="CC35" s="5"/>
+      <c r="CD35" s="5"/>
+      <c r="CE35" s="6"/>
+      <c r="CF35" s="5"/>
+      <c r="CG35" s="5"/>
     </row>
     <row r="36" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="29"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
@@ -5993,8 +6024,6 @@
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
@@ -6067,20 +6096,168 @@
       <c r="CD37" s="30"/>
       <c r="CE37" s="30"/>
     </row>
-    <row r="40" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M40" s="30"/>
-      <c r="BF40" s="28"/>
-    </row>
-    <row r="41" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M41" s="15"/>
-    </row>
-    <row r="44" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="28"/>
-      <c r="C44" s="25"/>
-    </row>
-    <row r="45" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="28"/>
-      <c r="C45" s="25"/>
+    <row r="38" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="29"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="H38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="30"/>
+      <c r="AM38" s="30"/>
+      <c r="AN38" s="30"/>
+      <c r="AO38" s="30"/>
+      <c r="AP38" s="30"/>
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="30"/>
+      <c r="AS38" s="30"/>
+      <c r="AT38" s="30"/>
+      <c r="AU38" s="30"/>
+      <c r="AV38" s="30"/>
+      <c r="AW38" s="30"/>
+      <c r="AX38" s="30"/>
+      <c r="AY38" s="30"/>
+      <c r="AZ38" s="30"/>
+      <c r="BA38" s="30"/>
+      <c r="BB38" s="30"/>
+      <c r="BC38" s="30"/>
+      <c r="BD38" s="30"/>
+      <c r="BE38" s="30"/>
+      <c r="BF38" s="30"/>
+      <c r="BG38" s="30"/>
+      <c r="BH38" s="30"/>
+      <c r="BI38" s="30"/>
+      <c r="BJ38" s="30"/>
+      <c r="BK38" s="30"/>
+      <c r="BL38" s="30"/>
+      <c r="BM38" s="30"/>
+      <c r="BN38" s="30"/>
+      <c r="BO38" s="30"/>
+      <c r="BP38" s="30"/>
+      <c r="BQ38" s="30"/>
+      <c r="BR38" s="30"/>
+      <c r="BS38" s="30"/>
+      <c r="BT38" s="30"/>
+      <c r="BU38" s="30"/>
+      <c r="BV38" s="30"/>
+      <c r="BW38" s="30"/>
+      <c r="BX38" s="30"/>
+      <c r="BY38" s="30"/>
+      <c r="BZ38" s="30"/>
+      <c r="CA38" s="30"/>
+      <c r="CB38" s="30"/>
+      <c r="CC38" s="30"/>
+      <c r="CD38" s="30"/>
+      <c r="CE38" s="30"/>
+    </row>
+    <row r="39" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="29"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="30"/>
+      <c r="AG39" s="30"/>
+      <c r="AH39" s="30"/>
+      <c r="AI39" s="30"/>
+      <c r="AJ39" s="30"/>
+      <c r="AK39" s="30"/>
+      <c r="AL39" s="30"/>
+      <c r="AM39" s="30"/>
+      <c r="AN39" s="30"/>
+      <c r="AO39" s="30"/>
+      <c r="AP39" s="30"/>
+      <c r="AQ39" s="30"/>
+      <c r="AR39" s="30"/>
+      <c r="AS39" s="30"/>
+      <c r="AT39" s="30"/>
+      <c r="AU39" s="30"/>
+      <c r="AV39" s="30"/>
+      <c r="AW39" s="30"/>
+      <c r="AX39" s="30"/>
+      <c r="AY39" s="30"/>
+      <c r="AZ39" s="30"/>
+      <c r="BA39" s="30"/>
+      <c r="BB39" s="30"/>
+      <c r="BC39" s="30"/>
+      <c r="BD39" s="30"/>
+      <c r="BE39" s="30"/>
+      <c r="BF39" s="30"/>
+      <c r="BG39" s="30"/>
+      <c r="BH39" s="30"/>
+      <c r="BI39" s="30"/>
+      <c r="BJ39" s="30"/>
+      <c r="BK39" s="30"/>
+      <c r="BL39" s="30"/>
+      <c r="BM39" s="30"/>
+      <c r="BN39" s="30"/>
+      <c r="BO39" s="30"/>
+      <c r="BP39" s="30"/>
+      <c r="BQ39" s="30"/>
+      <c r="BR39" s="30"/>
+      <c r="BS39" s="30"/>
+      <c r="BT39" s="30"/>
+      <c r="BU39" s="30"/>
+      <c r="BV39" s="30"/>
+      <c r="BW39" s="30"/>
+      <c r="BX39" s="30"/>
+      <c r="BY39" s="30"/>
+      <c r="BZ39" s="30"/>
+      <c r="CA39" s="30"/>
+      <c r="CB39" s="30"/>
+      <c r="CC39" s="30"/>
+      <c r="CD39" s="30"/>
+      <c r="CE39" s="30"/>
+    </row>
+    <row r="42" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="30"/>
+      <c r="BF42" s="28"/>
+    </row>
+    <row r="43" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M43" s="15"/>
     </row>
     <row r="46" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="28"/>
@@ -6088,11 +6265,11 @@
     </row>
     <row r="47" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="28"/>
-      <c r="C47" s="26"/>
+      <c r="C47" s="25"/>
     </row>
     <row r="48" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="28"/>
-      <c r="C48" s="26"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="28"/>
@@ -6104,7 +6281,7 @@
     </row>
     <row r="51" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="28"/>
-      <c r="C51" s="27"/>
+      <c r="C51" s="26"/>
     </row>
     <row r="52" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="28"/>
@@ -6112,7 +6289,7 @@
     </row>
     <row r="53" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="28"/>
-      <c r="C53" s="26"/>
+      <c r="C53" s="27"/>
     </row>
     <row r="54" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="28"/>
@@ -6128,11 +6305,11 @@
     </row>
     <row r="57" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="28"/>
-      <c r="C57" s="27"/>
+      <c r="C57" s="26"/>
     </row>
     <row r="58" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="28"/>
-      <c r="C58" s="27"/>
+      <c r="C58" s="26"/>
     </row>
     <row r="59" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="28"/>
@@ -6178,61 +6355,69 @@
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
     </row>
-    <row r="72" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="27"/>
-      <c r="V72" s="27"/>
-      <c r="W72" s="27"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="27"/>
-      <c r="AA72" s="27"/>
-    </row>
-    <row r="73" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
+    <row r="70" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="28"/>
+      <c r="C70" s="27"/>
+    </row>
+    <row r="71" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="28"/>
+      <c r="C71" s="27"/>
+    </row>
+    <row r="74" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+    </row>
+    <row r="75" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70074A93-05AC-1048-BC98-B2BBCCF6FCCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2C594E-A8CE-9049-A70D-0C301CC6B740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{F6B686F7-5A0C-0946-9A32-03596DAB1E5D}">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{F6B686F7-5A0C-0946-9A32-03596DAB1E5D}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="224">
   <si>
     <t>Source Name</t>
   </si>
@@ -830,6 +830,9 @@
   </si>
   <si>
     <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
   </si>
 </sst>
 </file>
@@ -960,7 +963,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1000,6 +1003,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1057,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1131,6 +1140,8 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2186,13 +2197,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3613D5-BDC4-E141-9C9A-87C99351C8EE}">
-  <dimension ref="A1:CG75"/>
+  <dimension ref="A1:CG76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="20" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="20" topLeftCell="BP21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33:B34"/>
+      <selection pane="bottomRight" activeCell="CB36" sqref="CB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2234,7 +2245,7 @@
     <col min="35" max="35" width="65.5" style="4" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="76.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="82.5" style="4" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="77.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="32.1640625" style="4" customWidth="1"/>
     <col min="39" max="39" width="54.6640625" style="4" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="61" style="4" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="35.5" style="4" hidden="1" customWidth="1"/>
@@ -4699,8 +4710,8 @@
       <c r="CB22" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="CC22" s="15"/>
-      <c r="CD22" s="15"/>
+      <c r="CC22" s="23"/>
+      <c r="CD22" s="23"/>
       <c r="CE22" s="23" t="s">
         <v>184</v>
       </c>
@@ -5118,14 +5129,10 @@
       <c r="BY26" s="15"/>
       <c r="BZ26" s="15"/>
       <c r="CA26" s="15"/>
-      <c r="CB26" s="15" t="s">
-        <v>160</v>
-      </c>
+      <c r="CB26" s="15"/>
       <c r="CC26" s="15"/>
       <c r="CD26" s="15"/>
-      <c r="CE26" s="15" t="s">
-        <v>161</v>
-      </c>
+      <c r="CE26" s="15"/>
       <c r="CF26" s="10"/>
       <c r="CG26" s="10"/>
     </row>
@@ -5220,190 +5227,194 @@
       <c r="CF27" s="10"/>
       <c r="CG27" s="10"/>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="8"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="9"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="9"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="6"/>
-      <c r="BK28" s="5"/>
-      <c r="BL28" s="5"/>
-      <c r="BM28" s="6"/>
-      <c r="BN28" s="5"/>
-      <c r="BO28" s="5"/>
-      <c r="BP28" s="6"/>
-      <c r="BQ28" s="5"/>
-      <c r="BR28" s="5"/>
-      <c r="BS28" s="6"/>
-      <c r="BT28" s="5"/>
-      <c r="BU28" s="5"/>
-      <c r="BV28" s="6"/>
-      <c r="BW28" s="5"/>
-      <c r="BX28" s="5"/>
-      <c r="BY28" s="6"/>
-      <c r="BZ28" s="5"/>
-      <c r="CA28" s="5"/>
-      <c r="CB28" s="6"/>
-      <c r="CC28" s="5"/>
-      <c r="CD28" s="5"/>
-      <c r="CE28" s="6"/>
-      <c r="CF28" s="5"/>
-      <c r="CG28" s="5"/>
-    </row>
-    <row r="29" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
-      <c r="BF29" s="10"/>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="10"/>
-      <c r="BJ29" s="10"/>
-      <c r="BK29" s="10"/>
-      <c r="BL29" s="10"/>
-      <c r="BM29" s="10"/>
-      <c r="BN29" s="10"/>
-      <c r="BO29" s="10"/>
-      <c r="BP29" s="10"/>
-      <c r="BQ29" s="10"/>
-      <c r="BR29" s="10"/>
-      <c r="BS29" s="10"/>
-      <c r="BT29" s="10"/>
-      <c r="BU29" s="10"/>
-      <c r="BV29" s="10"/>
-      <c r="BW29" s="10"/>
-      <c r="BX29" s="10"/>
-      <c r="BY29" s="10"/>
-      <c r="BZ29" s="10"/>
-      <c r="CA29" s="10"/>
-      <c r="CB29" s="10"/>
-      <c r="CC29" s="10"/>
-      <c r="CD29" s="10"/>
-      <c r="CE29" s="10"/>
-      <c r="CF29" s="10"/>
-      <c r="CG29" s="10"/>
+    <row r="28" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="15"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
+      <c r="BC28" s="15"/>
+      <c r="BD28" s="15"/>
+      <c r="BE28" s="15"/>
+      <c r="BF28" s="15"/>
+      <c r="BG28" s="15"/>
+      <c r="BH28" s="15"/>
+      <c r="BI28" s="15"/>
+      <c r="BJ28" s="15"/>
+      <c r="BK28" s="15"/>
+      <c r="BL28" s="15"/>
+      <c r="BM28" s="15"/>
+      <c r="BN28" s="15"/>
+      <c r="BO28" s="15"/>
+      <c r="BP28" s="15"/>
+      <c r="BQ28" s="15"/>
+      <c r="BR28" s="15"/>
+      <c r="BS28" s="15"/>
+      <c r="BT28" s="15"/>
+      <c r="BU28" s="15"/>
+      <c r="BV28" s="15"/>
+      <c r="BW28" s="15"/>
+      <c r="BX28" s="15"/>
+      <c r="BY28" s="15"/>
+      <c r="BZ28" s="15"/>
+      <c r="CA28" s="15"/>
+      <c r="CB28" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="CC28" s="61"/>
+      <c r="CD28" s="61"/>
+      <c r="CE28" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="CF28" s="10"/>
+      <c r="CG28" s="10"/>
+    </row>
+    <row r="29" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="9"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="9"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="6"/>
+      <c r="BK29" s="5"/>
+      <c r="BL29" s="5"/>
+      <c r="BM29" s="6"/>
+      <c r="BN29" s="5"/>
+      <c r="BO29" s="5"/>
+      <c r="BP29" s="6"/>
+      <c r="BQ29" s="5"/>
+      <c r="BR29" s="5"/>
+      <c r="BS29" s="6"/>
+      <c r="BT29" s="5"/>
+      <c r="BU29" s="5"/>
+      <c r="BV29" s="6"/>
+      <c r="BW29" s="5"/>
+      <c r="BX29" s="5"/>
+      <c r="BY29" s="6"/>
+      <c r="BZ29" s="5"/>
+      <c r="CA29" s="5"/>
+      <c r="CB29" s="6"/>
+      <c r="CC29" s="5"/>
+      <c r="CD29" s="5"/>
+      <c r="CE29" s="6"/>
+      <c r="CF29" s="5"/>
+      <c r="CG29" s="5"/>
     </row>
     <row r="30" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>174</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -5494,7 +5505,7 @@
         <v>174</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -5585,7 +5596,7 @@
         <v>174</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -5676,7 +5687,7 @@
         <v>174</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -5767,7 +5778,7 @@
         <v>174</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -5853,177 +5864,191 @@
       <c r="CF34" s="10"/>
       <c r="CG34" s="10"/>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="5"/>
-      <c r="AR35" s="8"/>
-      <c r="AS35" s="5"/>
-      <c r="AT35" s="5"/>
-      <c r="AU35" s="5"/>
-      <c r="AV35" s="5"/>
-      <c r="AW35" s="5"/>
-      <c r="AX35" s="9"/>
-      <c r="AY35" s="5"/>
-      <c r="AZ35" s="5"/>
-      <c r="BA35" s="5"/>
-      <c r="BB35" s="5"/>
-      <c r="BC35" s="5"/>
-      <c r="BD35" s="9"/>
-      <c r="BE35" s="5"/>
-      <c r="BF35" s="5"/>
-      <c r="BG35" s="5"/>
-      <c r="BH35" s="5"/>
-      <c r="BI35" s="5"/>
-      <c r="BJ35" s="6"/>
-      <c r="BK35" s="5"/>
-      <c r="BL35" s="5"/>
-      <c r="BM35" s="6"/>
-      <c r="BN35" s="5"/>
-      <c r="BO35" s="5"/>
-      <c r="BP35" s="6"/>
-      <c r="BQ35" s="5"/>
-      <c r="BR35" s="5"/>
-      <c r="BS35" s="6"/>
-      <c r="BT35" s="5"/>
-      <c r="BU35" s="5"/>
-      <c r="BV35" s="6"/>
-      <c r="BW35" s="5"/>
-      <c r="BX35" s="5"/>
-      <c r="BY35" s="6"/>
-      <c r="BZ35" s="5"/>
-      <c r="CA35" s="5"/>
-      <c r="CB35" s="6"/>
-      <c r="CC35" s="5"/>
-      <c r="CD35" s="5"/>
-      <c r="CE35" s="6"/>
-      <c r="CF35" s="5"/>
-      <c r="CG35" s="5"/>
-    </row>
-    <row r="36" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="29"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="30"/>
-      <c r="AI36" s="30"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="30"/>
-      <c r="AM36" s="30"/>
-      <c r="AN36" s="30"/>
-      <c r="AO36" s="30"/>
-      <c r="AP36" s="30"/>
-      <c r="AQ36" s="30"/>
-      <c r="AR36" s="30"/>
-      <c r="AS36" s="30"/>
-      <c r="AT36" s="30"/>
-      <c r="AU36" s="30"/>
-      <c r="AV36" s="30"/>
-      <c r="AW36" s="30"/>
-      <c r="AX36" s="30"/>
-      <c r="AY36" s="30"/>
-      <c r="AZ36" s="30"/>
-      <c r="BA36" s="30"/>
-      <c r="BB36" s="30"/>
-      <c r="BC36" s="30"/>
-      <c r="BD36" s="30"/>
-      <c r="BE36" s="30"/>
-      <c r="BF36" s="30"/>
-      <c r="BG36" s="30"/>
-      <c r="BH36" s="30"/>
-      <c r="BI36" s="30"/>
-      <c r="BJ36" s="30"/>
-      <c r="BK36" s="30"/>
-      <c r="BL36" s="30"/>
-      <c r="BM36" s="30"/>
-      <c r="BN36" s="30"/>
-      <c r="BO36" s="30"/>
-      <c r="BP36" s="30"/>
-      <c r="BQ36" s="30"/>
-      <c r="BR36" s="30"/>
-      <c r="BS36" s="30"/>
-      <c r="BT36" s="30"/>
-      <c r="BU36" s="30"/>
-      <c r="BV36" s="30"/>
-      <c r="BW36" s="30"/>
-      <c r="BX36" s="30"/>
-      <c r="BY36" s="30"/>
-      <c r="BZ36" s="30"/>
-      <c r="CA36" s="30"/>
-      <c r="CB36" s="30"/>
-      <c r="CC36" s="30"/>
-      <c r="CD36" s="30"/>
-      <c r="CE36" s="30"/>
+    <row r="35" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="10"/>
+      <c r="AZ35" s="10"/>
+      <c r="BA35" s="10"/>
+      <c r="BB35" s="10"/>
+      <c r="BC35" s="10"/>
+      <c r="BD35" s="10"/>
+      <c r="BE35" s="10"/>
+      <c r="BF35" s="10"/>
+      <c r="BG35" s="10"/>
+      <c r="BH35" s="10"/>
+      <c r="BI35" s="10"/>
+      <c r="BJ35" s="10"/>
+      <c r="BK35" s="10"/>
+      <c r="BL35" s="10"/>
+      <c r="BM35" s="10"/>
+      <c r="BN35" s="10"/>
+      <c r="BO35" s="10"/>
+      <c r="BP35" s="10"/>
+      <c r="BQ35" s="10"/>
+      <c r="BR35" s="10"/>
+      <c r="BS35" s="10"/>
+      <c r="BT35" s="10"/>
+      <c r="BU35" s="10"/>
+      <c r="BV35" s="10"/>
+      <c r="BW35" s="10"/>
+      <c r="BX35" s="10"/>
+      <c r="BY35" s="10"/>
+      <c r="BZ35" s="10"/>
+      <c r="CA35" s="10"/>
+      <c r="CB35" s="10"/>
+      <c r="CC35" s="10"/>
+      <c r="CD35" s="10"/>
+      <c r="CE35" s="10"/>
+      <c r="CF35" s="10"/>
+      <c r="CG35" s="10"/>
+    </row>
+    <row r="36" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="8"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="9"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="5"/>
+      <c r="BL36" s="5"/>
+      <c r="BM36" s="6"/>
+      <c r="BN36" s="5"/>
+      <c r="BO36" s="5"/>
+      <c r="BP36" s="6"/>
+      <c r="BQ36" s="5"/>
+      <c r="BR36" s="5"/>
+      <c r="BS36" s="6"/>
+      <c r="BT36" s="5"/>
+      <c r="BU36" s="5"/>
+      <c r="BV36" s="6"/>
+      <c r="BW36" s="5"/>
+      <c r="BX36" s="5"/>
+      <c r="BY36" s="6"/>
+      <c r="BZ36" s="5"/>
+      <c r="CA36" s="5"/>
+      <c r="CB36" s="6"/>
+      <c r="CC36" s="5"/>
+      <c r="CD36" s="5"/>
+      <c r="CE36" s="6"/>
+      <c r="CF36" s="5"/>
+      <c r="CG36" s="5"/>
     </row>
     <row r="37" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="29"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
@@ -6178,8 +6203,6 @@
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
@@ -6252,16 +6275,91 @@
       <c r="CD39" s="30"/>
       <c r="CE39" s="30"/>
     </row>
-    <row r="42" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M42" s="30"/>
-      <c r="BF42" s="28"/>
+    <row r="40" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="29"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="30"/>
+      <c r="AH40" s="30"/>
+      <c r="AI40" s="30"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="30"/>
+      <c r="AL40" s="30"/>
+      <c r="AM40" s="30"/>
+      <c r="AN40" s="30"/>
+      <c r="AO40" s="30"/>
+      <c r="AP40" s="30"/>
+      <c r="AQ40" s="30"/>
+      <c r="AR40" s="30"/>
+      <c r="AS40" s="30"/>
+      <c r="AT40" s="30"/>
+      <c r="AU40" s="30"/>
+      <c r="AV40" s="30"/>
+      <c r="AW40" s="30"/>
+      <c r="AX40" s="30"/>
+      <c r="AY40" s="30"/>
+      <c r="AZ40" s="30"/>
+      <c r="BA40" s="30"/>
+      <c r="BB40" s="30"/>
+      <c r="BC40" s="30"/>
+      <c r="BD40" s="30"/>
+      <c r="BE40" s="30"/>
+      <c r="BF40" s="30"/>
+      <c r="BG40" s="30"/>
+      <c r="BH40" s="30"/>
+      <c r="BI40" s="30"/>
+      <c r="BJ40" s="30"/>
+      <c r="BK40" s="30"/>
+      <c r="BL40" s="30"/>
+      <c r="BM40" s="30"/>
+      <c r="BN40" s="30"/>
+      <c r="BO40" s="30"/>
+      <c r="BP40" s="30"/>
+      <c r="BQ40" s="30"/>
+      <c r="BR40" s="30"/>
+      <c r="BS40" s="30"/>
+      <c r="BT40" s="30"/>
+      <c r="BU40" s="30"/>
+      <c r="BV40" s="30"/>
+      <c r="BW40" s="30"/>
+      <c r="BX40" s="30"/>
+      <c r="BY40" s="30"/>
+      <c r="BZ40" s="30"/>
+      <c r="CA40" s="30"/>
+      <c r="CB40" s="30"/>
+      <c r="CC40" s="30"/>
+      <c r="CD40" s="30"/>
+      <c r="CE40" s="30"/>
     </row>
     <row r="43" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M43" s="15"/>
-    </row>
-    <row r="46" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="28"/>
-      <c r="C46" s="25"/>
+      <c r="M43" s="30"/>
+      <c r="BF43" s="28"/>
+    </row>
+    <row r="44" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M44" s="15"/>
     </row>
     <row r="47" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="28"/>
@@ -6273,7 +6371,7 @@
     </row>
     <row r="49" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="28"/>
-      <c r="C49" s="26"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="28"/>
@@ -6289,11 +6387,11 @@
     </row>
     <row r="53" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="28"/>
-      <c r="C53" s="27"/>
+      <c r="C53" s="26"/>
     </row>
     <row r="54" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="28"/>
-      <c r="C54" s="26"/>
+      <c r="C54" s="27"/>
     </row>
     <row r="55" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="28"/>
@@ -6313,7 +6411,7 @@
     </row>
     <row r="59" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="28"/>
-      <c r="C59" s="27"/>
+      <c r="C59" s="26"/>
     </row>
     <row r="60" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="28"/>
@@ -6363,61 +6461,65 @@
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
     </row>
-    <row r="74" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="27"/>
-      <c r="T74" s="27"/>
-      <c r="U74" s="27"/>
-      <c r="V74" s="27"/>
-      <c r="W74" s="27"/>
-      <c r="X74" s="27"/>
-      <c r="Y74" s="27"/>
-      <c r="Z74" s="27"/>
-      <c r="AA74" s="27"/>
+    <row r="72" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="28"/>
+      <c r="C72" s="27"/>
     </row>
     <row r="75" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="28"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
+    </row>
+    <row r="76" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2C594E-A8CE-9049-A70D-0C301CC6B740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB317CF-2B88-4146-8719-9B75C33AB28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="223">
   <si>
     <t>Source Name</t>
   </si>
@@ -710,9 +710,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>protocols.extract_protocol</t>
@@ -2197,13 +2194,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3613D5-BDC4-E141-9C9A-87C99351C8EE}">
-  <dimension ref="A1:CG76"/>
+  <dimension ref="A1:CG77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="20" topLeftCell="BP21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="20" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="CB36" sqref="CB36"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2212,7 +2209,7 @@
     <col min="2" max="2" width="36.6640625" style="24" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="59" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="65.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="67.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -2275,10 +2272,10 @@
     <col min="65" max="65" width="39.5" style="4" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="58.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="67" max="67" width="64.5" style="4" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="39.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.33203125" style="4" customWidth="1"/>
     <col min="69" max="69" width="57.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="70" max="70" width="63.5" style="4" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="85.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="34.6640625" style="4" hidden="1" customWidth="1"/>
     <col min="72" max="72" width="56.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="73" max="73" width="62.5" style="4" hidden="1" customWidth="1"/>
     <col min="74" max="74" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -3423,27 +3420,27 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="W11" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA11" s="33"/>
       <c r="AB11" s="32"/>
@@ -3453,7 +3450,7 @@
       <c r="AD11" s="32"/>
       <c r="AE11" s="32"/>
       <c r="AF11" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG11" s="32"/>
       <c r="AH11" s="32"/>
@@ -3461,7 +3458,7 @@
       <c r="AJ11" s="32"/>
       <c r="AK11" s="32"/>
       <c r="AL11" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM11" s="32"/>
       <c r="AN11" s="32"/>
@@ -3469,7 +3466,7 @@
       <c r="AP11" s="32"/>
       <c r="AQ11" s="32"/>
       <c r="AR11" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AS11" s="32"/>
       <c r="AT11" s="32"/>
@@ -3477,7 +3474,7 @@
       <c r="AV11" s="32"/>
       <c r="AW11" s="32"/>
       <c r="AX11" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY11" s="32"/>
       <c r="AZ11" s="32"/>
@@ -3485,7 +3482,7 @@
       <c r="BB11" s="32"/>
       <c r="BC11" s="32"/>
       <c r="BD11" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE11" s="32"/>
       <c r="BF11" s="32"/>
@@ -3493,27 +3490,27 @@
       <c r="BH11" s="32"/>
       <c r="BI11" s="32"/>
       <c r="BJ11" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BK11" s="32"/>
       <c r="BL11" s="32"/>
       <c r="BM11" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BN11" s="32"/>
       <c r="BO11" s="32"/>
       <c r="BP11" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BQ11" s="32"/>
       <c r="BR11" s="32"/>
       <c r="BS11" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BT11" s="32"/>
       <c r="BU11" s="32"/>
       <c r="BV11" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BW11" s="32"/>
       <c r="BX11" s="32"/>
@@ -3568,17 +3565,17 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
       <c r="T12" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U12" s="36"/>
       <c r="V12" s="36"/>
       <c r="W12" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA12" s="37"/>
       <c r="AB12" s="38"/>
@@ -3588,7 +3585,7 @@
       <c r="AD12" s="36"/>
       <c r="AE12" s="36"/>
       <c r="AF12" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG12" s="36"/>
       <c r="AH12" s="36"/>
@@ -3596,7 +3593,7 @@
       <c r="AJ12" s="36"/>
       <c r="AK12" s="36"/>
       <c r="AL12" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM12" s="38"/>
       <c r="AN12" s="38"/>
@@ -3604,7 +3601,7 @@
       <c r="AP12" s="38"/>
       <c r="AQ12" s="38"/>
       <c r="AR12" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AS12" s="38"/>
       <c r="AT12" s="38"/>
@@ -3612,7 +3609,7 @@
       <c r="AV12" s="38"/>
       <c r="AW12" s="38"/>
       <c r="AX12" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AY12" s="38"/>
       <c r="AZ12" s="38"/>
@@ -3620,7 +3617,7 @@
       <c r="BB12" s="38"/>
       <c r="BC12" s="38"/>
       <c r="BD12" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BE12" s="36"/>
       <c r="BF12" s="36"/>
@@ -3628,42 +3625,42 @@
       <c r="BH12" s="36"/>
       <c r="BI12" s="36"/>
       <c r="BJ12" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BK12" s="36"/>
       <c r="BL12" s="36"/>
       <c r="BM12" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BN12" s="36"/>
       <c r="BO12" s="36"/>
       <c r="BP12" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BQ12" s="36"/>
       <c r="BR12" s="36"/>
       <c r="BS12" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BT12" s="36"/>
       <c r="BU12" s="36"/>
       <c r="BV12" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW12" s="36"/>
       <c r="BX12" s="36"/>
       <c r="BY12" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BZ12" s="36"/>
       <c r="CA12" s="36"/>
       <c r="CB12" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CC12" s="36"/>
       <c r="CD12" s="36"/>
       <c r="CE12" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="CF12" s="37"/>
       <c r="CG12" s="37"/>
@@ -3698,7 +3695,7 @@
       <c r="U13" s="40"/>
       <c r="V13" s="40"/>
       <c r="W13" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X13" s="41"/>
       <c r="Y13" s="41"/>
@@ -3887,7 +3884,7 @@
         <v>165</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -4592,7 +4589,9 @@
       <c r="D22" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
@@ -4703,17 +4702,17 @@
       <c r="BW22" s="15"/>
       <c r="BX22" s="15"/>
       <c r="BY22" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BZ22" s="15"/>
       <c r="CA22" s="15"/>
       <c r="CB22" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="CC22" s="23"/>
       <c r="CD22" s="23"/>
       <c r="CE22" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="CF22" s="10"/>
       <c r="CG22" s="10"/>
@@ -4723,7 +4722,7 @@
         <v>172</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>182</v>
@@ -4732,7 +4731,7 @@
         <v>182</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -4864,7 +4863,7 @@
         <v>172</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="15">
         <v>5</v>
@@ -4959,7 +4958,7 @@
         <v>172</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -5050,7 +5049,7 @@
         <v>172</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -5141,7 +5140,7 @@
         <v>172</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -5232,7 +5231,7 @@
         <v>172</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -5505,7 +5504,7 @@
         <v>174</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -5596,7 +5595,7 @@
         <v>174</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -5687,7 +5686,7 @@
         <v>174</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -5778,7 +5777,7 @@
         <v>174</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -5869,7 +5868,7 @@
         <v>174</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -5955,177 +5954,191 @@
       <c r="CF35" s="10"/>
       <c r="CG35" s="10"/>
     </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="5"/>
-      <c r="AR36" s="8"/>
-      <c r="AS36" s="5"/>
-      <c r="AT36" s="5"/>
-      <c r="AU36" s="5"/>
-      <c r="AV36" s="5"/>
-      <c r="AW36" s="5"/>
-      <c r="AX36" s="9"/>
-      <c r="AY36" s="5"/>
-      <c r="AZ36" s="5"/>
-      <c r="BA36" s="5"/>
-      <c r="BB36" s="5"/>
-      <c r="BC36" s="5"/>
-      <c r="BD36" s="9"/>
-      <c r="BE36" s="5"/>
-      <c r="BF36" s="5"/>
-      <c r="BG36" s="5"/>
-      <c r="BH36" s="5"/>
-      <c r="BI36" s="5"/>
-      <c r="BJ36" s="6"/>
-      <c r="BK36" s="5"/>
-      <c r="BL36" s="5"/>
-      <c r="BM36" s="6"/>
-      <c r="BN36" s="5"/>
-      <c r="BO36" s="5"/>
-      <c r="BP36" s="6"/>
-      <c r="BQ36" s="5"/>
-      <c r="BR36" s="5"/>
-      <c r="BS36" s="6"/>
-      <c r="BT36" s="5"/>
-      <c r="BU36" s="5"/>
-      <c r="BV36" s="6"/>
-      <c r="BW36" s="5"/>
-      <c r="BX36" s="5"/>
-      <c r="BY36" s="6"/>
-      <c r="BZ36" s="5"/>
-      <c r="CA36" s="5"/>
-      <c r="CB36" s="6"/>
-      <c r="CC36" s="5"/>
-      <c r="CD36" s="5"/>
-      <c r="CE36" s="6"/>
-      <c r="CF36" s="5"/>
-      <c r="CG36" s="5"/>
-    </row>
-    <row r="37" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="29"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="30"/>
-      <c r="AI37" s="30"/>
-      <c r="AJ37" s="30"/>
-      <c r="AK37" s="30"/>
-      <c r="AL37" s="30"/>
-      <c r="AM37" s="30"/>
-      <c r="AN37" s="30"/>
-      <c r="AO37" s="30"/>
-      <c r="AP37" s="30"/>
-      <c r="AQ37" s="30"/>
-      <c r="AR37" s="30"/>
-      <c r="AS37" s="30"/>
-      <c r="AT37" s="30"/>
-      <c r="AU37" s="30"/>
-      <c r="AV37" s="30"/>
-      <c r="AW37" s="30"/>
-      <c r="AX37" s="30"/>
-      <c r="AY37" s="30"/>
-      <c r="AZ37" s="30"/>
-      <c r="BA37" s="30"/>
-      <c r="BB37" s="30"/>
-      <c r="BC37" s="30"/>
-      <c r="BD37" s="30"/>
-      <c r="BE37" s="30"/>
-      <c r="BF37" s="30"/>
-      <c r="BG37" s="30"/>
-      <c r="BH37" s="30"/>
-      <c r="BI37" s="30"/>
-      <c r="BJ37" s="30"/>
-      <c r="BK37" s="30"/>
-      <c r="BL37" s="30"/>
-      <c r="BM37" s="30"/>
-      <c r="BN37" s="30"/>
-      <c r="BO37" s="30"/>
-      <c r="BP37" s="30"/>
-      <c r="BQ37" s="30"/>
-      <c r="BR37" s="30"/>
-      <c r="BS37" s="30"/>
-      <c r="BT37" s="30"/>
-      <c r="BU37" s="30"/>
-      <c r="BV37" s="30"/>
-      <c r="BW37" s="30"/>
-      <c r="BX37" s="30"/>
-      <c r="BY37" s="30"/>
-      <c r="BZ37" s="30"/>
-      <c r="CA37" s="30"/>
-      <c r="CB37" s="30"/>
-      <c r="CC37" s="30"/>
-      <c r="CD37" s="30"/>
-      <c r="CE37" s="30"/>
+    <row r="36" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10"/>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="10"/>
+      <c r="AT36" s="10"/>
+      <c r="AU36" s="10"/>
+      <c r="AV36" s="10"/>
+      <c r="AW36" s="10"/>
+      <c r="AX36" s="10"/>
+      <c r="AY36" s="10"/>
+      <c r="AZ36" s="10"/>
+      <c r="BA36" s="10"/>
+      <c r="BB36" s="10"/>
+      <c r="BC36" s="10"/>
+      <c r="BD36" s="10"/>
+      <c r="BE36" s="10"/>
+      <c r="BF36" s="10"/>
+      <c r="BG36" s="10"/>
+      <c r="BH36" s="10"/>
+      <c r="BI36" s="10"/>
+      <c r="BJ36" s="10"/>
+      <c r="BK36" s="10"/>
+      <c r="BL36" s="10"/>
+      <c r="BM36" s="10"/>
+      <c r="BN36" s="10"/>
+      <c r="BO36" s="10"/>
+      <c r="BP36" s="10"/>
+      <c r="BQ36" s="10"/>
+      <c r="BR36" s="10"/>
+      <c r="BS36" s="10"/>
+      <c r="BT36" s="10"/>
+      <c r="BU36" s="10"/>
+      <c r="BV36" s="10"/>
+      <c r="BW36" s="10"/>
+      <c r="BX36" s="10"/>
+      <c r="BY36" s="10"/>
+      <c r="BZ36" s="10"/>
+      <c r="CA36" s="10"/>
+      <c r="CB36" s="10"/>
+      <c r="CC36" s="10"/>
+      <c r="CD36" s="10"/>
+      <c r="CE36" s="10"/>
+      <c r="CF36" s="10"/>
+      <c r="CG36" s="10"/>
+    </row>
+    <row r="37" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="5"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="9"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5"/>
+      <c r="BG37" s="5"/>
+      <c r="BH37" s="5"/>
+      <c r="BI37" s="5"/>
+      <c r="BJ37" s="6"/>
+      <c r="BK37" s="5"/>
+      <c r="BL37" s="5"/>
+      <c r="BM37" s="6"/>
+      <c r="BN37" s="5"/>
+      <c r="BO37" s="5"/>
+      <c r="BP37" s="6"/>
+      <c r="BQ37" s="5"/>
+      <c r="BR37" s="5"/>
+      <c r="BS37" s="6"/>
+      <c r="BT37" s="5"/>
+      <c r="BU37" s="5"/>
+      <c r="BV37" s="6"/>
+      <c r="BW37" s="5"/>
+      <c r="BX37" s="5"/>
+      <c r="BY37" s="6"/>
+      <c r="BZ37" s="5"/>
+      <c r="CA37" s="5"/>
+      <c r="CB37" s="6"/>
+      <c r="CC37" s="5"/>
+      <c r="CD37" s="5"/>
+      <c r="CE37" s="6"/>
+      <c r="CF37" s="5"/>
+      <c r="CG37" s="5"/>
     </row>
     <row r="38" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="29"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="30"/>
       <c r="L38" s="30"/>
       <c r="M38" s="30"/>
@@ -6280,8 +6293,6 @@
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
       <c r="M40" s="30"/>
@@ -6354,16 +6365,91 @@
       <c r="CD40" s="30"/>
       <c r="CE40" s="30"/>
     </row>
-    <row r="43" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M43" s="30"/>
-      <c r="BF43" s="28"/>
+    <row r="41" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="29"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="30"/>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="30"/>
+      <c r="AO41" s="30"/>
+      <c r="AP41" s="30"/>
+      <c r="AQ41" s="30"/>
+      <c r="AR41" s="30"/>
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="30"/>
+      <c r="AU41" s="30"/>
+      <c r="AV41" s="30"/>
+      <c r="AW41" s="30"/>
+      <c r="AX41" s="30"/>
+      <c r="AY41" s="30"/>
+      <c r="AZ41" s="30"/>
+      <c r="BA41" s="30"/>
+      <c r="BB41" s="30"/>
+      <c r="BC41" s="30"/>
+      <c r="BD41" s="30"/>
+      <c r="BE41" s="30"/>
+      <c r="BF41" s="30"/>
+      <c r="BG41" s="30"/>
+      <c r="BH41" s="30"/>
+      <c r="BI41" s="30"/>
+      <c r="BJ41" s="30"/>
+      <c r="BK41" s="30"/>
+      <c r="BL41" s="30"/>
+      <c r="BM41" s="30"/>
+      <c r="BN41" s="30"/>
+      <c r="BO41" s="30"/>
+      <c r="BP41" s="30"/>
+      <c r="BQ41" s="30"/>
+      <c r="BR41" s="30"/>
+      <c r="BS41" s="30"/>
+      <c r="BT41" s="30"/>
+      <c r="BU41" s="30"/>
+      <c r="BV41" s="30"/>
+      <c r="BW41" s="30"/>
+      <c r="BX41" s="30"/>
+      <c r="BY41" s="30"/>
+      <c r="BZ41" s="30"/>
+      <c r="CA41" s="30"/>
+      <c r="CB41" s="30"/>
+      <c r="CC41" s="30"/>
+      <c r="CD41" s="30"/>
+      <c r="CE41" s="30"/>
     </row>
     <row r="44" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M44" s="15"/>
-    </row>
-    <row r="47" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="28"/>
-      <c r="C47" s="25"/>
+      <c r="M44" s="30"/>
+      <c r="BF44" s="28"/>
+    </row>
+    <row r="45" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M45" s="15"/>
     </row>
     <row r="48" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="28"/>
@@ -6375,7 +6461,7 @@
     </row>
     <row r="50" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="28"/>
-      <c r="C50" s="26"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="28"/>
@@ -6391,11 +6477,11 @@
     </row>
     <row r="54" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="28"/>
-      <c r="C54" s="27"/>
+      <c r="C54" s="26"/>
     </row>
     <row r="55" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="28"/>
-      <c r="C55" s="26"/>
+      <c r="C55" s="27"/>
     </row>
     <row r="56" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="28"/>
@@ -6415,7 +6501,7 @@
     </row>
     <row r="60" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="28"/>
-      <c r="C60" s="27"/>
+      <c r="C60" s="26"/>
     </row>
     <row r="61" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="28"/>
@@ -6465,61 +6551,65 @@
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
     </row>
-    <row r="75" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
-      <c r="R75" s="27"/>
-      <c r="S75" s="27"/>
-      <c r="T75" s="27"/>
-      <c r="U75" s="27"/>
-      <c r="V75" s="27"/>
-      <c r="W75" s="27"/>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="27"/>
-      <c r="Z75" s="27"/>
-      <c r="AA75" s="27"/>
+    <row r="73" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="28"/>
+      <c r="C73" s="27"/>
     </row>
     <row r="76" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="28"/>
-      <c r="U76" s="28"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="27"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+    </row>
+    <row r="77" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="28"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="28"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+      <c r="AA77" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB317CF-2B88-4146-8719-9B75C33AB28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665AD68F-C21E-7647-80A3-8AE88F6A99DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-3840" yWindow="-20540" windowWidth="32980" windowHeight="19120" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -2200,7 +2200,7 @@
       <pane xSplit="2" ySplit="20" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665AD68F-C21E-7647-80A3-8AE88F6A99DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5FB623-A435-E74B-A986-42EA948C3F82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3840" yWindow="-20540" windowWidth="32980" windowHeight="19120" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-1220" yWindow="-20120" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -679,15 +679,9 @@
     <t>URI</t>
   </si>
   <si>
-    <t>ER Pipeline: GEO - RNASeq - Plants</t>
-  </si>
-  <si>
     <t>ER target term</t>
   </si>
   <si>
-    <t>ER Pipeline: MetaboLights - Metabolomics - Plants</t>
-  </si>
-  <si>
     <t>samples.sample_name</t>
   </si>
   <si>
@@ -830,6 +824,12 @@
   </si>
   <si>
     <t>Review comments</t>
+  </si>
+  <si>
+    <t>ER METABOLIGHTS_METABOLOMICS</t>
+  </si>
+  <si>
+    <t>ER GEO_RNASEQ</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1054,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1139,6 +1139,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2200,7 +2201,7 @@
       <pane xSplit="2" ySplit="20" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3420,27 +3421,27 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="W11" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AA11" s="33"/>
       <c r="AB11" s="32"/>
@@ -3450,7 +3451,7 @@
       <c r="AD11" s="32"/>
       <c r="AE11" s="32"/>
       <c r="AF11" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG11" s="32"/>
       <c r="AH11" s="32"/>
@@ -3458,7 +3459,7 @@
       <c r="AJ11" s="32"/>
       <c r="AK11" s="32"/>
       <c r="AL11" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AM11" s="32"/>
       <c r="AN11" s="32"/>
@@ -3466,7 +3467,7 @@
       <c r="AP11" s="32"/>
       <c r="AQ11" s="32"/>
       <c r="AR11" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AS11" s="32"/>
       <c r="AT11" s="32"/>
@@ -3474,7 +3475,7 @@
       <c r="AV11" s="32"/>
       <c r="AW11" s="32"/>
       <c r="AX11" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AY11" s="32"/>
       <c r="AZ11" s="32"/>
@@ -3482,7 +3483,7 @@
       <c r="BB11" s="32"/>
       <c r="BC11" s="32"/>
       <c r="BD11" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BE11" s="32"/>
       <c r="BF11" s="32"/>
@@ -3490,27 +3491,27 @@
       <c r="BH11" s="32"/>
       <c r="BI11" s="32"/>
       <c r="BJ11" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BK11" s="32"/>
       <c r="BL11" s="32"/>
       <c r="BM11" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BN11" s="32"/>
       <c r="BO11" s="32"/>
       <c r="BP11" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BQ11" s="32"/>
       <c r="BR11" s="32"/>
       <c r="BS11" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT11" s="32"/>
       <c r="BU11" s="32"/>
       <c r="BV11" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BW11" s="32"/>
       <c r="BX11" s="32"/>
@@ -3565,17 +3566,17 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
       <c r="T12" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U12" s="36"/>
       <c r="V12" s="36"/>
       <c r="W12" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA12" s="37"/>
       <c r="AB12" s="38"/>
@@ -3585,7 +3586,7 @@
       <c r="AD12" s="36"/>
       <c r="AE12" s="36"/>
       <c r="AF12" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG12" s="36"/>
       <c r="AH12" s="36"/>
@@ -3593,7 +3594,7 @@
       <c r="AJ12" s="36"/>
       <c r="AK12" s="36"/>
       <c r="AL12" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AM12" s="38"/>
       <c r="AN12" s="38"/>
@@ -3601,7 +3602,7 @@
       <c r="AP12" s="38"/>
       <c r="AQ12" s="38"/>
       <c r="AR12" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AS12" s="38"/>
       <c r="AT12" s="38"/>
@@ -3609,7 +3610,7 @@
       <c r="AV12" s="38"/>
       <c r="AW12" s="38"/>
       <c r="AX12" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AY12" s="38"/>
       <c r="AZ12" s="38"/>
@@ -3617,7 +3618,7 @@
       <c r="BB12" s="38"/>
       <c r="BC12" s="38"/>
       <c r="BD12" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BE12" s="36"/>
       <c r="BF12" s="36"/>
@@ -3625,42 +3626,42 @@
       <c r="BH12" s="36"/>
       <c r="BI12" s="36"/>
       <c r="BJ12" s="36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BK12" s="36"/>
       <c r="BL12" s="36"/>
       <c r="BM12" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BN12" s="36"/>
       <c r="BO12" s="36"/>
       <c r="BP12" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BQ12" s="36"/>
       <c r="BR12" s="36"/>
       <c r="BS12" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BT12" s="36"/>
       <c r="BU12" s="36"/>
       <c r="BV12" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BW12" s="36"/>
       <c r="BX12" s="36"/>
       <c r="BY12" s="36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BZ12" s="36"/>
       <c r="CA12" s="36"/>
       <c r="CB12" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="CC12" s="36"/>
       <c r="CD12" s="36"/>
       <c r="CE12" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="CF12" s="37"/>
       <c r="CG12" s="37"/>
@@ -3695,7 +3696,7 @@
       <c r="U13" s="40"/>
       <c r="V13" s="40"/>
       <c r="W13" s="42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="X13" s="41"/>
       <c r="Y13" s="41"/>
@@ -3884,7 +3885,7 @@
         <v>165</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -4577,75 +4578,75 @@
       <c r="CG21" s="54"/>
     </row>
     <row r="22" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="E22" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AJ22" s="15"/>
       <c r="AK22" s="15"/>
       <c r="AL22" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
@@ -4653,7 +4654,7 @@
       <c r="AP22" s="15"/>
       <c r="AQ22" s="15"/>
       <c r="AR22" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AS22" s="15"/>
       <c r="AT22" s="15"/>
@@ -4661,7 +4662,7 @@
       <c r="AV22" s="15"/>
       <c r="AW22" s="15"/>
       <c r="AX22" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AY22" s="15"/>
       <c r="AZ22" s="15"/>
@@ -4669,7 +4670,7 @@
       <c r="BB22" s="15"/>
       <c r="BC22" s="15"/>
       <c r="BD22" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BE22" s="15"/>
       <c r="BF22" s="15"/>
@@ -4677,116 +4678,116 @@
       <c r="BH22" s="15"/>
       <c r="BI22" s="15"/>
       <c r="BJ22" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
       <c r="BM22" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BN22" s="15"/>
       <c r="BO22" s="15"/>
       <c r="BP22" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BQ22" s="15"/>
       <c r="BR22" s="15"/>
       <c r="BS22" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BT22" s="15"/>
       <c r="BU22" s="15"/>
       <c r="BV22" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BW22" s="15"/>
       <c r="BX22" s="15"/>
       <c r="BY22" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BZ22" s="15"/>
       <c r="CA22" s="15"/>
       <c r="CB22" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="CC22" s="23"/>
       <c r="CD22" s="23"/>
       <c r="CE22" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="CF22" s="10"/>
       <c r="CG22" s="10"/>
     </row>
     <row r="23" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>172</v>
+      <c r="A23" s="62" t="s">
+        <v>222</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG23" s="15"/>
       <c r="AH23" s="15"/>
       <c r="AI23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AJ23" s="15"/>
       <c r="AK23" s="15"/>
       <c r="AL23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
@@ -4794,7 +4795,7 @@
       <c r="AP23" s="15"/>
       <c r="AQ23" s="15"/>
       <c r="AR23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AS23" s="15"/>
       <c r="AT23" s="15"/>
@@ -4802,7 +4803,7 @@
       <c r="AV23" s="15"/>
       <c r="AW23" s="15"/>
       <c r="AX23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AY23" s="15"/>
       <c r="AZ23" s="15"/>
@@ -4810,7 +4811,7 @@
       <c r="BB23" s="15"/>
       <c r="BC23" s="15"/>
       <c r="BD23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BE23" s="15"/>
       <c r="BF23" s="15"/>
@@ -4818,52 +4819,52 @@
       <c r="BH23" s="15"/>
       <c r="BI23" s="15"/>
       <c r="BJ23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
       <c r="BM23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BN23" s="15"/>
       <c r="BO23" s="15"/>
       <c r="BP23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BQ23" s="15"/>
       <c r="BR23" s="15"/>
       <c r="BS23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BT23" s="15"/>
       <c r="BU23" s="15"/>
       <c r="BV23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BW23" s="15"/>
       <c r="BX23" s="15"/>
       <c r="BY23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BZ23" s="15"/>
       <c r="CA23" s="15"/>
       <c r="CB23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="CC23" s="15"/>
       <c r="CD23" s="15"/>
       <c r="CE23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="CF23" s="10"/>
       <c r="CG23" s="10"/>
     </row>
     <row r="24" spans="1:85" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>172</v>
+      <c r="A24" s="62" t="s">
+        <v>222</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C24" s="15">
         <v>5</v>
@@ -4954,11 +4955,11 @@
       <c r="CG24" s="10"/>
     </row>
     <row r="25" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>172</v>
+      <c r="A25" s="62" t="s">
+        <v>222</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -5045,11 +5046,11 @@
       <c r="CG25" s="10"/>
     </row>
     <row r="26" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>172</v>
+      <c r="A26" s="62" t="s">
+        <v>222</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -5136,11 +5137,11 @@
       <c r="CG26" s="10"/>
     </row>
     <row r="27" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>172</v>
+      <c r="A27" s="62" t="s">
+        <v>222</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -5227,11 +5228,11 @@
       <c r="CG27" s="10"/>
     </row>
     <row r="28" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>172</v>
+      <c r="A28" s="62" t="s">
+        <v>222</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -5410,10 +5411,10 @@
     </row>
     <row r="30" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -5501,10 +5502,10 @@
     </row>
     <row r="31" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -5592,10 +5593,10 @@
     </row>
     <row r="32" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -5683,10 +5684,10 @@
     </row>
     <row r="33" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -5774,10 +5775,10 @@
     </row>
     <row r="34" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -5865,10 +5866,10 @@
     </row>
     <row r="35" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -5956,10 +5957,10 @@
     </row>
     <row r="36" spans="1:85" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5FB623-A435-E74B-A986-42EA948C3F82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE239394-58A8-4248-BEFE-BA461E53D2CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1220" yWindow="-20120" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4220" yWindow="-21100" windowWidth="33100" windowHeight="18840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -2201,7 +2201,7 @@
       <pane xSplit="2" ySplit="20" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6643,59 +6643,6 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
-  <SwateTable Table="annotationTable1" Worksheet="Sheet1">
-    <ProtocolGroup SwateVersion="0.4.6" TableName="annotationTable1" WorksheetName="Sheet1">
-      <Protocol Id="Plant growth" ProtocolVersion="1.0.2" SwateVersion="0.4.6" TableName="annotationTable1" WorksheetName="Sheet1">
-        <SpannedBuildingBlock Name="Characteristics [Biological replicate]" TermAccession="NFDI4PSO:0000042"/>
-        <SpannedBuildingBlock Name="Characteristics [Organism]" TermAccession="NFDI4PSO:0000030"/>
-        <SpannedBuildingBlock Name="Characteristics [Genotype]" TermAccession="NFDI4PSO:0000031"/>
-        <SpannedBuildingBlock Name="Characteristics [Organism part]" TermAccession="NFDI4PSO:0000032"/>
-        <SpannedBuildingBlock Name="Characteristics [age]" TermAccession="NFDI4PSO:0000033"/>
-        <SpannedBuildingBlock Name="Characteristics [study type]" TermAccession="PECO:0007231"/>
-        <SpannedBuildingBlock Name="Characteristics [plant growth medium exposure]" TermAccession="PECO:0007147"/>
-        <SpannedBuildingBlock Name="Characteristics [growth plot design]" TermAccession="NFDI4PSO:0000001"/>
-        <SpannedBuildingBlock Name="Characteristics [Growth day length]" TermAccession="NFDI4PSO:0000041"/>
-        <SpannedBuildingBlock Name="Characteristics [light intensity exposure]" TermAccession="PECO:0007224"/>
-        <SpannedBuildingBlock Name="Characteristics [Humidity Day]" TermAccession="NFDI4PSO:0000005"/>
-        <SpannedBuildingBlock Name="Characteristics [Humidity Night]" TermAccession="NFDI4PSO:0000006"/>
-        <SpannedBuildingBlock Name="Characteristics [Temperature Day]" TermAccession="NFDI4PSO:0000007"/>
-        <SpannedBuildingBlock Name="Characteristics [Temperature Night]" TermAccession="NFDI4PSO:0000008"/>
-        <SpannedBuildingBlock Name="Characteristics [watering exposure]" TermAccession="PECO:0007383"/>
-        <SpannedBuildingBlock Name="Characteristics [plant nutrient exposure]" TermAccession="PECO:0007241"/>
-        <SpannedBuildingBlock Name="Characteristics [abiotic plant exposure]" TermAccession="PECO:0007191"/>
-        <SpannedBuildingBlock Name="Characteristics [biotic plant exposure]" TermAccession="PECO:0007357"/>
-        <SpannedBuildingBlock Name="Characteristics [Time point]" TermAccession="NFDI4PSO:0000034"/>
-        <SpannedBuildingBlock Name="Parameter [Sample Collection Method]" TermAccession="NFDI4PSO:0000009"/>
-        <SpannedBuildingBlock Name="Parameter [Metabolism quenching method]" TermAccession="NFDI4PSO:0000010"/>
-        <SpannedBuildingBlock Name="Parameter [Sample storage]" TermAccession="NFDI4PSO:0000011"/>
-        <SpannedBuildingBlock Name="Parameter [ThisIsATest]" TermAccession=""/>
-      </Protocol>
-    </ProtocolGroup>
-    <TableValidation DateTime="2021-04-21 15:32" SwateVersion="0.4.0" TableName="annotationTable1" Userlist="" WorksheetName="Sheet1">
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Characteristics [Biological replicate]" Importance="3" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Characteristics [Organism]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Organism"/>
-      <ColumnValidation ColumnAdress="8" ColumnHeader="Characteristics [Genotype]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Characteristics [Organism part]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Organism part"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Characteristics [age]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="17" ColumnHeader="Characteristics [study type]" Importance="4" Unit="None" ValidationFormat="OntologyTerm study type"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Characteristics [plant growth medium exposure]" Importance="4" Unit="None" ValidationFormat="OntologyTerm plant growth medium exposure"/>
-      <ColumnValidation ColumnAdress="23" ColumnHeader="Characteristics [growth plot design]" Importance="4" Unit="None" ValidationFormat="OntologyTerm growth plot design"/>
-      <ColumnValidation ColumnAdress="26" ColumnHeader="Characteristics [Growth day length]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="29" ColumnHeader="Characteristics [light intensity exposure]" Importance="4" Unit="microeinstein per square meter per second" ValidationFormat="UnitTerm microeinstein per square meter per second"/>
-      <ColumnValidation ColumnAdress="35" ColumnHeader="Characteristics [Humidity Day]" Importance="4" Unit="percent" ValidationFormat="UnitTerm percent"/>
-      <ColumnValidation ColumnAdress="41" ColumnHeader="Characteristics [Humidity Night]" Importance="4" Unit="percent" ValidationFormat="UnitTerm percent"/>
-      <ColumnValidation ColumnAdress="47" ColumnHeader="Characteristics [Temperature Day]" Importance="4" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
-      <ColumnValidation ColumnAdress="53" ColumnHeader="Characteristics [Temperature Night]" Importance="4" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
-      <ColumnValidation ColumnAdress="59" ColumnHeader="Characteristics [watering exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="62" ColumnHeader="Characteristics [plant nutrient exposure]" Importance="4" Unit="None" ValidationFormat="OntologyTerm plant nutrient exposure"/>
-      <ColumnValidation ColumnAdress="65" ColumnHeader="Characteristics [abiotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="68" ColumnHeader="Characteristics [biotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="71" ColumnHeader="Characteristics [Time point]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="74" ColumnHeader="Parameter [Sample Collection Method]" Importance="4" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="77" ColumnHeader="Parameter [Metabolism quenching method]" Importance="4" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="80" ColumnHeader="Parameter [Sample storage]" Importance="4" Unit="None" ValidationFormat="None"/>
-    </TableValidation>
-  </SwateTable>
   <SwateTable Table="annotationTable" Worksheet="1SPL01_plants">
     <TableValidation DateTime="2021-03-12 12:35" SwateVersion="0.4.0" TableName="annotationTable" Userlist="" WorksheetName="1SPL01_plants">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
@@ -6728,7 +6675,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38D8C9D9-4233-524E-91B5-995146D7D2E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77BD6A4-7F11-6049-9E2E-9C53F7712488}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD3173-3707-A944-8B70-DA4ABD8861D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78C6747-973C-E649-B459-929C8ABEE4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -1659,6 +1659,94 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
@@ -1705,7 +1793,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1722,6 +1809,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1730,7 +1818,397 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1747,6 +2225,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1755,7 +2234,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1772,6 +2250,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1780,7 +2259,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1797,6 +2275,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1805,7 +2284,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1822,489 +2300,11 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2714,93 +2714,93 @@
     <tableColumn id="126" xr3:uid="{D48EF60D-FFC4-DA42-8A84-9D7BEC94EB5C}" name="Characteristics [Developmental Stage]" dataDxfId="89"/>
     <tableColumn id="127" xr3:uid="{B7FB233D-7D8A-A34E-91AE-3E96612329F2}" name="Term Source REF [Developmental Stage] (#h; #tNFDI4PSO:0000070)" dataDxfId="88"/>
     <tableColumn id="128" xr3:uid="{0CFCFB6B-CC3F-A24A-B1A8-77F2863EAED6}" name="Term Accession Number [Developmental Stage] (#h; #tNFDI4PSO:0000070)" dataDxfId="87"/>
-    <tableColumn id="129" xr3:uid="{A1014B91-8574-664B-A628-2DDC01083E67}" name="Characteristics [Plant disease]" dataDxfId="18"/>
-    <tableColumn id="130" xr3:uid="{CF451DD4-AB45-1144-8BBF-C2C23EAE7EBC}" name="Term Source REF [Plant disease] (#h; #tNFDI4PSO:0000071)" dataDxfId="20"/>
-    <tableColumn id="131" xr3:uid="{4A90236E-F6AF-BE44-8703-08F06FE96AF5}" name="Term Accession Number [Plant disease] (#h; #tNFDI4PSO:0000071)" dataDxfId="19"/>
-    <tableColumn id="132" xr3:uid="{1F37D0D2-6260-584B-9CC0-9A72C472F841}" name="Characteristics [Plant disease stage]" dataDxfId="15"/>
-    <tableColumn id="133" xr3:uid="{2348DA4F-92E0-8547-AA7D-FCB641272A62}" name="Term Source REF [Plant disease stage] (#h; #tNFDI4PSO:0000072)" dataDxfId="17"/>
-    <tableColumn id="134" xr3:uid="{76B2929E-FEFA-C94A-9351-B07EA87DB902}" name="Term Accession Number [Plant disease stage] (#h; #tNFDI4PSO:0000072)" dataDxfId="16"/>
-    <tableColumn id="135" xr3:uid="{BEBD2093-9306-0C42-AFAE-735502002BE7}" name="Characteristics [Phenotype]" dataDxfId="12"/>
-    <tableColumn id="136" xr3:uid="{109579A2-3212-484D-A514-9571CF9305C5}" name="Term Source REF [Phenotype] (#h; #tNFDI4PSO:0000073)" dataDxfId="14"/>
-    <tableColumn id="137" xr3:uid="{77978229-5807-DE4F-A777-C5E343D79A55}" name="Term Accession Number [Phenotype] (#h; #tNFDI4PSO:0000073)" dataDxfId="13"/>
-    <tableColumn id="138" xr3:uid="{65D76AFE-F9A3-544C-B9C1-4D6C71488C92}" name="Characteristics [whole plant size]" dataDxfId="9"/>
-    <tableColumn id="139" xr3:uid="{91B73049-DC8D-D94B-8B5F-76E283D04557}" name="Term Source REF [whole plant size] (#h; #tTO:1000012)" dataDxfId="11"/>
-    <tableColumn id="140" xr3:uid="{6FB79EF4-9E54-8D45-BB9F-CE997665B054}" name="Term Accession Number [whole plant size] (#h; #tTO:1000012)" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="86"/>
-    <tableColumn id="27" xr3:uid="{5FF2BBBF-350F-9842-8FDF-2F895B07EADF}" name="Term Source REF [study type] (#h; #tPECO:0007231)" dataDxfId="85"/>
-    <tableColumn id="28" xr3:uid="{E12790EC-754D-3244-8A7A-1242F7942612}" name="Term Accession Number [study type] (#h; #tPECO:0007231)" dataDxfId="84"/>
-    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="83"/>
-    <tableColumn id="24" xr3:uid="{0C19F4A6-F9E8-1F4F-9B61-EB31E6DF451A}" name="Term Source REF [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="82"/>
-    <tableColumn id="25" xr3:uid="{7BBED07D-F814-A245-B090-723342B3D631}" name="Term Accession Number [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="81"/>
-    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="80"/>
-    <tableColumn id="30" xr3:uid="{86FAE20B-4F89-EE4F-91E6-CE3B7E712F95}" name="Term Source REF [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="79"/>
-    <tableColumn id="31" xr3:uid="{C0949892-595C-9742-BCD1-75134FAC012F}" name="Term Accession Number [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="78"/>
-    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="77"/>
-    <tableColumn id="33" xr3:uid="{4E2448E1-3D08-504C-8FE3-D71B801F4DC9}" name="Term Source REF [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="76"/>
-    <tableColumn id="34" xr3:uid="{D47410BE-0000-B648-8CE5-966EE8968909}" name="Term Accession Number [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="75"/>
-    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="74"/>
-    <tableColumn id="36" xr3:uid="{FD04748E-7F58-4A46-A167-E5EB1375A50B}" name="Term Source REF [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="73"/>
-    <tableColumn id="37" xr3:uid="{D76E6422-DF20-B94A-B5A6-4FD7F7923EBF}" name="Term Accession Number [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{8E446DD1-817A-E84A-9536-47B88B72BFD8}" name="Unit [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{BCB29467-6D87-F141-98A0-60243765731F}" name="Term Source REF [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{D2565EAD-7C86-C343-800D-E37FD463093B}" name="Term Accession Number [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="69"/>
-    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="68"/>
-    <tableColumn id="39" xr3:uid="{8B1D9CC4-6026-674C-9852-06A06365907B}" name="Term Source REF [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="67"/>
-    <tableColumn id="40" xr3:uid="{8CCA0026-8267-884E-8F9A-369ACCB825EA}" name="Term Accession Number [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="66"/>
-    <tableColumn id="9" xr3:uid="{9508FD23-5388-F64E-8286-05B533856CA2}" name="Unit [percent] (#h; #tUO:0000187; #u)" dataDxfId="65"/>
-    <tableColumn id="10" xr3:uid="{F796BC22-CBE1-6D41-824E-F655C3F9D5B6}" name="Term Source REF [percent] (#h; #tUO:0000187; #u)" dataDxfId="64"/>
-    <tableColumn id="11" xr3:uid="{32AC3DD8-82CD-4349-BFD5-0805A34144D8}" name="Term Accession Number [percent] (#h; #tUO:0000187; #u)" dataDxfId="63"/>
-    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="62"/>
-    <tableColumn id="42" xr3:uid="{FE26FC08-E3D1-7547-8E20-1363EF47EE86}" name="Term Source REF [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="61"/>
-    <tableColumn id="43" xr3:uid="{C6D20AF0-60A8-874E-9614-2A2F483EB262}" name="Term Accession Number [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="60"/>
-    <tableColumn id="12" xr3:uid="{2866C2CF-81B3-694E-B2D9-F69059F54AA2}" name="Unit [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="59"/>
-    <tableColumn id="13" xr3:uid="{A885FE47-7729-3B45-B73D-03FF1F114CD5}" name="Term Source REF [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="58"/>
-    <tableColumn id="65" xr3:uid="{A3AEBB25-5500-F249-866E-C98439259F17}" name="Term Accession Number [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="57"/>
-    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="56"/>
-    <tableColumn id="45" xr3:uid="{23233498-CFC4-9F46-94D5-39E7A6B5AFB5}" name="Term Source REF [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="55"/>
-    <tableColumn id="46" xr3:uid="{346D483D-D0DE-5140-A015-4AD0367BAD4D}" name="Term Accession Number [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="54"/>
-    <tableColumn id="66" xr3:uid="{57808D06-1B53-8D41-BEB4-1644A20F7763}" name="Unit [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="53"/>
-    <tableColumn id="67" xr3:uid="{A7356A0D-0EFD-3D44-9B2F-4566273E79E8}" name="Term Source REF [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="52"/>
-    <tableColumn id="68" xr3:uid="{AD21FFE5-445B-CB42-B199-FDD8BAD5635D}" name="Term Accession Number [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="51"/>
-    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="50"/>
-    <tableColumn id="48" xr3:uid="{3A76D4EC-C74F-0A4B-B340-8EF3D8B86ECB}" name="Term Source REF [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="49"/>
-    <tableColumn id="49" xr3:uid="{87034985-F2AC-A145-AA6A-9EDB63F919F9}" name="Term Accession Number [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="48"/>
-    <tableColumn id="69" xr3:uid="{6D54D968-A087-944D-BF64-3AC3D5B08F80}" name="Unit [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="47"/>
-    <tableColumn id="70" xr3:uid="{AE04B49D-BF47-F34B-B52A-752ECD10B8C7}" name="Term Source REF [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="46"/>
-    <tableColumn id="71" xr3:uid="{2A40040A-D450-EF49-AB82-0CEEB3D8A599}" name="Term Accession Number [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="45"/>
-    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="44"/>
-    <tableColumn id="51" xr3:uid="{808AA82E-ECE0-AD47-92D3-27D7C93007B7}" name="Term Source REF [watering exposure] (#h; #tPECO:0007383)" dataDxfId="43"/>
-    <tableColumn id="52" xr3:uid="{7C45B5F9-759B-E646-A40E-CB5363DF17A8}" name="Term Accession Number [watering exposure] (#h; #tPECO:0007383)" dataDxfId="42"/>
-    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="41"/>
-    <tableColumn id="54" xr3:uid="{FD6AD7C0-D253-D04C-8B67-6124B6C5D685}" name="Term Source REF [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="40"/>
-    <tableColumn id="55" xr3:uid="{95BC5752-0FFE-8C4E-BFE3-4FED8B72A648}" name="Term Accession Number [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="39"/>
-    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="38"/>
-    <tableColumn id="57" xr3:uid="{19EC9032-1152-F940-ADB1-397E054EED4E}" name="Term Source REF [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="37"/>
-    <tableColumn id="58" xr3:uid="{40EA0154-215C-C44C-A5D6-852F5DA9A25C}" name="Term Accession Number [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="36"/>
-    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="35"/>
-    <tableColumn id="60" xr3:uid="{2836636A-01C7-9C4E-9B41-EE6FEE3D7B80}" name="Term Source REF [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="34"/>
-    <tableColumn id="61" xr3:uid="{E4A74FCF-2E01-354A-99CE-0602774F8706}" name="Term Accession Number [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="33"/>
-    <tableColumn id="141" xr3:uid="{76BC0B00-263D-ED4F-A9A2-143148146694}" name="Characteristics [Geogaphic Area]" dataDxfId="6"/>
-    <tableColumn id="142" xr3:uid="{752BC19A-0C01-7F45-9374-DD0350C7B0D8}" name="Term Source REF [Geogaphic Area] (#h; #tNFDI4PSO:0000074)" dataDxfId="8"/>
-    <tableColumn id="143" xr3:uid="{5E52848A-36B7-4E4F-B77F-EFA6EC9BD00B}" name="Term Accession Number [Geogaphic Area] (#h; #tNFDI4PSO:0000074)" dataDxfId="7"/>
-    <tableColumn id="144" xr3:uid="{AD03CA40-5B78-8B41-9E4D-03DCE23E11E1}" name="Characteristics [Sample Collection Date]" dataDxfId="5"/>
-    <tableColumn id="145" xr3:uid="{6AC68041-2E25-9444-831A-05A07C9D4229}" name="Term Source REF [Sample Collection Date] (#h; #tNFDI4PSO:0000075)" dataDxfId="4"/>
-    <tableColumn id="146" xr3:uid="{7C695C41-0D47-6842-83E2-1435AFB1EF52}" name="Term Accession Number [Sample Collection Date] (#h; #tNFDI4PSO:0000075)" dataDxfId="3"/>
-    <tableColumn id="147" xr3:uid="{1F9082F2-7F61-614D-B072-F3DE7238714F}" name="Characteristics [Sample Collected By]" dataDxfId="2"/>
-    <tableColumn id="148" xr3:uid="{5F6F8541-8734-6242-A386-C4FCE4A4D156}" name="Term Source REF [Sample Collected By] (#h; #tNFDI4PSO:0000076)" dataDxfId="1"/>
-    <tableColumn id="149" xr3:uid="{36185F91-0DB8-EE4B-96A2-DF807E8CD12E}" name="Term Accession Number [Sample Collected By] (#h; #tNFDI4PSO:0000076)" dataDxfId="0"/>
-    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="32"/>
-    <tableColumn id="63" xr3:uid="{D78E63DF-76E2-AE4F-A9AA-86CB096E0FD1}" name="Term Source REF [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="31"/>
-    <tableColumn id="64" xr3:uid="{4E3E838B-D518-9B41-95E4-AE65DE3C4242}" name="Term Accession Number [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="30"/>
-    <tableColumn id="75" xr3:uid="{7FBEC602-6866-EE4C-901B-A620EADE0B55}" name="Parameter [Sample Collection Method]" dataDxfId="29"/>
-    <tableColumn id="76" xr3:uid="{082E37E1-9067-2344-AFED-4C0AB2E6608F}" name="Term Source REF [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="28"/>
-    <tableColumn id="77" xr3:uid="{23CA10DE-9FDA-A94D-84CF-7C5F7143EE90}" name="Term Accession Number [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="27"/>
-    <tableColumn id="78" xr3:uid="{DD36BBD7-7DDE-4B4B-B0E7-E088C0737C72}" name="Parameter [Metabolism quenching method]" dataDxfId="26"/>
-    <tableColumn id="79" xr3:uid="{E9A2A827-A7E3-E44F-8034-982633580E8D}" name="Term Source REF [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="25"/>
-    <tableColumn id="80" xr3:uid="{ECB588C7-B9C0-8741-BE8A-1CDECCED4ED4}" name="Term Accession Number [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="24"/>
-    <tableColumn id="81" xr3:uid="{125431A9-D115-4A4B-A917-1C0A2F361D5C}" name="Parameter [Sample storage]" dataDxfId="23"/>
-    <tableColumn id="82" xr3:uid="{A56F8F05-EAAB-FD40-8F2F-AD66235065C4}" name="Term Source REF [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="22"/>
-    <tableColumn id="83" xr3:uid="{AB05BD40-EE64-3547-80D7-EDD26BB0F77A}" name="Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="21"/>
+    <tableColumn id="129" xr3:uid="{A1014B91-8574-664B-A628-2DDC01083E67}" name="Characteristics [Plant disease]" dataDxfId="86"/>
+    <tableColumn id="130" xr3:uid="{CF451DD4-AB45-1144-8BBF-C2C23EAE7EBC}" name="Term Source REF [Plant disease] (#h; #tNFDI4PSO:0000071)" dataDxfId="85"/>
+    <tableColumn id="131" xr3:uid="{4A90236E-F6AF-BE44-8703-08F06FE96AF5}" name="Term Accession Number [Plant disease] (#h; #tNFDI4PSO:0000071)" dataDxfId="84"/>
+    <tableColumn id="132" xr3:uid="{1F37D0D2-6260-584B-9CC0-9A72C472F841}" name="Characteristics [Plant disease stage]" dataDxfId="83"/>
+    <tableColumn id="133" xr3:uid="{2348DA4F-92E0-8547-AA7D-FCB641272A62}" name="Term Source REF [Plant disease stage] (#h; #tNFDI4PSO:0000072)" dataDxfId="82"/>
+    <tableColumn id="134" xr3:uid="{76B2929E-FEFA-C94A-9351-B07EA87DB902}" name="Term Accession Number [Plant disease stage] (#h; #tNFDI4PSO:0000072)" dataDxfId="81"/>
+    <tableColumn id="135" xr3:uid="{BEBD2093-9306-0C42-AFAE-735502002BE7}" name="Characteristics [Phenotype]" dataDxfId="80"/>
+    <tableColumn id="136" xr3:uid="{109579A2-3212-484D-A514-9571CF9305C5}" name="Term Source REF [Phenotype] (#h; #tNFDI4PSO:0000073)" dataDxfId="79"/>
+    <tableColumn id="137" xr3:uid="{77978229-5807-DE4F-A777-C5E343D79A55}" name="Term Accession Number [Phenotype] (#h; #tNFDI4PSO:0000073)" dataDxfId="78"/>
+    <tableColumn id="138" xr3:uid="{65D76AFE-F9A3-544C-B9C1-4D6C71488C92}" name="Characteristics [whole plant size]" dataDxfId="77"/>
+    <tableColumn id="139" xr3:uid="{91B73049-DC8D-D94B-8B5F-76E283D04557}" name="Term Source REF [whole plant size] (#h; #tTO:1000012)" dataDxfId="76"/>
+    <tableColumn id="140" xr3:uid="{6FB79EF4-9E54-8D45-BB9F-CE997665B054}" name="Term Accession Number [whole plant size] (#h; #tTO:1000012)" dataDxfId="75"/>
+    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="74"/>
+    <tableColumn id="27" xr3:uid="{5FF2BBBF-350F-9842-8FDF-2F895B07EADF}" name="Term Source REF [study type] (#h; #tPECO:0007231)" dataDxfId="73"/>
+    <tableColumn id="28" xr3:uid="{E12790EC-754D-3244-8A7A-1242F7942612}" name="Term Accession Number [study type] (#h; #tPECO:0007231)" dataDxfId="72"/>
+    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="71"/>
+    <tableColumn id="24" xr3:uid="{0C19F4A6-F9E8-1F4F-9B61-EB31E6DF451A}" name="Term Source REF [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="70"/>
+    <tableColumn id="25" xr3:uid="{7BBED07D-F814-A245-B090-723342B3D631}" name="Term Accession Number [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="69"/>
+    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="68"/>
+    <tableColumn id="30" xr3:uid="{86FAE20B-4F89-EE4F-91E6-CE3B7E712F95}" name="Term Source REF [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="67"/>
+    <tableColumn id="31" xr3:uid="{C0949892-595C-9742-BCD1-75134FAC012F}" name="Term Accession Number [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="66"/>
+    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="65"/>
+    <tableColumn id="33" xr3:uid="{4E2448E1-3D08-504C-8FE3-D71B801F4DC9}" name="Term Source REF [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="64"/>
+    <tableColumn id="34" xr3:uid="{D47410BE-0000-B648-8CE5-966EE8968909}" name="Term Accession Number [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="63"/>
+    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="62"/>
+    <tableColumn id="36" xr3:uid="{FD04748E-7F58-4A46-A167-E5EB1375A50B}" name="Term Source REF [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="61"/>
+    <tableColumn id="37" xr3:uid="{D76E6422-DF20-B94A-B5A6-4FD7F7923EBF}" name="Term Accession Number [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{8E446DD1-817A-E84A-9536-47B88B72BFD8}" name="Unit [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{BCB29467-6D87-F141-98A0-60243765731F}" name="Term Source REF [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{D2565EAD-7C86-C343-800D-E37FD463093B}" name="Term Accession Number [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="57"/>
+    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="56"/>
+    <tableColumn id="39" xr3:uid="{8B1D9CC4-6026-674C-9852-06A06365907B}" name="Term Source REF [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="55"/>
+    <tableColumn id="40" xr3:uid="{8CCA0026-8267-884E-8F9A-369ACCB825EA}" name="Term Accession Number [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{9508FD23-5388-F64E-8286-05B533856CA2}" name="Unit [percent] (#h; #tUO:0000187; #u)" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{F796BC22-CBE1-6D41-824E-F655C3F9D5B6}" name="Term Source REF [percent] (#h; #tUO:0000187; #u)" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{32AC3DD8-82CD-4349-BFD5-0805A34144D8}" name="Term Accession Number [percent] (#h; #tUO:0000187; #u)" dataDxfId="51"/>
+    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="50"/>
+    <tableColumn id="42" xr3:uid="{FE26FC08-E3D1-7547-8E20-1363EF47EE86}" name="Term Source REF [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="49"/>
+    <tableColumn id="43" xr3:uid="{C6D20AF0-60A8-874E-9614-2A2F483EB262}" name="Term Accession Number [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{2866C2CF-81B3-694E-B2D9-F69059F54AA2}" name="Unit [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{A885FE47-7729-3B45-B73D-03FF1F114CD5}" name="Term Source REF [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="46"/>
+    <tableColumn id="65" xr3:uid="{A3AEBB25-5500-F249-866E-C98439259F17}" name="Term Accession Number [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="45"/>
+    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="44"/>
+    <tableColumn id="45" xr3:uid="{23233498-CFC4-9F46-94D5-39E7A6B5AFB5}" name="Term Source REF [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="43"/>
+    <tableColumn id="46" xr3:uid="{346D483D-D0DE-5140-A015-4AD0367BAD4D}" name="Term Accession Number [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="42"/>
+    <tableColumn id="66" xr3:uid="{57808D06-1B53-8D41-BEB4-1644A20F7763}" name="Unit [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="41"/>
+    <tableColumn id="67" xr3:uid="{A7356A0D-0EFD-3D44-9B2F-4566273E79E8}" name="Term Source REF [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="40"/>
+    <tableColumn id="68" xr3:uid="{AD21FFE5-445B-CB42-B199-FDD8BAD5635D}" name="Term Accession Number [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="39"/>
+    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="38"/>
+    <tableColumn id="48" xr3:uid="{3A76D4EC-C74F-0A4B-B340-8EF3D8B86ECB}" name="Term Source REF [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="37"/>
+    <tableColumn id="49" xr3:uid="{87034985-F2AC-A145-AA6A-9EDB63F919F9}" name="Term Accession Number [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="36"/>
+    <tableColumn id="69" xr3:uid="{6D54D968-A087-944D-BF64-3AC3D5B08F80}" name="Unit [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="35"/>
+    <tableColumn id="70" xr3:uid="{AE04B49D-BF47-F34B-B52A-752ECD10B8C7}" name="Term Source REF [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="34"/>
+    <tableColumn id="71" xr3:uid="{2A40040A-D450-EF49-AB82-0CEEB3D8A599}" name="Term Accession Number [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="33"/>
+    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="32"/>
+    <tableColumn id="51" xr3:uid="{808AA82E-ECE0-AD47-92D3-27D7C93007B7}" name="Term Source REF [watering exposure] (#h; #tPECO:0007383)" dataDxfId="31"/>
+    <tableColumn id="52" xr3:uid="{7C45B5F9-759B-E646-A40E-CB5363DF17A8}" name="Term Accession Number [watering exposure] (#h; #tPECO:0007383)" dataDxfId="30"/>
+    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="29"/>
+    <tableColumn id="54" xr3:uid="{FD6AD7C0-D253-D04C-8B67-6124B6C5D685}" name="Term Source REF [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="28"/>
+    <tableColumn id="55" xr3:uid="{95BC5752-0FFE-8C4E-BFE3-4FED8B72A648}" name="Term Accession Number [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="27"/>
+    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="26"/>
+    <tableColumn id="57" xr3:uid="{19EC9032-1152-F940-ADB1-397E054EED4E}" name="Term Source REF [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="25"/>
+    <tableColumn id="58" xr3:uid="{40EA0154-215C-C44C-A5D6-852F5DA9A25C}" name="Term Accession Number [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="24"/>
+    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="23"/>
+    <tableColumn id="60" xr3:uid="{2836636A-01C7-9C4E-9B41-EE6FEE3D7B80}" name="Term Source REF [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="22"/>
+    <tableColumn id="61" xr3:uid="{E4A74FCF-2E01-354A-99CE-0602774F8706}" name="Term Accession Number [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="21"/>
+    <tableColumn id="141" xr3:uid="{76BC0B00-263D-ED4F-A9A2-143148146694}" name="Characteristics [Geogaphic Area]" dataDxfId="20"/>
+    <tableColumn id="142" xr3:uid="{752BC19A-0C01-7F45-9374-DD0350C7B0D8}" name="Term Source REF [Geogaphic Area] (#h; #tNFDI4PSO:0000074)" dataDxfId="19"/>
+    <tableColumn id="143" xr3:uid="{5E52848A-36B7-4E4F-B77F-EFA6EC9BD00B}" name="Term Accession Number [Geogaphic Area] (#h; #tNFDI4PSO:0000074)" dataDxfId="18"/>
+    <tableColumn id="144" xr3:uid="{AD03CA40-5B78-8B41-9E4D-03DCE23E11E1}" name="Characteristics [Sample Collection Date]" dataDxfId="17"/>
+    <tableColumn id="145" xr3:uid="{6AC68041-2E25-9444-831A-05A07C9D4229}" name="Term Source REF [Sample Collection Date] (#h; #tNFDI4PSO:0000075)" dataDxfId="16"/>
+    <tableColumn id="146" xr3:uid="{7C695C41-0D47-6842-83E2-1435AFB1EF52}" name="Term Accession Number [Sample Collection Date] (#h; #tNFDI4PSO:0000075)" dataDxfId="15"/>
+    <tableColumn id="147" xr3:uid="{1F9082F2-7F61-614D-B072-F3DE7238714F}" name="Characteristics [Sample Collected By]" dataDxfId="14"/>
+    <tableColumn id="148" xr3:uid="{5F6F8541-8734-6242-A386-C4FCE4A4D156}" name="Term Source REF [Sample Collected By] (#h; #tNFDI4PSO:0000076)" dataDxfId="13"/>
+    <tableColumn id="149" xr3:uid="{36185F91-0DB8-EE4B-96A2-DF807E8CD12E}" name="Term Accession Number [Sample Collected By] (#h; #tNFDI4PSO:0000076)" dataDxfId="12"/>
+    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="11"/>
+    <tableColumn id="63" xr3:uid="{D78E63DF-76E2-AE4F-A9AA-86CB096E0FD1}" name="Term Source REF [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="10"/>
+    <tableColumn id="64" xr3:uid="{4E3E838B-D518-9B41-95E4-AE65DE3C4242}" name="Term Accession Number [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="9"/>
+    <tableColumn id="75" xr3:uid="{7FBEC602-6866-EE4C-901B-A620EADE0B55}" name="Parameter [Sample Collection Method]" dataDxfId="8"/>
+    <tableColumn id="76" xr3:uid="{082E37E1-9067-2344-AFED-4C0AB2E6608F}" name="Term Source REF [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="7"/>
+    <tableColumn id="77" xr3:uid="{23CA10DE-9FDA-A94D-84CF-7C5F7143EE90}" name="Term Accession Number [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="6"/>
+    <tableColumn id="78" xr3:uid="{DD36BBD7-7DDE-4B4B-B0E7-E088C0737C72}" name="Parameter [Metabolism quenching method]" dataDxfId="5"/>
+    <tableColumn id="79" xr3:uid="{E9A2A827-A7E3-E44F-8034-982633580E8D}" name="Term Source REF [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="4"/>
+    <tableColumn id="80" xr3:uid="{ECB588C7-B9C0-8741-BE8A-1CDECCED4ED4}" name="Term Accession Number [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="3"/>
+    <tableColumn id="81" xr3:uid="{125431A9-D115-4A4B-A917-1C0A2F361D5C}" name="Parameter [Sample storage]" dataDxfId="2"/>
+    <tableColumn id="82" xr3:uid="{A56F8F05-EAAB-FD40-8F2F-AD66235065C4}" name="Term Source REF [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="1"/>
+    <tableColumn id="83" xr3:uid="{AB05BD40-EE64-3547-80D7-EDD26BB0F77A}" name="Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3125,10 +3125,10 @@
   <dimension ref="A1:EI47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="21" topLeftCell="AL22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="21" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="AE23" sqref="AE23"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3137,131 +3137,131 @@
     <col min="3" max="3" width="29.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="53.5" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="33.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59" style="4" customWidth="1"/>
-    <col min="10" max="10" width="65.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="59" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="65.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="67.6640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.1640625" style="62" customWidth="1"/>
-    <col min="13" max="13" width="57.33203125" style="62" customWidth="1"/>
+    <col min="12" max="12" width="51.1640625" style="62" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="57.33203125" style="62" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="48.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="54.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="48.5" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="54.6640625" style="4" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="49.33203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="55.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="49.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="55.6640625" style="4" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="49.5" style="4" customWidth="1"/>
-    <col min="22" max="22" width="55.83203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="49.5" style="4" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="55.83203125" style="4" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="35.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="51.1640625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="57.33203125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="51.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="57.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="64.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="46.1640625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="52.33203125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="46.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="52.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="47.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="55.1640625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="61.33203125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="55.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="61.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="49.5" style="4" customWidth="1"/>
-    <col min="34" max="34" width="55.83203125" style="4" customWidth="1"/>
+    <col min="33" max="33" width="49.5" style="4" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="55.83203125" style="4" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="49" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="50.33203125" style="4" customWidth="1"/>
-    <col min="37" max="37" width="56.5" style="4" customWidth="1"/>
+    <col min="36" max="36" width="50.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="56.5" style="4" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="37.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="46" style="4" customWidth="1"/>
-    <col min="40" max="40" width="52.1640625" style="4" customWidth="1"/>
+    <col min="39" max="39" width="46" style="4" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="52.1640625" style="4" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="61.33203125" style="4" customWidth="1"/>
-    <col min="43" max="43" width="67.5" style="4" customWidth="1"/>
+    <col min="42" max="42" width="61.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="67.5" style="4" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="54" style="4" customWidth="1"/>
-    <col min="46" max="46" width="60.33203125" style="4" customWidth="1"/>
+    <col min="45" max="45" width="54" style="4" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="60.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="35.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="59.1640625" style="4" customWidth="1"/>
-    <col min="49" max="49" width="65.5" style="4" customWidth="1"/>
+    <col min="48" max="48" width="59.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="65.5" style="4" hidden="1" customWidth="1"/>
     <col min="50" max="50" width="38.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="51.83203125" style="4" customWidth="1"/>
-    <col min="52" max="52" width="58" style="4" customWidth="1"/>
+    <col min="51" max="51" width="51.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="58" style="4" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="50.33203125" style="4" customWidth="1"/>
-    <col min="55" max="55" width="56.5" style="4" customWidth="1"/>
+    <col min="54" max="54" width="50.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="56.5" style="4" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="39.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="47.5" style="4" customWidth="1"/>
-    <col min="58" max="58" width="53.6640625" style="4" customWidth="1"/>
+    <col min="57" max="57" width="47.5" style="4" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="53.6640625" style="4" hidden="1" customWidth="1"/>
     <col min="59" max="59" width="44.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="65.33203125" style="4" customWidth="1"/>
-    <col min="61" max="61" width="71.5" style="4" customWidth="1"/>
+    <col min="60" max="60" width="65.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="71.5" style="4" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="43" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="58.6640625" style="4" customWidth="1"/>
-    <col min="64" max="64" width="64.83203125" style="4" customWidth="1"/>
+    <col min="63" max="63" width="58.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="64.83203125" style="4" hidden="1" customWidth="1"/>
     <col min="65" max="65" width="39.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="58.6640625" style="4" customWidth="1"/>
-    <col min="67" max="67" width="64.83203125" style="4" customWidth="1"/>
+    <col min="66" max="66" width="58.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="64.83203125" style="4" hidden="1" customWidth="1"/>
     <col min="68" max="68" width="39.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="58.5" style="4" customWidth="1"/>
-    <col min="70" max="70" width="64.6640625" style="4" customWidth="1"/>
-    <col min="71" max="71" width="65.5" style="4" customWidth="1"/>
-    <col min="72" max="72" width="76.33203125" style="4" customWidth="1"/>
-    <col min="73" max="73" width="82.5" style="4" customWidth="1"/>
+    <col min="69" max="69" width="58.5" style="4" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="64.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="65.5" style="4" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="76.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="82.5" style="4" hidden="1" customWidth="1"/>
     <col min="74" max="74" width="77.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="54.6640625" style="4" customWidth="1"/>
-    <col min="76" max="76" width="61" style="4" customWidth="1"/>
-    <col min="77" max="77" width="35.5" style="4" customWidth="1"/>
-    <col min="78" max="78" width="46.33203125" style="4" customWidth="1"/>
-    <col min="79" max="79" width="52.5" style="4" customWidth="1"/>
+    <col min="75" max="75" width="54.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="61" style="4" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="35.5" style="4" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="46.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="52.5" style="4" hidden="1" customWidth="1"/>
     <col min="80" max="80" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="56" style="4" customWidth="1"/>
-    <col min="82" max="82" width="62.1640625" style="4" customWidth="1"/>
-    <col min="83" max="83" width="38.5" style="4" customWidth="1"/>
-    <col min="84" max="84" width="49.33203125" style="4" customWidth="1"/>
-    <col min="85" max="85" width="55.6640625" style="4" customWidth="1"/>
+    <col min="81" max="81" width="56" style="4" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="62.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="38.5" style="4" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="49.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="55.6640625" style="4" hidden="1" customWidth="1"/>
     <col min="86" max="86" width="79.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="57.83203125" style="4" customWidth="1"/>
-    <col min="88" max="88" width="64" style="4" customWidth="1"/>
-    <col min="89" max="89" width="41.33203125" style="4" customWidth="1"/>
-    <col min="90" max="90" width="52.1640625" style="4" customWidth="1"/>
-    <col min="91" max="91" width="58.33203125" style="4" customWidth="1"/>
+    <col min="87" max="87" width="57.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="64" style="4" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="41.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="52.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="58.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="92" max="92" width="40.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="59" style="4" customWidth="1"/>
-    <col min="94" max="94" width="65.33203125" style="4" customWidth="1"/>
-    <col min="95" max="95" width="44.33203125" style="4" customWidth="1"/>
-    <col min="96" max="96" width="55.33203125" style="4" customWidth="1"/>
-    <col min="97" max="97" width="61.5" style="4" customWidth="1"/>
+    <col min="93" max="93" width="59" style="4" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="65.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="44.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="55.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="61.5" style="4" hidden="1" customWidth="1"/>
     <col min="98" max="98" width="39.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="54.33203125" style="4" customWidth="1"/>
-    <col min="100" max="100" width="60.6640625" style="4" customWidth="1"/>
+    <col min="99" max="99" width="54.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="60.6640625" style="4" hidden="1" customWidth="1"/>
     <col min="101" max="101" width="39.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="58.33203125" style="4" customWidth="1"/>
-    <col min="103" max="103" width="64.5" style="4" customWidth="1"/>
+    <col min="102" max="102" width="58.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="64.5" style="4" hidden="1" customWidth="1"/>
     <col min="104" max="104" width="39.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="57.33203125" style="4" customWidth="1"/>
-    <col min="106" max="106" width="63.5" style="4" customWidth="1"/>
+    <col min="105" max="105" width="57.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="63.5" style="4" hidden="1" customWidth="1"/>
     <col min="107" max="107" width="85.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="56.33203125" style="4" customWidth="1"/>
-    <col min="109" max="109" width="62.5" style="4" customWidth="1"/>
-    <col min="110" max="110" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="56.33203125" style="4" customWidth="1"/>
-    <col min="112" max="112" width="62.5" style="4" customWidth="1"/>
-    <col min="113" max="113" width="37.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="62.6640625" style="4" customWidth="1"/>
-    <col min="115" max="115" width="68.83203125" style="4" customWidth="1"/>
-    <col min="116" max="116" width="35" style="4" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="60.33203125" style="4" customWidth="1"/>
-    <col min="118" max="118" width="66.5" style="4" customWidth="1"/>
-    <col min="119" max="119" width="60.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="52" style="4" customWidth="1"/>
-    <col min="121" max="121" width="58.1640625" style="4" customWidth="1"/>
+    <col min="108" max="108" width="56.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="109" max="109" width="62.5" style="4" hidden="1" customWidth="1"/>
+    <col min="110" max="110" width="38" style="4" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="56.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="62.5" style="4" hidden="1" customWidth="1"/>
+    <col min="113" max="113" width="38" style="4" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="62.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="68.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="38" style="4" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="60.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="66.5" style="4" hidden="1" customWidth="1"/>
+    <col min="119" max="119" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="52" style="4" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="58.1640625" style="4" hidden="1" customWidth="1"/>
     <col min="122" max="122" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="65" style="4" customWidth="1"/>
-    <col min="124" max="124" width="71.33203125" style="4" customWidth="1"/>
+    <col min="123" max="123" width="65" style="4" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="71.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="125" max="125" width="40.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="69.1640625" style="4" customWidth="1"/>
-    <col min="127" max="127" width="75.33203125" style="4" customWidth="1"/>
-    <col min="128" max="128" width="27.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="56.1640625" style="4" customWidth="1"/>
-    <col min="130" max="130" width="62.33203125" style="4" customWidth="1"/>
+    <col min="126" max="126" width="69.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="75.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="128" max="128" width="60.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="56.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="130" max="130" width="62.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="131" max="16384" width="30.5" style="4"/>
   </cols>
   <sheetData>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/1SPL01_plants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\SWATE_templates\templates\1SPL01_plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB2D995-EC4A-194A-8787-AB232FDDF1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40874395-9B21-4D31-868E-35BFD7DF4591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2940" yWindow="-21100" windowWidth="34980" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -539,7 +548,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="382">
   <si>
     <t>Source Name</t>
   </si>
@@ -1676,6 +1685,113 @@
   </si>
   <si>
     <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The name of the species used in the experiment (e.g. 'Mus musculus').
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Must be from ontology NEWT (UniProt Taxonomy database: https://www.uniprot.org/taxonomy/?query=&amp;sort=score)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Describes the tissue where your sample comes from (e.g. 'cholesteatoma tissue').
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Must be from BRENDA ontology.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The type of cells used in your sample (e.g. 'barrier epithelial cell').
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Must be from Cell ontology.</t>
+    </r>
+  </si>
+  <si>
+    <t>SME.disease</t>
+  </si>
+  <si>
+    <t>Controlled vocabulary term to describe a single cell type.
+Cell Type ontology CV terms are allowed [7].</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The name of the disease your sample is assigned with (e.g. 'abducens nerve disease').
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Must be from DOID ontology.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1906,7 +2022,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1979,7 +2095,6 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2015,12 +2130,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{13734DA0-054A-9F4C-97D4-CA0666BA285F}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{EA6456B1-9345-674B-83C0-73CFBFB7004A}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="130">
     <dxf>
@@ -3174,7 +3319,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3492,147 +3637,147 @@
   <dimension ref="A1:EI52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="21" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="21" topLeftCell="T42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="EB41" sqref="EB41"/>
+      <selection pane="bottomRight" activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.5" style="22"/>
-    <col min="3" max="3" width="29.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.5" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="59.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.625" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="33.625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="65.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="67.6640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.1640625" style="54" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="57.33203125" style="54" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="65.375" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="67.625" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.125" style="53" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="57.375" style="53" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="38" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="48.5" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="54.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="49.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="55.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="54.625" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="35.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="49.375" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="55.625" style="4" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="35.125" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="49.5" style="4" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="55.83203125" style="4" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="35.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="51.1640625" style="4" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="57.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="64.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="46.1640625" style="4" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="52.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="47.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="55.1640625" style="4" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="61.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="55.875" style="4" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="35.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="51.125" style="4" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="57.375" style="4" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="64.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="46.125" style="4" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="52.375" style="4" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="47.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="55.125" style="4" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="61.375" style="4" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="38" style="4" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="49.5" style="4" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="55.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="55.875" style="4" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="49" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="50.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="50.375" style="4" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="56.5" style="4" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="37.5" style="4" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="46" style="4" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="52.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="52.125" style="4" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="61.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="61.375" style="4" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="67.5" style="4" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="39.375" style="4" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="54" style="4" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="60.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="60.375" style="4" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="35.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="59.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="59.125" style="4" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="65.5" style="4" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="38.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="51.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="38.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="51.875" style="4" hidden="1" customWidth="1"/>
     <col min="52" max="52" width="58" style="4" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="50.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="31.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="50.375" style="4" hidden="1" customWidth="1"/>
     <col min="55" max="55" width="56.5" style="4" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="39.5" style="4" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="47.5" style="4" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="53.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="44.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="65.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="53.625" style="4" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="44.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="65.375" style="4" hidden="1" customWidth="1"/>
     <col min="61" max="61" width="71.5" style="4" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="43" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="58.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="64.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="58.625" style="4" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="64.875" style="4" hidden="1" customWidth="1"/>
     <col min="65" max="65" width="39.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="58.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="64.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="58.625" style="4" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="64.875" style="4" hidden="1" customWidth="1"/>
     <col min="68" max="68" width="39.5" style="4" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="58.5" style="4" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="64.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="64.625" style="4" hidden="1" customWidth="1"/>
     <col min="71" max="71" width="65.5" style="4" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="76.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="76.375" style="4" hidden="1" customWidth="1"/>
     <col min="73" max="73" width="82.5" style="4" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="77.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="54.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="77.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="54.625" style="4" hidden="1" customWidth="1"/>
     <col min="76" max="76" width="61" style="4" hidden="1" customWidth="1"/>
     <col min="77" max="77" width="35.5" style="4" hidden="1" customWidth="1"/>
-    <col min="78" max="78" width="46.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="46.375" style="4" hidden="1" customWidth="1"/>
     <col min="79" max="79" width="52.5" style="4" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="30.625" style="4" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="56" style="4" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="62.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="62.125" style="4" hidden="1" customWidth="1"/>
     <col min="83" max="83" width="38.5" style="4" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="49.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="55.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="79.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="57.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="49.375" style="4" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="55.625" style="4" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="79.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="57.875" style="4" hidden="1" customWidth="1"/>
     <col min="88" max="88" width="64" style="4" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="41.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="52.1640625" style="4" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="58.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="40.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="41.375" style="4" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="52.125" style="4" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="58.375" style="4" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="40.875" style="4" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="59" style="4" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="65.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="44.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="55.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="65.375" style="4" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="44.375" style="4" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="55.375" style="4" hidden="1" customWidth="1"/>
     <col min="97" max="97" width="61.5" style="4" hidden="1" customWidth="1"/>
     <col min="98" max="98" width="39.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="54.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="60.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="54.375" style="4" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="60.625" style="4" hidden="1" customWidth="1"/>
     <col min="101" max="101" width="39.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="58.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="58.375" style="4" hidden="1" customWidth="1"/>
     <col min="103" max="103" width="64.5" style="4" hidden="1" customWidth="1"/>
     <col min="104" max="104" width="39.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="57.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="105" max="105" width="57.375" style="4" hidden="1" customWidth="1"/>
     <col min="106" max="106" width="63.5" style="4" hidden="1" customWidth="1"/>
     <col min="107" max="107" width="85.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="56.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="108" max="108" width="56.375" style="4" hidden="1" customWidth="1"/>
     <col min="109" max="109" width="62.5" style="4" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="56.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="111" max="111" width="56.375" style="4" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="62.5" style="4" hidden="1" customWidth="1"/>
     <col min="113" max="113" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="62.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="68.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="114" max="114" width="62.625" style="4" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="68.875" style="4" hidden="1" customWidth="1"/>
     <col min="116" max="116" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="60.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="117" max="117" width="60.375" style="4" hidden="1" customWidth="1"/>
     <col min="118" max="118" width="66.5" style="4" hidden="1" customWidth="1"/>
-    <col min="119" max="119" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="35.125" style="4" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="52" style="4" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="58.1640625" style="4" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="58.125" style="4" hidden="1" customWidth="1"/>
+    <col min="122" max="122" width="36.375" style="4" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="65" style="4" hidden="1" customWidth="1"/>
-    <col min="124" max="124" width="71.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="71.375" style="4" hidden="1" customWidth="1"/>
     <col min="125" max="125" width="40.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="69.1640625" style="4" hidden="1" customWidth="1"/>
-    <col min="127" max="127" width="75.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="60.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="56.1640625" style="4" hidden="1" customWidth="1"/>
-    <col min="130" max="130" width="62.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="126" max="126" width="69.125" style="4" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="75.375" style="4" hidden="1" customWidth="1"/>
+    <col min="128" max="128" width="60.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="56.125" style="4" hidden="1" customWidth="1"/>
+    <col min="130" max="130" width="62.375" style="4" hidden="1" customWidth="1"/>
     <col min="131" max="16384" width="30.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
@@ -3766,7 +3911,7 @@
       <c r="DY1" s="3"/>
       <c r="DZ1" s="2"/>
     </row>
-    <row r="2" spans="1:139" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
@@ -4156,7 +4301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:139" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>83</v>
       </c>
@@ -4290,7 +4435,7 @@
       <c r="DY3" s="10"/>
       <c r="DZ3" s="10"/>
     </row>
-    <row r="4" spans="1:139" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="5"/>
@@ -4421,11 +4566,11 @@
       <c r="DX4" s="6"/>
       <c r="DY4" s="5"/>
       <c r="DZ4" s="5"/>
-      <c r="EA4" s="53"/>
-      <c r="ED4" s="53"/>
-      <c r="EG4" s="53"/>
+      <c r="EA4" s="52"/>
+      <c r="ED4" s="52"/>
+      <c r="EG4" s="52"/>
     </row>
-    <row r="5" spans="1:139" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>89</v>
       </c>
@@ -4583,7 +4728,7 @@
       <c r="DY5" s="10"/>
       <c r="DZ5" s="10"/>
     </row>
-    <row r="6" spans="1:139" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>89</v>
       </c>
@@ -4735,7 +4880,7 @@
       <c r="DY6" s="10"/>
       <c r="DZ6" s="10"/>
     </row>
-    <row r="7" spans="1:139" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:139" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>89</v>
       </c>
@@ -4881,7 +5026,7 @@
       <c r="DY7" s="10"/>
       <c r="DZ7" s="10"/>
     </row>
-    <row r="8" spans="1:139" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:139" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>89</v>
       </c>
@@ -5019,7 +5164,7 @@
       <c r="DY8" s="10"/>
       <c r="DZ8" s="10"/>
     </row>
-    <row r="9" spans="1:139" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:139" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>89</v>
       </c>
@@ -5155,7 +5300,7 @@
       <c r="DY9" s="10"/>
       <c r="DZ9" s="10"/>
     </row>
-    <row r="10" spans="1:139" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:139" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>89</v>
       </c>
@@ -5291,7 +5436,7 @@
       <c r="DY10" s="10"/>
       <c r="DZ10" s="10"/>
     </row>
-    <row r="11" spans="1:139" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:139" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="5"/>
@@ -5425,7 +5570,7 @@
       <c r="EH11" s="26"/>
       <c r="EI11" s="26"/>
     </row>
-    <row r="12" spans="1:139" s="26" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:139" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>165</v>
       </c>
@@ -5635,7 +5780,7 @@
       <c r="DY12" s="25"/>
       <c r="DZ12" s="25"/>
     </row>
-    <row r="13" spans="1:139" s="26" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:139" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>165</v>
       </c>
@@ -5827,7 +5972,7 @@
       <c r="DY13" s="29"/>
       <c r="DZ13" s="29"/>
     </row>
-    <row r="14" spans="1:139" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:139" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>165</v>
       </c>
@@ -5977,7 +6122,7 @@
       <c r="DY14" s="33"/>
       <c r="DZ14" s="33"/>
     </row>
-    <row r="15" spans="1:139" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:139" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>165</v>
       </c>
@@ -6155,7 +6300,7 @@
       <c r="DY15" s="33"/>
       <c r="DZ15" s="33"/>
     </row>
-    <row r="16" spans="1:139" s="26" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:139" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>165</v>
       </c>
@@ -6335,7 +6480,7 @@
       <c r="EH16" s="51"/>
       <c r="EI16" s="51"/>
     </row>
-    <row r="17" spans="1:139" s="51" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:139" s="51" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>165</v>
       </c>
@@ -6507,7 +6652,7 @@
       <c r="EH17" s="26"/>
       <c r="EI17" s="26"/>
     </row>
-    <row r="18" spans="1:139" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:139" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>165</v>
       </c>
@@ -6659,7 +6804,7 @@
       <c r="DY18" s="33"/>
       <c r="DZ18" s="33"/>
     </row>
-    <row r="19" spans="1:139" s="26" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:139" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>165</v>
       </c>
@@ -6797,7 +6942,7 @@
       <c r="DY19" s="33"/>
       <c r="DZ19" s="33"/>
     </row>
-    <row r="20" spans="1:139" s="26" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:139" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>165</v>
       </c>
@@ -6935,7 +7080,7 @@
       <c r="EH20" s="4"/>
       <c r="EI20" s="4"/>
     </row>
-    <row r="21" spans="1:139" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:139" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="46"/>
@@ -7067,7 +7212,7 @@
       <c r="DY21" s="46"/>
       <c r="DZ21" s="46"/>
     </row>
-    <row r="22" spans="1:139" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:139" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
@@ -7199,4639 +7344,4651 @@
       <c r="DY22" s="46"/>
       <c r="DZ22" s="46"/>
     </row>
-    <row r="23" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
+    <row r="23" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58" t="s">
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58" t="s">
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58" t="s">
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="58" t="s">
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="57"/>
+      <c r="AJ23" s="57"/>
+      <c r="AK23" s="57"/>
+      <c r="AL23" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="58"/>
-      <c r="AO23" s="58"/>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="58"/>
-      <c r="AX23" s="58"/>
-      <c r="AY23" s="58"/>
-      <c r="AZ23" s="58"/>
-      <c r="BA23" s="58"/>
-      <c r="BB23" s="58"/>
-      <c r="BC23" s="58"/>
-      <c r="BD23" s="58" t="s">
+      <c r="AM23" s="57"/>
+      <c r="AN23" s="57"/>
+      <c r="AO23" s="57"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
+      <c r="AU23" s="57"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="57"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="57"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="57"/>
+      <c r="BB23" s="57"/>
+      <c r="BC23" s="57"/>
+      <c r="BD23" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="BE23" s="58"/>
-      <c r="BF23" s="58"/>
-      <c r="BG23" s="58" t="s">
+      <c r="BE23" s="57"/>
+      <c r="BF23" s="57"/>
+      <c r="BG23" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="BH23" s="58"/>
-      <c r="BI23" s="58"/>
-      <c r="BJ23" s="58" t="s">
+      <c r="BH23" s="57"/>
+      <c r="BI23" s="57"/>
+      <c r="BJ23" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="BK23" s="58"/>
-      <c r="BL23" s="58"/>
-      <c r="BM23" s="58" t="s">
+      <c r="BK23" s="57"/>
+      <c r="BL23" s="57"/>
+      <c r="BM23" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="BN23" s="58"/>
-      <c r="BO23" s="58"/>
-      <c r="BP23" s="58" t="s">
+      <c r="BN23" s="57"/>
+      <c r="BO23" s="57"/>
+      <c r="BP23" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="BQ23" s="58"/>
-      <c r="BR23" s="58"/>
-      <c r="BS23" s="58" t="s">
+      <c r="BQ23" s="57"/>
+      <c r="BR23" s="57"/>
+      <c r="BS23" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="BT23" s="58"/>
-      <c r="BU23" s="58"/>
-      <c r="BV23" s="58" t="s">
+      <c r="BT23" s="57"/>
+      <c r="BU23" s="57"/>
+      <c r="BV23" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="BW23" s="58"/>
-      <c r="BX23" s="58"/>
-      <c r="BY23" s="58"/>
-      <c r="BZ23" s="58"/>
-      <c r="CA23" s="58"/>
-      <c r="CB23" s="58" t="s">
+      <c r="BW23" s="57"/>
+      <c r="BX23" s="57"/>
+      <c r="BY23" s="57"/>
+      <c r="BZ23" s="57"/>
+      <c r="CA23" s="57"/>
+      <c r="CB23" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="CC23" s="58"/>
-      <c r="CD23" s="58"/>
-      <c r="CE23" s="58"/>
-      <c r="CF23" s="58"/>
-      <c r="CG23" s="58"/>
-      <c r="CH23" s="58" t="s">
+      <c r="CC23" s="57"/>
+      <c r="CD23" s="57"/>
+      <c r="CE23" s="57"/>
+      <c r="CF23" s="57"/>
+      <c r="CG23" s="57"/>
+      <c r="CH23" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="CI23" s="58"/>
-      <c r="CJ23" s="58"/>
-      <c r="CK23" s="58"/>
-      <c r="CL23" s="58"/>
-      <c r="CM23" s="58"/>
-      <c r="CN23" s="58" t="s">
+      <c r="CI23" s="57"/>
+      <c r="CJ23" s="57"/>
+      <c r="CK23" s="57"/>
+      <c r="CL23" s="57"/>
+      <c r="CM23" s="57"/>
+      <c r="CN23" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="CO23" s="58"/>
-      <c r="CP23" s="58"/>
-      <c r="CQ23" s="58"/>
-      <c r="CR23" s="58"/>
-      <c r="CS23" s="58"/>
+      <c r="CO23" s="57"/>
+      <c r="CP23" s="57"/>
+      <c r="CQ23" s="57"/>
+      <c r="CR23" s="57"/>
+      <c r="CS23" s="57"/>
       <c r="CT23" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="CU23" s="58"/>
-      <c r="CV23" s="58"/>
+      <c r="CU23" s="57"/>
+      <c r="CV23" s="57"/>
       <c r="CW23" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="CX23" s="58"/>
-      <c r="CY23" s="58"/>
+      <c r="CX23" s="57"/>
+      <c r="CY23" s="57"/>
       <c r="CZ23" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="DA23" s="58"/>
-      <c r="DB23" s="58"/>
+      <c r="DA23" s="57"/>
+      <c r="DB23" s="57"/>
       <c r="DC23" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="DD23" s="58"/>
-      <c r="DE23" s="58"/>
-      <c r="DF23" s="58"/>
-      <c r="DG23" s="58"/>
-      <c r="DH23" s="58"/>
-      <c r="DI23" s="58"/>
-      <c r="DJ23" s="58"/>
-      <c r="DK23" s="58"/>
-      <c r="DL23" s="58"/>
-      <c r="DM23" s="58"/>
-      <c r="DN23" s="58"/>
-      <c r="DO23" s="58" t="s">
+      <c r="DD23" s="57"/>
+      <c r="DE23" s="57"/>
+      <c r="DF23" s="57"/>
+      <c r="DG23" s="57"/>
+      <c r="DH23" s="57"/>
+      <c r="DI23" s="57"/>
+      <c r="DJ23" s="57"/>
+      <c r="DK23" s="57"/>
+      <c r="DL23" s="57"/>
+      <c r="DM23" s="57"/>
+      <c r="DN23" s="57"/>
+      <c r="DO23" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="DP23" s="58"/>
-      <c r="DQ23" s="58"/>
+      <c r="DP23" s="57"/>
+      <c r="DQ23" s="57"/>
       <c r="DR23" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="DS23" s="58"/>
-      <c r="DT23" s="58"/>
+      <c r="DS23" s="57"/>
+      <c r="DT23" s="57"/>
       <c r="DU23" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="DV23" s="58"/>
-      <c r="DW23" s="58"/>
+      <c r="DV23" s="57"/>
+      <c r="DW23" s="57"/>
       <c r="DX23" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="DY23" s="58"/>
-      <c r="DZ23" s="58"/>
-      <c r="EA23" s="59"/>
-      <c r="EB23" s="59"/>
-      <c r="EC23" s="59"/>
-      <c r="ED23" s="59"/>
-      <c r="EE23" s="59"/>
-      <c r="EF23" s="59"/>
-      <c r="EG23" s="59"/>
-      <c r="EH23" s="59"/>
-      <c r="EI23" s="59"/>
+      <c r="DY23" s="57"/>
+      <c r="DZ23" s="57"/>
+      <c r="EA23" s="58"/>
+      <c r="EB23" s="58"/>
+      <c r="EC23" s="58"/>
+      <c r="ED23" s="58"/>
+      <c r="EE23" s="58"/>
+      <c r="EF23" s="58"/>
+      <c r="EG23" s="58"/>
+      <c r="EH23" s="58"/>
+      <c r="EI23" s="58"/>
     </row>
-    <row r="24" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+    <row r="24" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58" t="s">
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58" t="s">
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58" t="s">
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58" t="s">
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="58"/>
-      <c r="AI24" s="58"/>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="58"/>
-      <c r="AL24" s="58" t="s">
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+      <c r="AL24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AM24" s="58"/>
-      <c r="AN24" s="58"/>
-      <c r="AO24" s="58"/>
-      <c r="AP24" s="58"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="58"/>
-      <c r="AU24" s="58"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="58"/>
-      <c r="AX24" s="58"/>
-      <c r="AY24" s="58"/>
-      <c r="AZ24" s="58"/>
-      <c r="BA24" s="58"/>
-      <c r="BB24" s="58"/>
-      <c r="BC24" s="58"/>
-      <c r="BD24" s="58" t="s">
+      <c r="AM24" s="57"/>
+      <c r="AN24" s="57"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="57"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="57"/>
+      <c r="AX24" s="57"/>
+      <c r="AY24" s="57"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="57"/>
+      <c r="BB24" s="57"/>
+      <c r="BC24" s="57"/>
+      <c r="BD24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BE24" s="58"/>
-      <c r="BF24" s="58"/>
-      <c r="BG24" s="58" t="s">
+      <c r="BE24" s="57"/>
+      <c r="BF24" s="57"/>
+      <c r="BG24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BH24" s="58"/>
-      <c r="BI24" s="58"/>
-      <c r="BJ24" s="58" t="s">
+      <c r="BH24" s="57"/>
+      <c r="BI24" s="57"/>
+      <c r="BJ24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BK24" s="58"/>
-      <c r="BL24" s="58"/>
-      <c r="BM24" s="58" t="s">
+      <c r="BK24" s="57"/>
+      <c r="BL24" s="57"/>
+      <c r="BM24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BN24" s="58"/>
-      <c r="BO24" s="58"/>
-      <c r="BP24" s="58" t="s">
+      <c r="BN24" s="57"/>
+      <c r="BO24" s="57"/>
+      <c r="BP24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BQ24" s="58"/>
-      <c r="BR24" s="58"/>
-      <c r="BS24" s="58" t="s">
+      <c r="BQ24" s="57"/>
+      <c r="BR24" s="57"/>
+      <c r="BS24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BT24" s="58"/>
-      <c r="BU24" s="58"/>
-      <c r="BV24" s="58" t="s">
+      <c r="BT24" s="57"/>
+      <c r="BU24" s="57"/>
+      <c r="BV24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BW24" s="58"/>
-      <c r="BX24" s="58"/>
-      <c r="BY24" s="58"/>
-      <c r="BZ24" s="58"/>
-      <c r="CA24" s="58"/>
-      <c r="CB24" s="58" t="s">
+      <c r="BW24" s="57"/>
+      <c r="BX24" s="57"/>
+      <c r="BY24" s="57"/>
+      <c r="BZ24" s="57"/>
+      <c r="CA24" s="57"/>
+      <c r="CB24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="CC24" s="58"/>
-      <c r="CD24" s="58"/>
-      <c r="CE24" s="58"/>
-      <c r="CF24" s="58"/>
-      <c r="CG24" s="58"/>
-      <c r="CH24" s="58" t="s">
+      <c r="CC24" s="57"/>
+      <c r="CD24" s="57"/>
+      <c r="CE24" s="57"/>
+      <c r="CF24" s="57"/>
+      <c r="CG24" s="57"/>
+      <c r="CH24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="CI24" s="58"/>
-      <c r="CJ24" s="58"/>
-      <c r="CK24" s="58"/>
-      <c r="CL24" s="58"/>
-      <c r="CM24" s="58"/>
-      <c r="CN24" s="58" t="s">
+      <c r="CI24" s="57"/>
+      <c r="CJ24" s="57"/>
+      <c r="CK24" s="57"/>
+      <c r="CL24" s="57"/>
+      <c r="CM24" s="57"/>
+      <c r="CN24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="CO24" s="58"/>
-      <c r="CP24" s="58"/>
-      <c r="CQ24" s="58"/>
-      <c r="CR24" s="58"/>
-      <c r="CS24" s="58"/>
-      <c r="CT24" s="58" t="s">
+      <c r="CO24" s="57"/>
+      <c r="CP24" s="57"/>
+      <c r="CQ24" s="57"/>
+      <c r="CR24" s="57"/>
+      <c r="CS24" s="57"/>
+      <c r="CT24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="CU24" s="58"/>
-      <c r="CV24" s="58"/>
-      <c r="CW24" s="58" t="s">
+      <c r="CU24" s="57"/>
+      <c r="CV24" s="57"/>
+      <c r="CW24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="CX24" s="58"/>
-      <c r="CY24" s="58"/>
-      <c r="CZ24" s="58" t="s">
+      <c r="CX24" s="57"/>
+      <c r="CY24" s="57"/>
+      <c r="CZ24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="DA24" s="58"/>
-      <c r="DB24" s="58"/>
-      <c r="DC24" s="58" t="s">
+      <c r="DA24" s="57"/>
+      <c r="DB24" s="57"/>
+      <c r="DC24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="DD24" s="58"/>
-      <c r="DE24" s="58"/>
-      <c r="DF24" s="58"/>
-      <c r="DG24" s="58"/>
-      <c r="DH24" s="58"/>
-      <c r="DI24" s="58"/>
-      <c r="DJ24" s="58"/>
-      <c r="DK24" s="58"/>
-      <c r="DL24" s="58"/>
-      <c r="DM24" s="58"/>
-      <c r="DN24" s="58"/>
-      <c r="DO24" s="58" t="s">
+      <c r="DD24" s="57"/>
+      <c r="DE24" s="57"/>
+      <c r="DF24" s="57"/>
+      <c r="DG24" s="57"/>
+      <c r="DH24" s="57"/>
+      <c r="DI24" s="57"/>
+      <c r="DJ24" s="57"/>
+      <c r="DK24" s="57"/>
+      <c r="DL24" s="57"/>
+      <c r="DM24" s="57"/>
+      <c r="DN24" s="57"/>
+      <c r="DO24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="DP24" s="58"/>
-      <c r="DQ24" s="58"/>
-      <c r="DR24" s="58" t="s">
+      <c r="DP24" s="57"/>
+      <c r="DQ24" s="57"/>
+      <c r="DR24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="DS24" s="58"/>
-      <c r="DT24" s="58"/>
-      <c r="DU24" s="58" t="s">
+      <c r="DS24" s="57"/>
+      <c r="DT24" s="57"/>
+      <c r="DU24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="DV24" s="58"/>
-      <c r="DW24" s="58"/>
-      <c r="DX24" s="58" t="s">
+      <c r="DV24" s="57"/>
+      <c r="DW24" s="57"/>
+      <c r="DX24" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="DY24" s="58"/>
-      <c r="DZ24" s="58"/>
-      <c r="EA24" s="59"/>
-      <c r="EB24" s="59"/>
-      <c r="EC24" s="59"/>
-      <c r="ED24" s="59"/>
-      <c r="EE24" s="59"/>
-      <c r="EF24" s="59"/>
-      <c r="EG24" s="59"/>
-      <c r="EH24" s="59"/>
-      <c r="EI24" s="59"/>
+      <c r="DY24" s="57"/>
+      <c r="DZ24" s="57"/>
+      <c r="EA24" s="58"/>
+      <c r="EB24" s="58"/>
+      <c r="EC24" s="58"/>
+      <c r="ED24" s="58"/>
+      <c r="EE24" s="58"/>
+      <c r="EF24" s="58"/>
+      <c r="EG24" s="58"/>
+      <c r="EH24" s="58"/>
+      <c r="EI24" s="58"/>
     </row>
-    <row r="25" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55" t="s">
+    <row r="25" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="58"/>
-      <c r="AL25" s="58"/>
-      <c r="AM25" s="58"/>
-      <c r="AN25" s="58"/>
-      <c r="AO25" s="58"/>
-      <c r="AP25" s="58"/>
-      <c r="AQ25" s="58"/>
-      <c r="AR25" s="58"/>
-      <c r="AS25" s="58"/>
-      <c r="AT25" s="58"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="58"/>
-      <c r="AX25" s="58"/>
-      <c r="AY25" s="58"/>
-      <c r="AZ25" s="58"/>
-      <c r="BA25" s="58"/>
-      <c r="BB25" s="58"/>
-      <c r="BC25" s="58"/>
-      <c r="BD25" s="58"/>
-      <c r="BE25" s="58"/>
-      <c r="BF25" s="58"/>
-      <c r="BG25" s="58"/>
-      <c r="BH25" s="58"/>
-      <c r="BI25" s="58"/>
-      <c r="BJ25" s="58"/>
-      <c r="BK25" s="58"/>
-      <c r="BL25" s="58"/>
-      <c r="BM25" s="58"/>
-      <c r="BN25" s="58"/>
-      <c r="BO25" s="58"/>
-      <c r="BP25" s="58"/>
-      <c r="BQ25" s="58"/>
-      <c r="BR25" s="58"/>
-      <c r="BS25" s="58"/>
-      <c r="BT25" s="58"/>
-      <c r="BU25" s="58"/>
-      <c r="BV25" s="58"/>
-      <c r="BW25" s="58"/>
-      <c r="BX25" s="58"/>
-      <c r="BY25" s="58"/>
-      <c r="BZ25" s="58"/>
-      <c r="CA25" s="58"/>
-      <c r="CB25" s="58"/>
-      <c r="CC25" s="58"/>
-      <c r="CD25" s="58"/>
-      <c r="CE25" s="58"/>
-      <c r="CF25" s="58"/>
-      <c r="CG25" s="58"/>
-      <c r="CH25" s="58"/>
-      <c r="CI25" s="58"/>
-      <c r="CJ25" s="58"/>
-      <c r="CK25" s="58"/>
-      <c r="CL25" s="58"/>
-      <c r="CM25" s="58"/>
-      <c r="CN25" s="58"/>
-      <c r="CO25" s="58"/>
-      <c r="CP25" s="58"/>
-      <c r="CQ25" s="58"/>
-      <c r="CR25" s="58"/>
-      <c r="CS25" s="58"/>
-      <c r="CT25" s="58"/>
-      <c r="CU25" s="58"/>
-      <c r="CV25" s="58"/>
-      <c r="CW25" s="58"/>
-      <c r="CX25" s="58"/>
-      <c r="CY25" s="58"/>
-      <c r="CZ25" s="58"/>
-      <c r="DA25" s="58"/>
-      <c r="DB25" s="58"/>
-      <c r="DC25" s="58"/>
-      <c r="DD25" s="58"/>
-      <c r="DE25" s="58"/>
-      <c r="DF25" s="58"/>
-      <c r="DG25" s="58"/>
-      <c r="DH25" s="58"/>
-      <c r="DI25" s="58"/>
-      <c r="DJ25" s="58"/>
-      <c r="DK25" s="58"/>
-      <c r="DL25" s="58"/>
-      <c r="DM25" s="58"/>
-      <c r="DN25" s="58"/>
-      <c r="DO25" s="58"/>
-      <c r="DP25" s="58"/>
-      <c r="DQ25" s="58"/>
-      <c r="DR25" s="58"/>
-      <c r="DS25" s="58"/>
-      <c r="DT25" s="58"/>
-      <c r="DU25" s="58"/>
-      <c r="DV25" s="58"/>
-      <c r="DW25" s="58"/>
-      <c r="DX25" s="58"/>
-      <c r="DY25" s="58"/>
-      <c r="DZ25" s="58"/>
-      <c r="EA25" s="59"/>
-      <c r="EB25" s="59"/>
-      <c r="EC25" s="59"/>
-      <c r="ED25" s="59"/>
-      <c r="EE25" s="59"/>
-      <c r="EF25" s="59"/>
-      <c r="EG25" s="59"/>
-      <c r="EH25" s="59"/>
-      <c r="EI25" s="59"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="57"/>
+      <c r="BC25" s="57"/>
+      <c r="BD25" s="57"/>
+      <c r="BE25" s="57"/>
+      <c r="BF25" s="57"/>
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="57"/>
+      <c r="BJ25" s="57"/>
+      <c r="BK25" s="57"/>
+      <c r="BL25" s="57"/>
+      <c r="BM25" s="57"/>
+      <c r="BN25" s="57"/>
+      <c r="BO25" s="57"/>
+      <c r="BP25" s="57"/>
+      <c r="BQ25" s="57"/>
+      <c r="BR25" s="57"/>
+      <c r="BS25" s="57"/>
+      <c r="BT25" s="57"/>
+      <c r="BU25" s="57"/>
+      <c r="BV25" s="57"/>
+      <c r="BW25" s="57"/>
+      <c r="BX25" s="57"/>
+      <c r="BY25" s="57"/>
+      <c r="BZ25" s="57"/>
+      <c r="CA25" s="57"/>
+      <c r="CB25" s="57"/>
+      <c r="CC25" s="57"/>
+      <c r="CD25" s="57"/>
+      <c r="CE25" s="57"/>
+      <c r="CF25" s="57"/>
+      <c r="CG25" s="57"/>
+      <c r="CH25" s="57"/>
+      <c r="CI25" s="57"/>
+      <c r="CJ25" s="57"/>
+      <c r="CK25" s="57"/>
+      <c r="CL25" s="57"/>
+      <c r="CM25" s="57"/>
+      <c r="CN25" s="57"/>
+      <c r="CO25" s="57"/>
+      <c r="CP25" s="57"/>
+      <c r="CQ25" s="57"/>
+      <c r="CR25" s="57"/>
+      <c r="CS25" s="57"/>
+      <c r="CT25" s="57"/>
+      <c r="CU25" s="57"/>
+      <c r="CV25" s="57"/>
+      <c r="CW25" s="57"/>
+      <c r="CX25" s="57"/>
+      <c r="CY25" s="57"/>
+      <c r="CZ25" s="57"/>
+      <c r="DA25" s="57"/>
+      <c r="DB25" s="57"/>
+      <c r="DC25" s="57"/>
+      <c r="DD25" s="57"/>
+      <c r="DE25" s="57"/>
+      <c r="DF25" s="57"/>
+      <c r="DG25" s="57"/>
+      <c r="DH25" s="57"/>
+      <c r="DI25" s="57"/>
+      <c r="DJ25" s="57"/>
+      <c r="DK25" s="57"/>
+      <c r="DL25" s="57"/>
+      <c r="DM25" s="57"/>
+      <c r="DN25" s="57"/>
+      <c r="DO25" s="57"/>
+      <c r="DP25" s="57"/>
+      <c r="DQ25" s="57"/>
+      <c r="DR25" s="57"/>
+      <c r="DS25" s="57"/>
+      <c r="DT25" s="57"/>
+      <c r="DU25" s="57"/>
+      <c r="DV25" s="57"/>
+      <c r="DW25" s="57"/>
+      <c r="DX25" s="57"/>
+      <c r="DY25" s="57"/>
+      <c r="DZ25" s="57"/>
+      <c r="EA25" s="58"/>
+      <c r="EB25" s="58"/>
+      <c r="EC25" s="58"/>
+      <c r="ED25" s="58"/>
+      <c r="EE25" s="58"/>
+      <c r="EF25" s="58"/>
+      <c r="EG25" s="58"/>
+      <c r="EH25" s="58"/>
+      <c r="EI25" s="58"/>
     </row>
-    <row r="26" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
+    <row r="26" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="58"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="58"/>
-      <c r="AL26" s="58"/>
-      <c r="AM26" s="58"/>
-      <c r="AN26" s="58"/>
-      <c r="AO26" s="58"/>
-      <c r="AP26" s="58"/>
-      <c r="AQ26" s="58"/>
-      <c r="AR26" s="58"/>
-      <c r="AS26" s="58"/>
-      <c r="AT26" s="58"/>
-      <c r="AU26" s="58"/>
-      <c r="AV26" s="58"/>
-      <c r="AW26" s="58"/>
-      <c r="AX26" s="58"/>
-      <c r="AY26" s="58"/>
-      <c r="AZ26" s="58"/>
-      <c r="BA26" s="58"/>
-      <c r="BB26" s="58"/>
-      <c r="BC26" s="58"/>
-      <c r="BD26" s="58"/>
-      <c r="BE26" s="58"/>
-      <c r="BF26" s="58"/>
-      <c r="BG26" s="58"/>
-      <c r="BH26" s="58"/>
-      <c r="BI26" s="58"/>
-      <c r="BJ26" s="58"/>
-      <c r="BK26" s="58"/>
-      <c r="BL26" s="58"/>
-      <c r="BM26" s="58"/>
-      <c r="BN26" s="58"/>
-      <c r="BO26" s="58"/>
-      <c r="BP26" s="58"/>
-      <c r="BQ26" s="58"/>
-      <c r="BR26" s="58"/>
-      <c r="BS26" s="58"/>
-      <c r="BT26" s="58"/>
-      <c r="BU26" s="58"/>
-      <c r="BV26" s="58"/>
-      <c r="BW26" s="58"/>
-      <c r="BX26" s="58"/>
-      <c r="BY26" s="58"/>
-      <c r="BZ26" s="58"/>
-      <c r="CA26" s="58"/>
-      <c r="CB26" s="58"/>
-      <c r="CC26" s="58"/>
-      <c r="CD26" s="58"/>
-      <c r="CE26" s="58"/>
-      <c r="CF26" s="58"/>
-      <c r="CG26" s="58"/>
-      <c r="CH26" s="58"/>
-      <c r="CI26" s="58"/>
-      <c r="CJ26" s="58"/>
-      <c r="CK26" s="58"/>
-      <c r="CL26" s="58"/>
-      <c r="CM26" s="58"/>
-      <c r="CN26" s="58"/>
-      <c r="CO26" s="58"/>
-      <c r="CP26" s="58"/>
-      <c r="CQ26" s="58"/>
-      <c r="CR26" s="58"/>
-      <c r="CS26" s="58"/>
-      <c r="CT26" s="58"/>
-      <c r="CU26" s="58"/>
-      <c r="CV26" s="58"/>
-      <c r="CW26" s="58"/>
-      <c r="CX26" s="58"/>
-      <c r="CY26" s="58"/>
-      <c r="CZ26" s="58"/>
-      <c r="DA26" s="58"/>
-      <c r="DB26" s="58"/>
-      <c r="DC26" s="58"/>
-      <c r="DD26" s="58"/>
-      <c r="DE26" s="58"/>
-      <c r="DF26" s="58"/>
-      <c r="DG26" s="58"/>
-      <c r="DH26" s="58"/>
-      <c r="DI26" s="58"/>
-      <c r="DJ26" s="58"/>
-      <c r="DK26" s="58"/>
-      <c r="DL26" s="58"/>
-      <c r="DM26" s="58"/>
-      <c r="DN26" s="58"/>
-      <c r="DO26" s="58"/>
-      <c r="DP26" s="58"/>
-      <c r="DQ26" s="58"/>
-      <c r="DR26" s="58"/>
-      <c r="DS26" s="58"/>
-      <c r="DT26" s="58"/>
-      <c r="DU26" s="58"/>
-      <c r="DV26" s="58"/>
-      <c r="DW26" s="58"/>
-      <c r="DX26" s="58"/>
-      <c r="DY26" s="58"/>
-      <c r="DZ26" s="58"/>
-      <c r="EA26" s="59"/>
-      <c r="EB26" s="59"/>
-      <c r="EC26" s="59"/>
-      <c r="ED26" s="59"/>
-      <c r="EE26" s="59"/>
-      <c r="EF26" s="59"/>
-      <c r="EG26" s="59"/>
-      <c r="EH26" s="59"/>
-      <c r="EI26" s="59"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="57"/>
+      <c r="AY26" s="57"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="57"/>
+      <c r="BB26" s="57"/>
+      <c r="BC26" s="57"/>
+      <c r="BD26" s="57"/>
+      <c r="BE26" s="57"/>
+      <c r="BF26" s="57"/>
+      <c r="BG26" s="57"/>
+      <c r="BH26" s="57"/>
+      <c r="BI26" s="57"/>
+      <c r="BJ26" s="57"/>
+      <c r="BK26" s="57"/>
+      <c r="BL26" s="57"/>
+      <c r="BM26" s="57"/>
+      <c r="BN26" s="57"/>
+      <c r="BO26" s="57"/>
+      <c r="BP26" s="57"/>
+      <c r="BQ26" s="57"/>
+      <c r="BR26" s="57"/>
+      <c r="BS26" s="57"/>
+      <c r="BT26" s="57"/>
+      <c r="BU26" s="57"/>
+      <c r="BV26" s="57"/>
+      <c r="BW26" s="57"/>
+      <c r="BX26" s="57"/>
+      <c r="BY26" s="57"/>
+      <c r="BZ26" s="57"/>
+      <c r="CA26" s="57"/>
+      <c r="CB26" s="57"/>
+      <c r="CC26" s="57"/>
+      <c r="CD26" s="57"/>
+      <c r="CE26" s="57"/>
+      <c r="CF26" s="57"/>
+      <c r="CG26" s="57"/>
+      <c r="CH26" s="57"/>
+      <c r="CI26" s="57"/>
+      <c r="CJ26" s="57"/>
+      <c r="CK26" s="57"/>
+      <c r="CL26" s="57"/>
+      <c r="CM26" s="57"/>
+      <c r="CN26" s="57"/>
+      <c r="CO26" s="57"/>
+      <c r="CP26" s="57"/>
+      <c r="CQ26" s="57"/>
+      <c r="CR26" s="57"/>
+      <c r="CS26" s="57"/>
+      <c r="CT26" s="57"/>
+      <c r="CU26" s="57"/>
+      <c r="CV26" s="57"/>
+      <c r="CW26" s="57"/>
+      <c r="CX26" s="57"/>
+      <c r="CY26" s="57"/>
+      <c r="CZ26" s="57"/>
+      <c r="DA26" s="57"/>
+      <c r="DB26" s="57"/>
+      <c r="DC26" s="57"/>
+      <c r="DD26" s="57"/>
+      <c r="DE26" s="57"/>
+      <c r="DF26" s="57"/>
+      <c r="DG26" s="57"/>
+      <c r="DH26" s="57"/>
+      <c r="DI26" s="57"/>
+      <c r="DJ26" s="57"/>
+      <c r="DK26" s="57"/>
+      <c r="DL26" s="57"/>
+      <c r="DM26" s="57"/>
+      <c r="DN26" s="57"/>
+      <c r="DO26" s="57"/>
+      <c r="DP26" s="57"/>
+      <c r="DQ26" s="57"/>
+      <c r="DR26" s="57"/>
+      <c r="DS26" s="57"/>
+      <c r="DT26" s="57"/>
+      <c r="DU26" s="57"/>
+      <c r="DV26" s="57"/>
+      <c r="DW26" s="57"/>
+      <c r="DX26" s="57"/>
+      <c r="DY26" s="57"/>
+      <c r="DZ26" s="57"/>
+      <c r="EA26" s="58"/>
+      <c r="EB26" s="58"/>
+      <c r="EC26" s="58"/>
+      <c r="ED26" s="58"/>
+      <c r="EE26" s="58"/>
+      <c r="EF26" s="58"/>
+      <c r="EG26" s="58"/>
+      <c r="EH26" s="58"/>
+      <c r="EI26" s="58"/>
     </row>
-    <row r="27" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
+    <row r="27" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="58"/>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="58"/>
-      <c r="AL27" s="58"/>
-      <c r="AM27" s="58"/>
-      <c r="AN27" s="58"/>
-      <c r="AO27" s="58"/>
-      <c r="AP27" s="58"/>
-      <c r="AQ27" s="58"/>
-      <c r="AR27" s="58"/>
-      <c r="AS27" s="58"/>
-      <c r="AT27" s="58"/>
-      <c r="AU27" s="58"/>
-      <c r="AV27" s="58"/>
-      <c r="AW27" s="58"/>
-      <c r="AX27" s="58"/>
-      <c r="AY27" s="58"/>
-      <c r="AZ27" s="58"/>
-      <c r="BA27" s="58"/>
-      <c r="BB27" s="58"/>
-      <c r="BC27" s="58"/>
-      <c r="BD27" s="58"/>
-      <c r="BE27" s="58"/>
-      <c r="BF27" s="58"/>
-      <c r="BG27" s="58"/>
-      <c r="BH27" s="58"/>
-      <c r="BI27" s="58"/>
-      <c r="BJ27" s="58"/>
-      <c r="BK27" s="58"/>
-      <c r="BL27" s="58"/>
-      <c r="BM27" s="58"/>
-      <c r="BN27" s="58"/>
-      <c r="BO27" s="58"/>
-      <c r="BP27" s="58"/>
-      <c r="BQ27" s="58"/>
-      <c r="BR27" s="58"/>
-      <c r="BS27" s="58"/>
-      <c r="BT27" s="58"/>
-      <c r="BU27" s="58"/>
-      <c r="BV27" s="58"/>
-      <c r="BW27" s="58"/>
-      <c r="BX27" s="58"/>
-      <c r="BY27" s="58"/>
-      <c r="BZ27" s="58"/>
-      <c r="CA27" s="58"/>
-      <c r="CB27" s="58"/>
-      <c r="CC27" s="58"/>
-      <c r="CD27" s="58"/>
-      <c r="CE27" s="58"/>
-      <c r="CF27" s="58"/>
-      <c r="CG27" s="58"/>
-      <c r="CH27" s="58"/>
-      <c r="CI27" s="58"/>
-      <c r="CJ27" s="58"/>
-      <c r="CK27" s="58"/>
-      <c r="CL27" s="58"/>
-      <c r="CM27" s="58"/>
-      <c r="CN27" s="58"/>
-      <c r="CO27" s="58"/>
-      <c r="CP27" s="58"/>
-      <c r="CQ27" s="58"/>
-      <c r="CR27" s="58"/>
-      <c r="CS27" s="58"/>
-      <c r="CT27" s="58"/>
-      <c r="CU27" s="58"/>
-      <c r="CV27" s="58"/>
-      <c r="CW27" s="58"/>
-      <c r="CX27" s="58"/>
-      <c r="CY27" s="58"/>
-      <c r="CZ27" s="58"/>
-      <c r="DA27" s="58"/>
-      <c r="DB27" s="58"/>
-      <c r="DC27" s="58"/>
-      <c r="DD27" s="58"/>
-      <c r="DE27" s="58"/>
-      <c r="DF27" s="58"/>
-      <c r="DG27" s="58"/>
-      <c r="DH27" s="58"/>
-      <c r="DI27" s="58"/>
-      <c r="DJ27" s="58"/>
-      <c r="DK27" s="58"/>
-      <c r="DL27" s="58"/>
-      <c r="DM27" s="58"/>
-      <c r="DN27" s="58"/>
-      <c r="DO27" s="58"/>
-      <c r="DP27" s="58"/>
-      <c r="DQ27" s="58"/>
-      <c r="DR27" s="58"/>
-      <c r="DS27" s="58"/>
-      <c r="DT27" s="58"/>
-      <c r="DU27" s="58"/>
-      <c r="DV27" s="58"/>
-      <c r="DW27" s="58"/>
-      <c r="DX27" s="58"/>
-      <c r="DY27" s="58"/>
-      <c r="DZ27" s="58"/>
-      <c r="EA27" s="59"/>
-      <c r="EB27" s="59"/>
-      <c r="EC27" s="59"/>
-      <c r="ED27" s="59"/>
-      <c r="EE27" s="59"/>
-      <c r="EF27" s="59"/>
-      <c r="EG27" s="59"/>
-      <c r="EH27" s="59"/>
-      <c r="EI27" s="59"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="57"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="57"/>
+      <c r="BB27" s="57"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="57"/>
+      <c r="BE27" s="57"/>
+      <c r="BF27" s="57"/>
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="57"/>
+      <c r="BI27" s="57"/>
+      <c r="BJ27" s="57"/>
+      <c r="BK27" s="57"/>
+      <c r="BL27" s="57"/>
+      <c r="BM27" s="57"/>
+      <c r="BN27" s="57"/>
+      <c r="BO27" s="57"/>
+      <c r="BP27" s="57"/>
+      <c r="BQ27" s="57"/>
+      <c r="BR27" s="57"/>
+      <c r="BS27" s="57"/>
+      <c r="BT27" s="57"/>
+      <c r="BU27" s="57"/>
+      <c r="BV27" s="57"/>
+      <c r="BW27" s="57"/>
+      <c r="BX27" s="57"/>
+      <c r="BY27" s="57"/>
+      <c r="BZ27" s="57"/>
+      <c r="CA27" s="57"/>
+      <c r="CB27" s="57"/>
+      <c r="CC27" s="57"/>
+      <c r="CD27" s="57"/>
+      <c r="CE27" s="57"/>
+      <c r="CF27" s="57"/>
+      <c r="CG27" s="57"/>
+      <c r="CH27" s="57"/>
+      <c r="CI27" s="57"/>
+      <c r="CJ27" s="57"/>
+      <c r="CK27" s="57"/>
+      <c r="CL27" s="57"/>
+      <c r="CM27" s="57"/>
+      <c r="CN27" s="57"/>
+      <c r="CO27" s="57"/>
+      <c r="CP27" s="57"/>
+      <c r="CQ27" s="57"/>
+      <c r="CR27" s="57"/>
+      <c r="CS27" s="57"/>
+      <c r="CT27" s="57"/>
+      <c r="CU27" s="57"/>
+      <c r="CV27" s="57"/>
+      <c r="CW27" s="57"/>
+      <c r="CX27" s="57"/>
+      <c r="CY27" s="57"/>
+      <c r="CZ27" s="57"/>
+      <c r="DA27" s="57"/>
+      <c r="DB27" s="57"/>
+      <c r="DC27" s="57"/>
+      <c r="DD27" s="57"/>
+      <c r="DE27" s="57"/>
+      <c r="DF27" s="57"/>
+      <c r="DG27" s="57"/>
+      <c r="DH27" s="57"/>
+      <c r="DI27" s="57"/>
+      <c r="DJ27" s="57"/>
+      <c r="DK27" s="57"/>
+      <c r="DL27" s="57"/>
+      <c r="DM27" s="57"/>
+      <c r="DN27" s="57"/>
+      <c r="DO27" s="57"/>
+      <c r="DP27" s="57"/>
+      <c r="DQ27" s="57"/>
+      <c r="DR27" s="57"/>
+      <c r="DS27" s="57"/>
+      <c r="DT27" s="57"/>
+      <c r="DU27" s="57"/>
+      <c r="DV27" s="57"/>
+      <c r="DW27" s="57"/>
+      <c r="DX27" s="57"/>
+      <c r="DY27" s="57"/>
+      <c r="DZ27" s="57"/>
+      <c r="EA27" s="58"/>
+      <c r="EB27" s="58"/>
+      <c r="EC27" s="58"/>
+      <c r="ED27" s="58"/>
+      <c r="EE27" s="58"/>
+      <c r="EF27" s="58"/>
+      <c r="EG27" s="58"/>
+      <c r="EH27" s="58"/>
+      <c r="EI27" s="58"/>
     </row>
-    <row r="28" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
+    <row r="28" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="58"/>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="58"/>
-      <c r="AN28" s="58"/>
-      <c r="AO28" s="58"/>
-      <c r="AP28" s="58"/>
-      <c r="AQ28" s="58"/>
-      <c r="AR28" s="58"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="58"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="58"/>
-      <c r="AX28" s="58"/>
-      <c r="AY28" s="58"/>
-      <c r="AZ28" s="58"/>
-      <c r="BA28" s="58"/>
-      <c r="BB28" s="58"/>
-      <c r="BC28" s="58"/>
-      <c r="BD28" s="58"/>
-      <c r="BE28" s="58"/>
-      <c r="BF28" s="58"/>
-      <c r="BG28" s="58"/>
-      <c r="BH28" s="58"/>
-      <c r="BI28" s="58"/>
-      <c r="BJ28" s="58"/>
-      <c r="BK28" s="58"/>
-      <c r="BL28" s="58"/>
-      <c r="BM28" s="58"/>
-      <c r="BN28" s="58"/>
-      <c r="BO28" s="58"/>
-      <c r="BP28" s="58"/>
-      <c r="BQ28" s="58"/>
-      <c r="BR28" s="58"/>
-      <c r="BS28" s="58"/>
-      <c r="BT28" s="58"/>
-      <c r="BU28" s="58"/>
-      <c r="BV28" s="58"/>
-      <c r="BW28" s="58"/>
-      <c r="BX28" s="58"/>
-      <c r="BY28" s="58"/>
-      <c r="BZ28" s="58"/>
-      <c r="CA28" s="58"/>
-      <c r="CB28" s="58"/>
-      <c r="CC28" s="58"/>
-      <c r="CD28" s="58"/>
-      <c r="CE28" s="58"/>
-      <c r="CF28" s="58"/>
-      <c r="CG28" s="58"/>
-      <c r="CH28" s="58"/>
-      <c r="CI28" s="58"/>
-      <c r="CJ28" s="58"/>
-      <c r="CK28" s="58"/>
-      <c r="CL28" s="58"/>
-      <c r="CM28" s="58"/>
-      <c r="CN28" s="58"/>
-      <c r="CO28" s="58"/>
-      <c r="CP28" s="58"/>
-      <c r="CQ28" s="58"/>
-      <c r="CR28" s="58"/>
-      <c r="CS28" s="58"/>
-      <c r="CT28" s="58"/>
-      <c r="CU28" s="58"/>
-      <c r="CV28" s="58"/>
-      <c r="CW28" s="58"/>
-      <c r="CX28" s="58"/>
-      <c r="CY28" s="58"/>
-      <c r="CZ28" s="58"/>
-      <c r="DA28" s="58"/>
-      <c r="DB28" s="58"/>
-      <c r="DC28" s="58"/>
-      <c r="DD28" s="58"/>
-      <c r="DE28" s="58"/>
-      <c r="DF28" s="58"/>
-      <c r="DG28" s="58"/>
-      <c r="DH28" s="58"/>
-      <c r="DI28" s="58"/>
-      <c r="DJ28" s="58"/>
-      <c r="DK28" s="58"/>
-      <c r="DL28" s="58"/>
-      <c r="DM28" s="58"/>
-      <c r="DN28" s="58"/>
-      <c r="DO28" s="58"/>
-      <c r="DP28" s="58"/>
-      <c r="DQ28" s="58"/>
-      <c r="DR28" s="58"/>
-      <c r="DS28" s="58"/>
-      <c r="DT28" s="58"/>
-      <c r="DU28" s="60" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BK28" s="57"/>
+      <c r="BL28" s="57"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
+      <c r="BP28" s="57"/>
+      <c r="BQ28" s="57"/>
+      <c r="BR28" s="57"/>
+      <c r="BS28" s="57"/>
+      <c r="BT28" s="57"/>
+      <c r="BU28" s="57"/>
+      <c r="BV28" s="57"/>
+      <c r="BW28" s="57"/>
+      <c r="BX28" s="57"/>
+      <c r="BY28" s="57"/>
+      <c r="BZ28" s="57"/>
+      <c r="CA28" s="57"/>
+      <c r="CB28" s="57"/>
+      <c r="CC28" s="57"/>
+      <c r="CD28" s="57"/>
+      <c r="CE28" s="57"/>
+      <c r="CF28" s="57"/>
+      <c r="CG28" s="57"/>
+      <c r="CH28" s="57"/>
+      <c r="CI28" s="57"/>
+      <c r="CJ28" s="57"/>
+      <c r="CK28" s="57"/>
+      <c r="CL28" s="57"/>
+      <c r="CM28" s="57"/>
+      <c r="CN28" s="57"/>
+      <c r="CO28" s="57"/>
+      <c r="CP28" s="57"/>
+      <c r="CQ28" s="57"/>
+      <c r="CR28" s="57"/>
+      <c r="CS28" s="57"/>
+      <c r="CT28" s="57"/>
+      <c r="CU28" s="57"/>
+      <c r="CV28" s="57"/>
+      <c r="CW28" s="57"/>
+      <c r="CX28" s="57"/>
+      <c r="CY28" s="57"/>
+      <c r="CZ28" s="57"/>
+      <c r="DA28" s="57"/>
+      <c r="DB28" s="57"/>
+      <c r="DC28" s="57"/>
+      <c r="DD28" s="57"/>
+      <c r="DE28" s="57"/>
+      <c r="DF28" s="57"/>
+      <c r="DG28" s="57"/>
+      <c r="DH28" s="57"/>
+      <c r="DI28" s="57"/>
+      <c r="DJ28" s="57"/>
+      <c r="DK28" s="57"/>
+      <c r="DL28" s="57"/>
+      <c r="DM28" s="57"/>
+      <c r="DN28" s="57"/>
+      <c r="DO28" s="57"/>
+      <c r="DP28" s="57"/>
+      <c r="DQ28" s="57"/>
+      <c r="DR28" s="57"/>
+      <c r="DS28" s="57"/>
+      <c r="DT28" s="57"/>
+      <c r="DU28" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="DV28" s="60"/>
-      <c r="DW28" s="60"/>
-      <c r="DX28" s="60" t="s">
+      <c r="DV28" s="59"/>
+      <c r="DW28" s="59"/>
+      <c r="DX28" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="DY28" s="58"/>
-      <c r="DZ28" s="58"/>
-      <c r="EA28" s="59"/>
-      <c r="EB28" s="59"/>
-      <c r="EC28" s="59"/>
-      <c r="ED28" s="59"/>
-      <c r="EE28" s="59"/>
-      <c r="EF28" s="59"/>
-      <c r="EG28" s="59"/>
-      <c r="EH28" s="59"/>
-      <c r="EI28" s="59"/>
+      <c r="DY28" s="57"/>
+      <c r="DZ28" s="57"/>
+      <c r="EA28" s="58"/>
+      <c r="EB28" s="58"/>
+      <c r="EC28" s="58"/>
+      <c r="ED28" s="58"/>
+      <c r="EE28" s="58"/>
+      <c r="EF28" s="58"/>
+      <c r="EG28" s="58"/>
+      <c r="EH28" s="58"/>
+      <c r="EI28" s="58"/>
     </row>
-    <row r="29" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="63"/>
-      <c r="AN29" s="63"/>
-      <c r="AO29" s="63"/>
-      <c r="AP29" s="63"/>
-      <c r="AQ29" s="63"/>
-      <c r="AR29" s="63"/>
-      <c r="AS29" s="63"/>
-      <c r="AT29" s="63"/>
-      <c r="AU29" s="63"/>
-      <c r="AV29" s="63"/>
-      <c r="AW29" s="63"/>
-      <c r="AX29" s="63"/>
-      <c r="AY29" s="63"/>
-      <c r="AZ29" s="63"/>
-      <c r="BA29" s="63"/>
-      <c r="BB29" s="63"/>
-      <c r="BC29" s="63"/>
-      <c r="BD29" s="64"/>
-      <c r="BE29" s="63"/>
-      <c r="BF29" s="63"/>
-      <c r="BG29" s="64"/>
-      <c r="BH29" s="63"/>
-      <c r="BI29" s="63"/>
-      <c r="BJ29" s="64"/>
-      <c r="BK29" s="63"/>
-      <c r="BL29" s="63"/>
-      <c r="BM29" s="64"/>
-      <c r="BN29" s="63"/>
-      <c r="BO29" s="63"/>
-      <c r="BP29" s="65"/>
-      <c r="BQ29" s="63"/>
-      <c r="BR29" s="63"/>
-      <c r="BS29" s="63"/>
-      <c r="BT29" s="63"/>
-      <c r="BU29" s="63"/>
-      <c r="BV29" s="66"/>
-      <c r="BW29" s="63"/>
-      <c r="BX29" s="63"/>
-      <c r="BY29" s="63"/>
-      <c r="BZ29" s="63"/>
-      <c r="CA29" s="63"/>
-      <c r="CB29" s="66"/>
-      <c r="CC29" s="63"/>
-      <c r="CD29" s="63"/>
-      <c r="CE29" s="63"/>
-      <c r="CF29" s="63"/>
-      <c r="CG29" s="63"/>
-      <c r="CH29" s="67"/>
-      <c r="CI29" s="63"/>
-      <c r="CJ29" s="63"/>
-      <c r="CK29" s="63"/>
-      <c r="CL29" s="63"/>
-      <c r="CM29" s="63"/>
-      <c r="CN29" s="67"/>
-      <c r="CO29" s="63"/>
-      <c r="CP29" s="63"/>
-      <c r="CQ29" s="63"/>
-      <c r="CR29" s="63"/>
-      <c r="CS29" s="63"/>
-      <c r="CT29" s="64"/>
-      <c r="CU29" s="63"/>
-      <c r="CV29" s="63"/>
-      <c r="CW29" s="64"/>
-      <c r="CX29" s="63"/>
-      <c r="CY29" s="63"/>
-      <c r="CZ29" s="64"/>
-      <c r="DA29" s="63"/>
-      <c r="DB29" s="63"/>
-      <c r="DC29" s="64"/>
-      <c r="DD29" s="63"/>
-      <c r="DE29" s="63"/>
-      <c r="DF29" s="63"/>
-      <c r="DG29" s="63"/>
-      <c r="DH29" s="63"/>
-      <c r="DI29" s="63"/>
-      <c r="DJ29" s="63"/>
-      <c r="DK29" s="63"/>
-      <c r="DL29" s="63"/>
-      <c r="DM29" s="63"/>
-      <c r="DN29" s="63"/>
-      <c r="DO29" s="64"/>
-      <c r="DP29" s="63"/>
-      <c r="DQ29" s="63"/>
-      <c r="DR29" s="64"/>
-      <c r="DS29" s="63"/>
-      <c r="DT29" s="63"/>
-      <c r="DU29" s="64"/>
-      <c r="DV29" s="63"/>
-      <c r="DW29" s="63"/>
-      <c r="DX29" s="64"/>
-      <c r="DY29" s="63"/>
-      <c r="DZ29" s="63"/>
-      <c r="EA29" s="59"/>
-      <c r="EB29" s="59"/>
-      <c r="EC29" s="59"/>
-      <c r="ED29" s="59"/>
-      <c r="EE29" s="59"/>
-      <c r="EF29" s="59"/>
-      <c r="EG29" s="59"/>
-      <c r="EH29" s="59"/>
-      <c r="EI29" s="59"/>
+    <row r="29" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="62"/>
+      <c r="AT29" s="62"/>
+      <c r="AU29" s="62"/>
+      <c r="AV29" s="62"/>
+      <c r="AW29" s="62"/>
+      <c r="AX29" s="62"/>
+      <c r="AY29" s="62"/>
+      <c r="AZ29" s="62"/>
+      <c r="BA29" s="62"/>
+      <c r="BB29" s="62"/>
+      <c r="BC29" s="62"/>
+      <c r="BD29" s="63"/>
+      <c r="BE29" s="62"/>
+      <c r="BF29" s="62"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="62"/>
+      <c r="BI29" s="62"/>
+      <c r="BJ29" s="63"/>
+      <c r="BK29" s="62"/>
+      <c r="BL29" s="62"/>
+      <c r="BM29" s="63"/>
+      <c r="BN29" s="62"/>
+      <c r="BO29" s="62"/>
+      <c r="BP29" s="64"/>
+      <c r="BQ29" s="62"/>
+      <c r="BR29" s="62"/>
+      <c r="BS29" s="62"/>
+      <c r="BT29" s="62"/>
+      <c r="BU29" s="62"/>
+      <c r="BV29" s="65"/>
+      <c r="BW29" s="62"/>
+      <c r="BX29" s="62"/>
+      <c r="BY29" s="62"/>
+      <c r="BZ29" s="62"/>
+      <c r="CA29" s="62"/>
+      <c r="CB29" s="65"/>
+      <c r="CC29" s="62"/>
+      <c r="CD29" s="62"/>
+      <c r="CE29" s="62"/>
+      <c r="CF29" s="62"/>
+      <c r="CG29" s="62"/>
+      <c r="CH29" s="66"/>
+      <c r="CI29" s="62"/>
+      <c r="CJ29" s="62"/>
+      <c r="CK29" s="62"/>
+      <c r="CL29" s="62"/>
+      <c r="CM29" s="62"/>
+      <c r="CN29" s="66"/>
+      <c r="CO29" s="62"/>
+      <c r="CP29" s="62"/>
+      <c r="CQ29" s="62"/>
+      <c r="CR29" s="62"/>
+      <c r="CS29" s="62"/>
+      <c r="CT29" s="63"/>
+      <c r="CU29" s="62"/>
+      <c r="CV29" s="62"/>
+      <c r="CW29" s="63"/>
+      <c r="CX29" s="62"/>
+      <c r="CY29" s="62"/>
+      <c r="CZ29" s="63"/>
+      <c r="DA29" s="62"/>
+      <c r="DB29" s="62"/>
+      <c r="DC29" s="63"/>
+      <c r="DD29" s="62"/>
+      <c r="DE29" s="62"/>
+      <c r="DF29" s="62"/>
+      <c r="DG29" s="62"/>
+      <c r="DH29" s="62"/>
+      <c r="DI29" s="62"/>
+      <c r="DJ29" s="62"/>
+      <c r="DK29" s="62"/>
+      <c r="DL29" s="62"/>
+      <c r="DM29" s="62"/>
+      <c r="DN29" s="62"/>
+      <c r="DO29" s="63"/>
+      <c r="DP29" s="62"/>
+      <c r="DQ29" s="62"/>
+      <c r="DR29" s="63"/>
+      <c r="DS29" s="62"/>
+      <c r="DT29" s="62"/>
+      <c r="DU29" s="63"/>
+      <c r="DV29" s="62"/>
+      <c r="DW29" s="62"/>
+      <c r="DX29" s="63"/>
+      <c r="DY29" s="62"/>
+      <c r="DZ29" s="62"/>
+      <c r="EA29" s="58"/>
+      <c r="EB29" s="58"/>
+      <c r="EC29" s="58"/>
+      <c r="ED29" s="58"/>
+      <c r="EE29" s="58"/>
+      <c r="EF29" s="58"/>
+      <c r="EG29" s="58"/>
+      <c r="EH29" s="58"/>
+      <c r="EI29" s="58"/>
     </row>
-    <row r="30" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55" t="s">
+    <row r="30" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="58"/>
-      <c r="AI30" s="58"/>
-      <c r="AJ30" s="58"/>
-      <c r="AK30" s="58"/>
-      <c r="AL30" s="58"/>
-      <c r="AM30" s="58"/>
-      <c r="AN30" s="58"/>
-      <c r="AO30" s="58"/>
-      <c r="AP30" s="58"/>
-      <c r="AQ30" s="58"/>
-      <c r="AR30" s="58"/>
-      <c r="AS30" s="58"/>
-      <c r="AT30" s="58"/>
-      <c r="AU30" s="58"/>
-      <c r="AV30" s="58"/>
-      <c r="AW30" s="58"/>
-      <c r="AX30" s="58"/>
-      <c r="AY30" s="58"/>
-      <c r="AZ30" s="58"/>
-      <c r="BA30" s="58"/>
-      <c r="BB30" s="58"/>
-      <c r="BC30" s="58"/>
-      <c r="BD30" s="58"/>
-      <c r="BE30" s="58"/>
-      <c r="BF30" s="58"/>
-      <c r="BG30" s="58"/>
-      <c r="BH30" s="58"/>
-      <c r="BI30" s="58"/>
-      <c r="BJ30" s="58"/>
-      <c r="BK30" s="58"/>
-      <c r="BL30" s="58"/>
-      <c r="BM30" s="58"/>
-      <c r="BN30" s="58"/>
-      <c r="BO30" s="58"/>
-      <c r="BP30" s="58"/>
-      <c r="BQ30" s="58"/>
-      <c r="BR30" s="58"/>
-      <c r="BS30" s="58"/>
-      <c r="BT30" s="58"/>
-      <c r="BU30" s="58"/>
-      <c r="BV30" s="58"/>
-      <c r="BW30" s="58"/>
-      <c r="BX30" s="58"/>
-      <c r="BY30" s="58"/>
-      <c r="BZ30" s="58"/>
-      <c r="CA30" s="58"/>
-      <c r="CB30" s="58"/>
-      <c r="CC30" s="58"/>
-      <c r="CD30" s="58"/>
-      <c r="CE30" s="58"/>
-      <c r="CF30" s="58"/>
-      <c r="CG30" s="58"/>
-      <c r="CH30" s="58"/>
-      <c r="CI30" s="58"/>
-      <c r="CJ30" s="58"/>
-      <c r="CK30" s="58"/>
-      <c r="CL30" s="58"/>
-      <c r="CM30" s="58"/>
-      <c r="CN30" s="58"/>
-      <c r="CO30" s="58"/>
-      <c r="CP30" s="58"/>
-      <c r="CQ30" s="58"/>
-      <c r="CR30" s="58"/>
-      <c r="CS30" s="58"/>
-      <c r="CT30" s="58"/>
-      <c r="CU30" s="58"/>
-      <c r="CV30" s="58"/>
-      <c r="CW30" s="58"/>
-      <c r="CX30" s="58"/>
-      <c r="CY30" s="58"/>
-      <c r="CZ30" s="58"/>
-      <c r="DA30" s="58"/>
-      <c r="DB30" s="58"/>
-      <c r="DC30" s="58"/>
-      <c r="DD30" s="58"/>
-      <c r="DE30" s="58"/>
-      <c r="DF30" s="58"/>
-      <c r="DG30" s="58"/>
-      <c r="DH30" s="58"/>
-      <c r="DI30" s="58"/>
-      <c r="DJ30" s="58"/>
-      <c r="DK30" s="58"/>
-      <c r="DL30" s="58"/>
-      <c r="DM30" s="58"/>
-      <c r="DN30" s="58"/>
-      <c r="DO30" s="58"/>
-      <c r="DP30" s="58"/>
-      <c r="DQ30" s="58"/>
-      <c r="DR30" s="58"/>
-      <c r="DS30" s="58"/>
-      <c r="DT30" s="58"/>
-      <c r="DU30" s="58"/>
-      <c r="DV30" s="58"/>
-      <c r="DW30" s="58"/>
-      <c r="DX30" s="58"/>
-      <c r="DY30" s="58"/>
-      <c r="DZ30" s="58"/>
-      <c r="EA30" s="59"/>
-      <c r="EB30" s="59"/>
-      <c r="EC30" s="59"/>
-      <c r="ED30" s="59"/>
-      <c r="EE30" s="59"/>
-      <c r="EF30" s="59"/>
-      <c r="EG30" s="59"/>
-      <c r="EH30" s="59"/>
-      <c r="EI30" s="59"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="57"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="57"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="57"/>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="57"/>
+      <c r="AX30" s="57"/>
+      <c r="AY30" s="57"/>
+      <c r="AZ30" s="57"/>
+      <c r="BA30" s="57"/>
+      <c r="BB30" s="57"/>
+      <c r="BC30" s="57"/>
+      <c r="BD30" s="57"/>
+      <c r="BE30" s="57"/>
+      <c r="BF30" s="57"/>
+      <c r="BG30" s="57"/>
+      <c r="BH30" s="57"/>
+      <c r="BI30" s="57"/>
+      <c r="BJ30" s="57"/>
+      <c r="BK30" s="57"/>
+      <c r="BL30" s="57"/>
+      <c r="BM30" s="57"/>
+      <c r="BN30" s="57"/>
+      <c r="BO30" s="57"/>
+      <c r="BP30" s="57"/>
+      <c r="BQ30" s="57"/>
+      <c r="BR30" s="57"/>
+      <c r="BS30" s="57"/>
+      <c r="BT30" s="57"/>
+      <c r="BU30" s="57"/>
+      <c r="BV30" s="57"/>
+      <c r="BW30" s="57"/>
+      <c r="BX30" s="57"/>
+      <c r="BY30" s="57"/>
+      <c r="BZ30" s="57"/>
+      <c r="CA30" s="57"/>
+      <c r="CB30" s="57"/>
+      <c r="CC30" s="57"/>
+      <c r="CD30" s="57"/>
+      <c r="CE30" s="57"/>
+      <c r="CF30" s="57"/>
+      <c r="CG30" s="57"/>
+      <c r="CH30" s="57"/>
+      <c r="CI30" s="57"/>
+      <c r="CJ30" s="57"/>
+      <c r="CK30" s="57"/>
+      <c r="CL30" s="57"/>
+      <c r="CM30" s="57"/>
+      <c r="CN30" s="57"/>
+      <c r="CO30" s="57"/>
+      <c r="CP30" s="57"/>
+      <c r="CQ30" s="57"/>
+      <c r="CR30" s="57"/>
+      <c r="CS30" s="57"/>
+      <c r="CT30" s="57"/>
+      <c r="CU30" s="57"/>
+      <c r="CV30" s="57"/>
+      <c r="CW30" s="57"/>
+      <c r="CX30" s="57"/>
+      <c r="CY30" s="57"/>
+      <c r="CZ30" s="57"/>
+      <c r="DA30" s="57"/>
+      <c r="DB30" s="57"/>
+      <c r="DC30" s="57"/>
+      <c r="DD30" s="57"/>
+      <c r="DE30" s="57"/>
+      <c r="DF30" s="57"/>
+      <c r="DG30" s="57"/>
+      <c r="DH30" s="57"/>
+      <c r="DI30" s="57"/>
+      <c r="DJ30" s="57"/>
+      <c r="DK30" s="57"/>
+      <c r="DL30" s="57"/>
+      <c r="DM30" s="57"/>
+      <c r="DN30" s="57"/>
+      <c r="DO30" s="57"/>
+      <c r="DP30" s="57"/>
+      <c r="DQ30" s="57"/>
+      <c r="DR30" s="57"/>
+      <c r="DS30" s="57"/>
+      <c r="DT30" s="57"/>
+      <c r="DU30" s="57"/>
+      <c r="DV30" s="57"/>
+      <c r="DW30" s="57"/>
+      <c r="DX30" s="57"/>
+      <c r="DY30" s="57"/>
+      <c r="DZ30" s="57"/>
+      <c r="EA30" s="58"/>
+      <c r="EB30" s="58"/>
+      <c r="EC30" s="58"/>
+      <c r="ED30" s="58"/>
+      <c r="EE30" s="58"/>
+      <c r="EF30" s="58"/>
+      <c r="EG30" s="58"/>
+      <c r="EH30" s="58"/>
+      <c r="EI30" s="58"/>
     </row>
-    <row r="31" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
+    <row r="31" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="58"/>
-      <c r="AJ31" s="58"/>
-      <c r="AK31" s="58"/>
-      <c r="AL31" s="58"/>
-      <c r="AM31" s="58"/>
-      <c r="AN31" s="58"/>
-      <c r="AO31" s="58"/>
-      <c r="AP31" s="58"/>
-      <c r="AQ31" s="58"/>
-      <c r="AR31" s="58"/>
-      <c r="AS31" s="58"/>
-      <c r="AT31" s="58"/>
-      <c r="AU31" s="58"/>
-      <c r="AV31" s="58"/>
-      <c r="AW31" s="58"/>
-      <c r="AX31" s="58"/>
-      <c r="AY31" s="58"/>
-      <c r="AZ31" s="58"/>
-      <c r="BA31" s="58"/>
-      <c r="BB31" s="58"/>
-      <c r="BC31" s="58"/>
-      <c r="BD31" s="58"/>
-      <c r="BE31" s="58"/>
-      <c r="BF31" s="58"/>
-      <c r="BG31" s="58"/>
-      <c r="BH31" s="58"/>
-      <c r="BI31" s="58"/>
-      <c r="BJ31" s="58"/>
-      <c r="BK31" s="58"/>
-      <c r="BL31" s="58"/>
-      <c r="BM31" s="58"/>
-      <c r="BN31" s="58"/>
-      <c r="BO31" s="58"/>
-      <c r="BP31" s="58"/>
-      <c r="BQ31" s="58"/>
-      <c r="BR31" s="58"/>
-      <c r="BS31" s="58"/>
-      <c r="BT31" s="58"/>
-      <c r="BU31" s="58"/>
-      <c r="BV31" s="58"/>
-      <c r="BW31" s="58"/>
-      <c r="BX31" s="58"/>
-      <c r="BY31" s="58"/>
-      <c r="BZ31" s="58"/>
-      <c r="CA31" s="58"/>
-      <c r="CB31" s="58"/>
-      <c r="CC31" s="58"/>
-      <c r="CD31" s="58"/>
-      <c r="CE31" s="58"/>
-      <c r="CF31" s="58"/>
-      <c r="CG31" s="58"/>
-      <c r="CH31" s="58"/>
-      <c r="CI31" s="58"/>
-      <c r="CJ31" s="58"/>
-      <c r="CK31" s="58"/>
-      <c r="CL31" s="58"/>
-      <c r="CM31" s="58"/>
-      <c r="CN31" s="58"/>
-      <c r="CO31" s="58"/>
-      <c r="CP31" s="58"/>
-      <c r="CQ31" s="58"/>
-      <c r="CR31" s="58"/>
-      <c r="CS31" s="58"/>
-      <c r="CT31" s="58"/>
-      <c r="CU31" s="58"/>
-      <c r="CV31" s="58"/>
-      <c r="CW31" s="58"/>
-      <c r="CX31" s="58"/>
-      <c r="CY31" s="58"/>
-      <c r="CZ31" s="58"/>
-      <c r="DA31" s="58"/>
-      <c r="DB31" s="58"/>
-      <c r="DC31" s="58"/>
-      <c r="DD31" s="58"/>
-      <c r="DE31" s="58"/>
-      <c r="DF31" s="58"/>
-      <c r="DG31" s="58"/>
-      <c r="DH31" s="58"/>
-      <c r="DI31" s="58"/>
-      <c r="DJ31" s="58"/>
-      <c r="DK31" s="58"/>
-      <c r="DL31" s="58"/>
-      <c r="DM31" s="58"/>
-      <c r="DN31" s="58"/>
-      <c r="DO31" s="58"/>
-      <c r="DP31" s="58"/>
-      <c r="DQ31" s="58"/>
-      <c r="DR31" s="58"/>
-      <c r="DS31" s="58"/>
-      <c r="DT31" s="58"/>
-      <c r="DU31" s="58"/>
-      <c r="DV31" s="58"/>
-      <c r="DW31" s="58"/>
-      <c r="DX31" s="58"/>
-      <c r="DY31" s="58"/>
-      <c r="DZ31" s="58"/>
-      <c r="EA31" s="59"/>
-      <c r="EB31" s="59"/>
-      <c r="EC31" s="59"/>
-      <c r="ED31" s="59"/>
-      <c r="EE31" s="59"/>
-      <c r="EF31" s="59"/>
-      <c r="EG31" s="59"/>
-      <c r="EH31" s="59"/>
-      <c r="EI31" s="59"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="57"/>
+      <c r="AJ31" s="57"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="57"/>
+      <c r="AX31" s="57"/>
+      <c r="AY31" s="57"/>
+      <c r="AZ31" s="57"/>
+      <c r="BA31" s="57"/>
+      <c r="BB31" s="57"/>
+      <c r="BC31" s="57"/>
+      <c r="BD31" s="57"/>
+      <c r="BE31" s="57"/>
+      <c r="BF31" s="57"/>
+      <c r="BG31" s="57"/>
+      <c r="BH31" s="57"/>
+      <c r="BI31" s="57"/>
+      <c r="BJ31" s="57"/>
+      <c r="BK31" s="57"/>
+      <c r="BL31" s="57"/>
+      <c r="BM31" s="57"/>
+      <c r="BN31" s="57"/>
+      <c r="BO31" s="57"/>
+      <c r="BP31" s="57"/>
+      <c r="BQ31" s="57"/>
+      <c r="BR31" s="57"/>
+      <c r="BS31" s="57"/>
+      <c r="BT31" s="57"/>
+      <c r="BU31" s="57"/>
+      <c r="BV31" s="57"/>
+      <c r="BW31" s="57"/>
+      <c r="BX31" s="57"/>
+      <c r="BY31" s="57"/>
+      <c r="BZ31" s="57"/>
+      <c r="CA31" s="57"/>
+      <c r="CB31" s="57"/>
+      <c r="CC31" s="57"/>
+      <c r="CD31" s="57"/>
+      <c r="CE31" s="57"/>
+      <c r="CF31" s="57"/>
+      <c r="CG31" s="57"/>
+      <c r="CH31" s="57"/>
+      <c r="CI31" s="57"/>
+      <c r="CJ31" s="57"/>
+      <c r="CK31" s="57"/>
+      <c r="CL31" s="57"/>
+      <c r="CM31" s="57"/>
+      <c r="CN31" s="57"/>
+      <c r="CO31" s="57"/>
+      <c r="CP31" s="57"/>
+      <c r="CQ31" s="57"/>
+      <c r="CR31" s="57"/>
+      <c r="CS31" s="57"/>
+      <c r="CT31" s="57"/>
+      <c r="CU31" s="57"/>
+      <c r="CV31" s="57"/>
+      <c r="CW31" s="57"/>
+      <c r="CX31" s="57"/>
+      <c r="CY31" s="57"/>
+      <c r="CZ31" s="57"/>
+      <c r="DA31" s="57"/>
+      <c r="DB31" s="57"/>
+      <c r="DC31" s="57"/>
+      <c r="DD31" s="57"/>
+      <c r="DE31" s="57"/>
+      <c r="DF31" s="57"/>
+      <c r="DG31" s="57"/>
+      <c r="DH31" s="57"/>
+      <c r="DI31" s="57"/>
+      <c r="DJ31" s="57"/>
+      <c r="DK31" s="57"/>
+      <c r="DL31" s="57"/>
+      <c r="DM31" s="57"/>
+      <c r="DN31" s="57"/>
+      <c r="DO31" s="57"/>
+      <c r="DP31" s="57"/>
+      <c r="DQ31" s="57"/>
+      <c r="DR31" s="57"/>
+      <c r="DS31" s="57"/>
+      <c r="DT31" s="57"/>
+      <c r="DU31" s="57"/>
+      <c r="DV31" s="57"/>
+      <c r="DW31" s="57"/>
+      <c r="DX31" s="57"/>
+      <c r="DY31" s="57"/>
+      <c r="DZ31" s="57"/>
+      <c r="EA31" s="58"/>
+      <c r="EB31" s="58"/>
+      <c r="EC31" s="58"/>
+      <c r="ED31" s="58"/>
+      <c r="EE31" s="58"/>
+      <c r="EF31" s="58"/>
+      <c r="EG31" s="58"/>
+      <c r="EH31" s="58"/>
+      <c r="EI31" s="58"/>
     </row>
-    <row r="32" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
+    <row r="32" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-      <c r="AF32" s="58"/>
-      <c r="AG32" s="58"/>
-      <c r="AH32" s="58"/>
-      <c r="AI32" s="58"/>
-      <c r="AJ32" s="58"/>
-      <c r="AK32" s="58"/>
-      <c r="AL32" s="58"/>
-      <c r="AM32" s="58"/>
-      <c r="AN32" s="58"/>
-      <c r="AO32" s="58"/>
-      <c r="AP32" s="58"/>
-      <c r="AQ32" s="58"/>
-      <c r="AR32" s="58"/>
-      <c r="AS32" s="58"/>
-      <c r="AT32" s="58"/>
-      <c r="AU32" s="58"/>
-      <c r="AV32" s="58"/>
-      <c r="AW32" s="58"/>
-      <c r="AX32" s="58"/>
-      <c r="AY32" s="58"/>
-      <c r="AZ32" s="58"/>
-      <c r="BA32" s="58"/>
-      <c r="BB32" s="58"/>
-      <c r="BC32" s="58"/>
-      <c r="BD32" s="58"/>
-      <c r="BE32" s="58"/>
-      <c r="BF32" s="58"/>
-      <c r="BG32" s="58"/>
-      <c r="BH32" s="58"/>
-      <c r="BI32" s="58"/>
-      <c r="BJ32" s="58"/>
-      <c r="BK32" s="58"/>
-      <c r="BL32" s="58"/>
-      <c r="BM32" s="58"/>
-      <c r="BN32" s="58"/>
-      <c r="BO32" s="58"/>
-      <c r="BP32" s="58"/>
-      <c r="BQ32" s="58"/>
-      <c r="BR32" s="58"/>
-      <c r="BS32" s="58"/>
-      <c r="BT32" s="58"/>
-      <c r="BU32" s="58"/>
-      <c r="BV32" s="58"/>
-      <c r="BW32" s="58"/>
-      <c r="BX32" s="58"/>
-      <c r="BY32" s="58"/>
-      <c r="BZ32" s="58"/>
-      <c r="CA32" s="58"/>
-      <c r="CB32" s="58"/>
-      <c r="CC32" s="58"/>
-      <c r="CD32" s="58"/>
-      <c r="CE32" s="58"/>
-      <c r="CF32" s="58"/>
-      <c r="CG32" s="58"/>
-      <c r="CH32" s="58"/>
-      <c r="CI32" s="58"/>
-      <c r="CJ32" s="58"/>
-      <c r="CK32" s="58"/>
-      <c r="CL32" s="58"/>
-      <c r="CM32" s="58"/>
-      <c r="CN32" s="58"/>
-      <c r="CO32" s="58"/>
-      <c r="CP32" s="58"/>
-      <c r="CQ32" s="58"/>
-      <c r="CR32" s="58"/>
-      <c r="CS32" s="58"/>
-      <c r="CT32" s="58"/>
-      <c r="CU32" s="58"/>
-      <c r="CV32" s="58"/>
-      <c r="CW32" s="58"/>
-      <c r="CX32" s="58"/>
-      <c r="CY32" s="58"/>
-      <c r="CZ32" s="58"/>
-      <c r="DA32" s="58"/>
-      <c r="DB32" s="58"/>
-      <c r="DC32" s="58"/>
-      <c r="DD32" s="58"/>
-      <c r="DE32" s="58"/>
-      <c r="DF32" s="58"/>
-      <c r="DG32" s="58"/>
-      <c r="DH32" s="58"/>
-      <c r="DI32" s="58"/>
-      <c r="DJ32" s="58"/>
-      <c r="DK32" s="58"/>
-      <c r="DL32" s="58"/>
-      <c r="DM32" s="58"/>
-      <c r="DN32" s="58"/>
-      <c r="DO32" s="58"/>
-      <c r="DP32" s="58"/>
-      <c r="DQ32" s="58"/>
-      <c r="DR32" s="58"/>
-      <c r="DS32" s="58"/>
-      <c r="DT32" s="58"/>
-      <c r="DU32" s="58"/>
-      <c r="DV32" s="58"/>
-      <c r="DW32" s="58"/>
-      <c r="DX32" s="58"/>
-      <c r="DY32" s="58"/>
-      <c r="DZ32" s="58"/>
-      <c r="EA32" s="59"/>
-      <c r="EB32" s="59"/>
-      <c r="EC32" s="59"/>
-      <c r="ED32" s="59"/>
-      <c r="EE32" s="59"/>
-      <c r="EF32" s="59"/>
-      <c r="EG32" s="59"/>
-      <c r="EH32" s="59"/>
-      <c r="EI32" s="59"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="57"/>
+      <c r="BA32" s="57"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="57"/>
+      <c r="BE32" s="57"/>
+      <c r="BF32" s="57"/>
+      <c r="BG32" s="57"/>
+      <c r="BH32" s="57"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="57"/>
+      <c r="BK32" s="57"/>
+      <c r="BL32" s="57"/>
+      <c r="BM32" s="57"/>
+      <c r="BN32" s="57"/>
+      <c r="BO32" s="57"/>
+      <c r="BP32" s="57"/>
+      <c r="BQ32" s="57"/>
+      <c r="BR32" s="57"/>
+      <c r="BS32" s="57"/>
+      <c r="BT32" s="57"/>
+      <c r="BU32" s="57"/>
+      <c r="BV32" s="57"/>
+      <c r="BW32" s="57"/>
+      <c r="BX32" s="57"/>
+      <c r="BY32" s="57"/>
+      <c r="BZ32" s="57"/>
+      <c r="CA32" s="57"/>
+      <c r="CB32" s="57"/>
+      <c r="CC32" s="57"/>
+      <c r="CD32" s="57"/>
+      <c r="CE32" s="57"/>
+      <c r="CF32" s="57"/>
+      <c r="CG32" s="57"/>
+      <c r="CH32" s="57"/>
+      <c r="CI32" s="57"/>
+      <c r="CJ32" s="57"/>
+      <c r="CK32" s="57"/>
+      <c r="CL32" s="57"/>
+      <c r="CM32" s="57"/>
+      <c r="CN32" s="57"/>
+      <c r="CO32" s="57"/>
+      <c r="CP32" s="57"/>
+      <c r="CQ32" s="57"/>
+      <c r="CR32" s="57"/>
+      <c r="CS32" s="57"/>
+      <c r="CT32" s="57"/>
+      <c r="CU32" s="57"/>
+      <c r="CV32" s="57"/>
+      <c r="CW32" s="57"/>
+      <c r="CX32" s="57"/>
+      <c r="CY32" s="57"/>
+      <c r="CZ32" s="57"/>
+      <c r="DA32" s="57"/>
+      <c r="DB32" s="57"/>
+      <c r="DC32" s="57"/>
+      <c r="DD32" s="57"/>
+      <c r="DE32" s="57"/>
+      <c r="DF32" s="57"/>
+      <c r="DG32" s="57"/>
+      <c r="DH32" s="57"/>
+      <c r="DI32" s="57"/>
+      <c r="DJ32" s="57"/>
+      <c r="DK32" s="57"/>
+      <c r="DL32" s="57"/>
+      <c r="DM32" s="57"/>
+      <c r="DN32" s="57"/>
+      <c r="DO32" s="57"/>
+      <c r="DP32" s="57"/>
+      <c r="DQ32" s="57"/>
+      <c r="DR32" s="57"/>
+      <c r="DS32" s="57"/>
+      <c r="DT32" s="57"/>
+      <c r="DU32" s="57"/>
+      <c r="DV32" s="57"/>
+      <c r="DW32" s="57"/>
+      <c r="DX32" s="57"/>
+      <c r="DY32" s="57"/>
+      <c r="DZ32" s="57"/>
+      <c r="EA32" s="58"/>
+      <c r="EB32" s="58"/>
+      <c r="EC32" s="58"/>
+      <c r="ED32" s="58"/>
+      <c r="EE32" s="58"/>
+      <c r="EF32" s="58"/>
+      <c r="EG32" s="58"/>
+      <c r="EH32" s="58"/>
+      <c r="EI32" s="58"/>
     </row>
-    <row r="33" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55" t="s">
+    <row r="33" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="58"/>
-      <c r="AJ33" s="58"/>
-      <c r="AK33" s="58"/>
-      <c r="AL33" s="58"/>
-      <c r="AM33" s="58"/>
-      <c r="AN33" s="58"/>
-      <c r="AO33" s="58"/>
-      <c r="AP33" s="58"/>
-      <c r="AQ33" s="58"/>
-      <c r="AR33" s="58"/>
-      <c r="AS33" s="58"/>
-      <c r="AT33" s="58"/>
-      <c r="AU33" s="58"/>
-      <c r="AV33" s="58"/>
-      <c r="AW33" s="58"/>
-      <c r="AX33" s="58"/>
-      <c r="AY33" s="58"/>
-      <c r="AZ33" s="58"/>
-      <c r="BA33" s="58"/>
-      <c r="BB33" s="58"/>
-      <c r="BC33" s="58"/>
-      <c r="BD33" s="58"/>
-      <c r="BE33" s="58"/>
-      <c r="BF33" s="58"/>
-      <c r="BG33" s="58"/>
-      <c r="BH33" s="58"/>
-      <c r="BI33" s="58"/>
-      <c r="BJ33" s="58"/>
-      <c r="BK33" s="58"/>
-      <c r="BL33" s="58"/>
-      <c r="BM33" s="58"/>
-      <c r="BN33" s="58"/>
-      <c r="BO33" s="58"/>
-      <c r="BP33" s="58"/>
-      <c r="BQ33" s="58"/>
-      <c r="BR33" s="58"/>
-      <c r="BS33" s="58"/>
-      <c r="BT33" s="58"/>
-      <c r="BU33" s="58"/>
-      <c r="BV33" s="58"/>
-      <c r="BW33" s="58"/>
-      <c r="BX33" s="58"/>
-      <c r="BY33" s="58"/>
-      <c r="BZ33" s="58"/>
-      <c r="CA33" s="58"/>
-      <c r="CB33" s="58"/>
-      <c r="CC33" s="58"/>
-      <c r="CD33" s="58"/>
-      <c r="CE33" s="58"/>
-      <c r="CF33" s="58"/>
-      <c r="CG33" s="58"/>
-      <c r="CH33" s="58"/>
-      <c r="CI33" s="58"/>
-      <c r="CJ33" s="58"/>
-      <c r="CK33" s="58"/>
-      <c r="CL33" s="58"/>
-      <c r="CM33" s="58"/>
-      <c r="CN33" s="58"/>
-      <c r="CO33" s="58"/>
-      <c r="CP33" s="58"/>
-      <c r="CQ33" s="58"/>
-      <c r="CR33" s="58"/>
-      <c r="CS33" s="58"/>
-      <c r="CT33" s="58"/>
-      <c r="CU33" s="58"/>
-      <c r="CV33" s="58"/>
-      <c r="CW33" s="58"/>
-      <c r="CX33" s="58"/>
-      <c r="CY33" s="58"/>
-      <c r="CZ33" s="58"/>
-      <c r="DA33" s="58"/>
-      <c r="DB33" s="58"/>
-      <c r="DC33" s="58"/>
-      <c r="DD33" s="58"/>
-      <c r="DE33" s="58"/>
-      <c r="DF33" s="58"/>
-      <c r="DG33" s="58"/>
-      <c r="DH33" s="58"/>
-      <c r="DI33" s="58"/>
-      <c r="DJ33" s="58"/>
-      <c r="DK33" s="58"/>
-      <c r="DL33" s="58"/>
-      <c r="DM33" s="58"/>
-      <c r="DN33" s="58"/>
-      <c r="DO33" s="58"/>
-      <c r="DP33" s="58"/>
-      <c r="DQ33" s="58"/>
-      <c r="DR33" s="58"/>
-      <c r="DS33" s="58"/>
-      <c r="DT33" s="58"/>
-      <c r="DU33" s="58"/>
-      <c r="DV33" s="58"/>
-      <c r="DW33" s="58"/>
-      <c r="DX33" s="58"/>
-      <c r="DY33" s="58"/>
-      <c r="DZ33" s="58"/>
-      <c r="EA33" s="59"/>
-      <c r="EB33" s="59"/>
-      <c r="EC33" s="59"/>
-      <c r="ED33" s="59"/>
-      <c r="EE33" s="59"/>
-      <c r="EF33" s="59"/>
-      <c r="EG33" s="59"/>
-      <c r="EH33" s="59"/>
-      <c r="EI33" s="59"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="57"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="57"/>
+      <c r="AK33" s="57"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="57"/>
+      <c r="AX33" s="57"/>
+      <c r="AY33" s="57"/>
+      <c r="AZ33" s="57"/>
+      <c r="BA33" s="57"/>
+      <c r="BB33" s="57"/>
+      <c r="BC33" s="57"/>
+      <c r="BD33" s="57"/>
+      <c r="BE33" s="57"/>
+      <c r="BF33" s="57"/>
+      <c r="BG33" s="57"/>
+      <c r="BH33" s="57"/>
+      <c r="BI33" s="57"/>
+      <c r="BJ33" s="57"/>
+      <c r="BK33" s="57"/>
+      <c r="BL33" s="57"/>
+      <c r="BM33" s="57"/>
+      <c r="BN33" s="57"/>
+      <c r="BO33" s="57"/>
+      <c r="BP33" s="57"/>
+      <c r="BQ33" s="57"/>
+      <c r="BR33" s="57"/>
+      <c r="BS33" s="57"/>
+      <c r="BT33" s="57"/>
+      <c r="BU33" s="57"/>
+      <c r="BV33" s="57"/>
+      <c r="BW33" s="57"/>
+      <c r="BX33" s="57"/>
+      <c r="BY33" s="57"/>
+      <c r="BZ33" s="57"/>
+      <c r="CA33" s="57"/>
+      <c r="CB33" s="57"/>
+      <c r="CC33" s="57"/>
+      <c r="CD33" s="57"/>
+      <c r="CE33" s="57"/>
+      <c r="CF33" s="57"/>
+      <c r="CG33" s="57"/>
+      <c r="CH33" s="57"/>
+      <c r="CI33" s="57"/>
+      <c r="CJ33" s="57"/>
+      <c r="CK33" s="57"/>
+      <c r="CL33" s="57"/>
+      <c r="CM33" s="57"/>
+      <c r="CN33" s="57"/>
+      <c r="CO33" s="57"/>
+      <c r="CP33" s="57"/>
+      <c r="CQ33" s="57"/>
+      <c r="CR33" s="57"/>
+      <c r="CS33" s="57"/>
+      <c r="CT33" s="57"/>
+      <c r="CU33" s="57"/>
+      <c r="CV33" s="57"/>
+      <c r="CW33" s="57"/>
+      <c r="CX33" s="57"/>
+      <c r="CY33" s="57"/>
+      <c r="CZ33" s="57"/>
+      <c r="DA33" s="57"/>
+      <c r="DB33" s="57"/>
+      <c r="DC33" s="57"/>
+      <c r="DD33" s="57"/>
+      <c r="DE33" s="57"/>
+      <c r="DF33" s="57"/>
+      <c r="DG33" s="57"/>
+      <c r="DH33" s="57"/>
+      <c r="DI33" s="57"/>
+      <c r="DJ33" s="57"/>
+      <c r="DK33" s="57"/>
+      <c r="DL33" s="57"/>
+      <c r="DM33" s="57"/>
+      <c r="DN33" s="57"/>
+      <c r="DO33" s="57"/>
+      <c r="DP33" s="57"/>
+      <c r="DQ33" s="57"/>
+      <c r="DR33" s="57"/>
+      <c r="DS33" s="57"/>
+      <c r="DT33" s="57"/>
+      <c r="DU33" s="57"/>
+      <c r="DV33" s="57"/>
+      <c r="DW33" s="57"/>
+      <c r="DX33" s="57"/>
+      <c r="DY33" s="57"/>
+      <c r="DZ33" s="57"/>
+      <c r="EA33" s="58"/>
+      <c r="EB33" s="58"/>
+      <c r="EC33" s="58"/>
+      <c r="ED33" s="58"/>
+      <c r="EE33" s="58"/>
+      <c r="EF33" s="58"/>
+      <c r="EG33" s="58"/>
+      <c r="EH33" s="58"/>
+      <c r="EI33" s="58"/>
     </row>
-    <row r="34" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
+    <row r="34" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="58"/>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="58"/>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="58"/>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="58"/>
-      <c r="AR34" s="58"/>
-      <c r="AS34" s="58"/>
-      <c r="AT34" s="58"/>
-      <c r="AU34" s="58"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="58"/>
-      <c r="AX34" s="58"/>
-      <c r="AY34" s="58"/>
-      <c r="AZ34" s="58"/>
-      <c r="BA34" s="58"/>
-      <c r="BB34" s="58"/>
-      <c r="BC34" s="58"/>
-      <c r="BD34" s="58"/>
-      <c r="BE34" s="58"/>
-      <c r="BF34" s="58"/>
-      <c r="BG34" s="58"/>
-      <c r="BH34" s="58"/>
-      <c r="BI34" s="58"/>
-      <c r="BJ34" s="58"/>
-      <c r="BK34" s="58"/>
-      <c r="BL34" s="58"/>
-      <c r="BM34" s="58"/>
-      <c r="BN34" s="58"/>
-      <c r="BO34" s="58"/>
-      <c r="BP34" s="58"/>
-      <c r="BQ34" s="58"/>
-      <c r="BR34" s="58"/>
-      <c r="BS34" s="58"/>
-      <c r="BT34" s="58"/>
-      <c r="BU34" s="58"/>
-      <c r="BV34" s="58"/>
-      <c r="BW34" s="58"/>
-      <c r="BX34" s="58"/>
-      <c r="BY34" s="58"/>
-      <c r="BZ34" s="58"/>
-      <c r="CA34" s="58"/>
-      <c r="CB34" s="58"/>
-      <c r="CC34" s="58"/>
-      <c r="CD34" s="58"/>
-      <c r="CE34" s="58"/>
-      <c r="CF34" s="58"/>
-      <c r="CG34" s="58"/>
-      <c r="CH34" s="58"/>
-      <c r="CI34" s="58"/>
-      <c r="CJ34" s="58"/>
-      <c r="CK34" s="58"/>
-      <c r="CL34" s="58"/>
-      <c r="CM34" s="58"/>
-      <c r="CN34" s="58"/>
-      <c r="CO34" s="58"/>
-      <c r="CP34" s="58"/>
-      <c r="CQ34" s="58"/>
-      <c r="CR34" s="58"/>
-      <c r="CS34" s="58"/>
-      <c r="CT34" s="58"/>
-      <c r="CU34" s="58"/>
-      <c r="CV34" s="58"/>
-      <c r="CW34" s="58"/>
-      <c r="CX34" s="58"/>
-      <c r="CY34" s="58"/>
-      <c r="CZ34" s="58"/>
-      <c r="DA34" s="58"/>
-      <c r="DB34" s="58"/>
-      <c r="DC34" s="58"/>
-      <c r="DD34" s="58"/>
-      <c r="DE34" s="58"/>
-      <c r="DF34" s="58"/>
-      <c r="DG34" s="58"/>
-      <c r="DH34" s="58"/>
-      <c r="DI34" s="58"/>
-      <c r="DJ34" s="58"/>
-      <c r="DK34" s="58"/>
-      <c r="DL34" s="58"/>
-      <c r="DM34" s="58"/>
-      <c r="DN34" s="58"/>
-      <c r="DO34" s="58"/>
-      <c r="DP34" s="58"/>
-      <c r="DQ34" s="58"/>
-      <c r="DR34" s="58"/>
-      <c r="DS34" s="58"/>
-      <c r="DT34" s="58"/>
-      <c r="DU34" s="58"/>
-      <c r="DV34" s="58"/>
-      <c r="DW34" s="58"/>
-      <c r="DX34" s="58"/>
-      <c r="DY34" s="58"/>
-      <c r="DZ34" s="58"/>
-      <c r="EA34" s="59"/>
-      <c r="EB34" s="59"/>
-      <c r="EC34" s="59"/>
-      <c r="ED34" s="59"/>
-      <c r="EE34" s="59"/>
-      <c r="EF34" s="59"/>
-      <c r="EG34" s="59"/>
-      <c r="EH34" s="59"/>
-      <c r="EI34" s="59"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57"/>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="57"/>
+      <c r="BE34" s="57"/>
+      <c r="BF34" s="57"/>
+      <c r="BG34" s="57"/>
+      <c r="BH34" s="57"/>
+      <c r="BI34" s="57"/>
+      <c r="BJ34" s="57"/>
+      <c r="BK34" s="57"/>
+      <c r="BL34" s="57"/>
+      <c r="BM34" s="57"/>
+      <c r="BN34" s="57"/>
+      <c r="BO34" s="57"/>
+      <c r="BP34" s="57"/>
+      <c r="BQ34" s="57"/>
+      <c r="BR34" s="57"/>
+      <c r="BS34" s="57"/>
+      <c r="BT34" s="57"/>
+      <c r="BU34" s="57"/>
+      <c r="BV34" s="57"/>
+      <c r="BW34" s="57"/>
+      <c r="BX34" s="57"/>
+      <c r="BY34" s="57"/>
+      <c r="BZ34" s="57"/>
+      <c r="CA34" s="57"/>
+      <c r="CB34" s="57"/>
+      <c r="CC34" s="57"/>
+      <c r="CD34" s="57"/>
+      <c r="CE34" s="57"/>
+      <c r="CF34" s="57"/>
+      <c r="CG34" s="57"/>
+      <c r="CH34" s="57"/>
+      <c r="CI34" s="57"/>
+      <c r="CJ34" s="57"/>
+      <c r="CK34" s="57"/>
+      <c r="CL34" s="57"/>
+      <c r="CM34" s="57"/>
+      <c r="CN34" s="57"/>
+      <c r="CO34" s="57"/>
+      <c r="CP34" s="57"/>
+      <c r="CQ34" s="57"/>
+      <c r="CR34" s="57"/>
+      <c r="CS34" s="57"/>
+      <c r="CT34" s="57"/>
+      <c r="CU34" s="57"/>
+      <c r="CV34" s="57"/>
+      <c r="CW34" s="57"/>
+      <c r="CX34" s="57"/>
+      <c r="CY34" s="57"/>
+      <c r="CZ34" s="57"/>
+      <c r="DA34" s="57"/>
+      <c r="DB34" s="57"/>
+      <c r="DC34" s="57"/>
+      <c r="DD34" s="57"/>
+      <c r="DE34" s="57"/>
+      <c r="DF34" s="57"/>
+      <c r="DG34" s="57"/>
+      <c r="DH34" s="57"/>
+      <c r="DI34" s="57"/>
+      <c r="DJ34" s="57"/>
+      <c r="DK34" s="57"/>
+      <c r="DL34" s="57"/>
+      <c r="DM34" s="57"/>
+      <c r="DN34" s="57"/>
+      <c r="DO34" s="57"/>
+      <c r="DP34" s="57"/>
+      <c r="DQ34" s="57"/>
+      <c r="DR34" s="57"/>
+      <c r="DS34" s="57"/>
+      <c r="DT34" s="57"/>
+      <c r="DU34" s="57"/>
+      <c r="DV34" s="57"/>
+      <c r="DW34" s="57"/>
+      <c r="DX34" s="57"/>
+      <c r="DY34" s="57"/>
+      <c r="DZ34" s="57"/>
+      <c r="EA34" s="58"/>
+      <c r="EB34" s="58"/>
+      <c r="EC34" s="58"/>
+      <c r="ED34" s="58"/>
+      <c r="EE34" s="58"/>
+      <c r="EF34" s="58"/>
+      <c r="EG34" s="58"/>
+      <c r="EH34" s="58"/>
+      <c r="EI34" s="58"/>
     </row>
-    <row r="35" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55" t="s">
+    <row r="35" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="58"/>
-      <c r="AJ35" s="58"/>
-      <c r="AK35" s="58"/>
-      <c r="AL35" s="58"/>
-      <c r="AM35" s="58"/>
-      <c r="AN35" s="58"/>
-      <c r="AO35" s="58"/>
-      <c r="AP35" s="58"/>
-      <c r="AQ35" s="58"/>
-      <c r="AR35" s="58"/>
-      <c r="AS35" s="58"/>
-      <c r="AT35" s="58"/>
-      <c r="AU35" s="58"/>
-      <c r="AV35" s="58"/>
-      <c r="AW35" s="58"/>
-      <c r="AX35" s="58"/>
-      <c r="AY35" s="58"/>
-      <c r="AZ35" s="58"/>
-      <c r="BA35" s="58"/>
-      <c r="BB35" s="58"/>
-      <c r="BC35" s="58"/>
-      <c r="BD35" s="58"/>
-      <c r="BE35" s="58"/>
-      <c r="BF35" s="58"/>
-      <c r="BG35" s="58"/>
-      <c r="BH35" s="58"/>
-      <c r="BI35" s="58"/>
-      <c r="BJ35" s="58"/>
-      <c r="BK35" s="58"/>
-      <c r="BL35" s="58"/>
-      <c r="BM35" s="58"/>
-      <c r="BN35" s="58"/>
-      <c r="BO35" s="58"/>
-      <c r="BP35" s="58"/>
-      <c r="BQ35" s="58"/>
-      <c r="BR35" s="58"/>
-      <c r="BS35" s="58"/>
-      <c r="BT35" s="58"/>
-      <c r="BU35" s="58"/>
-      <c r="BV35" s="58"/>
-      <c r="BW35" s="58"/>
-      <c r="BX35" s="58"/>
-      <c r="BY35" s="58"/>
-      <c r="BZ35" s="58"/>
-      <c r="CA35" s="58"/>
-      <c r="CB35" s="58"/>
-      <c r="CC35" s="58"/>
-      <c r="CD35" s="58"/>
-      <c r="CE35" s="58"/>
-      <c r="CF35" s="58"/>
-      <c r="CG35" s="58"/>
-      <c r="CH35" s="58"/>
-      <c r="CI35" s="58"/>
-      <c r="CJ35" s="58"/>
-      <c r="CK35" s="58"/>
-      <c r="CL35" s="58"/>
-      <c r="CM35" s="58"/>
-      <c r="CN35" s="58"/>
-      <c r="CO35" s="58"/>
-      <c r="CP35" s="58"/>
-      <c r="CQ35" s="58"/>
-      <c r="CR35" s="58"/>
-      <c r="CS35" s="58"/>
-      <c r="CT35" s="58"/>
-      <c r="CU35" s="58"/>
-      <c r="CV35" s="58"/>
-      <c r="CW35" s="58"/>
-      <c r="CX35" s="58"/>
-      <c r="CY35" s="58"/>
-      <c r="CZ35" s="58"/>
-      <c r="DA35" s="58"/>
-      <c r="DB35" s="58"/>
-      <c r="DC35" s="58"/>
-      <c r="DD35" s="58"/>
-      <c r="DE35" s="58"/>
-      <c r="DF35" s="58"/>
-      <c r="DG35" s="58"/>
-      <c r="DH35" s="58"/>
-      <c r="DI35" s="58"/>
-      <c r="DJ35" s="58"/>
-      <c r="DK35" s="58"/>
-      <c r="DL35" s="58"/>
-      <c r="DM35" s="58"/>
-      <c r="DN35" s="58"/>
-      <c r="DO35" s="58"/>
-      <c r="DP35" s="58"/>
-      <c r="DQ35" s="58"/>
-      <c r="DR35" s="58"/>
-      <c r="DS35" s="58"/>
-      <c r="DT35" s="58"/>
-      <c r="DU35" s="58"/>
-      <c r="DV35" s="58"/>
-      <c r="DW35" s="58"/>
-      <c r="DX35" s="58"/>
-      <c r="DY35" s="58"/>
-      <c r="DZ35" s="58"/>
-      <c r="EA35" s="59"/>
-      <c r="EB35" s="59"/>
-      <c r="EC35" s="59"/>
-      <c r="ED35" s="59"/>
-      <c r="EE35" s="59"/>
-      <c r="EF35" s="59"/>
-      <c r="EG35" s="59"/>
-      <c r="EH35" s="59"/>
-      <c r="EI35" s="59"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="57"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="57"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="57"/>
+      <c r="AX35" s="57"/>
+      <c r="AY35" s="57"/>
+      <c r="AZ35" s="57"/>
+      <c r="BA35" s="57"/>
+      <c r="BB35" s="57"/>
+      <c r="BC35" s="57"/>
+      <c r="BD35" s="57"/>
+      <c r="BE35" s="57"/>
+      <c r="BF35" s="57"/>
+      <c r="BG35" s="57"/>
+      <c r="BH35" s="57"/>
+      <c r="BI35" s="57"/>
+      <c r="BJ35" s="57"/>
+      <c r="BK35" s="57"/>
+      <c r="BL35" s="57"/>
+      <c r="BM35" s="57"/>
+      <c r="BN35" s="57"/>
+      <c r="BO35" s="57"/>
+      <c r="BP35" s="57"/>
+      <c r="BQ35" s="57"/>
+      <c r="BR35" s="57"/>
+      <c r="BS35" s="57"/>
+      <c r="BT35" s="57"/>
+      <c r="BU35" s="57"/>
+      <c r="BV35" s="57"/>
+      <c r="BW35" s="57"/>
+      <c r="BX35" s="57"/>
+      <c r="BY35" s="57"/>
+      <c r="BZ35" s="57"/>
+      <c r="CA35" s="57"/>
+      <c r="CB35" s="57"/>
+      <c r="CC35" s="57"/>
+      <c r="CD35" s="57"/>
+      <c r="CE35" s="57"/>
+      <c r="CF35" s="57"/>
+      <c r="CG35" s="57"/>
+      <c r="CH35" s="57"/>
+      <c r="CI35" s="57"/>
+      <c r="CJ35" s="57"/>
+      <c r="CK35" s="57"/>
+      <c r="CL35" s="57"/>
+      <c r="CM35" s="57"/>
+      <c r="CN35" s="57"/>
+      <c r="CO35" s="57"/>
+      <c r="CP35" s="57"/>
+      <c r="CQ35" s="57"/>
+      <c r="CR35" s="57"/>
+      <c r="CS35" s="57"/>
+      <c r="CT35" s="57"/>
+      <c r="CU35" s="57"/>
+      <c r="CV35" s="57"/>
+      <c r="CW35" s="57"/>
+      <c r="CX35" s="57"/>
+      <c r="CY35" s="57"/>
+      <c r="CZ35" s="57"/>
+      <c r="DA35" s="57"/>
+      <c r="DB35" s="57"/>
+      <c r="DC35" s="57"/>
+      <c r="DD35" s="57"/>
+      <c r="DE35" s="57"/>
+      <c r="DF35" s="57"/>
+      <c r="DG35" s="57"/>
+      <c r="DH35" s="57"/>
+      <c r="DI35" s="57"/>
+      <c r="DJ35" s="57"/>
+      <c r="DK35" s="57"/>
+      <c r="DL35" s="57"/>
+      <c r="DM35" s="57"/>
+      <c r="DN35" s="57"/>
+      <c r="DO35" s="57"/>
+      <c r="DP35" s="57"/>
+      <c r="DQ35" s="57"/>
+      <c r="DR35" s="57"/>
+      <c r="DS35" s="57"/>
+      <c r="DT35" s="57"/>
+      <c r="DU35" s="57"/>
+      <c r="DV35" s="57"/>
+      <c r="DW35" s="57"/>
+      <c r="DX35" s="57"/>
+      <c r="DY35" s="57"/>
+      <c r="DZ35" s="57"/>
+      <c r="EA35" s="58"/>
+      <c r="EB35" s="58"/>
+      <c r="EC35" s="58"/>
+      <c r="ED35" s="58"/>
+      <c r="EE35" s="58"/>
+      <c r="EF35" s="58"/>
+      <c r="EG35" s="58"/>
+      <c r="EH35" s="58"/>
+      <c r="EI35" s="58"/>
     </row>
-    <row r="36" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="63"/>
-      <c r="AA36" s="63"/>
-      <c r="AB36" s="63"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="63"/>
-      <c r="AE36" s="63"/>
-      <c r="AF36" s="63"/>
-      <c r="AG36" s="63"/>
-      <c r="AH36" s="63"/>
-      <c r="AI36" s="63"/>
-      <c r="AJ36" s="63"/>
-      <c r="AK36" s="63"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="63"/>
-      <c r="AN36" s="63"/>
-      <c r="AO36" s="63"/>
-      <c r="AP36" s="63"/>
-      <c r="AQ36" s="63"/>
-      <c r="AR36" s="63"/>
-      <c r="AS36" s="63"/>
-      <c r="AT36" s="63"/>
-      <c r="AU36" s="63"/>
-      <c r="AV36" s="63"/>
-      <c r="AW36" s="63"/>
-      <c r="AX36" s="63"/>
-      <c r="AY36" s="63"/>
-      <c r="AZ36" s="63"/>
-      <c r="BA36" s="63"/>
-      <c r="BB36" s="63"/>
-      <c r="BC36" s="63"/>
-      <c r="BD36" s="64"/>
-      <c r="BE36" s="63"/>
-      <c r="BF36" s="63"/>
-      <c r="BG36" s="64"/>
-      <c r="BH36" s="63"/>
-      <c r="BI36" s="63"/>
-      <c r="BJ36" s="64"/>
-      <c r="BK36" s="63"/>
-      <c r="BL36" s="63"/>
-      <c r="BM36" s="64"/>
-      <c r="BN36" s="63"/>
-      <c r="BO36" s="63"/>
-      <c r="BP36" s="65"/>
-      <c r="BQ36" s="63"/>
-      <c r="BR36" s="63"/>
-      <c r="BS36" s="63"/>
-      <c r="BT36" s="63"/>
-      <c r="BU36" s="63"/>
-      <c r="BV36" s="66"/>
-      <c r="BW36" s="63"/>
-      <c r="BX36" s="63"/>
-      <c r="BY36" s="63"/>
-      <c r="BZ36" s="63"/>
-      <c r="CA36" s="63"/>
-      <c r="CB36" s="66"/>
-      <c r="CC36" s="63"/>
-      <c r="CD36" s="63"/>
-      <c r="CE36" s="63"/>
-      <c r="CF36" s="63"/>
-      <c r="CG36" s="63"/>
-      <c r="CH36" s="67"/>
-      <c r="CI36" s="63"/>
-      <c r="CJ36" s="63"/>
-      <c r="CK36" s="63"/>
-      <c r="CL36" s="63"/>
-      <c r="CM36" s="63"/>
-      <c r="CN36" s="67"/>
-      <c r="CO36" s="63"/>
-      <c r="CP36" s="63"/>
-      <c r="CQ36" s="63"/>
-      <c r="CR36" s="63"/>
-      <c r="CS36" s="63"/>
-      <c r="CT36" s="64"/>
-      <c r="CU36" s="63"/>
-      <c r="CV36" s="63"/>
-      <c r="CW36" s="64"/>
-      <c r="CX36" s="63"/>
-      <c r="CY36" s="63"/>
-      <c r="CZ36" s="64"/>
-      <c r="DA36" s="63"/>
-      <c r="DB36" s="63"/>
-      <c r="DC36" s="64"/>
-      <c r="DD36" s="63"/>
-      <c r="DE36" s="63"/>
-      <c r="DF36" s="63"/>
-      <c r="DG36" s="63"/>
-      <c r="DH36" s="63"/>
-      <c r="DI36" s="63"/>
-      <c r="DJ36" s="63"/>
-      <c r="DK36" s="63"/>
-      <c r="DL36" s="63"/>
-      <c r="DM36" s="63"/>
-      <c r="DN36" s="63"/>
-      <c r="DO36" s="64"/>
-      <c r="DP36" s="63"/>
-      <c r="DQ36" s="63"/>
-      <c r="DR36" s="64"/>
-      <c r="DS36" s="63"/>
-      <c r="DT36" s="63"/>
-      <c r="DU36" s="64"/>
-      <c r="DV36" s="63"/>
-      <c r="DW36" s="63"/>
-      <c r="DX36" s="64"/>
-      <c r="DY36" s="63"/>
-      <c r="DZ36" s="63"/>
-      <c r="EA36" s="59"/>
-      <c r="EB36" s="59"/>
-      <c r="EC36" s="59"/>
-      <c r="ED36" s="59"/>
-      <c r="EE36" s="59"/>
-      <c r="EF36" s="59"/>
-      <c r="EG36" s="59"/>
-      <c r="EH36" s="59"/>
-      <c r="EI36" s="59"/>
+    <row r="36" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="63"/>
+      <c r="AD36" s="62"/>
+      <c r="AE36" s="62"/>
+      <c r="AF36" s="62"/>
+      <c r="AG36" s="62"/>
+      <c r="AH36" s="62"/>
+      <c r="AI36" s="62"/>
+      <c r="AJ36" s="62"/>
+      <c r="AK36" s="62"/>
+      <c r="AL36" s="63"/>
+      <c r="AM36" s="62"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="62"/>
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="62"/>
+      <c r="AT36" s="62"/>
+      <c r="AU36" s="62"/>
+      <c r="AV36" s="62"/>
+      <c r="AW36" s="62"/>
+      <c r="AX36" s="62"/>
+      <c r="AY36" s="62"/>
+      <c r="AZ36" s="62"/>
+      <c r="BA36" s="62"/>
+      <c r="BB36" s="62"/>
+      <c r="BC36" s="62"/>
+      <c r="BD36" s="63"/>
+      <c r="BE36" s="62"/>
+      <c r="BF36" s="62"/>
+      <c r="BG36" s="63"/>
+      <c r="BH36" s="62"/>
+      <c r="BI36" s="62"/>
+      <c r="BJ36" s="63"/>
+      <c r="BK36" s="62"/>
+      <c r="BL36" s="62"/>
+      <c r="BM36" s="63"/>
+      <c r="BN36" s="62"/>
+      <c r="BO36" s="62"/>
+      <c r="BP36" s="64"/>
+      <c r="BQ36" s="62"/>
+      <c r="BR36" s="62"/>
+      <c r="BS36" s="62"/>
+      <c r="BT36" s="62"/>
+      <c r="BU36" s="62"/>
+      <c r="BV36" s="65"/>
+      <c r="BW36" s="62"/>
+      <c r="BX36" s="62"/>
+      <c r="BY36" s="62"/>
+      <c r="BZ36" s="62"/>
+      <c r="CA36" s="62"/>
+      <c r="CB36" s="65"/>
+      <c r="CC36" s="62"/>
+      <c r="CD36" s="62"/>
+      <c r="CE36" s="62"/>
+      <c r="CF36" s="62"/>
+      <c r="CG36" s="62"/>
+      <c r="CH36" s="66"/>
+      <c r="CI36" s="62"/>
+      <c r="CJ36" s="62"/>
+      <c r="CK36" s="62"/>
+      <c r="CL36" s="62"/>
+      <c r="CM36" s="62"/>
+      <c r="CN36" s="66"/>
+      <c r="CO36" s="62"/>
+      <c r="CP36" s="62"/>
+      <c r="CQ36" s="62"/>
+      <c r="CR36" s="62"/>
+      <c r="CS36" s="62"/>
+      <c r="CT36" s="63"/>
+      <c r="CU36" s="62"/>
+      <c r="CV36" s="62"/>
+      <c r="CW36" s="63"/>
+      <c r="CX36" s="62"/>
+      <c r="CY36" s="62"/>
+      <c r="CZ36" s="63"/>
+      <c r="DA36" s="62"/>
+      <c r="DB36" s="62"/>
+      <c r="DC36" s="63"/>
+      <c r="DD36" s="62"/>
+      <c r="DE36" s="62"/>
+      <c r="DF36" s="62"/>
+      <c r="DG36" s="62"/>
+      <c r="DH36" s="62"/>
+      <c r="DI36" s="62"/>
+      <c r="DJ36" s="62"/>
+      <c r="DK36" s="62"/>
+      <c r="DL36" s="62"/>
+      <c r="DM36" s="62"/>
+      <c r="DN36" s="62"/>
+      <c r="DO36" s="63"/>
+      <c r="DP36" s="62"/>
+      <c r="DQ36" s="62"/>
+      <c r="DR36" s="63"/>
+      <c r="DS36" s="62"/>
+      <c r="DT36" s="62"/>
+      <c r="DU36" s="63"/>
+      <c r="DV36" s="62"/>
+      <c r="DW36" s="62"/>
+      <c r="DX36" s="63"/>
+      <c r="DY36" s="62"/>
+      <c r="DZ36" s="62"/>
+      <c r="EA36" s="58"/>
+      <c r="EB36" s="58"/>
+      <c r="EC36" s="58"/>
+      <c r="ED36" s="58"/>
+      <c r="EE36" s="58"/>
+      <c r="EF36" s="58"/>
+      <c r="EG36" s="58"/>
+      <c r="EH36" s="58"/>
+      <c r="EI36" s="58"/>
     </row>
-    <row r="37" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55" t="s">
+    <row r="37" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58" t="s">
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58" t="s">
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58" t="s">
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58" t="s">
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="U37" s="58"/>
-      <c r="V37" s="58"/>
-      <c r="W37" s="58" t="s">
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="58"/>
-      <c r="Z37" s="58" t="s">
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="AA37" s="58"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="58" t="s">
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="AD37" s="58"/>
-      <c r="AE37" s="58"/>
-      <c r="AF37" s="58" t="s">
+      <c r="AD37" s="57"/>
+      <c r="AE37" s="57"/>
+      <c r="AF37" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="AG37" s="58"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="58" t="s">
+      <c r="AG37" s="57"/>
+      <c r="AH37" s="57"/>
+      <c r="AI37" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="AJ37" s="58"/>
-      <c r="AK37" s="58"/>
-      <c r="AL37" s="58" t="s">
+      <c r="AJ37" s="57"/>
+      <c r="AK37" s="57"/>
+      <c r="AL37" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="AM37" s="58"/>
-      <c r="AN37" s="58"/>
-      <c r="AO37" s="58" t="s">
+      <c r="AM37" s="57"/>
+      <c r="AN37" s="57"/>
+      <c r="AO37" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="AP37" s="58"/>
-      <c r="AQ37" s="58"/>
-      <c r="AR37" s="58" t="s">
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="57"/>
+      <c r="AR37" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="AS37" s="58"/>
-      <c r="AT37" s="58"/>
-      <c r="AU37" s="58" t="s">
+      <c r="AS37" s="57"/>
+      <c r="AT37" s="57"/>
+      <c r="AU37" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="AV37" s="58"/>
-      <c r="AW37" s="58"/>
-      <c r="AX37" s="58" t="s">
+      <c r="AV37" s="57"/>
+      <c r="AW37" s="57"/>
+      <c r="AX37" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="AY37" s="58"/>
-      <c r="AZ37" s="58"/>
-      <c r="BA37" s="58" t="s">
+      <c r="AY37" s="57"/>
+      <c r="AZ37" s="57"/>
+      <c r="BA37" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="BB37" s="58"/>
-      <c r="BC37" s="58"/>
-      <c r="BD37" s="58" t="s">
+      <c r="BB37" s="57"/>
+      <c r="BC37" s="57"/>
+      <c r="BD37" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="BE37" s="58"/>
-      <c r="BF37" s="58"/>
-      <c r="BG37" s="58" t="s">
+      <c r="BE37" s="57"/>
+      <c r="BF37" s="57"/>
+      <c r="BG37" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="BH37" s="58"/>
-      <c r="BI37" s="58"/>
-      <c r="BJ37" s="58" t="s">
+      <c r="BH37" s="57"/>
+      <c r="BI37" s="57"/>
+      <c r="BJ37" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="BK37" s="58" t="s">
+      <c r="BK37" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="BL37" s="58" t="s">
+      <c r="BL37" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="BM37" s="58" t="s">
+      <c r="BM37" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="BN37" s="58"/>
-      <c r="BO37" s="58"/>
-      <c r="BP37" s="58" t="s">
+      <c r="BN37" s="57"/>
+      <c r="BO37" s="57"/>
+      <c r="BP37" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="BQ37" s="58"/>
-      <c r="BR37" s="58"/>
-      <c r="BS37" s="58"/>
-      <c r="BT37" s="58"/>
-      <c r="BU37" s="58"/>
-      <c r="BV37" s="58" t="s">
+      <c r="BQ37" s="57"/>
+      <c r="BR37" s="57"/>
+      <c r="BS37" s="57"/>
+      <c r="BT37" s="57"/>
+      <c r="BU37" s="57"/>
+      <c r="BV37" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="BW37" s="58"/>
-      <c r="BX37" s="58"/>
-      <c r="BY37" s="58"/>
-      <c r="BZ37" s="58"/>
-      <c r="CA37" s="58"/>
-      <c r="CB37" s="58" t="s">
+      <c r="BW37" s="57"/>
+      <c r="BX37" s="57"/>
+      <c r="BY37" s="57"/>
+      <c r="BZ37" s="57"/>
+      <c r="CA37" s="57"/>
+      <c r="CB37" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="CC37" s="58"/>
-      <c r="CD37" s="58"/>
-      <c r="CE37" s="58"/>
-      <c r="CF37" s="58"/>
-      <c r="CG37" s="58"/>
-      <c r="CH37" s="58" t="s">
+      <c r="CC37" s="57"/>
+      <c r="CD37" s="57"/>
+      <c r="CE37" s="57"/>
+      <c r="CF37" s="57"/>
+      <c r="CG37" s="57"/>
+      <c r="CH37" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="CI37" s="58"/>
-      <c r="CJ37" s="58"/>
-      <c r="CK37" s="58"/>
-      <c r="CL37" s="58"/>
-      <c r="CM37" s="58"/>
-      <c r="CN37" s="58" t="s">
+      <c r="CI37" s="57"/>
+      <c r="CJ37" s="57"/>
+      <c r="CK37" s="57"/>
+      <c r="CL37" s="57"/>
+      <c r="CM37" s="57"/>
+      <c r="CN37" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="CO37" s="58"/>
-      <c r="CP37" s="58"/>
-      <c r="CQ37" s="58"/>
-      <c r="CR37" s="58"/>
-      <c r="CS37" s="58"/>
-      <c r="CT37" s="58" t="s">
+      <c r="CO37" s="57"/>
+      <c r="CP37" s="57"/>
+      <c r="CQ37" s="57"/>
+      <c r="CR37" s="57"/>
+      <c r="CS37" s="57"/>
+      <c r="CT37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="CU37" s="58"/>
-      <c r="CV37" s="58"/>
-      <c r="CW37" s="58" t="s">
+      <c r="CU37" s="57"/>
+      <c r="CV37" s="57"/>
+      <c r="CW37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="CX37" s="58"/>
-      <c r="CY37" s="58"/>
-      <c r="CZ37" s="58" t="s">
+      <c r="CX37" s="57"/>
+      <c r="CY37" s="57"/>
+      <c r="CZ37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="DA37" s="58"/>
-      <c r="DB37" s="58"/>
-      <c r="DC37" s="58" t="s">
+      <c r="DA37" s="57"/>
+      <c r="DB37" s="57"/>
+      <c r="DC37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="DD37" s="58"/>
-      <c r="DE37" s="58"/>
-      <c r="DF37" s="58" t="s">
+      <c r="DD37" s="57"/>
+      <c r="DE37" s="57"/>
+      <c r="DF37" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="DG37" s="58"/>
-      <c r="DH37" s="58"/>
-      <c r="DI37" s="58" t="s">
+      <c r="DG37" s="57"/>
+      <c r="DH37" s="57"/>
+      <c r="DI37" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="DJ37" s="58"/>
-      <c r="DK37" s="58"/>
-      <c r="DL37" s="58" t="s">
+      <c r="DJ37" s="57"/>
+      <c r="DK37" s="57"/>
+      <c r="DL37" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="DM37" s="58"/>
-      <c r="DN37" s="58"/>
-      <c r="DO37" s="58"/>
-      <c r="DP37" s="58"/>
-      <c r="DQ37" s="58"/>
-      <c r="DR37" s="58"/>
-      <c r="DS37" s="58"/>
-      <c r="DT37" s="58"/>
-      <c r="DU37" s="58"/>
-      <c r="DV37" s="58"/>
-      <c r="DW37" s="58"/>
-      <c r="DX37" s="58"/>
-      <c r="DY37" s="58"/>
-      <c r="DZ37" s="58"/>
-      <c r="EA37" s="59"/>
-      <c r="EB37" s="59"/>
-      <c r="EC37" s="59"/>
-      <c r="ED37" s="59"/>
-      <c r="EE37" s="59"/>
-      <c r="EF37" s="59"/>
-      <c r="EG37" s="59"/>
-      <c r="EH37" s="68"/>
-      <c r="EI37" s="68"/>
+      <c r="DM37" s="57"/>
+      <c r="DN37" s="57"/>
+      <c r="DO37" s="57"/>
+      <c r="DP37" s="57"/>
+      <c r="DQ37" s="57"/>
+      <c r="DR37" s="57"/>
+      <c r="DS37" s="57"/>
+      <c r="DT37" s="57"/>
+      <c r="DU37" s="57"/>
+      <c r="DV37" s="57"/>
+      <c r="DW37" s="57"/>
+      <c r="DX37" s="57"/>
+      <c r="DY37" s="57"/>
+      <c r="DZ37" s="57"/>
+      <c r="EA37" s="58"/>
+      <c r="EB37" s="58"/>
+      <c r="EC37" s="58"/>
+      <c r="ED37" s="58"/>
+      <c r="EE37" s="58"/>
+      <c r="EF37" s="58"/>
+      <c r="EG37" s="58"/>
+      <c r="EH37" s="67"/>
+      <c r="EI37" s="67"/>
     </row>
-    <row r="38" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="69" t="s">
+    <row r="38" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="E38" s="70" t="s">
+      <c r="E38" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71" t="s">
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71" t="s">
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71" t="s">
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71" t="s">
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71" t="s">
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71" t="s">
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="AA38" s="71"/>
-      <c r="AB38" s="71"/>
-      <c r="AC38" s="71" t="s">
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="AD38" s="71"/>
-      <c r="AE38" s="71"/>
-      <c r="AF38" s="71" t="s">
+      <c r="AD38" s="70"/>
+      <c r="AE38" s="70"/>
+      <c r="AF38" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="AG38" s="71"/>
-      <c r="AH38" s="71"/>
-      <c r="AI38" s="71" t="s">
+      <c r="AG38" s="70"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="AJ38" s="71"/>
-      <c r="AK38" s="71"/>
-      <c r="AL38" s="71" t="s">
+      <c r="AJ38" s="70"/>
+      <c r="AK38" s="70"/>
+      <c r="AL38" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="AM38" s="71"/>
-      <c r="AN38" s="71"/>
-      <c r="AO38" s="71" t="s">
+      <c r="AM38" s="70"/>
+      <c r="AN38" s="70"/>
+      <c r="AO38" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="AP38" s="71"/>
-      <c r="AQ38" s="71"/>
-      <c r="AR38" s="71" t="s">
+      <c r="AP38" s="70"/>
+      <c r="AQ38" s="70"/>
+      <c r="AR38" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="AS38" s="71"/>
-      <c r="AT38" s="71"/>
-      <c r="AU38" s="71" t="s">
+      <c r="AS38" s="70"/>
+      <c r="AT38" s="70"/>
+      <c r="AU38" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="AV38" s="71"/>
-      <c r="AW38" s="71"/>
-      <c r="AX38" s="71" t="s">
+      <c r="AV38" s="70"/>
+      <c r="AW38" s="70"/>
+      <c r="AX38" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="AY38" s="71"/>
-      <c r="AZ38" s="71"/>
-      <c r="BA38" s="71" t="s">
+      <c r="AY38" s="70"/>
+      <c r="AZ38" s="70"/>
+      <c r="BA38" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="BB38" s="71"/>
-      <c r="BC38" s="71"/>
-      <c r="BD38" s="71"/>
-      <c r="BE38" s="71"/>
-      <c r="BF38" s="71"/>
-      <c r="BG38" s="71"/>
-      <c r="BH38" s="71"/>
-      <c r="BI38" s="71"/>
-      <c r="BJ38" s="71"/>
-      <c r="BK38" s="71"/>
-      <c r="BL38" s="71"/>
-      <c r="BM38" s="71"/>
-      <c r="BN38" s="71"/>
-      <c r="BO38" s="71"/>
-      <c r="BP38" s="71"/>
-      <c r="BQ38" s="71"/>
-      <c r="BR38" s="71"/>
-      <c r="BS38" s="71"/>
-      <c r="BT38" s="71"/>
-      <c r="BU38" s="71"/>
-      <c r="BV38" s="71"/>
-      <c r="BW38" s="71"/>
-      <c r="BX38" s="71"/>
-      <c r="BY38" s="71"/>
-      <c r="BZ38" s="71"/>
-      <c r="CA38" s="71"/>
-      <c r="CB38" s="71"/>
-      <c r="CC38" s="71"/>
-      <c r="CD38" s="71"/>
-      <c r="CE38" s="71"/>
-      <c r="CF38" s="71"/>
-      <c r="CG38" s="71"/>
-      <c r="CH38" s="58" t="s">
+      <c r="BB38" s="70"/>
+      <c r="BC38" s="70"/>
+      <c r="BD38" s="70"/>
+      <c r="BE38" s="70"/>
+      <c r="BF38" s="70"/>
+      <c r="BG38" s="70"/>
+      <c r="BH38" s="70"/>
+      <c r="BI38" s="70"/>
+      <c r="BJ38" s="70"/>
+      <c r="BK38" s="70"/>
+      <c r="BL38" s="70"/>
+      <c r="BM38" s="70"/>
+      <c r="BN38" s="70"/>
+      <c r="BO38" s="70"/>
+      <c r="BP38" s="70"/>
+      <c r="BQ38" s="70"/>
+      <c r="BR38" s="70"/>
+      <c r="BS38" s="70"/>
+      <c r="BT38" s="70"/>
+      <c r="BU38" s="70"/>
+      <c r="BV38" s="70"/>
+      <c r="BW38" s="70"/>
+      <c r="BX38" s="70"/>
+      <c r="BY38" s="70"/>
+      <c r="BZ38" s="70"/>
+      <c r="CA38" s="70"/>
+      <c r="CB38" s="70"/>
+      <c r="CC38" s="70"/>
+      <c r="CD38" s="70"/>
+      <c r="CE38" s="70"/>
+      <c r="CF38" s="70"/>
+      <c r="CG38" s="70"/>
+      <c r="CH38" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="CI38" s="71"/>
-      <c r="CJ38" s="71"/>
-      <c r="CK38" s="71"/>
-      <c r="CL38" s="71"/>
-      <c r="CM38" s="71"/>
-      <c r="CN38" s="58" t="s">
+      <c r="CI38" s="70"/>
+      <c r="CJ38" s="70"/>
+      <c r="CK38" s="70"/>
+      <c r="CL38" s="70"/>
+      <c r="CM38" s="70"/>
+      <c r="CN38" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="CO38" s="71"/>
-      <c r="CP38" s="71"/>
-      <c r="CQ38" s="71"/>
-      <c r="CR38" s="71"/>
-      <c r="CS38" s="71"/>
-      <c r="CU38" s="71"/>
-      <c r="CV38" s="71"/>
-      <c r="CX38" s="71"/>
-      <c r="CY38" s="71"/>
-      <c r="DA38" s="71"/>
-      <c r="DB38" s="71"/>
-      <c r="DD38" s="71"/>
-      <c r="DE38" s="71"/>
-      <c r="DF38" s="71" t="s">
+      <c r="CO38" s="70"/>
+      <c r="CP38" s="70"/>
+      <c r="CQ38" s="70"/>
+      <c r="CR38" s="70"/>
+      <c r="CS38" s="70"/>
+      <c r="CU38" s="70"/>
+      <c r="CV38" s="70"/>
+      <c r="CX38" s="70"/>
+      <c r="CY38" s="70"/>
+      <c r="DA38" s="70"/>
+      <c r="DB38" s="70"/>
+      <c r="DD38" s="70"/>
+      <c r="DE38" s="70"/>
+      <c r="DF38" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="DG38" s="71"/>
-      <c r="DH38" s="71"/>
-      <c r="DI38" s="71" t="s">
+      <c r="DG38" s="70"/>
+      <c r="DH38" s="70"/>
+      <c r="DI38" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="DJ38" s="71"/>
-      <c r="DK38" s="71"/>
-      <c r="DL38" s="71" t="s">
+      <c r="DJ38" s="70"/>
+      <c r="DK38" s="70"/>
+      <c r="DL38" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="DM38" s="71"/>
-      <c r="DN38" s="71"/>
-      <c r="DO38" s="71"/>
-      <c r="DP38" s="71"/>
-      <c r="DQ38" s="71"/>
-      <c r="DR38" s="71"/>
-      <c r="DS38" s="71"/>
-      <c r="DT38" s="71"/>
-      <c r="DU38" s="71"/>
-      <c r="DV38" s="71"/>
-      <c r="DW38" s="71"/>
-      <c r="DX38" s="71"/>
-      <c r="DY38" s="71"/>
-      <c r="DZ38" s="71"/>
-      <c r="EA38" s="68"/>
-      <c r="EB38" s="68"/>
-      <c r="EC38" s="68"/>
-      <c r="ED38" s="68"/>
-      <c r="EE38" s="68"/>
-      <c r="EF38" s="68"/>
-      <c r="EG38" s="68"/>
-      <c r="EH38" s="59"/>
-      <c r="EI38" s="59"/>
+      <c r="DM38" s="70"/>
+      <c r="DN38" s="70"/>
+      <c r="DO38" s="70"/>
+      <c r="DP38" s="70"/>
+      <c r="DQ38" s="70"/>
+      <c r="DR38" s="70"/>
+      <c r="DS38" s="70"/>
+      <c r="DT38" s="70"/>
+      <c r="DU38" s="70"/>
+      <c r="DV38" s="70"/>
+      <c r="DW38" s="70"/>
+      <c r="DX38" s="70"/>
+      <c r="DY38" s="70"/>
+      <c r="DZ38" s="70"/>
+      <c r="EA38" s="67"/>
+      <c r="EB38" s="67"/>
+      <c r="EC38" s="67"/>
+      <c r="ED38" s="67"/>
+      <c r="EE38" s="67"/>
+      <c r="EF38" s="67"/>
+      <c r="EG38" s="67"/>
+      <c r="EH38" s="58"/>
+      <c r="EI38" s="58"/>
     </row>
-    <row r="39" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="55" t="s">
+    <row r="39" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58" t="s">
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58" t="s">
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58" t="s">
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58" t="s">
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58" t="s">
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="58"/>
-      <c r="Z39" s="58" t="s">
+      <c r="X39" s="57"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58" t="s">
+      <c r="AA39" s="57"/>
+      <c r="AB39" s="57"/>
+      <c r="AC39" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="AD39" s="58"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="58" t="s">
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="57"/>
+      <c r="AF39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AG39" s="58"/>
-      <c r="AH39" s="58"/>
-      <c r="AI39" s="58" t="s">
+      <c r="AG39" s="57"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58" t="s">
+      <c r="AJ39" s="57"/>
+      <c r="AK39" s="57"/>
+      <c r="AL39" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="58" t="s">
+      <c r="AM39" s="57"/>
+      <c r="AN39" s="57"/>
+      <c r="AO39" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="AP39" s="58"/>
-      <c r="AQ39" s="58"/>
-      <c r="AR39" s="58" t="s">
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="57"/>
+      <c r="AR39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AS39" s="58"/>
-      <c r="AT39" s="58"/>
-      <c r="AU39" s="58" t="s">
+      <c r="AS39" s="57"/>
+      <c r="AT39" s="57"/>
+      <c r="AU39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AV39" s="58"/>
-      <c r="AW39" s="58"/>
-      <c r="AX39" s="58" t="s">
+      <c r="AV39" s="57"/>
+      <c r="AW39" s="57"/>
+      <c r="AX39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AY39" s="58"/>
-      <c r="AZ39" s="58"/>
-      <c r="BA39" s="58" t="s">
+      <c r="AY39" s="57"/>
+      <c r="AZ39" s="57"/>
+      <c r="BA39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BB39" s="58"/>
-      <c r="BC39" s="58"/>
-      <c r="BD39" s="58" t="s">
+      <c r="BB39" s="57"/>
+      <c r="BC39" s="57"/>
+      <c r="BD39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BE39" s="58"/>
-      <c r="BF39" s="58"/>
-      <c r="BG39" s="58" t="s">
+      <c r="BE39" s="57"/>
+      <c r="BF39" s="57"/>
+      <c r="BG39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BH39" s="58"/>
-      <c r="BI39" s="58"/>
-      <c r="BJ39" s="58" t="s">
+      <c r="BH39" s="57"/>
+      <c r="BI39" s="57"/>
+      <c r="BJ39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BK39" s="58" t="s">
+      <c r="BK39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BL39" s="58" t="s">
+      <c r="BL39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BM39" s="58" t="s">
+      <c r="BM39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BN39" s="58"/>
-      <c r="BO39" s="58"/>
-      <c r="BP39" s="58" t="s">
+      <c r="BN39" s="57"/>
+      <c r="BO39" s="57"/>
+      <c r="BP39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BQ39" s="58"/>
-      <c r="BR39" s="58"/>
-      <c r="BS39" s="58"/>
-      <c r="BT39" s="58"/>
-      <c r="BU39" s="58"/>
-      <c r="BV39" s="58" t="s">
+      <c r="BQ39" s="57"/>
+      <c r="BR39" s="57"/>
+      <c r="BS39" s="57"/>
+      <c r="BT39" s="57"/>
+      <c r="BU39" s="57"/>
+      <c r="BV39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="BW39" s="58"/>
-      <c r="BX39" s="58"/>
-      <c r="BY39" s="58"/>
-      <c r="BZ39" s="58"/>
-      <c r="CA39" s="58"/>
-      <c r="CB39" s="58" t="s">
+      <c r="BW39" s="57"/>
+      <c r="BX39" s="57"/>
+      <c r="BY39" s="57"/>
+      <c r="BZ39" s="57"/>
+      <c r="CA39" s="57"/>
+      <c r="CB39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="CC39" s="58"/>
-      <c r="CD39" s="58"/>
-      <c r="CE39" s="58"/>
-      <c r="CF39" s="58"/>
-      <c r="CG39" s="58"/>
-      <c r="CH39" s="58" t="s">
+      <c r="CC39" s="57"/>
+      <c r="CD39" s="57"/>
+      <c r="CE39" s="57"/>
+      <c r="CF39" s="57"/>
+      <c r="CG39" s="57"/>
+      <c r="CH39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="CI39" s="58"/>
-      <c r="CJ39" s="58"/>
-      <c r="CK39" s="58"/>
-      <c r="CL39" s="58"/>
-      <c r="CM39" s="58"/>
-      <c r="CN39" s="58" t="s">
+      <c r="CI39" s="57"/>
+      <c r="CJ39" s="57"/>
+      <c r="CK39" s="57"/>
+      <c r="CL39" s="57"/>
+      <c r="CM39" s="57"/>
+      <c r="CN39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="CO39" s="58"/>
-      <c r="CP39" s="58"/>
-      <c r="CQ39" s="58"/>
-      <c r="CR39" s="58"/>
-      <c r="CS39" s="58"/>
-      <c r="CT39" s="58" t="s">
+      <c r="CO39" s="57"/>
+      <c r="CP39" s="57"/>
+      <c r="CQ39" s="57"/>
+      <c r="CR39" s="57"/>
+      <c r="CS39" s="57"/>
+      <c r="CT39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="CU39" s="58"/>
-      <c r="CV39" s="58"/>
-      <c r="CW39" s="58" t="s">
+      <c r="CU39" s="57"/>
+      <c r="CV39" s="57"/>
+      <c r="CW39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="CX39" s="58"/>
-      <c r="CY39" s="58"/>
-      <c r="CZ39" s="58" t="s">
+      <c r="CX39" s="57"/>
+      <c r="CY39" s="57"/>
+      <c r="CZ39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="DA39" s="58"/>
-      <c r="DB39" s="58"/>
-      <c r="DC39" s="58" t="s">
+      <c r="DA39" s="57"/>
+      <c r="DB39" s="57"/>
+      <c r="DC39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="DD39" s="58"/>
-      <c r="DE39" s="58"/>
-      <c r="DF39" s="58" t="s">
+      <c r="DD39" s="57"/>
+      <c r="DE39" s="57"/>
+      <c r="DF39" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="DG39" s="58"/>
-      <c r="DH39" s="58"/>
-      <c r="DI39" s="58" t="s">
+      <c r="DG39" s="57"/>
+      <c r="DH39" s="57"/>
+      <c r="DI39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="DJ39" s="58"/>
-      <c r="DK39" s="58"/>
-      <c r="DL39" s="58" t="s">
+      <c r="DJ39" s="57"/>
+      <c r="DK39" s="57"/>
+      <c r="DL39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="DM39" s="58"/>
-      <c r="DN39" s="58"/>
-      <c r="DO39" s="58"/>
-      <c r="DP39" s="58"/>
-      <c r="DQ39" s="58"/>
-      <c r="DR39" s="58"/>
-      <c r="DS39" s="58"/>
-      <c r="DT39" s="58"/>
-      <c r="DU39" s="58"/>
-      <c r="DV39" s="58"/>
-      <c r="DW39" s="58"/>
-      <c r="DX39" s="58"/>
-      <c r="DY39" s="58"/>
-      <c r="DZ39" s="58"/>
-      <c r="EA39" s="59"/>
-      <c r="EB39" s="59"/>
-      <c r="EC39" s="59"/>
-      <c r="ED39" s="59"/>
-      <c r="EE39" s="59"/>
-      <c r="EF39" s="59"/>
-      <c r="EG39" s="59"/>
-      <c r="EH39" s="59"/>
-      <c r="EI39" s="59"/>
+      <c r="DM39" s="57"/>
+      <c r="DN39" s="57"/>
+      <c r="DO39" s="57"/>
+      <c r="DP39" s="57"/>
+      <c r="DQ39" s="57"/>
+      <c r="DR39" s="57"/>
+      <c r="DS39" s="57"/>
+      <c r="DT39" s="57"/>
+      <c r="DU39" s="57"/>
+      <c r="DV39" s="57"/>
+      <c r="DW39" s="57"/>
+      <c r="DX39" s="57"/>
+      <c r="DY39" s="57"/>
+      <c r="DZ39" s="57"/>
+      <c r="EA39" s="58"/>
+      <c r="EB39" s="58"/>
+      <c r="EC39" s="58"/>
+      <c r="ED39" s="58"/>
+      <c r="EE39" s="58"/>
+      <c r="EF39" s="58"/>
+      <c r="EG39" s="58"/>
+      <c r="EH39" s="58"/>
+      <c r="EI39" s="58"/>
     </row>
-    <row r="40" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55" t="s">
+    <row r="40" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="58"/>
-      <c r="Y40" s="58"/>
-      <c r="Z40" s="58"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="58"/>
-      <c r="AC40" s="58"/>
-      <c r="AD40" s="58"/>
-      <c r="AE40" s="58"/>
-      <c r="AF40" s="58"/>
-      <c r="AG40" s="58"/>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="58"/>
-      <c r="AJ40" s="58"/>
-      <c r="AK40" s="58"/>
-      <c r="AL40" s="58"/>
-      <c r="AM40" s="58"/>
-      <c r="AN40" s="58"/>
-      <c r="AO40" s="58"/>
-      <c r="AP40" s="58"/>
-      <c r="AQ40" s="58"/>
-      <c r="AR40" s="58"/>
-      <c r="AS40" s="58"/>
-      <c r="AT40" s="58"/>
-      <c r="AU40" s="58"/>
-      <c r="AV40" s="58"/>
-      <c r="AW40" s="58"/>
-      <c r="AX40" s="58"/>
-      <c r="AY40" s="58"/>
-      <c r="AZ40" s="58"/>
-      <c r="BA40" s="58"/>
-      <c r="BB40" s="58"/>
-      <c r="BC40" s="58"/>
-      <c r="BD40" s="58"/>
-      <c r="BE40" s="58"/>
-      <c r="BF40" s="58"/>
-      <c r="BG40" s="58"/>
-      <c r="BH40" s="58"/>
-      <c r="BI40" s="58"/>
-      <c r="BJ40" s="58"/>
-      <c r="BK40" s="58"/>
-      <c r="BL40" s="58"/>
-      <c r="BM40" s="58"/>
-      <c r="BN40" s="58"/>
-      <c r="BO40" s="58"/>
-      <c r="BP40" s="58"/>
-      <c r="BQ40" s="58"/>
-      <c r="BR40" s="58"/>
-      <c r="BS40" s="58"/>
-      <c r="BT40" s="58"/>
-      <c r="BU40" s="58"/>
-      <c r="BV40" s="58"/>
-      <c r="BW40" s="58"/>
-      <c r="BX40" s="58"/>
-      <c r="BY40" s="58"/>
-      <c r="BZ40" s="58"/>
-      <c r="CA40" s="58"/>
-      <c r="CB40" s="58"/>
-      <c r="CC40" s="58"/>
-      <c r="CD40" s="58"/>
-      <c r="CE40" s="58"/>
-      <c r="CF40" s="58"/>
-      <c r="CG40" s="58"/>
-      <c r="CI40" s="58"/>
-      <c r="CJ40" s="58"/>
-      <c r="CK40" s="58"/>
-      <c r="CL40" s="58"/>
-      <c r="CM40" s="58"/>
-      <c r="CO40" s="58"/>
-      <c r="CP40" s="58"/>
-      <c r="CQ40" s="58"/>
-      <c r="CR40" s="58"/>
-      <c r="CS40" s="58"/>
-      <c r="CU40" s="58"/>
-      <c r="CV40" s="58"/>
-      <c r="CX40" s="58"/>
-      <c r="CY40" s="58"/>
-      <c r="DA40" s="58"/>
-      <c r="DB40" s="58"/>
-      <c r="DD40" s="58"/>
-      <c r="DE40" s="58"/>
-      <c r="DF40" s="58"/>
-      <c r="DG40" s="58"/>
-      <c r="DH40" s="58"/>
-      <c r="DI40" s="58"/>
-      <c r="DJ40" s="58"/>
-      <c r="DK40" s="58"/>
-      <c r="DL40" s="58"/>
-      <c r="DM40" s="58"/>
-      <c r="DN40" s="58"/>
-      <c r="DO40" s="58"/>
-      <c r="DP40" s="58"/>
-      <c r="DQ40" s="58"/>
-      <c r="DR40" s="58"/>
-      <c r="DS40" s="58"/>
-      <c r="DT40" s="58"/>
-      <c r="DU40" s="58"/>
-      <c r="DV40" s="58"/>
-      <c r="DW40" s="58"/>
-      <c r="DX40" s="58"/>
-      <c r="DY40" s="58"/>
-      <c r="DZ40" s="58"/>
-      <c r="EA40" s="59"/>
-      <c r="EB40" s="59"/>
-      <c r="EC40" s="59"/>
-      <c r="ED40" s="59"/>
-      <c r="EE40" s="59"/>
-      <c r="EF40" s="59"/>
-      <c r="EG40" s="59"/>
-      <c r="EH40" s="59"/>
-      <c r="EI40" s="59"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="57"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="57"/>
+      <c r="AB40" s="57"/>
+      <c r="AC40" s="57"/>
+      <c r="AD40" s="57"/>
+      <c r="AE40" s="57"/>
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="57"/>
+      <c r="AH40" s="57"/>
+      <c r="AI40" s="57"/>
+      <c r="AJ40" s="57"/>
+      <c r="AK40" s="57"/>
+      <c r="AL40" s="57"/>
+      <c r="AM40" s="57"/>
+      <c r="AN40" s="57"/>
+      <c r="AO40" s="57"/>
+      <c r="AP40" s="57"/>
+      <c r="AQ40" s="57"/>
+      <c r="AR40" s="57"/>
+      <c r="AS40" s="57"/>
+      <c r="AT40" s="57"/>
+      <c r="AU40" s="57"/>
+      <c r="AV40" s="57"/>
+      <c r="AW40" s="57"/>
+      <c r="AX40" s="57"/>
+      <c r="AY40" s="57"/>
+      <c r="AZ40" s="57"/>
+      <c r="BA40" s="57"/>
+      <c r="BB40" s="57"/>
+      <c r="BC40" s="57"/>
+      <c r="BD40" s="57"/>
+      <c r="BE40" s="57"/>
+      <c r="BF40" s="57"/>
+      <c r="BG40" s="57"/>
+      <c r="BH40" s="57"/>
+      <c r="BI40" s="57"/>
+      <c r="BJ40" s="57"/>
+      <c r="BK40" s="57"/>
+      <c r="BL40" s="57"/>
+      <c r="BM40" s="57"/>
+      <c r="BN40" s="57"/>
+      <c r="BO40" s="57"/>
+      <c r="BP40" s="57"/>
+      <c r="BQ40" s="57"/>
+      <c r="BR40" s="57"/>
+      <c r="BS40" s="57"/>
+      <c r="BT40" s="57"/>
+      <c r="BU40" s="57"/>
+      <c r="BV40" s="57"/>
+      <c r="BW40" s="57"/>
+      <c r="BX40" s="57"/>
+      <c r="BY40" s="57"/>
+      <c r="BZ40" s="57"/>
+      <c r="CA40" s="57"/>
+      <c r="CB40" s="57"/>
+      <c r="CC40" s="57"/>
+      <c r="CD40" s="57"/>
+      <c r="CE40" s="57"/>
+      <c r="CF40" s="57"/>
+      <c r="CG40" s="57"/>
+      <c r="CI40" s="57"/>
+      <c r="CJ40" s="57"/>
+      <c r="CK40" s="57"/>
+      <c r="CL40" s="57"/>
+      <c r="CM40" s="57"/>
+      <c r="CO40" s="57"/>
+      <c r="CP40" s="57"/>
+      <c r="CQ40" s="57"/>
+      <c r="CR40" s="57"/>
+      <c r="CS40" s="57"/>
+      <c r="CU40" s="57"/>
+      <c r="CV40" s="57"/>
+      <c r="CX40" s="57"/>
+      <c r="CY40" s="57"/>
+      <c r="DA40" s="57"/>
+      <c r="DB40" s="57"/>
+      <c r="DD40" s="57"/>
+      <c r="DE40" s="57"/>
+      <c r="DF40" s="57"/>
+      <c r="DG40" s="57"/>
+      <c r="DH40" s="57"/>
+      <c r="DI40" s="57"/>
+      <c r="DJ40" s="57"/>
+      <c r="DK40" s="57"/>
+      <c r="DL40" s="57"/>
+      <c r="DM40" s="57"/>
+      <c r="DN40" s="57"/>
+      <c r="DO40" s="57"/>
+      <c r="DP40" s="57"/>
+      <c r="DQ40" s="57"/>
+      <c r="DR40" s="57"/>
+      <c r="DS40" s="57"/>
+      <c r="DT40" s="57"/>
+      <c r="DU40" s="57"/>
+      <c r="DV40" s="57"/>
+      <c r="DW40" s="57"/>
+      <c r="DX40" s="57"/>
+      <c r="DY40" s="57"/>
+      <c r="DZ40" s="57"/>
+      <c r="EA40" s="58"/>
+      <c r="EB40" s="58"/>
+      <c r="EC40" s="58"/>
+      <c r="ED40" s="58"/>
+      <c r="EE40" s="58"/>
+      <c r="EF40" s="58"/>
+      <c r="EG40" s="58"/>
+      <c r="EH40" s="58"/>
+      <c r="EI40" s="58"/>
     </row>
-    <row r="41" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55" t="s">
+    <row r="41" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="58"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="58"/>
-      <c r="Y41" s="58"/>
-      <c r="Z41" s="58"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="58"/>
-      <c r="AC41" s="58"/>
-      <c r="AD41" s="58"/>
-      <c r="AE41" s="58"/>
-      <c r="AF41" s="58"/>
-      <c r="AG41" s="58"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="58"/>
-      <c r="AJ41" s="58"/>
-      <c r="AK41" s="58"/>
-      <c r="AL41" s="58"/>
-      <c r="AM41" s="58"/>
-      <c r="AN41" s="58"/>
-      <c r="AO41" s="58"/>
-      <c r="AP41" s="58"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
-      <c r="AT41" s="58"/>
-      <c r="AU41" s="58"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="58"/>
-      <c r="AX41" s="58"/>
-      <c r="AY41" s="58"/>
-      <c r="AZ41" s="58"/>
-      <c r="BA41" s="58"/>
-      <c r="BB41" s="58"/>
-      <c r="BC41" s="58"/>
-      <c r="BD41" s="58"/>
-      <c r="BE41" s="58"/>
-      <c r="BF41" s="58"/>
-      <c r="BG41" s="58"/>
-      <c r="BH41" s="58"/>
-      <c r="BI41" s="58"/>
-      <c r="BJ41" s="58"/>
-      <c r="BK41" s="58"/>
-      <c r="BL41" s="58"/>
-      <c r="BM41" s="58"/>
-      <c r="BN41" s="58"/>
-      <c r="BO41" s="58"/>
-      <c r="BP41" s="58"/>
-      <c r="BQ41" s="58"/>
-      <c r="BR41" s="58"/>
-      <c r="BS41" s="58"/>
-      <c r="BT41" s="58"/>
-      <c r="BU41" s="58"/>
-      <c r="BV41" s="58"/>
-      <c r="BW41" s="58"/>
-      <c r="BX41" s="58"/>
-      <c r="BY41" s="58"/>
-      <c r="BZ41" s="58"/>
-      <c r="CA41" s="58"/>
-      <c r="CB41" s="58"/>
-      <c r="CC41" s="58"/>
-      <c r="CD41" s="58"/>
-      <c r="CE41" s="58"/>
-      <c r="CF41" s="58"/>
-      <c r="CG41" s="58"/>
-      <c r="CH41" s="58"/>
-      <c r="CI41" s="58"/>
-      <c r="CJ41" s="58"/>
-      <c r="CK41" s="58"/>
-      <c r="CL41" s="58"/>
-      <c r="CM41" s="58"/>
-      <c r="CN41" s="58"/>
-      <c r="CO41" s="58"/>
-      <c r="CP41" s="58"/>
-      <c r="CQ41" s="58"/>
-      <c r="CR41" s="58"/>
-      <c r="CS41" s="58"/>
-      <c r="CT41" s="58"/>
-      <c r="CU41" s="58"/>
-      <c r="CV41" s="58"/>
-      <c r="CW41" s="58"/>
-      <c r="CX41" s="58"/>
-      <c r="CY41" s="58"/>
-      <c r="CZ41" s="58"/>
-      <c r="DA41" s="58"/>
-      <c r="DB41" s="58"/>
-      <c r="DC41" s="58"/>
-      <c r="DD41" s="58"/>
-      <c r="DE41" s="58"/>
-      <c r="DF41" s="58"/>
-      <c r="DG41" s="58"/>
-      <c r="DH41" s="58"/>
-      <c r="DI41" s="58"/>
-      <c r="DJ41" s="58"/>
-      <c r="DK41" s="58"/>
-      <c r="DL41" s="58"/>
-      <c r="DM41" s="58"/>
-      <c r="DN41" s="58"/>
-      <c r="DO41" s="58"/>
-      <c r="DP41" s="58"/>
-      <c r="DQ41" s="58"/>
-      <c r="DR41" s="58"/>
-      <c r="DS41" s="58"/>
-      <c r="DT41" s="58"/>
-      <c r="DU41" s="58"/>
-      <c r="DV41" s="58"/>
-      <c r="DW41" s="58"/>
-      <c r="DX41" s="58"/>
-      <c r="DY41" s="58"/>
-      <c r="DZ41" s="58"/>
-      <c r="EA41" s="59"/>
-      <c r="EB41" s="59"/>
-      <c r="EC41" s="59"/>
-      <c r="ED41" s="59"/>
-      <c r="EE41" s="59"/>
-      <c r="EF41" s="59"/>
-      <c r="EG41" s="59"/>
-      <c r="EH41" s="59"/>
-      <c r="EI41" s="59"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="57"/>
+      <c r="X41" s="57"/>
+      <c r="Y41" s="57"/>
+      <c r="Z41" s="57"/>
+      <c r="AA41" s="57"/>
+      <c r="AB41" s="57"/>
+      <c r="AC41" s="57"/>
+      <c r="AD41" s="57"/>
+      <c r="AE41" s="57"/>
+      <c r="AF41" s="57"/>
+      <c r="AG41" s="57"/>
+      <c r="AH41" s="57"/>
+      <c r="AI41" s="57"/>
+      <c r="AJ41" s="57"/>
+      <c r="AK41" s="57"/>
+      <c r="AL41" s="57"/>
+      <c r="AM41" s="57"/>
+      <c r="AN41" s="57"/>
+      <c r="AO41" s="57"/>
+      <c r="AP41" s="57"/>
+      <c r="AQ41" s="57"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
+      <c r="AT41" s="57"/>
+      <c r="AU41" s="57"/>
+      <c r="AV41" s="57"/>
+      <c r="AW41" s="57"/>
+      <c r="AX41" s="57"/>
+      <c r="AY41" s="57"/>
+      <c r="AZ41" s="57"/>
+      <c r="BA41" s="57"/>
+      <c r="BB41" s="57"/>
+      <c r="BC41" s="57"/>
+      <c r="BD41" s="57"/>
+      <c r="BE41" s="57"/>
+      <c r="BF41" s="57"/>
+      <c r="BG41" s="57"/>
+      <c r="BH41" s="57"/>
+      <c r="BI41" s="57"/>
+      <c r="BJ41" s="57"/>
+      <c r="BK41" s="57"/>
+      <c r="BL41" s="57"/>
+      <c r="BM41" s="57"/>
+      <c r="BN41" s="57"/>
+      <c r="BO41" s="57"/>
+      <c r="BP41" s="57"/>
+      <c r="BQ41" s="57"/>
+      <c r="BR41" s="57"/>
+      <c r="BS41" s="57"/>
+      <c r="BT41" s="57"/>
+      <c r="BU41" s="57"/>
+      <c r="BV41" s="57"/>
+      <c r="BW41" s="57"/>
+      <c r="BX41" s="57"/>
+      <c r="BY41" s="57"/>
+      <c r="BZ41" s="57"/>
+      <c r="CA41" s="57"/>
+      <c r="CB41" s="57"/>
+      <c r="CC41" s="57"/>
+      <c r="CD41" s="57"/>
+      <c r="CE41" s="57"/>
+      <c r="CF41" s="57"/>
+      <c r="CG41" s="57"/>
+      <c r="CH41" s="57"/>
+      <c r="CI41" s="57"/>
+      <c r="CJ41" s="57"/>
+      <c r="CK41" s="57"/>
+      <c r="CL41" s="57"/>
+      <c r="CM41" s="57"/>
+      <c r="CN41" s="57"/>
+      <c r="CO41" s="57"/>
+      <c r="CP41" s="57"/>
+      <c r="CQ41" s="57"/>
+      <c r="CR41" s="57"/>
+      <c r="CS41" s="57"/>
+      <c r="CT41" s="57"/>
+      <c r="CU41" s="57"/>
+      <c r="CV41" s="57"/>
+      <c r="CW41" s="57"/>
+      <c r="CX41" s="57"/>
+      <c r="CY41" s="57"/>
+      <c r="CZ41" s="57"/>
+      <c r="DA41" s="57"/>
+      <c r="DB41" s="57"/>
+      <c r="DC41" s="57"/>
+      <c r="DD41" s="57"/>
+      <c r="DE41" s="57"/>
+      <c r="DF41" s="57"/>
+      <c r="DG41" s="57"/>
+      <c r="DH41" s="57"/>
+      <c r="DI41" s="57"/>
+      <c r="DJ41" s="57"/>
+      <c r="DK41" s="57"/>
+      <c r="DL41" s="57"/>
+      <c r="DM41" s="57"/>
+      <c r="DN41" s="57"/>
+      <c r="DO41" s="57"/>
+      <c r="DP41" s="57"/>
+      <c r="DQ41" s="57"/>
+      <c r="DR41" s="57"/>
+      <c r="DS41" s="57"/>
+      <c r="DT41" s="57"/>
+      <c r="DU41" s="57"/>
+      <c r="DV41" s="57"/>
+      <c r="DW41" s="57"/>
+      <c r="DX41" s="57"/>
+      <c r="DY41" s="57"/>
+      <c r="DZ41" s="57"/>
+      <c r="EA41" s="58"/>
+      <c r="EB41" s="58"/>
+      <c r="EC41" s="58"/>
+      <c r="ED41" s="58"/>
+      <c r="EE41" s="58"/>
+      <c r="EF41" s="58"/>
+      <c r="EG41" s="58"/>
+      <c r="EH41" s="58"/>
+      <c r="EI41" s="58"/>
     </row>
-    <row r="42" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55" t="s">
+    <row r="42" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="58"/>
-      <c r="W42" s="58"/>
-      <c r="X42" s="58"/>
-      <c r="Y42" s="58"/>
-      <c r="Z42" s="58"/>
-      <c r="AA42" s="58"/>
-      <c r="AB42" s="58"/>
-      <c r="AC42" s="58"/>
-      <c r="AD42" s="58"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="58"/>
-      <c r="AG42" s="58"/>
-      <c r="AH42" s="58"/>
-      <c r="AI42" s="58"/>
-      <c r="AJ42" s="58"/>
-      <c r="AK42" s="58"/>
-      <c r="AL42" s="58"/>
-      <c r="AM42" s="58"/>
-      <c r="AN42" s="58"/>
-      <c r="AO42" s="58"/>
-      <c r="AP42" s="58"/>
-      <c r="AQ42" s="58"/>
-      <c r="AR42" s="58"/>
-      <c r="AS42" s="58"/>
-      <c r="AT42" s="58"/>
-      <c r="AU42" s="58"/>
-      <c r="AV42" s="58"/>
-      <c r="AW42" s="58"/>
-      <c r="AX42" s="58"/>
-      <c r="AY42" s="58"/>
-      <c r="AZ42" s="58"/>
-      <c r="BA42" s="58"/>
-      <c r="BB42" s="58"/>
-      <c r="BC42" s="58"/>
-      <c r="BD42" s="58"/>
-      <c r="BE42" s="58"/>
-      <c r="BF42" s="58"/>
-      <c r="BG42" s="58"/>
-      <c r="BH42" s="58"/>
-      <c r="BI42" s="58"/>
-      <c r="BJ42" s="58"/>
-      <c r="BK42" s="58"/>
-      <c r="BL42" s="58"/>
-      <c r="BM42" s="58"/>
-      <c r="BN42" s="58"/>
-      <c r="BO42" s="58"/>
-      <c r="BP42" s="58"/>
-      <c r="BQ42" s="58"/>
-      <c r="BR42" s="58"/>
-      <c r="BS42" s="58"/>
-      <c r="BT42" s="58"/>
-      <c r="BU42" s="58"/>
-      <c r="BV42" s="58"/>
-      <c r="BW42" s="58"/>
-      <c r="BX42" s="58"/>
-      <c r="BY42" s="58"/>
-      <c r="BZ42" s="58"/>
-      <c r="CA42" s="58"/>
-      <c r="CB42" s="58"/>
-      <c r="CC42" s="58"/>
-      <c r="CD42" s="58"/>
-      <c r="CE42" s="58"/>
-      <c r="CF42" s="58"/>
-      <c r="CG42" s="58"/>
-      <c r="CH42" s="58"/>
-      <c r="CI42" s="58"/>
-      <c r="CJ42" s="58"/>
-      <c r="CK42" s="58"/>
-      <c r="CL42" s="58"/>
-      <c r="CM42" s="58"/>
-      <c r="CN42" s="58"/>
-      <c r="CO42" s="58"/>
-      <c r="CP42" s="58"/>
-      <c r="CQ42" s="58"/>
-      <c r="CR42" s="58"/>
-      <c r="CS42" s="58"/>
-      <c r="CT42" s="58"/>
-      <c r="CU42" s="58"/>
-      <c r="CV42" s="58"/>
-      <c r="CW42" s="58"/>
-      <c r="CX42" s="58"/>
-      <c r="CY42" s="58"/>
-      <c r="CZ42" s="58"/>
-      <c r="DA42" s="58"/>
-      <c r="DB42" s="58"/>
-      <c r="DC42" s="58"/>
-      <c r="DD42" s="58"/>
-      <c r="DE42" s="58"/>
-      <c r="DF42" s="58"/>
-      <c r="DG42" s="58"/>
-      <c r="DH42" s="58"/>
-      <c r="DI42" s="58"/>
-      <c r="DJ42" s="58"/>
-      <c r="DK42" s="58"/>
-      <c r="DL42" s="58"/>
-      <c r="DM42" s="58"/>
-      <c r="DN42" s="58"/>
-      <c r="DO42" s="58"/>
-      <c r="DP42" s="58"/>
-      <c r="DQ42" s="58"/>
-      <c r="DR42" s="58"/>
-      <c r="DS42" s="58"/>
-      <c r="DT42" s="58"/>
-      <c r="DU42" s="58"/>
-      <c r="DV42" s="58"/>
-      <c r="DW42" s="58"/>
-      <c r="DX42" s="58"/>
-      <c r="DY42" s="58"/>
-      <c r="DZ42" s="58"/>
-      <c r="EA42" s="59"/>
-      <c r="EB42" s="59"/>
-      <c r="EC42" s="59"/>
-      <c r="ED42" s="59"/>
-      <c r="EE42" s="59"/>
-      <c r="EF42" s="59"/>
-      <c r="EG42" s="59"/>
-      <c r="EH42" s="59"/>
-      <c r="EI42" s="59"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="57"/>
+      <c r="AI42" s="57"/>
+      <c r="AJ42" s="57"/>
+      <c r="AK42" s="57"/>
+      <c r="AL42" s="57"/>
+      <c r="AM42" s="57"/>
+      <c r="AN42" s="57"/>
+      <c r="AO42" s="57"/>
+      <c r="AP42" s="57"/>
+      <c r="AQ42" s="57"/>
+      <c r="AR42" s="57"/>
+      <c r="AS42" s="57"/>
+      <c r="AT42" s="57"/>
+      <c r="AU42" s="57"/>
+      <c r="AV42" s="57"/>
+      <c r="AW42" s="57"/>
+      <c r="AX42" s="57"/>
+      <c r="AY42" s="57"/>
+      <c r="AZ42" s="57"/>
+      <c r="BA42" s="57"/>
+      <c r="BB42" s="57"/>
+      <c r="BC42" s="57"/>
+      <c r="BD42" s="57"/>
+      <c r="BE42" s="57"/>
+      <c r="BF42" s="57"/>
+      <c r="BG42" s="57"/>
+      <c r="BH42" s="57"/>
+      <c r="BI42" s="57"/>
+      <c r="BJ42" s="57"/>
+      <c r="BK42" s="57"/>
+      <c r="BL42" s="57"/>
+      <c r="BM42" s="57"/>
+      <c r="BN42" s="57"/>
+      <c r="BO42" s="57"/>
+      <c r="BP42" s="57"/>
+      <c r="BQ42" s="57"/>
+      <c r="BR42" s="57"/>
+      <c r="BS42" s="57"/>
+      <c r="BT42" s="57"/>
+      <c r="BU42" s="57"/>
+      <c r="BV42" s="57"/>
+      <c r="BW42" s="57"/>
+      <c r="BX42" s="57"/>
+      <c r="BY42" s="57"/>
+      <c r="BZ42" s="57"/>
+      <c r="CA42" s="57"/>
+      <c r="CB42" s="57"/>
+      <c r="CC42" s="57"/>
+      <c r="CD42" s="57"/>
+      <c r="CE42" s="57"/>
+      <c r="CF42" s="57"/>
+      <c r="CG42" s="57"/>
+      <c r="CH42" s="57"/>
+      <c r="CI42" s="57"/>
+      <c r="CJ42" s="57"/>
+      <c r="CK42" s="57"/>
+      <c r="CL42" s="57"/>
+      <c r="CM42" s="57"/>
+      <c r="CN42" s="57"/>
+      <c r="CO42" s="57"/>
+      <c r="CP42" s="57"/>
+      <c r="CQ42" s="57"/>
+      <c r="CR42" s="57"/>
+      <c r="CS42" s="57"/>
+      <c r="CT42" s="57"/>
+      <c r="CU42" s="57"/>
+      <c r="CV42" s="57"/>
+      <c r="CW42" s="57"/>
+      <c r="CX42" s="57"/>
+      <c r="CY42" s="57"/>
+      <c r="CZ42" s="57"/>
+      <c r="DA42" s="57"/>
+      <c r="DB42" s="57"/>
+      <c r="DC42" s="57"/>
+      <c r="DD42" s="57"/>
+      <c r="DE42" s="57"/>
+      <c r="DF42" s="57"/>
+      <c r="DG42" s="57"/>
+      <c r="DH42" s="57"/>
+      <c r="DI42" s="57"/>
+      <c r="DJ42" s="57"/>
+      <c r="DK42" s="57"/>
+      <c r="DL42" s="57"/>
+      <c r="DM42" s="57"/>
+      <c r="DN42" s="57"/>
+      <c r="DO42" s="57"/>
+      <c r="DP42" s="57"/>
+      <c r="DQ42" s="57"/>
+      <c r="DR42" s="57"/>
+      <c r="DS42" s="57"/>
+      <c r="DT42" s="57"/>
+      <c r="DU42" s="57"/>
+      <c r="DV42" s="57"/>
+      <c r="DW42" s="57"/>
+      <c r="DX42" s="57"/>
+      <c r="DY42" s="57"/>
+      <c r="DZ42" s="57"/>
+      <c r="EA42" s="58"/>
+      <c r="EB42" s="58"/>
+      <c r="EC42" s="58"/>
+      <c r="ED42" s="58"/>
+      <c r="EE42" s="58"/>
+      <c r="EF42" s="58"/>
+      <c r="EG42" s="58"/>
+      <c r="EH42" s="58"/>
+      <c r="EI42" s="58"/>
     </row>
-    <row r="43" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="55" t="s">
+    <row r="43" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="58"/>
-      <c r="AA43" s="58"/>
-      <c r="AB43" s="58"/>
-      <c r="AC43" s="58"/>
-      <c r="AD43" s="58"/>
-      <c r="AE43" s="58"/>
-      <c r="AF43" s="58"/>
-      <c r="AG43" s="58"/>
-      <c r="AH43" s="58"/>
-      <c r="AI43" s="58"/>
-      <c r="AJ43" s="58"/>
-      <c r="AK43" s="58"/>
-      <c r="AL43" s="58"/>
-      <c r="AM43" s="58"/>
-      <c r="AN43" s="58"/>
-      <c r="AO43" s="58"/>
-      <c r="AP43" s="58"/>
-      <c r="AQ43" s="58"/>
-      <c r="AR43" s="58"/>
-      <c r="AS43" s="58"/>
-      <c r="AT43" s="58"/>
-      <c r="AU43" s="58"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="58"/>
-      <c r="AX43" s="58"/>
-      <c r="AY43" s="58"/>
-      <c r="AZ43" s="58"/>
-      <c r="BA43" s="58"/>
-      <c r="BB43" s="58"/>
-      <c r="BC43" s="58"/>
-      <c r="BD43" s="58"/>
-      <c r="BE43" s="58"/>
-      <c r="BF43" s="58"/>
-      <c r="BG43" s="58"/>
-      <c r="BH43" s="58"/>
-      <c r="BI43" s="58"/>
-      <c r="BJ43" s="58"/>
-      <c r="BK43" s="58"/>
-      <c r="BL43" s="58"/>
-      <c r="BM43" s="58"/>
-      <c r="BN43" s="58"/>
-      <c r="BO43" s="58"/>
-      <c r="BP43" s="58"/>
-      <c r="BQ43" s="58"/>
-      <c r="BR43" s="58"/>
-      <c r="BS43" s="58"/>
-      <c r="BT43" s="58"/>
-      <c r="BU43" s="58"/>
-      <c r="BV43" s="58"/>
-      <c r="BW43" s="58"/>
-      <c r="BX43" s="58"/>
-      <c r="BY43" s="58"/>
-      <c r="BZ43" s="58"/>
-      <c r="CA43" s="58"/>
-      <c r="CB43" s="58"/>
-      <c r="CC43" s="58"/>
-      <c r="CD43" s="58"/>
-      <c r="CE43" s="58"/>
-      <c r="CF43" s="58"/>
-      <c r="CG43" s="58"/>
-      <c r="CH43" s="58"/>
-      <c r="CI43" s="58"/>
-      <c r="CJ43" s="58"/>
-      <c r="CK43" s="58"/>
-      <c r="CL43" s="58"/>
-      <c r="CM43" s="58"/>
-      <c r="CN43" s="58"/>
-      <c r="CO43" s="58"/>
-      <c r="CP43" s="58"/>
-      <c r="CQ43" s="58"/>
-      <c r="CR43" s="58"/>
-      <c r="CS43" s="58"/>
-      <c r="CT43" s="58"/>
-      <c r="CU43" s="58"/>
-      <c r="CV43" s="58"/>
-      <c r="CW43" s="58"/>
-      <c r="CX43" s="58"/>
-      <c r="CY43" s="58"/>
-      <c r="CZ43" s="58"/>
-      <c r="DA43" s="58"/>
-      <c r="DB43" s="58"/>
-      <c r="DC43" s="58"/>
-      <c r="DD43" s="58"/>
-      <c r="DE43" s="58"/>
-      <c r="DF43" s="58"/>
-      <c r="DG43" s="58"/>
-      <c r="DH43" s="58"/>
-      <c r="DI43" s="58"/>
-      <c r="DJ43" s="58"/>
-      <c r="DK43" s="58"/>
-      <c r="DL43" s="58"/>
-      <c r="DM43" s="58"/>
-      <c r="DN43" s="58"/>
-      <c r="DO43" s="58"/>
-      <c r="DP43" s="58"/>
-      <c r="DQ43" s="58"/>
-      <c r="DR43" s="58"/>
-      <c r="DS43" s="58"/>
-      <c r="DT43" s="58"/>
-      <c r="DU43" s="58"/>
-      <c r="DV43" s="58"/>
-      <c r="DW43" s="58"/>
-      <c r="DX43" s="58"/>
-      <c r="DY43" s="58"/>
-      <c r="DZ43" s="58"/>
-      <c r="EA43" s="59"/>
-      <c r="EB43" s="59"/>
-      <c r="EC43" s="59"/>
-      <c r="ED43" s="59"/>
-      <c r="EE43" s="59"/>
-      <c r="EF43" s="59"/>
-      <c r="EG43" s="59"/>
-      <c r="EH43" s="59"/>
-      <c r="EI43" s="59"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="57"/>
+      <c r="AB43" s="57"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="57"/>
+      <c r="AF43" s="57"/>
+      <c r="AG43" s="57"/>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="57"/>
+      <c r="AJ43" s="57"/>
+      <c r="AK43" s="57"/>
+      <c r="AL43" s="57"/>
+      <c r="AM43" s="57"/>
+      <c r="AN43" s="57"/>
+      <c r="AO43" s="57"/>
+      <c r="AP43" s="57"/>
+      <c r="AQ43" s="57"/>
+      <c r="AR43" s="57"/>
+      <c r="AS43" s="57"/>
+      <c r="AT43" s="57"/>
+      <c r="AU43" s="57"/>
+      <c r="AV43" s="57"/>
+      <c r="AW43" s="57"/>
+      <c r="AX43" s="57"/>
+      <c r="AY43" s="57"/>
+      <c r="AZ43" s="57"/>
+      <c r="BA43" s="57"/>
+      <c r="BB43" s="57"/>
+      <c r="BC43" s="57"/>
+      <c r="BD43" s="57"/>
+      <c r="BE43" s="57"/>
+      <c r="BF43" s="57"/>
+      <c r="BG43" s="57"/>
+      <c r="BH43" s="57"/>
+      <c r="BI43" s="57"/>
+      <c r="BJ43" s="57"/>
+      <c r="BK43" s="57"/>
+      <c r="BL43" s="57"/>
+      <c r="BM43" s="57"/>
+      <c r="BN43" s="57"/>
+      <c r="BO43" s="57"/>
+      <c r="BP43" s="57"/>
+      <c r="BQ43" s="57"/>
+      <c r="BR43" s="57"/>
+      <c r="BS43" s="57"/>
+      <c r="BT43" s="57"/>
+      <c r="BU43" s="57"/>
+      <c r="BV43" s="57"/>
+      <c r="BW43" s="57"/>
+      <c r="BX43" s="57"/>
+      <c r="BY43" s="57"/>
+      <c r="BZ43" s="57"/>
+      <c r="CA43" s="57"/>
+      <c r="CB43" s="57"/>
+      <c r="CC43" s="57"/>
+      <c r="CD43" s="57"/>
+      <c r="CE43" s="57"/>
+      <c r="CF43" s="57"/>
+      <c r="CG43" s="57"/>
+      <c r="CH43" s="57"/>
+      <c r="CI43" s="57"/>
+      <c r="CJ43" s="57"/>
+      <c r="CK43" s="57"/>
+      <c r="CL43" s="57"/>
+      <c r="CM43" s="57"/>
+      <c r="CN43" s="57"/>
+      <c r="CO43" s="57"/>
+      <c r="CP43" s="57"/>
+      <c r="CQ43" s="57"/>
+      <c r="CR43" s="57"/>
+      <c r="CS43" s="57"/>
+      <c r="CT43" s="57"/>
+      <c r="CU43" s="57"/>
+      <c r="CV43" s="57"/>
+      <c r="CW43" s="57"/>
+      <c r="CX43" s="57"/>
+      <c r="CY43" s="57"/>
+      <c r="CZ43" s="57"/>
+      <c r="DA43" s="57"/>
+      <c r="DB43" s="57"/>
+      <c r="DC43" s="57"/>
+      <c r="DD43" s="57"/>
+      <c r="DE43" s="57"/>
+      <c r="DF43" s="57"/>
+      <c r="DG43" s="57"/>
+      <c r="DH43" s="57"/>
+      <c r="DI43" s="57"/>
+      <c r="DJ43" s="57"/>
+      <c r="DK43" s="57"/>
+      <c r="DL43" s="57"/>
+      <c r="DM43" s="57"/>
+      <c r="DN43" s="57"/>
+      <c r="DO43" s="57"/>
+      <c r="DP43" s="57"/>
+      <c r="DQ43" s="57"/>
+      <c r="DR43" s="57"/>
+      <c r="DS43" s="57"/>
+      <c r="DT43" s="57"/>
+      <c r="DU43" s="57"/>
+      <c r="DV43" s="57"/>
+      <c r="DW43" s="57"/>
+      <c r="DX43" s="57"/>
+      <c r="DY43" s="57"/>
+      <c r="DZ43" s="57"/>
+      <c r="EA43" s="58"/>
+      <c r="EB43" s="58"/>
+      <c r="EC43" s="58"/>
+      <c r="ED43" s="58"/>
+      <c r="EE43" s="58"/>
+      <c r="EF43" s="58"/>
+      <c r="EG43" s="58"/>
+      <c r="EH43" s="58"/>
+      <c r="EI43" s="58"/>
     </row>
-    <row r="44" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="63"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="63"/>
-      <c r="V44" s="63"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="63"/>
-      <c r="Y44" s="63"/>
-      <c r="Z44" s="63"/>
-      <c r="AA44" s="63"/>
-      <c r="AB44" s="63"/>
-      <c r="AC44" s="64"/>
-      <c r="AD44" s="63"/>
-      <c r="AE44" s="63"/>
-      <c r="AF44" s="63"/>
-      <c r="AG44" s="63"/>
-      <c r="AH44" s="63"/>
-      <c r="AI44" s="63"/>
-      <c r="AJ44" s="63"/>
-      <c r="AK44" s="63"/>
-      <c r="AL44" s="64"/>
-      <c r="AM44" s="63"/>
-      <c r="AN44" s="63"/>
-      <c r="AO44" s="63"/>
-      <c r="AP44" s="63"/>
-      <c r="AQ44" s="63"/>
-      <c r="AR44" s="63"/>
-      <c r="AS44" s="63"/>
-      <c r="AT44" s="63"/>
-      <c r="AU44" s="63"/>
-      <c r="AV44" s="63"/>
-      <c r="AW44" s="63"/>
-      <c r="AX44" s="63"/>
-      <c r="AY44" s="63"/>
-      <c r="AZ44" s="63"/>
-      <c r="BA44" s="63"/>
-      <c r="BB44" s="63"/>
-      <c r="BC44" s="63"/>
-      <c r="BD44" s="64"/>
-      <c r="BE44" s="63"/>
-      <c r="BF44" s="63"/>
-      <c r="BG44" s="64"/>
-      <c r="BH44" s="63"/>
-      <c r="BI44" s="63"/>
-      <c r="BJ44" s="64"/>
-      <c r="BK44" s="63"/>
-      <c r="BL44" s="63"/>
-      <c r="BM44" s="64"/>
-      <c r="BN44" s="63"/>
-      <c r="BO44" s="63"/>
-      <c r="BP44" s="65"/>
-      <c r="BQ44" s="63"/>
-      <c r="BR44" s="63"/>
-      <c r="BS44" s="63"/>
-      <c r="BT44" s="63"/>
-      <c r="BU44" s="63"/>
-      <c r="BV44" s="66"/>
-      <c r="BW44" s="63"/>
-      <c r="BX44" s="63"/>
-      <c r="BY44" s="63"/>
-      <c r="BZ44" s="63"/>
-      <c r="CA44" s="63"/>
-      <c r="CB44" s="66"/>
-      <c r="CC44" s="63"/>
-      <c r="CD44" s="63"/>
-      <c r="CE44" s="63"/>
-      <c r="CF44" s="63"/>
-      <c r="CG44" s="63"/>
-      <c r="CH44" s="67"/>
-      <c r="CI44" s="63"/>
-      <c r="CJ44" s="63"/>
-      <c r="CK44" s="63"/>
-      <c r="CL44" s="63"/>
-      <c r="CM44" s="63"/>
-      <c r="CN44" s="67"/>
-      <c r="CO44" s="63"/>
-      <c r="CP44" s="63"/>
-      <c r="CQ44" s="63"/>
-      <c r="CR44" s="63"/>
-      <c r="CS44" s="63"/>
-      <c r="CT44" s="64"/>
-      <c r="CU44" s="63"/>
-      <c r="CV44" s="63"/>
-      <c r="CW44" s="64"/>
-      <c r="CX44" s="63"/>
-      <c r="CY44" s="63"/>
-      <c r="CZ44" s="64"/>
-      <c r="DA44" s="63"/>
-      <c r="DB44" s="63"/>
-      <c r="DC44" s="64"/>
-      <c r="DD44" s="63"/>
-      <c r="DE44" s="63"/>
-      <c r="DF44" s="63"/>
-      <c r="DG44" s="63"/>
-      <c r="DH44" s="63"/>
-      <c r="DI44" s="63"/>
-      <c r="DJ44" s="63"/>
-      <c r="DK44" s="63"/>
-      <c r="DL44" s="63"/>
-      <c r="DM44" s="63"/>
-      <c r="DN44" s="63"/>
-      <c r="DO44" s="64"/>
-      <c r="DP44" s="63"/>
-      <c r="DQ44" s="63"/>
-      <c r="DR44" s="64"/>
-      <c r="DS44" s="63"/>
-      <c r="DT44" s="63"/>
-      <c r="DU44" s="64"/>
-      <c r="DV44" s="63"/>
-      <c r="DW44" s="63"/>
-      <c r="DX44" s="64"/>
-      <c r="DY44" s="63"/>
-      <c r="DZ44" s="63"/>
-      <c r="EA44" s="59"/>
-      <c r="EB44" s="59"/>
-      <c r="EC44" s="59"/>
-      <c r="ED44" s="59"/>
-      <c r="EE44" s="59"/>
-      <c r="EF44" s="59"/>
-      <c r="EG44" s="59"/>
-      <c r="EH44" s="59"/>
-      <c r="EI44" s="59"/>
+    <row r="44" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="62"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="63"/>
+      <c r="AD44" s="62"/>
+      <c r="AE44" s="62"/>
+      <c r="AF44" s="62"/>
+      <c r="AG44" s="62"/>
+      <c r="AH44" s="62"/>
+      <c r="AI44" s="62"/>
+      <c r="AJ44" s="62"/>
+      <c r="AK44" s="62"/>
+      <c r="AL44" s="63"/>
+      <c r="AM44" s="62"/>
+      <c r="AN44" s="62"/>
+      <c r="AO44" s="62"/>
+      <c r="AP44" s="62"/>
+      <c r="AQ44" s="62"/>
+      <c r="AR44" s="62"/>
+      <c r="AS44" s="62"/>
+      <c r="AT44" s="62"/>
+      <c r="AU44" s="62"/>
+      <c r="AV44" s="62"/>
+      <c r="AW44" s="62"/>
+      <c r="AX44" s="62"/>
+      <c r="AY44" s="62"/>
+      <c r="AZ44" s="62"/>
+      <c r="BA44" s="62"/>
+      <c r="BB44" s="62"/>
+      <c r="BC44" s="62"/>
+      <c r="BD44" s="63"/>
+      <c r="BE44" s="62"/>
+      <c r="BF44" s="62"/>
+      <c r="BG44" s="63"/>
+      <c r="BH44" s="62"/>
+      <c r="BI44" s="62"/>
+      <c r="BJ44" s="63"/>
+      <c r="BK44" s="62"/>
+      <c r="BL44" s="62"/>
+      <c r="BM44" s="63"/>
+      <c r="BN44" s="62"/>
+      <c r="BO44" s="62"/>
+      <c r="BP44" s="64"/>
+      <c r="BQ44" s="62"/>
+      <c r="BR44" s="62"/>
+      <c r="BS44" s="62"/>
+      <c r="BT44" s="62"/>
+      <c r="BU44" s="62"/>
+      <c r="BV44" s="65"/>
+      <c r="BW44" s="62"/>
+      <c r="BX44" s="62"/>
+      <c r="BY44" s="62"/>
+      <c r="BZ44" s="62"/>
+      <c r="CA44" s="62"/>
+      <c r="CB44" s="65"/>
+      <c r="CC44" s="62"/>
+      <c r="CD44" s="62"/>
+      <c r="CE44" s="62"/>
+      <c r="CF44" s="62"/>
+      <c r="CG44" s="62"/>
+      <c r="CH44" s="66"/>
+      <c r="CI44" s="62"/>
+      <c r="CJ44" s="62"/>
+      <c r="CK44" s="62"/>
+      <c r="CL44" s="62"/>
+      <c r="CM44" s="62"/>
+      <c r="CN44" s="66"/>
+      <c r="CO44" s="62"/>
+      <c r="CP44" s="62"/>
+      <c r="CQ44" s="62"/>
+      <c r="CR44" s="62"/>
+      <c r="CS44" s="62"/>
+      <c r="CT44" s="63"/>
+      <c r="CU44" s="62"/>
+      <c r="CV44" s="62"/>
+      <c r="CW44" s="63"/>
+      <c r="CX44" s="62"/>
+      <c r="CY44" s="62"/>
+      <c r="CZ44" s="63"/>
+      <c r="DA44" s="62"/>
+      <c r="DB44" s="62"/>
+      <c r="DC44" s="63"/>
+      <c r="DD44" s="62"/>
+      <c r="DE44" s="62"/>
+      <c r="DF44" s="62"/>
+      <c r="DG44" s="62"/>
+      <c r="DH44" s="62"/>
+      <c r="DI44" s="62"/>
+      <c r="DJ44" s="62"/>
+      <c r="DK44" s="62"/>
+      <c r="DL44" s="62"/>
+      <c r="DM44" s="62"/>
+      <c r="DN44" s="62"/>
+      <c r="DO44" s="63"/>
+      <c r="DP44" s="62"/>
+      <c r="DQ44" s="62"/>
+      <c r="DR44" s="63"/>
+      <c r="DS44" s="62"/>
+      <c r="DT44" s="62"/>
+      <c r="DU44" s="63"/>
+      <c r="DV44" s="62"/>
+      <c r="DW44" s="62"/>
+      <c r="DX44" s="63"/>
+      <c r="DY44" s="62"/>
+      <c r="DZ44" s="62"/>
+      <c r="EA44" s="58"/>
+      <c r="EB44" s="58"/>
+      <c r="EC44" s="58"/>
+      <c r="ED44" s="58"/>
+      <c r="EE44" s="58"/>
+      <c r="EF44" s="58"/>
+      <c r="EG44" s="58"/>
+      <c r="EH44" s="58"/>
+      <c r="EI44" s="58"/>
     </row>
-    <row r="45" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+    <row r="45" spans="1:139" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58" t="s">
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74" t="s">
         <v>369</v>
       </c>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="58"/>
-      <c r="X45" s="58"/>
-      <c r="Y45" s="58"/>
-      <c r="Z45" s="58"/>
-      <c r="AA45" s="58"/>
-      <c r="AB45" s="58"/>
-      <c r="AC45" s="58" t="s">
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="74"/>
+      <c r="T45" s="74"/>
+      <c r="U45" s="74"/>
+      <c r="V45" s="74"/>
+      <c r="W45" s="74"/>
+      <c r="X45" s="74"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="74"/>
+      <c r="AA45" s="74"/>
+      <c r="AB45" s="74"/>
+      <c r="AC45" s="74" t="s">
         <v>370</v>
       </c>
-      <c r="AD45" s="58"/>
-      <c r="AE45" s="58"/>
-      <c r="AF45" s="58"/>
-      <c r="AG45" s="58"/>
-      <c r="AH45" s="58"/>
-      <c r="AI45" s="58" t="s">
+      <c r="AD45" s="74"/>
+      <c r="AE45" s="74"/>
+      <c r="AF45" s="74"/>
+      <c r="AG45" s="74"/>
+      <c r="AH45" s="74"/>
+      <c r="AI45" s="74" t="s">
         <v>371</v>
       </c>
-      <c r="AJ45" s="58"/>
-      <c r="AK45" s="58"/>
-      <c r="AL45" s="58"/>
-      <c r="AM45" s="58"/>
-      <c r="AN45" s="58"/>
-      <c r="AO45" s="58"/>
-      <c r="AP45" s="58"/>
-      <c r="AQ45" s="58"/>
-      <c r="AR45" s="58"/>
-      <c r="AS45" s="58"/>
-      <c r="AT45" s="58"/>
-      <c r="AU45" s="58"/>
-      <c r="AV45" s="58"/>
-      <c r="AW45" s="58"/>
-      <c r="AX45" s="58"/>
-      <c r="AY45" s="58"/>
-      <c r="AZ45" s="58"/>
-      <c r="BA45" s="58"/>
-      <c r="BB45" s="58"/>
-      <c r="BC45" s="58"/>
-      <c r="BD45" s="58"/>
-      <c r="BE45" s="58"/>
-      <c r="BF45" s="58"/>
-      <c r="BG45" s="58"/>
-      <c r="BH45" s="58"/>
-      <c r="BI45" s="58"/>
-      <c r="BJ45" s="58"/>
-      <c r="BK45" s="58"/>
-      <c r="BL45" s="58"/>
-      <c r="BM45" s="58"/>
-      <c r="BN45" s="58"/>
-      <c r="BO45" s="58"/>
-      <c r="BP45" s="58"/>
-      <c r="BQ45" s="58"/>
-      <c r="BR45" s="58"/>
-      <c r="BS45" s="58"/>
-      <c r="BT45" s="58"/>
-      <c r="BU45" s="58"/>
-      <c r="BV45" s="58"/>
-      <c r="BW45" s="58"/>
-      <c r="BX45" s="58"/>
-      <c r="BY45" s="58"/>
-      <c r="BZ45" s="58"/>
-      <c r="CA45" s="58"/>
-      <c r="CB45" s="58"/>
-      <c r="CC45" s="58"/>
-      <c r="CD45" s="58"/>
-      <c r="CE45" s="58"/>
-      <c r="CF45" s="58"/>
-      <c r="CG45" s="58"/>
-      <c r="CH45" s="58"/>
-      <c r="CI45" s="58"/>
-      <c r="CJ45" s="58"/>
-      <c r="CK45" s="58"/>
-      <c r="CL45" s="58"/>
-      <c r="CM45" s="58"/>
-      <c r="CN45" s="58"/>
-      <c r="CO45" s="58"/>
-      <c r="CP45" s="58"/>
-      <c r="CQ45" s="58"/>
-      <c r="CR45" s="58"/>
-      <c r="CS45" s="58"/>
-      <c r="CT45" s="58"/>
-      <c r="CU45" s="58"/>
-      <c r="CV45" s="58"/>
-      <c r="CW45" s="58"/>
-      <c r="CX45" s="58"/>
-      <c r="CY45" s="58"/>
-      <c r="CZ45" s="58"/>
-      <c r="DA45" s="58"/>
-      <c r="DB45" s="58"/>
-      <c r="DC45" s="58"/>
-      <c r="DD45" s="58"/>
-      <c r="DE45" s="58"/>
-      <c r="DF45" s="58"/>
-      <c r="DG45" s="58"/>
-      <c r="DH45" s="58"/>
-      <c r="DI45" s="58"/>
-      <c r="DJ45" s="58"/>
-      <c r="DK45" s="58"/>
-      <c r="DL45" s="58"/>
-      <c r="DM45" s="58"/>
-      <c r="DN45" s="58"/>
-      <c r="DO45" s="58"/>
-      <c r="DP45" s="58"/>
-      <c r="DQ45" s="58"/>
-      <c r="DR45" s="58"/>
-      <c r="DS45" s="58"/>
-      <c r="DT45" s="58"/>
-      <c r="DU45" s="58"/>
-      <c r="DV45" s="58"/>
-      <c r="DW45" s="58"/>
-      <c r="DX45" s="58"/>
-      <c r="DY45" s="58"/>
-      <c r="DZ45" s="58"/>
-      <c r="EA45" s="59"/>
-      <c r="EB45" s="59"/>
-      <c r="EC45" s="59"/>
-      <c r="ED45" s="59"/>
-      <c r="EE45" s="59"/>
-      <c r="EF45" s="59"/>
-      <c r="EG45" s="59"/>
-      <c r="EH45" s="68"/>
-      <c r="EI45" s="68"/>
+      <c r="AJ45" s="74"/>
+      <c r="AK45" s="74"/>
+      <c r="AL45" s="74"/>
+      <c r="AM45" s="74"/>
+      <c r="AN45" s="74"/>
+      <c r="AO45" s="74"/>
+      <c r="AP45" s="74"/>
+      <c r="AQ45" s="74"/>
+      <c r="AR45" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS45" s="74"/>
+      <c r="AT45" s="74"/>
+      <c r="AU45" s="74"/>
+      <c r="AV45" s="74"/>
+      <c r="AW45" s="74"/>
+      <c r="AX45" s="74"/>
+      <c r="AY45" s="74"/>
+      <c r="AZ45" s="74"/>
+      <c r="BA45" s="74"/>
+      <c r="BB45" s="74"/>
+      <c r="BC45" s="74"/>
+      <c r="BD45" s="74"/>
+      <c r="BE45" s="74"/>
+      <c r="BF45" s="74"/>
+      <c r="BG45" s="74"/>
+      <c r="BH45" s="74"/>
+      <c r="BI45" s="74"/>
+      <c r="BJ45" s="74"/>
+      <c r="BK45" s="74"/>
+      <c r="BL45" s="74"/>
+      <c r="BM45" s="74"/>
+      <c r="BN45" s="74"/>
+      <c r="BO45" s="74"/>
+      <c r="BP45" s="74"/>
+      <c r="BQ45" s="74"/>
+      <c r="BR45" s="74"/>
+      <c r="BS45" s="74"/>
+      <c r="BT45" s="74"/>
+      <c r="BU45" s="74"/>
+      <c r="BV45" s="74"/>
+      <c r="BW45" s="74"/>
+      <c r="BX45" s="74"/>
+      <c r="BY45" s="74"/>
+      <c r="BZ45" s="74"/>
+      <c r="CA45" s="74"/>
+      <c r="CB45" s="74"/>
+      <c r="CC45" s="74"/>
+      <c r="CD45" s="74"/>
+      <c r="CE45" s="74"/>
+      <c r="CF45" s="74"/>
+      <c r="CG45" s="74"/>
+      <c r="CH45" s="74"/>
+      <c r="CI45" s="74"/>
+      <c r="CJ45" s="74"/>
+      <c r="CK45" s="74"/>
+      <c r="CL45" s="74"/>
+      <c r="CM45" s="74"/>
+      <c r="CN45" s="74"/>
+      <c r="CO45" s="74"/>
+      <c r="CP45" s="74"/>
+      <c r="CQ45" s="74"/>
+      <c r="CR45" s="74"/>
+      <c r="CS45" s="74"/>
+      <c r="CT45" s="74"/>
+      <c r="CU45" s="74"/>
+      <c r="CV45" s="74"/>
+      <c r="CW45" s="74"/>
+      <c r="CX45" s="74"/>
+      <c r="CY45" s="74"/>
+      <c r="CZ45" s="74"/>
+      <c r="DA45" s="74"/>
+      <c r="DB45" s="74"/>
+      <c r="DC45" s="74"/>
+      <c r="DD45" s="74"/>
+      <c r="DE45" s="74"/>
+      <c r="DF45" s="74"/>
+      <c r="DG45" s="74"/>
+      <c r="DH45" s="74"/>
+      <c r="DI45" s="74"/>
+      <c r="DJ45" s="74"/>
+      <c r="DK45" s="74"/>
+      <c r="DL45" s="74"/>
+      <c r="DM45" s="74"/>
+      <c r="DN45" s="74"/>
+      <c r="DO45" s="74"/>
+      <c r="DP45" s="74"/>
+      <c r="DQ45" s="74"/>
+      <c r="DR45" s="74"/>
+      <c r="DS45" s="74"/>
+      <c r="DT45" s="74"/>
+      <c r="DU45" s="74"/>
+      <c r="DV45" s="74"/>
+      <c r="DW45" s="74"/>
+      <c r="DX45" s="74"/>
+      <c r="DY45" s="74"/>
+      <c r="DZ45" s="74"/>
+      <c r="EA45" s="75"/>
+      <c r="EB45" s="75"/>
+      <c r="EC45" s="75"/>
+      <c r="ED45" s="75"/>
+      <c r="EE45" s="75"/>
+      <c r="EF45" s="75"/>
+      <c r="EG45" s="75"/>
+      <c r="EH45" s="76"/>
+      <c r="EI45" s="76"/>
     </row>
-    <row r="46" spans="1:139" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
+    <row r="46" spans="1:139" s="77" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A46" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71" t="s">
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80" t="s">
         <v>372</v>
       </c>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="71"/>
-      <c r="AA46" s="71"/>
-      <c r="AB46" s="71"/>
-      <c r="AC46" s="71" t="s">
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="80"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="80"/>
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="80"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="80"/>
+      <c r="Z46" s="80"/>
+      <c r="AA46" s="80"/>
+      <c r="AB46" s="80"/>
+      <c r="AC46" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="AD46" s="71"/>
-      <c r="AE46" s="71"/>
-      <c r="AF46" s="71"/>
-      <c r="AG46" s="71"/>
-      <c r="AH46" s="71"/>
-      <c r="AI46" s="71" t="s">
+      <c r="AD46" s="80"/>
+      <c r="AE46" s="80"/>
+      <c r="AF46" s="80"/>
+      <c r="AG46" s="80"/>
+      <c r="AH46" s="80"/>
+      <c r="AI46" s="80" t="s">
         <v>374</v>
       </c>
-      <c r="AJ46" s="71"/>
-      <c r="AK46" s="71"/>
-      <c r="AL46" s="71"/>
-      <c r="AM46" s="71"/>
-      <c r="AN46" s="71"/>
-      <c r="AO46" s="71"/>
-      <c r="AP46" s="71"/>
-      <c r="AQ46" s="71"/>
-      <c r="AR46" s="71"/>
-      <c r="AS46" s="71"/>
-      <c r="AT46" s="71"/>
-      <c r="AU46" s="71"/>
-      <c r="AV46" s="71"/>
-      <c r="AW46" s="71"/>
-      <c r="AX46" s="71"/>
-      <c r="AY46" s="71"/>
-      <c r="AZ46" s="71"/>
-      <c r="BA46" s="71"/>
-      <c r="BB46" s="71"/>
-      <c r="BC46" s="71"/>
-      <c r="BD46" s="71"/>
-      <c r="BE46" s="71"/>
-      <c r="BF46" s="71"/>
-      <c r="BG46" s="71"/>
-      <c r="BH46" s="71"/>
-      <c r="BI46" s="71"/>
-      <c r="BJ46" s="71"/>
-      <c r="BK46" s="71"/>
-      <c r="BL46" s="71"/>
-      <c r="BM46" s="71"/>
-      <c r="BN46" s="71"/>
-      <c r="BO46" s="71"/>
-      <c r="BP46" s="71"/>
-      <c r="BQ46" s="71"/>
-      <c r="BR46" s="71"/>
-      <c r="BS46" s="71"/>
-      <c r="BT46" s="71"/>
-      <c r="BU46" s="71"/>
-      <c r="BV46" s="71"/>
-      <c r="BW46" s="71"/>
-      <c r="BX46" s="71"/>
-      <c r="BY46" s="71"/>
-      <c r="BZ46" s="71"/>
-      <c r="CA46" s="71"/>
-      <c r="CB46" s="71"/>
-      <c r="CC46" s="71"/>
-      <c r="CD46" s="71"/>
-      <c r="CE46" s="71"/>
-      <c r="CF46" s="71"/>
-      <c r="CG46" s="71"/>
-      <c r="CH46" s="58"/>
-      <c r="CI46" s="71"/>
-      <c r="CJ46" s="71"/>
-      <c r="CK46" s="71"/>
-      <c r="CL46" s="71"/>
-      <c r="CM46" s="71"/>
-      <c r="CN46" s="58"/>
-      <c r="CO46" s="71"/>
-      <c r="CP46" s="71"/>
-      <c r="CQ46" s="71"/>
-      <c r="CR46" s="71"/>
-      <c r="CS46" s="71"/>
-      <c r="CU46" s="71"/>
-      <c r="CV46" s="71"/>
-      <c r="CX46" s="71"/>
-      <c r="CY46" s="71"/>
-      <c r="DA46" s="71"/>
-      <c r="DB46" s="71"/>
-      <c r="DD46" s="71"/>
-      <c r="DE46" s="71"/>
-      <c r="DF46" s="71"/>
-      <c r="DG46" s="71"/>
-      <c r="DH46" s="71"/>
-      <c r="DI46" s="71"/>
-      <c r="DJ46" s="71"/>
-      <c r="DK46" s="71"/>
-      <c r="DL46" s="71"/>
-      <c r="DM46" s="71"/>
-      <c r="DN46" s="71"/>
-      <c r="DO46" s="71"/>
-      <c r="DP46" s="71"/>
-      <c r="DQ46" s="71"/>
-      <c r="DR46" s="71"/>
-      <c r="DS46" s="71"/>
-      <c r="DT46" s="71"/>
-      <c r="DU46" s="71"/>
-      <c r="DV46" s="71"/>
-      <c r="DW46" s="71"/>
-      <c r="DX46" s="71"/>
-      <c r="DY46" s="71"/>
-      <c r="DZ46" s="71"/>
-      <c r="EA46" s="68"/>
-      <c r="EB46" s="68"/>
-      <c r="EC46" s="68"/>
-      <c r="ED46" s="68"/>
-      <c r="EE46" s="68"/>
-      <c r="EF46" s="68"/>
-      <c r="EG46" s="68"/>
-      <c r="EH46" s="59"/>
-      <c r="EI46" s="59"/>
+      <c r="AJ46" s="80"/>
+      <c r="AK46" s="80"/>
+      <c r="AL46" s="80"/>
+      <c r="AM46" s="80"/>
+      <c r="AN46" s="80"/>
+      <c r="AO46" s="80"/>
+      <c r="AP46" s="80"/>
+      <c r="AQ46" s="80"/>
+      <c r="AR46" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="AS46" s="80"/>
+      <c r="AT46" s="80"/>
+      <c r="AU46" s="80"/>
+      <c r="AV46" s="80"/>
+      <c r="AW46" s="80"/>
+      <c r="AX46" s="80"/>
+      <c r="AY46" s="80"/>
+      <c r="AZ46" s="80"/>
+      <c r="BA46" s="80"/>
+      <c r="BB46" s="80"/>
+      <c r="BC46" s="80"/>
+      <c r="BD46" s="80"/>
+      <c r="BE46" s="80"/>
+      <c r="BF46" s="80"/>
+      <c r="BG46" s="80"/>
+      <c r="BH46" s="80"/>
+      <c r="BI46" s="80"/>
+      <c r="BJ46" s="80"/>
+      <c r="BK46" s="80"/>
+      <c r="BL46" s="80"/>
+      <c r="BM46" s="80"/>
+      <c r="BN46" s="80"/>
+      <c r="BO46" s="80"/>
+      <c r="BP46" s="80"/>
+      <c r="BQ46" s="80"/>
+      <c r="BR46" s="80"/>
+      <c r="BS46" s="80"/>
+      <c r="BT46" s="80"/>
+      <c r="BU46" s="80"/>
+      <c r="BV46" s="80"/>
+      <c r="BW46" s="80"/>
+      <c r="BX46" s="80"/>
+      <c r="BY46" s="80"/>
+      <c r="BZ46" s="80"/>
+      <c r="CA46" s="80"/>
+      <c r="CB46" s="80"/>
+      <c r="CC46" s="80"/>
+      <c r="CD46" s="80"/>
+      <c r="CE46" s="80"/>
+      <c r="CF46" s="80"/>
+      <c r="CG46" s="80"/>
+      <c r="CH46" s="74"/>
+      <c r="CI46" s="80"/>
+      <c r="CJ46" s="80"/>
+      <c r="CK46" s="80"/>
+      <c r="CL46" s="80"/>
+      <c r="CM46" s="80"/>
+      <c r="CN46" s="74"/>
+      <c r="CO46" s="80"/>
+      <c r="CP46" s="80"/>
+      <c r="CQ46" s="80"/>
+      <c r="CR46" s="80"/>
+      <c r="CS46" s="80"/>
+      <c r="CU46" s="80"/>
+      <c r="CV46" s="80"/>
+      <c r="CX46" s="80"/>
+      <c r="CY46" s="80"/>
+      <c r="DA46" s="80"/>
+      <c r="DB46" s="80"/>
+      <c r="DD46" s="80"/>
+      <c r="DE46" s="80"/>
+      <c r="DF46" s="80"/>
+      <c r="DG46" s="80"/>
+      <c r="DH46" s="80"/>
+      <c r="DI46" s="80"/>
+      <c r="DJ46" s="80"/>
+      <c r="DK46" s="80"/>
+      <c r="DL46" s="80"/>
+      <c r="DM46" s="80"/>
+      <c r="DN46" s="80"/>
+      <c r="DO46" s="80"/>
+      <c r="DP46" s="80"/>
+      <c r="DQ46" s="80"/>
+      <c r="DR46" s="80"/>
+      <c r="DS46" s="80"/>
+      <c r="DT46" s="80"/>
+      <c r="DU46" s="80"/>
+      <c r="DV46" s="80"/>
+      <c r="DW46" s="80"/>
+      <c r="DX46" s="80"/>
+      <c r="DY46" s="80"/>
+      <c r="DZ46" s="80"/>
+      <c r="EA46" s="76"/>
+      <c r="EB46" s="76"/>
+      <c r="EC46" s="76"/>
+      <c r="ED46" s="76"/>
+      <c r="EE46" s="76"/>
+      <c r="EF46" s="76"/>
+      <c r="EG46" s="76"/>
+      <c r="EH46" s="75"/>
+      <c r="EI46" s="75"/>
     </row>
-    <row r="47" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52" t="s">
+    <row r="47" spans="1:139" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58" t="s">
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="58"/>
-      <c r="S47" s="58"/>
-      <c r="T47" s="58"/>
-      <c r="U47" s="58"/>
-      <c r="V47" s="58"/>
-      <c r="W47" s="58"/>
-      <c r="X47" s="58"/>
-      <c r="Y47" s="58"/>
-      <c r="Z47" s="58"/>
-      <c r="AA47" s="58"/>
-      <c r="AB47" s="58"/>
-      <c r="AC47" s="58" t="s">
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="74"/>
+      <c r="T47" s="74"/>
+      <c r="U47" s="74"/>
+      <c r="V47" s="74"/>
+      <c r="W47" s="74"/>
+      <c r="X47" s="74"/>
+      <c r="Y47" s="74"/>
+      <c r="Z47" s="74"/>
+      <c r="AA47" s="74"/>
+      <c r="AB47" s="74"/>
+      <c r="AC47" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="AD47" s="58"/>
-      <c r="AE47" s="58"/>
-      <c r="AF47" s="58"/>
-      <c r="AG47" s="58"/>
-      <c r="AH47" s="58"/>
-      <c r="AI47" s="58" t="s">
+      <c r="AD47" s="74"/>
+      <c r="AE47" s="74"/>
+      <c r="AF47" s="74"/>
+      <c r="AG47" s="74"/>
+      <c r="AH47" s="74"/>
+      <c r="AI47" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="AJ47" s="58"/>
-      <c r="AK47" s="58"/>
-      <c r="AL47" s="58"/>
-      <c r="AM47" s="58"/>
-      <c r="AN47" s="58"/>
-      <c r="AO47" s="58"/>
-      <c r="AP47" s="58"/>
-      <c r="AQ47" s="58"/>
-      <c r="AR47" s="58"/>
-      <c r="AS47" s="58"/>
-      <c r="AT47" s="58"/>
-      <c r="AU47" s="58"/>
-      <c r="AV47" s="58"/>
-      <c r="AW47" s="58"/>
-      <c r="AX47" s="58"/>
-      <c r="AY47" s="58"/>
-      <c r="AZ47" s="58"/>
-      <c r="BA47" s="58"/>
-      <c r="BB47" s="58"/>
-      <c r="BC47" s="58"/>
-      <c r="BD47" s="58"/>
-      <c r="BE47" s="58"/>
-      <c r="BF47" s="58"/>
-      <c r="BG47" s="58"/>
-      <c r="BH47" s="58"/>
-      <c r="BI47" s="58"/>
-      <c r="BJ47" s="58"/>
-      <c r="BK47" s="58"/>
-      <c r="BL47" s="58"/>
-      <c r="BM47" s="58"/>
-      <c r="BN47" s="58"/>
-      <c r="BO47" s="58"/>
-      <c r="BP47" s="58"/>
-      <c r="BQ47" s="58"/>
-      <c r="BR47" s="58"/>
-      <c r="BS47" s="58"/>
-      <c r="BT47" s="58"/>
-      <c r="BU47" s="58"/>
-      <c r="BV47" s="58"/>
-      <c r="BW47" s="58"/>
-      <c r="BX47" s="58"/>
-      <c r="BY47" s="58"/>
-      <c r="BZ47" s="58"/>
-      <c r="CA47" s="58"/>
-      <c r="CB47" s="58"/>
-      <c r="CC47" s="58"/>
-      <c r="CD47" s="58"/>
-      <c r="CE47" s="58"/>
-      <c r="CF47" s="58"/>
-      <c r="CG47" s="58"/>
-      <c r="CH47" s="58"/>
-      <c r="CI47" s="58"/>
-      <c r="CJ47" s="58"/>
-      <c r="CK47" s="58"/>
-      <c r="CL47" s="58"/>
-      <c r="CM47" s="58"/>
-      <c r="CN47" s="58"/>
-      <c r="CO47" s="58"/>
-      <c r="CP47" s="58"/>
-      <c r="CQ47" s="58"/>
-      <c r="CR47" s="58"/>
-      <c r="CS47" s="58"/>
-      <c r="CT47" s="58"/>
-      <c r="CU47" s="58"/>
-      <c r="CV47" s="58"/>
-      <c r="CW47" s="58"/>
-      <c r="CX47" s="58"/>
-      <c r="CY47" s="58"/>
-      <c r="CZ47" s="58"/>
-      <c r="DA47" s="58"/>
-      <c r="DB47" s="58"/>
-      <c r="DC47" s="58"/>
-      <c r="DD47" s="58"/>
-      <c r="DE47" s="58"/>
-      <c r="DF47" s="58"/>
-      <c r="DG47" s="58"/>
-      <c r="DH47" s="58"/>
-      <c r="DI47" s="58"/>
-      <c r="DJ47" s="58"/>
-      <c r="DK47" s="58"/>
-      <c r="DL47" s="58"/>
-      <c r="DM47" s="58"/>
-      <c r="DN47" s="58"/>
-      <c r="DO47" s="58"/>
-      <c r="DP47" s="58"/>
-      <c r="DQ47" s="58"/>
-      <c r="DR47" s="58"/>
-      <c r="DS47" s="58"/>
-      <c r="DT47" s="58"/>
-      <c r="DU47" s="58"/>
-      <c r="DV47" s="58"/>
-      <c r="DW47" s="58"/>
-      <c r="DX47" s="58"/>
-      <c r="DY47" s="58"/>
-      <c r="DZ47" s="58"/>
-      <c r="EA47" s="59"/>
-      <c r="EB47" s="59"/>
-      <c r="EC47" s="59"/>
-      <c r="ED47" s="59"/>
-      <c r="EE47" s="59"/>
-      <c r="EF47" s="59"/>
-      <c r="EG47" s="59"/>
-      <c r="EH47" s="59"/>
-      <c r="EI47" s="59"/>
+      <c r="AJ47" s="74"/>
+      <c r="AK47" s="74"/>
+      <c r="AL47" s="74"/>
+      <c r="AM47" s="74"/>
+      <c r="AN47" s="74"/>
+      <c r="AO47" s="74"/>
+      <c r="AP47" s="74"/>
+      <c r="AQ47" s="74"/>
+      <c r="AR47" s="74"/>
+      <c r="AS47" s="74"/>
+      <c r="AT47" s="74"/>
+      <c r="AU47" s="74"/>
+      <c r="AV47" s="74"/>
+      <c r="AW47" s="74"/>
+      <c r="AX47" s="74"/>
+      <c r="AY47" s="74"/>
+      <c r="AZ47" s="74"/>
+      <c r="BA47" s="74"/>
+      <c r="BB47" s="74"/>
+      <c r="BC47" s="74"/>
+      <c r="BD47" s="74"/>
+      <c r="BE47" s="74"/>
+      <c r="BF47" s="74"/>
+      <c r="BG47" s="74"/>
+      <c r="BH47" s="74"/>
+      <c r="BI47" s="74"/>
+      <c r="BJ47" s="74"/>
+      <c r="BK47" s="74"/>
+      <c r="BL47" s="74"/>
+      <c r="BM47" s="74"/>
+      <c r="BN47" s="74"/>
+      <c r="BO47" s="74"/>
+      <c r="BP47" s="74"/>
+      <c r="BQ47" s="74"/>
+      <c r="BR47" s="74"/>
+      <c r="BS47" s="74"/>
+      <c r="BT47" s="74"/>
+      <c r="BU47" s="74"/>
+      <c r="BV47" s="74"/>
+      <c r="BW47" s="74"/>
+      <c r="BX47" s="74"/>
+      <c r="BY47" s="74"/>
+      <c r="BZ47" s="74"/>
+      <c r="CA47" s="74"/>
+      <c r="CB47" s="74"/>
+      <c r="CC47" s="74"/>
+      <c r="CD47" s="74"/>
+      <c r="CE47" s="74"/>
+      <c r="CF47" s="74"/>
+      <c r="CG47" s="74"/>
+      <c r="CH47" s="74"/>
+      <c r="CI47" s="74"/>
+      <c r="CJ47" s="74"/>
+      <c r="CK47" s="74"/>
+      <c r="CL47" s="74"/>
+      <c r="CM47" s="74"/>
+      <c r="CN47" s="74"/>
+      <c r="CO47" s="74"/>
+      <c r="CP47" s="74"/>
+      <c r="CQ47" s="74"/>
+      <c r="CR47" s="74"/>
+      <c r="CS47" s="74"/>
+      <c r="CT47" s="74"/>
+      <c r="CU47" s="74"/>
+      <c r="CV47" s="74"/>
+      <c r="CW47" s="74"/>
+      <c r="CX47" s="74"/>
+      <c r="CY47" s="74"/>
+      <c r="CZ47" s="74"/>
+      <c r="DA47" s="74"/>
+      <c r="DB47" s="74"/>
+      <c r="DC47" s="74"/>
+      <c r="DD47" s="74"/>
+      <c r="DE47" s="74"/>
+      <c r="DF47" s="74"/>
+      <c r="DG47" s="74"/>
+      <c r="DH47" s="74"/>
+      <c r="DI47" s="74"/>
+      <c r="DJ47" s="74"/>
+      <c r="DK47" s="74"/>
+      <c r="DL47" s="74"/>
+      <c r="DM47" s="74"/>
+      <c r="DN47" s="74"/>
+      <c r="DO47" s="74"/>
+      <c r="DP47" s="74"/>
+      <c r="DQ47" s="74"/>
+      <c r="DR47" s="74"/>
+      <c r="DS47" s="74"/>
+      <c r="DT47" s="74"/>
+      <c r="DU47" s="74"/>
+      <c r="DV47" s="74"/>
+      <c r="DW47" s="74"/>
+      <c r="DX47" s="74"/>
+      <c r="DY47" s="74"/>
+      <c r="DZ47" s="74"/>
+      <c r="EA47" s="75"/>
+      <c r="EB47" s="75"/>
+      <c r="EC47" s="75"/>
+      <c r="ED47" s="75"/>
+      <c r="EE47" s="75"/>
+      <c r="EF47" s="75"/>
+      <c r="EG47" s="75"/>
+      <c r="EH47" s="75"/>
+      <c r="EI47" s="75"/>
     </row>
-    <row r="48" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52" t="s">
+    <row r="48" spans="1:139" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58" t="s">
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74" t="s">
         <v>312</v>
       </c>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="58"/>
-      <c r="T48" s="58"/>
-      <c r="U48" s="58"/>
-      <c r="V48" s="58"/>
-      <c r="W48" s="58"/>
-      <c r="X48" s="58"/>
-      <c r="Y48" s="58"/>
-      <c r="Z48" s="58"/>
-      <c r="AA48" s="58"/>
-      <c r="AB48" s="58"/>
-      <c r="AC48" s="58" t="s">
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="74"/>
+      <c r="U48" s="74"/>
+      <c r="V48" s="74"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="74"/>
+      <c r="AA48" s="74"/>
+      <c r="AB48" s="74"/>
+      <c r="AC48" s="74" t="s">
         <v>312</v>
       </c>
-      <c r="AD48" s="58"/>
-      <c r="AE48" s="58"/>
-      <c r="AF48" s="58"/>
-      <c r="AG48" s="58"/>
-      <c r="AH48" s="58"/>
-      <c r="AI48" s="58" t="s">
+      <c r="AD48" s="74"/>
+      <c r="AE48" s="74"/>
+      <c r="AF48" s="74"/>
+      <c r="AG48" s="74"/>
+      <c r="AH48" s="74"/>
+      <c r="AI48" s="74" t="s">
         <v>312</v>
       </c>
-      <c r="AJ48" s="58"/>
-      <c r="AK48" s="58"/>
-      <c r="AL48" s="58"/>
-      <c r="AM48" s="58"/>
-      <c r="AN48" s="58"/>
-      <c r="AO48" s="58"/>
-      <c r="AP48" s="58"/>
-      <c r="AQ48" s="58"/>
-      <c r="AR48" s="58"/>
-      <c r="AS48" s="58"/>
-      <c r="AT48" s="58"/>
-      <c r="AU48" s="58"/>
-      <c r="AV48" s="58"/>
-      <c r="AW48" s="58"/>
-      <c r="AX48" s="58"/>
-      <c r="AY48" s="58"/>
-      <c r="AZ48" s="58"/>
-      <c r="BA48" s="58"/>
-      <c r="BB48" s="58"/>
-      <c r="BC48" s="58"/>
-      <c r="BD48" s="58"/>
-      <c r="BE48" s="58"/>
-      <c r="BF48" s="58"/>
-      <c r="BG48" s="58"/>
-      <c r="BH48" s="58"/>
-      <c r="BI48" s="58"/>
-      <c r="BJ48" s="58"/>
-      <c r="BK48" s="58"/>
-      <c r="BL48" s="58"/>
-      <c r="BM48" s="58"/>
-      <c r="BN48" s="58"/>
-      <c r="BO48" s="58"/>
-      <c r="BP48" s="58"/>
-      <c r="BQ48" s="58"/>
-      <c r="BR48" s="58"/>
-      <c r="BS48" s="58"/>
-      <c r="BT48" s="58"/>
-      <c r="BU48" s="58"/>
-      <c r="BV48" s="58"/>
-      <c r="BW48" s="58"/>
-      <c r="BX48" s="58"/>
-      <c r="BY48" s="58"/>
-      <c r="BZ48" s="58"/>
-      <c r="CA48" s="58"/>
-      <c r="CB48" s="58"/>
-      <c r="CC48" s="58"/>
-      <c r="CD48" s="58"/>
-      <c r="CE48" s="58"/>
-      <c r="CF48" s="58"/>
-      <c r="CG48" s="58"/>
-      <c r="CI48" s="58"/>
-      <c r="CJ48" s="58"/>
-      <c r="CK48" s="58"/>
-      <c r="CL48" s="58"/>
-      <c r="CM48" s="58"/>
-      <c r="CO48" s="58"/>
-      <c r="CP48" s="58"/>
-      <c r="CQ48" s="58"/>
-      <c r="CR48" s="58"/>
-      <c r="CS48" s="58"/>
-      <c r="CU48" s="58"/>
-      <c r="CV48" s="58"/>
-      <c r="CX48" s="58"/>
-      <c r="CY48" s="58"/>
-      <c r="DA48" s="58"/>
-      <c r="DB48" s="58"/>
-      <c r="DD48" s="58"/>
-      <c r="DE48" s="58"/>
-      <c r="DF48" s="58"/>
-      <c r="DG48" s="58"/>
-      <c r="DH48" s="58"/>
-      <c r="DI48" s="58"/>
-      <c r="DJ48" s="58"/>
-      <c r="DK48" s="58"/>
-      <c r="DL48" s="58"/>
-      <c r="DM48" s="58"/>
-      <c r="DN48" s="58"/>
-      <c r="DO48" s="58"/>
-      <c r="DP48" s="58"/>
-      <c r="DQ48" s="58"/>
-      <c r="DR48" s="58"/>
-      <c r="DS48" s="58"/>
-      <c r="DT48" s="58"/>
-      <c r="DU48" s="58"/>
-      <c r="DV48" s="58"/>
-      <c r="DW48" s="58"/>
-      <c r="DX48" s="58"/>
-      <c r="DY48" s="58"/>
-      <c r="DZ48" s="58"/>
-      <c r="EA48" s="59"/>
-      <c r="EB48" s="59"/>
-      <c r="EC48" s="59"/>
-      <c r="ED48" s="59"/>
-      <c r="EE48" s="59"/>
-      <c r="EF48" s="59"/>
-      <c r="EG48" s="59"/>
-      <c r="EH48" s="59"/>
-      <c r="EI48" s="59"/>
+      <c r="AJ48" s="74"/>
+      <c r="AK48" s="74"/>
+      <c r="AL48" s="74"/>
+      <c r="AM48" s="74"/>
+      <c r="AN48" s="74"/>
+      <c r="AO48" s="74"/>
+      <c r="AP48" s="74"/>
+      <c r="AQ48" s="74"/>
+      <c r="AR48" s="74"/>
+      <c r="AS48" s="74"/>
+      <c r="AT48" s="74"/>
+      <c r="AU48" s="74"/>
+      <c r="AV48" s="74"/>
+      <c r="AW48" s="74"/>
+      <c r="AX48" s="74"/>
+      <c r="AY48" s="74"/>
+      <c r="AZ48" s="74"/>
+      <c r="BA48" s="74"/>
+      <c r="BB48" s="74"/>
+      <c r="BC48" s="74"/>
+      <c r="BD48" s="74"/>
+      <c r="BE48" s="74"/>
+      <c r="BF48" s="74"/>
+      <c r="BG48" s="74"/>
+      <c r="BH48" s="74"/>
+      <c r="BI48" s="74"/>
+      <c r="BJ48" s="74"/>
+      <c r="BK48" s="74"/>
+      <c r="BL48" s="74"/>
+      <c r="BM48" s="74"/>
+      <c r="BN48" s="74"/>
+      <c r="BO48" s="74"/>
+      <c r="BP48" s="74"/>
+      <c r="BQ48" s="74"/>
+      <c r="BR48" s="74"/>
+      <c r="BS48" s="74"/>
+      <c r="BT48" s="74"/>
+      <c r="BU48" s="74"/>
+      <c r="BV48" s="74"/>
+      <c r="BW48" s="74"/>
+      <c r="BX48" s="74"/>
+      <c r="BY48" s="74"/>
+      <c r="BZ48" s="74"/>
+      <c r="CA48" s="74"/>
+      <c r="CB48" s="74"/>
+      <c r="CC48" s="74"/>
+      <c r="CD48" s="74"/>
+      <c r="CE48" s="74"/>
+      <c r="CF48" s="74"/>
+      <c r="CG48" s="74"/>
+      <c r="CI48" s="74"/>
+      <c r="CJ48" s="74"/>
+      <c r="CK48" s="74"/>
+      <c r="CL48" s="74"/>
+      <c r="CM48" s="74"/>
+      <c r="CO48" s="74"/>
+      <c r="CP48" s="74"/>
+      <c r="CQ48" s="74"/>
+      <c r="CR48" s="74"/>
+      <c r="CS48" s="74"/>
+      <c r="CU48" s="74"/>
+      <c r="CV48" s="74"/>
+      <c r="CX48" s="74"/>
+      <c r="CY48" s="74"/>
+      <c r="DA48" s="74"/>
+      <c r="DB48" s="74"/>
+      <c r="DD48" s="74"/>
+      <c r="DE48" s="74"/>
+      <c r="DF48" s="74"/>
+      <c r="DG48" s="74"/>
+      <c r="DH48" s="74"/>
+      <c r="DI48" s="74"/>
+      <c r="DJ48" s="74"/>
+      <c r="DK48" s="74"/>
+      <c r="DL48" s="74"/>
+      <c r="DM48" s="74"/>
+      <c r="DN48" s="74"/>
+      <c r="DO48" s="74"/>
+      <c r="DP48" s="74"/>
+      <c r="DQ48" s="74"/>
+      <c r="DR48" s="74"/>
+      <c r="DS48" s="74"/>
+      <c r="DT48" s="74"/>
+      <c r="DU48" s="74"/>
+      <c r="DV48" s="74"/>
+      <c r="DW48" s="74"/>
+      <c r="DX48" s="74"/>
+      <c r="DY48" s="74"/>
+      <c r="DZ48" s="74"/>
+      <c r="EA48" s="75"/>
+      <c r="EB48" s="75"/>
+      <c r="EC48" s="75"/>
+      <c r="ED48" s="75"/>
+      <c r="EE48" s="75"/>
+      <c r="EF48" s="75"/>
+      <c r="EG48" s="75"/>
+      <c r="EH48" s="75"/>
+      <c r="EI48" s="75"/>
     </row>
-    <row r="49" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52" t="s">
+    <row r="49" spans="1:139" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="58"/>
-      <c r="W49" s="58"/>
-      <c r="X49" s="58"/>
-      <c r="Y49" s="58"/>
-      <c r="Z49" s="58"/>
-      <c r="AA49" s="58"/>
-      <c r="AB49" s="58"/>
-      <c r="AC49" s="58"/>
-      <c r="AD49" s="58"/>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="58"/>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="58"/>
-      <c r="AI49" s="58"/>
-      <c r="AJ49" s="58"/>
-      <c r="AK49" s="58"/>
-      <c r="AL49" s="58"/>
-      <c r="AM49" s="58"/>
-      <c r="AN49" s="58"/>
-      <c r="AO49" s="58"/>
-      <c r="AP49" s="58"/>
-      <c r="AQ49" s="58"/>
-      <c r="AR49" s="58"/>
-      <c r="AS49" s="58"/>
-      <c r="AT49" s="58"/>
-      <c r="AU49" s="58"/>
-      <c r="AV49" s="58"/>
-      <c r="AW49" s="58"/>
-      <c r="AX49" s="58"/>
-      <c r="AY49" s="58"/>
-      <c r="AZ49" s="58"/>
-      <c r="BA49" s="58"/>
-      <c r="BB49" s="58"/>
-      <c r="BC49" s="58"/>
-      <c r="BD49" s="58"/>
-      <c r="BE49" s="58"/>
-      <c r="BF49" s="58"/>
-      <c r="BG49" s="58"/>
-      <c r="BH49" s="58"/>
-      <c r="BI49" s="58"/>
-      <c r="BJ49" s="58"/>
-      <c r="BK49" s="58"/>
-      <c r="BL49" s="58"/>
-      <c r="BM49" s="58"/>
-      <c r="BN49" s="58"/>
-      <c r="BO49" s="58"/>
-      <c r="BP49" s="58"/>
-      <c r="BQ49" s="58"/>
-      <c r="BR49" s="58"/>
-      <c r="BS49" s="58"/>
-      <c r="BT49" s="58"/>
-      <c r="BU49" s="58"/>
-      <c r="BV49" s="58"/>
-      <c r="BW49" s="58"/>
-      <c r="BX49" s="58"/>
-      <c r="BY49" s="58"/>
-      <c r="BZ49" s="58"/>
-      <c r="CA49" s="58"/>
-      <c r="CB49" s="58"/>
-      <c r="CC49" s="58"/>
-      <c r="CD49" s="58"/>
-      <c r="CE49" s="58"/>
-      <c r="CF49" s="58"/>
-      <c r="CG49" s="58"/>
-      <c r="CH49" s="58"/>
-      <c r="CI49" s="58"/>
-      <c r="CJ49" s="58"/>
-      <c r="CK49" s="58"/>
-      <c r="CL49" s="58"/>
-      <c r="CM49" s="58"/>
-      <c r="CN49" s="58"/>
-      <c r="CO49" s="58"/>
-      <c r="CP49" s="58"/>
-      <c r="CQ49" s="58"/>
-      <c r="CR49" s="58"/>
-      <c r="CS49" s="58"/>
-      <c r="CT49" s="58"/>
-      <c r="CU49" s="58"/>
-      <c r="CV49" s="58"/>
-      <c r="CW49" s="58"/>
-      <c r="CX49" s="58"/>
-      <c r="CY49" s="58"/>
-      <c r="CZ49" s="58"/>
-      <c r="DA49" s="58"/>
-      <c r="DB49" s="58"/>
-      <c r="DC49" s="58"/>
-      <c r="DD49" s="58"/>
-      <c r="DE49" s="58"/>
-      <c r="DF49" s="58"/>
-      <c r="DG49" s="58"/>
-      <c r="DH49" s="58"/>
-      <c r="DI49" s="58"/>
-      <c r="DJ49" s="58"/>
-      <c r="DK49" s="58"/>
-      <c r="DL49" s="58"/>
-      <c r="DM49" s="58"/>
-      <c r="DN49" s="58"/>
-      <c r="DO49" s="58"/>
-      <c r="DP49" s="58"/>
-      <c r="DQ49" s="58"/>
-      <c r="DR49" s="58"/>
-      <c r="DS49" s="58"/>
-      <c r="DT49" s="58"/>
-      <c r="DU49" s="58"/>
-      <c r="DV49" s="58"/>
-      <c r="DW49" s="58"/>
-      <c r="DX49" s="58"/>
-      <c r="DY49" s="58"/>
-      <c r="DZ49" s="58"/>
-      <c r="EA49" s="59"/>
-      <c r="EB49" s="59"/>
-      <c r="EC49" s="59"/>
-      <c r="ED49" s="59"/>
-      <c r="EE49" s="59"/>
-      <c r="EF49" s="59"/>
-      <c r="EG49" s="59"/>
-      <c r="EH49" s="59"/>
-      <c r="EI49" s="59"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="74"/>
+      <c r="T49" s="74"/>
+      <c r="U49" s="74"/>
+      <c r="V49" s="74"/>
+      <c r="W49" s="74"/>
+      <c r="X49" s="74"/>
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="74"/>
+      <c r="AA49" s="74"/>
+      <c r="AB49" s="74"/>
+      <c r="AC49" s="74"/>
+      <c r="AD49" s="74"/>
+      <c r="AE49" s="74"/>
+      <c r="AF49" s="74"/>
+      <c r="AG49" s="74"/>
+      <c r="AH49" s="74"/>
+      <c r="AI49" s="74"/>
+      <c r="AJ49" s="74"/>
+      <c r="AK49" s="74"/>
+      <c r="AL49" s="74"/>
+      <c r="AM49" s="74"/>
+      <c r="AN49" s="74"/>
+      <c r="AO49" s="74"/>
+      <c r="AP49" s="74"/>
+      <c r="AQ49" s="74"/>
+      <c r="AR49" s="74"/>
+      <c r="AS49" s="74"/>
+      <c r="AT49" s="74"/>
+      <c r="AU49" s="74"/>
+      <c r="AV49" s="74"/>
+      <c r="AW49" s="74"/>
+      <c r="AX49" s="74"/>
+      <c r="AY49" s="74"/>
+      <c r="AZ49" s="74"/>
+      <c r="BA49" s="74"/>
+      <c r="BB49" s="74"/>
+      <c r="BC49" s="74"/>
+      <c r="BD49" s="74"/>
+      <c r="BE49" s="74"/>
+      <c r="BF49" s="74"/>
+      <c r="BG49" s="74"/>
+      <c r="BH49" s="74"/>
+      <c r="BI49" s="74"/>
+      <c r="BJ49" s="74"/>
+      <c r="BK49" s="74"/>
+      <c r="BL49" s="74"/>
+      <c r="BM49" s="74"/>
+      <c r="BN49" s="74"/>
+      <c r="BO49" s="74"/>
+      <c r="BP49" s="74"/>
+      <c r="BQ49" s="74"/>
+      <c r="BR49" s="74"/>
+      <c r="BS49" s="74"/>
+      <c r="BT49" s="74"/>
+      <c r="BU49" s="74"/>
+      <c r="BV49" s="74"/>
+      <c r="BW49" s="74"/>
+      <c r="BX49" s="74"/>
+      <c r="BY49" s="74"/>
+      <c r="BZ49" s="74"/>
+      <c r="CA49" s="74"/>
+      <c r="CB49" s="74"/>
+      <c r="CC49" s="74"/>
+      <c r="CD49" s="74"/>
+      <c r="CE49" s="74"/>
+      <c r="CF49" s="74"/>
+      <c r="CG49" s="74"/>
+      <c r="CH49" s="74"/>
+      <c r="CI49" s="74"/>
+      <c r="CJ49" s="74"/>
+      <c r="CK49" s="74"/>
+      <c r="CL49" s="74"/>
+      <c r="CM49" s="74"/>
+      <c r="CN49" s="74"/>
+      <c r="CO49" s="74"/>
+      <c r="CP49" s="74"/>
+      <c r="CQ49" s="74"/>
+      <c r="CR49" s="74"/>
+      <c r="CS49" s="74"/>
+      <c r="CT49" s="74"/>
+      <c r="CU49" s="74"/>
+      <c r="CV49" s="74"/>
+      <c r="CW49" s="74"/>
+      <c r="CX49" s="74"/>
+      <c r="CY49" s="74"/>
+      <c r="CZ49" s="74"/>
+      <c r="DA49" s="74"/>
+      <c r="DB49" s="74"/>
+      <c r="DC49" s="74"/>
+      <c r="DD49" s="74"/>
+      <c r="DE49" s="74"/>
+      <c r="DF49" s="74"/>
+      <c r="DG49" s="74"/>
+      <c r="DH49" s="74"/>
+      <c r="DI49" s="74"/>
+      <c r="DJ49" s="74"/>
+      <c r="DK49" s="74"/>
+      <c r="DL49" s="74"/>
+      <c r="DM49" s="74"/>
+      <c r="DN49" s="74"/>
+      <c r="DO49" s="74"/>
+      <c r="DP49" s="74"/>
+      <c r="DQ49" s="74"/>
+      <c r="DR49" s="74"/>
+      <c r="DS49" s="74"/>
+      <c r="DT49" s="74"/>
+      <c r="DU49" s="74"/>
+      <c r="DV49" s="74"/>
+      <c r="DW49" s="74"/>
+      <c r="DX49" s="74"/>
+      <c r="DY49" s="74"/>
+      <c r="DZ49" s="74"/>
+      <c r="EA49" s="75"/>
+      <c r="EB49" s="75"/>
+      <c r="EC49" s="75"/>
+      <c r="ED49" s="75"/>
+      <c r="EE49" s="75"/>
+      <c r="EF49" s="75"/>
+      <c r="EG49" s="75"/>
+      <c r="EH49" s="75"/>
+      <c r="EI49" s="75"/>
     </row>
-    <row r="50" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="52" t="s">
+    <row r="50" spans="1:139" s="77" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="58"/>
-      <c r="W50" s="58"/>
-      <c r="X50" s="58"/>
-      <c r="Y50" s="58"/>
-      <c r="Z50" s="58"/>
-      <c r="AA50" s="58"/>
-      <c r="AB50" s="58"/>
-      <c r="AC50" s="58"/>
-      <c r="AD50" s="58"/>
-      <c r="AE50" s="58"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="58"/>
-      <c r="AI50" s="58"/>
-      <c r="AJ50" s="58"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="58"/>
-      <c r="AM50" s="58"/>
-      <c r="AN50" s="58"/>
-      <c r="AO50" s="58"/>
-      <c r="AP50" s="58"/>
-      <c r="AQ50" s="58"/>
-      <c r="AR50" s="58"/>
-      <c r="AS50" s="58"/>
-      <c r="AT50" s="58"/>
-      <c r="AU50" s="58"/>
-      <c r="AV50" s="58"/>
-      <c r="AW50" s="58"/>
-      <c r="AX50" s="58"/>
-      <c r="AY50" s="58"/>
-      <c r="AZ50" s="58"/>
-      <c r="BA50" s="58"/>
-      <c r="BB50" s="58"/>
-      <c r="BC50" s="58"/>
-      <c r="BD50" s="58"/>
-      <c r="BE50" s="58"/>
-      <c r="BF50" s="58"/>
-      <c r="BG50" s="58"/>
-      <c r="BH50" s="58"/>
-      <c r="BI50" s="58"/>
-      <c r="BJ50" s="58"/>
-      <c r="BK50" s="58"/>
-      <c r="BL50" s="58"/>
-      <c r="BM50" s="58"/>
-      <c r="BN50" s="58"/>
-      <c r="BO50" s="58"/>
-      <c r="BP50" s="58"/>
-      <c r="BQ50" s="58"/>
-      <c r="BR50" s="58"/>
-      <c r="BS50" s="58"/>
-      <c r="BT50" s="58"/>
-      <c r="BU50" s="58"/>
-      <c r="BV50" s="58"/>
-      <c r="BW50" s="58"/>
-      <c r="BX50" s="58"/>
-      <c r="BY50" s="58"/>
-      <c r="BZ50" s="58"/>
-      <c r="CA50" s="58"/>
-      <c r="CB50" s="58"/>
-      <c r="CC50" s="58"/>
-      <c r="CD50" s="58"/>
-      <c r="CE50" s="58"/>
-      <c r="CF50" s="58"/>
-      <c r="CG50" s="58"/>
-      <c r="CH50" s="58"/>
-      <c r="CI50" s="58"/>
-      <c r="CJ50" s="58"/>
-      <c r="CK50" s="58"/>
-      <c r="CL50" s="58"/>
-      <c r="CM50" s="58"/>
-      <c r="CN50" s="58"/>
-      <c r="CO50" s="58"/>
-      <c r="CP50" s="58"/>
-      <c r="CQ50" s="58"/>
-      <c r="CR50" s="58"/>
-      <c r="CS50" s="58"/>
-      <c r="CT50" s="58"/>
-      <c r="CU50" s="58"/>
-      <c r="CV50" s="58"/>
-      <c r="CW50" s="58"/>
-      <c r="CX50" s="58"/>
-      <c r="CY50" s="58"/>
-      <c r="CZ50" s="58"/>
-      <c r="DA50" s="58"/>
-      <c r="DB50" s="58"/>
-      <c r="DC50" s="58"/>
-      <c r="DD50" s="58"/>
-      <c r="DE50" s="58"/>
-      <c r="DF50" s="58"/>
-      <c r="DG50" s="58"/>
-      <c r="DH50" s="58"/>
-      <c r="DI50" s="58"/>
-      <c r="DJ50" s="58"/>
-      <c r="DK50" s="58"/>
-      <c r="DL50" s="58"/>
-      <c r="DM50" s="58"/>
-      <c r="DN50" s="58"/>
-      <c r="DO50" s="58"/>
-      <c r="DP50" s="58"/>
-      <c r="DQ50" s="58"/>
-      <c r="DR50" s="58"/>
-      <c r="DS50" s="58"/>
-      <c r="DT50" s="58"/>
-      <c r="DU50" s="58"/>
-      <c r="DV50" s="58"/>
-      <c r="DW50" s="58"/>
-      <c r="DX50" s="58"/>
-      <c r="DY50" s="58"/>
-      <c r="DZ50" s="58"/>
-      <c r="EA50" s="59"/>
-      <c r="EB50" s="59"/>
-      <c r="EC50" s="59"/>
-      <c r="ED50" s="59"/>
-      <c r="EE50" s="59"/>
-      <c r="EF50" s="59"/>
-      <c r="EG50" s="59"/>
-      <c r="EH50" s="59"/>
-      <c r="EI50" s="59"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="80" t="s">
+        <v>376</v>
+      </c>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="74"/>
+      <c r="T50" s="74"/>
+      <c r="U50" s="74"/>
+      <c r="V50" s="74"/>
+      <c r="W50" s="74"/>
+      <c r="X50" s="74"/>
+      <c r="Y50" s="74"/>
+      <c r="Z50" s="74"/>
+      <c r="AA50" s="74"/>
+      <c r="AB50" s="74"/>
+      <c r="AC50" s="80" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD50" s="74"/>
+      <c r="AE50" s="74"/>
+      <c r="AF50" s="74"/>
+      <c r="AG50" s="74"/>
+      <c r="AH50" s="74"/>
+      <c r="AI50" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="AJ50" s="74"/>
+      <c r="AK50" s="74"/>
+      <c r="AL50" s="74"/>
+      <c r="AM50" s="74"/>
+      <c r="AN50" s="74"/>
+      <c r="AO50" s="74"/>
+      <c r="AP50" s="74"/>
+      <c r="AQ50" s="74"/>
+      <c r="AR50" s="80" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS50" s="74"/>
+      <c r="AT50" s="74"/>
+      <c r="AU50" s="74"/>
+      <c r="AV50" s="74"/>
+      <c r="AW50" s="74"/>
+      <c r="AX50" s="74"/>
+      <c r="AY50" s="74"/>
+      <c r="AZ50" s="74"/>
+      <c r="BA50" s="74"/>
+      <c r="BB50" s="74"/>
+      <c r="BC50" s="74"/>
+      <c r="BD50" s="74"/>
+      <c r="BE50" s="74"/>
+      <c r="BF50" s="74"/>
+      <c r="BG50" s="74"/>
+      <c r="BH50" s="74"/>
+      <c r="BI50" s="74"/>
+      <c r="BJ50" s="74"/>
+      <c r="BK50" s="74"/>
+      <c r="BL50" s="74"/>
+      <c r="BM50" s="74"/>
+      <c r="BN50" s="74"/>
+      <c r="BO50" s="74"/>
+      <c r="BP50" s="74"/>
+      <c r="BQ50" s="74"/>
+      <c r="BR50" s="74"/>
+      <c r="BS50" s="74"/>
+      <c r="BT50" s="74"/>
+      <c r="BU50" s="74"/>
+      <c r="BV50" s="74"/>
+      <c r="BW50" s="74"/>
+      <c r="BX50" s="74"/>
+      <c r="BY50" s="74"/>
+      <c r="BZ50" s="74"/>
+      <c r="CA50" s="74"/>
+      <c r="CB50" s="74"/>
+      <c r="CC50" s="74"/>
+      <c r="CD50" s="74"/>
+      <c r="CE50" s="74"/>
+      <c r="CF50" s="74"/>
+      <c r="CG50" s="74"/>
+      <c r="CH50" s="74"/>
+      <c r="CI50" s="74"/>
+      <c r="CJ50" s="74"/>
+      <c r="CK50" s="74"/>
+      <c r="CL50" s="74"/>
+      <c r="CM50" s="74"/>
+      <c r="CN50" s="74"/>
+      <c r="CO50" s="74"/>
+      <c r="CP50" s="74"/>
+      <c r="CQ50" s="74"/>
+      <c r="CR50" s="74"/>
+      <c r="CS50" s="74"/>
+      <c r="CT50" s="74"/>
+      <c r="CU50" s="74"/>
+      <c r="CV50" s="74"/>
+      <c r="CW50" s="74"/>
+      <c r="CX50" s="74"/>
+      <c r="CY50" s="74"/>
+      <c r="CZ50" s="74"/>
+      <c r="DA50" s="74"/>
+      <c r="DB50" s="74"/>
+      <c r="DC50" s="74"/>
+      <c r="DD50" s="74"/>
+      <c r="DE50" s="74"/>
+      <c r="DF50" s="74"/>
+      <c r="DG50" s="74"/>
+      <c r="DH50" s="74"/>
+      <c r="DI50" s="74"/>
+      <c r="DJ50" s="74"/>
+      <c r="DK50" s="74"/>
+      <c r="DL50" s="74"/>
+      <c r="DM50" s="74"/>
+      <c r="DN50" s="74"/>
+      <c r="DO50" s="74"/>
+      <c r="DP50" s="74"/>
+      <c r="DQ50" s="74"/>
+      <c r="DR50" s="74"/>
+      <c r="DS50" s="74"/>
+      <c r="DT50" s="74"/>
+      <c r="DU50" s="74"/>
+      <c r="DV50" s="74"/>
+      <c r="DW50" s="74"/>
+      <c r="DX50" s="74"/>
+      <c r="DY50" s="74"/>
+      <c r="DZ50" s="74"/>
+      <c r="EA50" s="75"/>
+      <c r="EB50" s="75"/>
+      <c r="EC50" s="75"/>
+      <c r="ED50" s="75"/>
+      <c r="EE50" s="75"/>
+      <c r="EF50" s="75"/>
+      <c r="EG50" s="75"/>
+      <c r="EH50" s="75"/>
+      <c r="EI50" s="75"/>
     </row>
-    <row r="51" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+    <row r="51" spans="1:139" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="58"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="58"/>
-      <c r="U51" s="58"/>
-      <c r="V51" s="58"/>
-      <c r="W51" s="58"/>
-      <c r="X51" s="58"/>
-      <c r="Y51" s="58"/>
-      <c r="Z51" s="58"/>
-      <c r="AA51" s="58"/>
-      <c r="AB51" s="58"/>
-      <c r="AC51" s="58"/>
-      <c r="AD51" s="58"/>
-      <c r="AE51" s="58"/>
-      <c r="AF51" s="58"/>
-      <c r="AG51" s="58"/>
-      <c r="AH51" s="58"/>
-      <c r="AI51" s="58"/>
-      <c r="AJ51" s="58"/>
-      <c r="AK51" s="58"/>
-      <c r="AL51" s="58"/>
-      <c r="AM51" s="58"/>
-      <c r="AN51" s="58"/>
-      <c r="AO51" s="58"/>
-      <c r="AP51" s="58"/>
-      <c r="AQ51" s="58"/>
-      <c r="AR51" s="58"/>
-      <c r="AS51" s="58"/>
-      <c r="AT51" s="58"/>
-      <c r="AU51" s="58"/>
-      <c r="AV51" s="58"/>
-      <c r="AW51" s="58"/>
-      <c r="AX51" s="58"/>
-      <c r="AY51" s="58"/>
-      <c r="AZ51" s="58"/>
-      <c r="BA51" s="58"/>
-      <c r="BB51" s="58"/>
-      <c r="BC51" s="58"/>
-      <c r="BD51" s="58"/>
-      <c r="BE51" s="58"/>
-      <c r="BF51" s="58"/>
-      <c r="BG51" s="58"/>
-      <c r="BH51" s="58"/>
-      <c r="BI51" s="58"/>
-      <c r="BJ51" s="58"/>
-      <c r="BK51" s="58"/>
-      <c r="BL51" s="58"/>
-      <c r="BM51" s="58"/>
-      <c r="BN51" s="58"/>
-      <c r="BO51" s="58"/>
-      <c r="BP51" s="58"/>
-      <c r="BQ51" s="58"/>
-      <c r="BR51" s="58"/>
-      <c r="BS51" s="58"/>
-      <c r="BT51" s="58"/>
-      <c r="BU51" s="58"/>
-      <c r="BV51" s="58"/>
-      <c r="BW51" s="58"/>
-      <c r="BX51" s="58"/>
-      <c r="BY51" s="58"/>
-      <c r="BZ51" s="58"/>
-      <c r="CA51" s="58"/>
-      <c r="CB51" s="58"/>
-      <c r="CC51" s="58"/>
-      <c r="CD51" s="58"/>
-      <c r="CE51" s="58"/>
-      <c r="CF51" s="58"/>
-      <c r="CG51" s="58"/>
-      <c r="CH51" s="58"/>
-      <c r="CI51" s="58"/>
-      <c r="CJ51" s="58"/>
-      <c r="CK51" s="58"/>
-      <c r="CL51" s="58"/>
-      <c r="CM51" s="58"/>
-      <c r="CN51" s="58"/>
-      <c r="CO51" s="58"/>
-      <c r="CP51" s="58"/>
-      <c r="CQ51" s="58"/>
-      <c r="CR51" s="58"/>
-      <c r="CS51" s="58"/>
-      <c r="CT51" s="58"/>
-      <c r="CU51" s="58"/>
-      <c r="CV51" s="58"/>
-      <c r="CW51" s="58"/>
-      <c r="CX51" s="58"/>
-      <c r="CY51" s="58"/>
-      <c r="CZ51" s="58"/>
-      <c r="DA51" s="58"/>
-      <c r="DB51" s="58"/>
-      <c r="DC51" s="58"/>
-      <c r="DD51" s="58"/>
-      <c r="DE51" s="58"/>
-      <c r="DF51" s="58"/>
-      <c r="DG51" s="58"/>
-      <c r="DH51" s="58"/>
-      <c r="DI51" s="58"/>
-      <c r="DJ51" s="58"/>
-      <c r="DK51" s="58"/>
-      <c r="DL51" s="58"/>
-      <c r="DM51" s="58"/>
-      <c r="DN51" s="58"/>
-      <c r="DO51" s="58"/>
-      <c r="DP51" s="58"/>
-      <c r="DQ51" s="58"/>
-      <c r="DR51" s="58"/>
-      <c r="DS51" s="58"/>
-      <c r="DT51" s="58"/>
-      <c r="DU51" s="58"/>
-      <c r="DV51" s="58"/>
-      <c r="DW51" s="58"/>
-      <c r="DX51" s="58"/>
-      <c r="DY51" s="58"/>
-      <c r="DZ51" s="58"/>
-      <c r="EA51" s="59"/>
-      <c r="EB51" s="59"/>
-      <c r="EC51" s="59"/>
-      <c r="ED51" s="59"/>
-      <c r="EE51" s="59"/>
-      <c r="EF51" s="59"/>
-      <c r="EG51" s="59"/>
-      <c r="EH51" s="59"/>
-      <c r="EI51" s="59"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="74"/>
+      <c r="S51" s="74"/>
+      <c r="T51" s="74"/>
+      <c r="U51" s="74"/>
+      <c r="V51" s="74"/>
+      <c r="W51" s="74"/>
+      <c r="X51" s="74"/>
+      <c r="Y51" s="74"/>
+      <c r="Z51" s="74"/>
+      <c r="AA51" s="74"/>
+      <c r="AB51" s="74"/>
+      <c r="AC51" s="74"/>
+      <c r="AD51" s="74"/>
+      <c r="AE51" s="74"/>
+      <c r="AF51" s="74"/>
+      <c r="AG51" s="74"/>
+      <c r="AH51" s="74"/>
+      <c r="AI51" s="74"/>
+      <c r="AJ51" s="74"/>
+      <c r="AK51" s="74"/>
+      <c r="AL51" s="74"/>
+      <c r="AM51" s="74"/>
+      <c r="AN51" s="74"/>
+      <c r="AO51" s="74"/>
+      <c r="AP51" s="74"/>
+      <c r="AQ51" s="74"/>
+      <c r="AR51" s="74"/>
+      <c r="AS51" s="74"/>
+      <c r="AT51" s="74"/>
+      <c r="AU51" s="74"/>
+      <c r="AV51" s="74"/>
+      <c r="AW51" s="74"/>
+      <c r="AX51" s="74"/>
+      <c r="AY51" s="74"/>
+      <c r="AZ51" s="74"/>
+      <c r="BA51" s="74"/>
+      <c r="BB51" s="74"/>
+      <c r="BC51" s="74"/>
+      <c r="BD51" s="74"/>
+      <c r="BE51" s="74"/>
+      <c r="BF51" s="74"/>
+      <c r="BG51" s="74"/>
+      <c r="BH51" s="74"/>
+      <c r="BI51" s="74"/>
+      <c r="BJ51" s="74"/>
+      <c r="BK51" s="74"/>
+      <c r="BL51" s="74"/>
+      <c r="BM51" s="74"/>
+      <c r="BN51" s="74"/>
+      <c r="BO51" s="74"/>
+      <c r="BP51" s="74"/>
+      <c r="BQ51" s="74"/>
+      <c r="BR51" s="74"/>
+      <c r="BS51" s="74"/>
+      <c r="BT51" s="74"/>
+      <c r="BU51" s="74"/>
+      <c r="BV51" s="74"/>
+      <c r="BW51" s="74"/>
+      <c r="BX51" s="74"/>
+      <c r="BY51" s="74"/>
+      <c r="BZ51" s="74"/>
+      <c r="CA51" s="74"/>
+      <c r="CB51" s="74"/>
+      <c r="CC51" s="74"/>
+      <c r="CD51" s="74"/>
+      <c r="CE51" s="74"/>
+      <c r="CF51" s="74"/>
+      <c r="CG51" s="74"/>
+      <c r="CH51" s="74"/>
+      <c r="CI51" s="74"/>
+      <c r="CJ51" s="74"/>
+      <c r="CK51" s="74"/>
+      <c r="CL51" s="74"/>
+      <c r="CM51" s="74"/>
+      <c r="CN51" s="74"/>
+      <c r="CO51" s="74"/>
+      <c r="CP51" s="74"/>
+      <c r="CQ51" s="74"/>
+      <c r="CR51" s="74"/>
+      <c r="CS51" s="74"/>
+      <c r="CT51" s="74"/>
+      <c r="CU51" s="74"/>
+      <c r="CV51" s="74"/>
+      <c r="CW51" s="74"/>
+      <c r="CX51" s="74"/>
+      <c r="CY51" s="74"/>
+      <c r="CZ51" s="74"/>
+      <c r="DA51" s="74"/>
+      <c r="DB51" s="74"/>
+      <c r="DC51" s="74"/>
+      <c r="DD51" s="74"/>
+      <c r="DE51" s="74"/>
+      <c r="DF51" s="74"/>
+      <c r="DG51" s="74"/>
+      <c r="DH51" s="74"/>
+      <c r="DI51" s="74"/>
+      <c r="DJ51" s="74"/>
+      <c r="DK51" s="74"/>
+      <c r="DL51" s="74"/>
+      <c r="DM51" s="74"/>
+      <c r="DN51" s="74"/>
+      <c r="DO51" s="74"/>
+      <c r="DP51" s="74"/>
+      <c r="DQ51" s="74"/>
+      <c r="DR51" s="74"/>
+      <c r="DS51" s="74"/>
+      <c r="DT51" s="74"/>
+      <c r="DU51" s="74"/>
+      <c r="DV51" s="74"/>
+      <c r="DW51" s="74"/>
+      <c r="DX51" s="74"/>
+      <c r="DY51" s="74"/>
+      <c r="DZ51" s="74"/>
+      <c r="EA51" s="75"/>
+      <c r="EB51" s="75"/>
+      <c r="EC51" s="75"/>
+      <c r="ED51" s="75"/>
+      <c r="EE51" s="75"/>
+      <c r="EF51" s="75"/>
+      <c r="EG51" s="75"/>
+      <c r="EH51" s="75"/>
+      <c r="EI51" s="75"/>
     </row>
-    <row r="52" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="61"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="63"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="63"/>
-      <c r="S52" s="63"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="63"/>
-      <c r="V52" s="63"/>
-      <c r="W52" s="64"/>
-      <c r="X52" s="63"/>
-      <c r="Y52" s="63"/>
-      <c r="Z52" s="63"/>
-      <c r="AA52" s="63"/>
-      <c r="AB52" s="63"/>
-      <c r="AC52" s="64"/>
-      <c r="AD52" s="63"/>
-      <c r="AE52" s="63"/>
-      <c r="AF52" s="63"/>
-      <c r="AG52" s="63"/>
-      <c r="AH52" s="63"/>
-      <c r="AI52" s="63"/>
-      <c r="AJ52" s="63"/>
-      <c r="AK52" s="63"/>
-      <c r="AL52" s="64"/>
-      <c r="AM52" s="63"/>
-      <c r="AN52" s="63"/>
-      <c r="AO52" s="63"/>
-      <c r="AP52" s="63"/>
-      <c r="AQ52" s="63"/>
-      <c r="AR52" s="63"/>
-      <c r="AS52" s="63"/>
-      <c r="AT52" s="63"/>
-      <c r="AU52" s="63"/>
-      <c r="AV52" s="63"/>
-      <c r="AW52" s="63"/>
-      <c r="AX52" s="63"/>
-      <c r="AY52" s="63"/>
-      <c r="AZ52" s="63"/>
-      <c r="BA52" s="63"/>
-      <c r="BB52" s="63"/>
-      <c r="BC52" s="63"/>
-      <c r="BD52" s="64"/>
-      <c r="BE52" s="63"/>
-      <c r="BF52" s="63"/>
-      <c r="BG52" s="64"/>
-      <c r="BH52" s="63"/>
-      <c r="BI52" s="63"/>
-      <c r="BJ52" s="64"/>
-      <c r="BK52" s="63"/>
-      <c r="BL52" s="63"/>
-      <c r="BM52" s="64"/>
-      <c r="BN52" s="63"/>
-      <c r="BO52" s="63"/>
-      <c r="BP52" s="65"/>
-      <c r="BQ52" s="63"/>
-      <c r="BR52" s="63"/>
-      <c r="BS52" s="63"/>
-      <c r="BT52" s="63"/>
-      <c r="BU52" s="63"/>
-      <c r="BV52" s="66"/>
-      <c r="BW52" s="63"/>
-      <c r="BX52" s="63"/>
-      <c r="BY52" s="63"/>
-      <c r="BZ52" s="63"/>
-      <c r="CA52" s="63"/>
-      <c r="CB52" s="66"/>
-      <c r="CC52" s="63"/>
-      <c r="CD52" s="63"/>
-      <c r="CE52" s="63"/>
-      <c r="CF52" s="63"/>
-      <c r="CG52" s="63"/>
-      <c r="CH52" s="67"/>
-      <c r="CI52" s="63"/>
-      <c r="CJ52" s="63"/>
-      <c r="CK52" s="63"/>
-      <c r="CL52" s="63"/>
-      <c r="CM52" s="63"/>
-      <c r="CN52" s="67"/>
-      <c r="CO52" s="63"/>
-      <c r="CP52" s="63"/>
-      <c r="CQ52" s="63"/>
-      <c r="CR52" s="63"/>
-      <c r="CS52" s="63"/>
-      <c r="CT52" s="64"/>
-      <c r="CU52" s="63"/>
-      <c r="CV52" s="63"/>
-      <c r="CW52" s="64"/>
-      <c r="CX52" s="63"/>
-      <c r="CY52" s="63"/>
-      <c r="CZ52" s="64"/>
-      <c r="DA52" s="63"/>
-      <c r="DB52" s="63"/>
-      <c r="DC52" s="64"/>
-      <c r="DD52" s="63"/>
-      <c r="DE52" s="63"/>
-      <c r="DF52" s="63"/>
-      <c r="DG52" s="63"/>
-      <c r="DH52" s="63"/>
-      <c r="DI52" s="63"/>
-      <c r="DJ52" s="63"/>
-      <c r="DK52" s="63"/>
-      <c r="DL52" s="63"/>
-      <c r="DM52" s="63"/>
-      <c r="DN52" s="63"/>
-      <c r="DO52" s="64"/>
-      <c r="DP52" s="63"/>
-      <c r="DQ52" s="63"/>
-      <c r="DR52" s="64"/>
-      <c r="DS52" s="63"/>
-      <c r="DT52" s="63"/>
-      <c r="DU52" s="64"/>
-      <c r="DV52" s="63"/>
-      <c r="DW52" s="63"/>
-      <c r="DX52" s="64"/>
-      <c r="DY52" s="63"/>
-      <c r="DZ52" s="63"/>
-      <c r="EA52" s="59"/>
-      <c r="EB52" s="59"/>
-      <c r="EC52" s="59"/>
-      <c r="ED52" s="59"/>
-      <c r="EE52" s="59"/>
-      <c r="EF52" s="59"/>
-      <c r="EG52" s="59"/>
-      <c r="EH52" s="59"/>
-      <c r="EI52" s="59"/>
+    <row r="52" spans="1:139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="62"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="62"/>
+      <c r="Y52" s="62"/>
+      <c r="Z52" s="62"/>
+      <c r="AA52" s="62"/>
+      <c r="AB52" s="62"/>
+      <c r="AC52" s="63"/>
+      <c r="AD52" s="62"/>
+      <c r="AE52" s="62"/>
+      <c r="AF52" s="62"/>
+      <c r="AG52" s="62"/>
+      <c r="AH52" s="62"/>
+      <c r="AI52" s="62"/>
+      <c r="AJ52" s="62"/>
+      <c r="AK52" s="62"/>
+      <c r="AL52" s="63"/>
+      <c r="AM52" s="62"/>
+      <c r="AN52" s="62"/>
+      <c r="AO52" s="62"/>
+      <c r="AP52" s="62"/>
+      <c r="AQ52" s="62"/>
+      <c r="AR52" s="62"/>
+      <c r="AS52" s="62"/>
+      <c r="AT52" s="62"/>
+      <c r="AU52" s="62"/>
+      <c r="AV52" s="62"/>
+      <c r="AW52" s="62"/>
+      <c r="AX52" s="62"/>
+      <c r="AY52" s="62"/>
+      <c r="AZ52" s="62"/>
+      <c r="BA52" s="62"/>
+      <c r="BB52" s="62"/>
+      <c r="BC52" s="62"/>
+      <c r="BD52" s="63"/>
+      <c r="BE52" s="62"/>
+      <c r="BF52" s="62"/>
+      <c r="BG52" s="63"/>
+      <c r="BH52" s="62"/>
+      <c r="BI52" s="62"/>
+      <c r="BJ52" s="63"/>
+      <c r="BK52" s="62"/>
+      <c r="BL52" s="62"/>
+      <c r="BM52" s="63"/>
+      <c r="BN52" s="62"/>
+      <c r="BO52" s="62"/>
+      <c r="BP52" s="64"/>
+      <c r="BQ52" s="62"/>
+      <c r="BR52" s="62"/>
+      <c r="BS52" s="62"/>
+      <c r="BT52" s="62"/>
+      <c r="BU52" s="62"/>
+      <c r="BV52" s="65"/>
+      <c r="BW52" s="62"/>
+      <c r="BX52" s="62"/>
+      <c r="BY52" s="62"/>
+      <c r="BZ52" s="62"/>
+      <c r="CA52" s="62"/>
+      <c r="CB52" s="65"/>
+      <c r="CC52" s="62"/>
+      <c r="CD52" s="62"/>
+      <c r="CE52" s="62"/>
+      <c r="CF52" s="62"/>
+      <c r="CG52" s="62"/>
+      <c r="CH52" s="66"/>
+      <c r="CI52" s="62"/>
+      <c r="CJ52" s="62"/>
+      <c r="CK52" s="62"/>
+      <c r="CL52" s="62"/>
+      <c r="CM52" s="62"/>
+      <c r="CN52" s="66"/>
+      <c r="CO52" s="62"/>
+      <c r="CP52" s="62"/>
+      <c r="CQ52" s="62"/>
+      <c r="CR52" s="62"/>
+      <c r="CS52" s="62"/>
+      <c r="CT52" s="63"/>
+      <c r="CU52" s="62"/>
+      <c r="CV52" s="62"/>
+      <c r="CW52" s="63"/>
+      <c r="CX52" s="62"/>
+      <c r="CY52" s="62"/>
+      <c r="CZ52" s="63"/>
+      <c r="DA52" s="62"/>
+      <c r="DB52" s="62"/>
+      <c r="DC52" s="63"/>
+      <c r="DD52" s="62"/>
+      <c r="DE52" s="62"/>
+      <c r="DF52" s="62"/>
+      <c r="DG52" s="62"/>
+      <c r="DH52" s="62"/>
+      <c r="DI52" s="62"/>
+      <c r="DJ52" s="62"/>
+      <c r="DK52" s="62"/>
+      <c r="DL52" s="62"/>
+      <c r="DM52" s="62"/>
+      <c r="DN52" s="62"/>
+      <c r="DO52" s="63"/>
+      <c r="DP52" s="62"/>
+      <c r="DQ52" s="62"/>
+      <c r="DR52" s="63"/>
+      <c r="DS52" s="62"/>
+      <c r="DT52" s="62"/>
+      <c r="DU52" s="63"/>
+      <c r="DV52" s="62"/>
+      <c r="DW52" s="62"/>
+      <c r="DX52" s="63"/>
+      <c r="DY52" s="62"/>
+      <c r="DZ52" s="62"/>
+      <c r="EA52" s="58"/>
+      <c r="EB52" s="58"/>
+      <c r="EC52" s="58"/>
+      <c r="ED52" s="58"/>
+      <c r="EE52" s="58"/>
+      <c r="EF52" s="58"/>
+      <c r="EG52" s="58"/>
+      <c r="EH52" s="58"/>
+      <c r="EI52" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11855,10 +12012,10 @@
     <hyperlink ref="K16" r:id="rId17" xr:uid="{33667BC1-F73B-FD4F-B474-FA56F341B5D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\1SPL01_plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2703D69F-EB79-419A-9C26-9A656470654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE26C3-1025-4123-95AA-C61FE06DDC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -1559,7 +1559,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1643,12 +1643,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1992,22 +1986,6 @@
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3075,6 +3053,22 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3125,137 +3119,137 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="D2:EA3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7A0FDF1-D7A7-5444-9FF6-B24A8DE79F17}" name="annotationTable" displayName="annotationTable" ref="D2:EA3" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <autoFilter ref="D2:EA3" xr:uid="{8A7F28C9-E08B-8A4D-99FD-3313667921ED}"/>
   <tableColumns count="128">
-    <tableColumn id="1" xr3:uid="{9B8F9057-2F20-7A45-8C27-9A36422B26D5}" name="Source Name" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{CC93B5FA-49F4-9B4C-B1F6-452471229F30}" name="Sample Name" dataDxfId="128"/>
-    <tableColumn id="101" xr3:uid="{AA189B85-0B08-424F-93B5-6C2D3D660371}" name="Characteristics [Sample type]" dataDxfId="127"/>
-    <tableColumn id="102" xr3:uid="{B5019B54-7F43-2042-A406-B19B1779B047}" name="Term Source REF [Sample type] (#h; #tNFDI4PSO:0000064)" dataDxfId="126"/>
-    <tableColumn id="103" xr3:uid="{10BC9619-E39D-4A45-853C-57DD06C07840}" name="Term Accession Number [Sample type] (#h; #tNFDI4PSO:0000064)" dataDxfId="125"/>
-    <tableColumn id="72" xr3:uid="{A33FCD3B-AD29-A742-9D63-6ECAFBEE068E}" name="Characteristics [Biological replicate]" dataDxfId="124"/>
-    <tableColumn id="73" xr3:uid="{4059FECC-FE9D-5947-9219-570196389DAE}" name="Term Source REF [Biological replicate] (#h; #tNFDI4PSO:0000042)" dataDxfId="123"/>
-    <tableColumn id="74" xr3:uid="{E04811ED-EF58-AD4F-84F5-156D9251E904}" name="Term Accession Number [Biological replicate] (#h; #tNFDI4PSO:0000042)" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{6A7FF2B3-5F1E-8245-AC4F-6198097A8123}" name="Characteristics [Organism]" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{CC831F2C-80A0-C84F-829F-23F6C78F2EEB}" name="Term Source REF [Organism] (#h; #tNFDI4PSO:0000030)" dataDxfId="120"/>
-    <tableColumn id="5" xr3:uid="{D6E59B6D-D53F-A840-A182-24AE5A460E1D}" name="Term Accession Number [Organism] (#h; #tNFDI4PSO:0000030)" dataDxfId="119"/>
-    <tableColumn id="114" xr3:uid="{DD7E5619-DB6E-F44E-B75B-1CA6BECA8011}" name="Characteristics [Isolate]" dataDxfId="118"/>
-    <tableColumn id="115" xr3:uid="{08C77E06-D2B6-CA44-AEE6-39AB1D06F432}" name="Term Source REF [Isolate] (#h; #tNFDI4PSO:0000065)" dataDxfId="117"/>
-    <tableColumn id="116" xr3:uid="{0E95421D-DECB-4248-99A3-002C66A0AEBF}" name="Term Accession Number [Isolate] (#h; #tNFDI4PSO:0000065)" dataDxfId="116"/>
-    <tableColumn id="107" xr3:uid="{CAC9E02B-4310-AC47-9C0B-C1B0925DA497}" name="Characteristics [Cultivar]" dataDxfId="115"/>
-    <tableColumn id="108" xr3:uid="{88369A2F-DDBC-7D42-9993-9C41B71C3C2F}" name="Term Source REF [Cultivar] (#h; #tNFDI4PSO:0000066)" dataDxfId="114"/>
-    <tableColumn id="109" xr3:uid="{C5014D52-D324-3246-B46B-898151F9B990}" name="Term Accession Number [Cultivar] (#h; #tNFDI4PSO:0000066)" dataDxfId="113"/>
-    <tableColumn id="110" xr3:uid="{700C615F-5CF8-8F43-8A5A-ABCBAE4EAD2E}" name="Characteristics [Ecotype]" dataDxfId="112"/>
-    <tableColumn id="111" xr3:uid="{BBBA29E7-DCD6-D342-B661-681AD683DD93}" name="Term Source REF [Ecotype] (#h; #tNFDI4PSO:0000067)" dataDxfId="111"/>
-    <tableColumn id="112" xr3:uid="{8EB5249F-48BB-634B-A2B1-ABD06733E545}" name="Term Accession Number [Ecotype] (#h; #tNFDI4PSO:0000067)" dataDxfId="110"/>
-    <tableColumn id="14" xr3:uid="{000DCCE3-5EF7-4F4E-A82A-AD088FF36730}" name="Characteristics [Genotype]" dataDxfId="109"/>
-    <tableColumn id="15" xr3:uid="{E2A1AEEB-EF2B-F448-824C-2953C18CC24A}" name="Term Source REF [Genotype] (#h; #tNFDI4PSO:0000031)" dataDxfId="108"/>
-    <tableColumn id="16" xr3:uid="{A998FE5F-8994-6E40-94FA-F0EF6DC905E4}" name="Term Accession Number [Genotype] (#h; #tNFDI4PSO:0000031)" dataDxfId="107"/>
-    <tableColumn id="117" xr3:uid="{FBA29C11-8E4B-6142-8B9C-9221A56EEA2B}" name="Characteristics [population]" dataDxfId="106"/>
-    <tableColumn id="118" xr3:uid="{B481BDF5-2297-0548-9D1D-97160F39EC7F}" name="Term Source REF [population] (#h; #tOBI:0000181)" dataDxfId="105"/>
-    <tableColumn id="119" xr3:uid="{F95C8EA9-3541-BC43-BA8C-78ED526D9471}" name="Term Accession Number [population] (#h; #tOBI:0000181)" dataDxfId="104"/>
-    <tableColumn id="17" xr3:uid="{0EB867DC-9BB4-6243-BEE9-01764D9FEB35}" name="Characteristics [Organism part]" dataDxfId="103"/>
-    <tableColumn id="18" xr3:uid="{B0CCF08F-B694-6C4F-94E6-E17AFD4C0A63}" name="Term Source REF [Organism part] (#h; #tNFDI4PSO:0000032)" dataDxfId="102"/>
-    <tableColumn id="19" xr3:uid="{6A02A31E-2B72-BE41-BF86-71E587B29D13}" name="Term Accession Number [Organism part] (#h; #tNFDI4PSO:0000032)" dataDxfId="101"/>
-    <tableColumn id="120" xr3:uid="{AD004493-349E-2948-B660-FFC9B04A3756}" name="Characteristics [Cell line]" dataDxfId="100"/>
-    <tableColumn id="121" xr3:uid="{2A484165-7392-6F45-8DA4-DB1A88B93DEC}" name="Term Source REF [Cell line] (#h; #tNFDI4PSO:0000068)" dataDxfId="99"/>
-    <tableColumn id="122" xr3:uid="{9AE3D69F-0281-4045-BFE6-C023EC048A62}" name="Term Accession Number [Cell line] (#h; #tNFDI4PSO:0000068)" dataDxfId="98"/>
-    <tableColumn id="123" xr3:uid="{B1A6199C-7EDD-564A-8155-ECC5A48569C0}" name="Characteristics [Cell type]" dataDxfId="97"/>
-    <tableColumn id="124" xr3:uid="{49433E8D-29BA-2E4F-9009-1F477D0C0EE1}" name="Term Source REF [Cell type] (#h; #tNFDI4PSO:0000069)" dataDxfId="96"/>
-    <tableColumn id="125" xr3:uid="{FC41F627-5506-0346-B969-E2BFB7E8F3BE}" name="Term Accession Number [Cell type] (#h; #tNFDI4PSO:0000069)" dataDxfId="95"/>
-    <tableColumn id="20" xr3:uid="{96C34AC4-65C0-774B-A5A0-1BC98C955028}" name="Characteristics [age]" dataDxfId="94"/>
-    <tableColumn id="21" xr3:uid="{325D3F43-A306-2F47-AD9C-92F61C0649E5}" name="Term Source REF [age] (#h; #tNFDI4PSO:0000033)" dataDxfId="93"/>
-    <tableColumn id="22" xr3:uid="{334AF647-E268-2E41-950D-8973A43E29C8}" name="Term Accession Number [age] (#h; #tNFDI4PSO:0000033)" dataDxfId="92"/>
-    <tableColumn id="126" xr3:uid="{D48EF60D-FFC4-DA42-8A84-9D7BEC94EB5C}" name="Characteristics [Developmental Stage]" dataDxfId="91"/>
-    <tableColumn id="127" xr3:uid="{B7FB233D-7D8A-A34E-91AE-3E96612329F2}" name="Term Source REF [Developmental Stage] (#h; #tNFDI4PSO:0000070)" dataDxfId="90"/>
-    <tableColumn id="128" xr3:uid="{0CFCFB6B-CC3F-A24A-B1A8-77F2863EAED6}" name="Term Accession Number [Developmental Stage] (#h; #tNFDI4PSO:0000070)" dataDxfId="89"/>
-    <tableColumn id="129" xr3:uid="{A1014B91-8574-664B-A628-2DDC01083E67}" name="Characteristics [Plant disease]" dataDxfId="88"/>
-    <tableColumn id="130" xr3:uid="{CF451DD4-AB45-1144-8BBF-C2C23EAE7EBC}" name="Term Source REF [Plant disease] (#h; #tNFDI4PSO:0000071)" dataDxfId="87"/>
-    <tableColumn id="131" xr3:uid="{4A90236E-F6AF-BE44-8703-08F06FE96AF5}" name="Term Accession Number [Plant disease] (#h; #tNFDI4PSO:0000071)" dataDxfId="86"/>
-    <tableColumn id="132" xr3:uid="{1F37D0D2-6260-584B-9CC0-9A72C472F841}" name="Characteristics [Plant disease stage]" dataDxfId="85"/>
-    <tableColumn id="133" xr3:uid="{2348DA4F-92E0-8547-AA7D-FCB641272A62}" name="Term Source REF [Plant disease stage] (#h; #tNFDI4PSO:0000072)" dataDxfId="84"/>
-    <tableColumn id="134" xr3:uid="{76B2929E-FEFA-C94A-9351-B07EA87DB902}" name="Term Accession Number [Plant disease stage] (#h; #tNFDI4PSO:0000072)" dataDxfId="83"/>
-    <tableColumn id="135" xr3:uid="{BEBD2093-9306-0C42-AFAE-735502002BE7}" name="Characteristics [Phenotype]" dataDxfId="82"/>
-    <tableColumn id="136" xr3:uid="{109579A2-3212-484D-A514-9571CF9305C5}" name="Term Source REF [Phenotype] (#h; #tNFDI4PSO:0000073)" dataDxfId="81"/>
-    <tableColumn id="137" xr3:uid="{77978229-5807-DE4F-A777-C5E343D79A55}" name="Term Accession Number [Phenotype] (#h; #tNFDI4PSO:0000073)" dataDxfId="80"/>
-    <tableColumn id="138" xr3:uid="{65D76AFE-F9A3-544C-B9C1-4D6C71488C92}" name="Characteristics [whole plant size]" dataDxfId="79"/>
-    <tableColumn id="139" xr3:uid="{91B73049-DC8D-D94B-8B5F-76E283D04557}" name="Term Source REF [whole plant size] (#h; #tTO:1000012)" dataDxfId="78"/>
-    <tableColumn id="140" xr3:uid="{6FB79EF4-9E54-8D45-BB9F-CE997665B054}" name="Term Accession Number [whole plant size] (#h; #tTO:1000012)" dataDxfId="77"/>
-    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="76"/>
-    <tableColumn id="27" xr3:uid="{5FF2BBBF-350F-9842-8FDF-2F895B07EADF}" name="Term Source REF [study type] (#h; #tPECO:0007231)" dataDxfId="75"/>
-    <tableColumn id="28" xr3:uid="{E12790EC-754D-3244-8A7A-1242F7942612}" name="Term Accession Number [study type] (#h; #tPECO:0007231)" dataDxfId="74"/>
-    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="73"/>
-    <tableColumn id="24" xr3:uid="{0C19F4A6-F9E8-1F4F-9B61-EB31E6DF451A}" name="Term Source REF [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="72"/>
-    <tableColumn id="25" xr3:uid="{7BBED07D-F814-A245-B090-723342B3D631}" name="Term Accession Number [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="71"/>
-    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="70"/>
-    <tableColumn id="30" xr3:uid="{86FAE20B-4F89-EE4F-91E6-CE3B7E712F95}" name="Term Source REF [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="69"/>
-    <tableColumn id="31" xr3:uid="{C0949892-595C-9742-BCD1-75134FAC012F}" name="Term Accession Number [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="68"/>
-    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="67"/>
-    <tableColumn id="33" xr3:uid="{4E2448E1-3D08-504C-8FE3-D71B801F4DC9}" name="Term Source REF [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="66"/>
-    <tableColumn id="34" xr3:uid="{D47410BE-0000-B648-8CE5-966EE8968909}" name="Term Accession Number [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="65"/>
-    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="64"/>
-    <tableColumn id="36" xr3:uid="{FD04748E-7F58-4A46-A167-E5EB1375A50B}" name="Term Source REF [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="63"/>
-    <tableColumn id="37" xr3:uid="{D76E6422-DF20-B94A-B5A6-4FD7F7923EBF}" name="Term Accession Number [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{8E446DD1-817A-E84A-9536-47B88B72BFD8}" name="Unit [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{BCB29467-6D87-F141-98A0-60243765731F}" name="Term Source REF [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{D2565EAD-7C86-C343-800D-E37FD463093B}" name="Term Accession Number [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="59"/>
-    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="58"/>
-    <tableColumn id="39" xr3:uid="{8B1D9CC4-6026-674C-9852-06A06365907B}" name="Term Source REF [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="57"/>
-    <tableColumn id="40" xr3:uid="{8CCA0026-8267-884E-8F9A-369ACCB825EA}" name="Term Accession Number [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{9508FD23-5388-F64E-8286-05B533856CA2}" name="Unit [percent] (#h; #tUO:0000187; #u)" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{F796BC22-CBE1-6D41-824E-F655C3F9D5B6}" name="Term Source REF [percent] (#h; #tUO:0000187; #u)" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{32AC3DD8-82CD-4349-BFD5-0805A34144D8}" name="Term Accession Number [percent] (#h; #tUO:0000187; #u)" dataDxfId="53"/>
-    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="52"/>
-    <tableColumn id="42" xr3:uid="{FE26FC08-E3D1-7547-8E20-1363EF47EE86}" name="Term Source REF [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="51"/>
-    <tableColumn id="43" xr3:uid="{C6D20AF0-60A8-874E-9614-2A2F483EB262}" name="Term Accession Number [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{2866C2CF-81B3-694E-B2D9-F69059F54AA2}" name="Unit [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{A885FE47-7729-3B45-B73D-03FF1F114CD5}" name="Term Source REF [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="48"/>
-    <tableColumn id="65" xr3:uid="{A3AEBB25-5500-F249-866E-C98439259F17}" name="Term Accession Number [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="47"/>
-    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="46"/>
-    <tableColumn id="45" xr3:uid="{23233498-CFC4-9F46-94D5-39E7A6B5AFB5}" name="Term Source REF [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="45"/>
-    <tableColumn id="46" xr3:uid="{346D483D-D0DE-5140-A015-4AD0367BAD4D}" name="Term Accession Number [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="44"/>
-    <tableColumn id="66" xr3:uid="{57808D06-1B53-8D41-BEB4-1644A20F7763}" name="Unit [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="43"/>
-    <tableColumn id="67" xr3:uid="{A7356A0D-0EFD-3D44-9B2F-4566273E79E8}" name="Term Source REF [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="42"/>
-    <tableColumn id="68" xr3:uid="{AD21FFE5-445B-CB42-B199-FDD8BAD5635D}" name="Term Accession Number [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="41"/>
-    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="40"/>
-    <tableColumn id="48" xr3:uid="{3A76D4EC-C74F-0A4B-B340-8EF3D8B86ECB}" name="Term Source REF [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="39"/>
-    <tableColumn id="49" xr3:uid="{87034985-F2AC-A145-AA6A-9EDB63F919F9}" name="Term Accession Number [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="38"/>
-    <tableColumn id="69" xr3:uid="{6D54D968-A087-944D-BF64-3AC3D5B08F80}" name="Unit [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="37"/>
-    <tableColumn id="70" xr3:uid="{AE04B49D-BF47-F34B-B52A-752ECD10B8C7}" name="Term Source REF [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="36"/>
-    <tableColumn id="71" xr3:uid="{2A40040A-D450-EF49-AB82-0CEEB3D8A599}" name="Term Accession Number [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="35"/>
-    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="34"/>
-    <tableColumn id="51" xr3:uid="{808AA82E-ECE0-AD47-92D3-27D7C93007B7}" name="Term Source REF [watering exposure] (#h; #tPECO:0007383)" dataDxfId="33"/>
-    <tableColumn id="52" xr3:uid="{7C45B5F9-759B-E646-A40E-CB5363DF17A8}" name="Term Accession Number [watering exposure] (#h; #tPECO:0007383)" dataDxfId="32"/>
-    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="31"/>
-    <tableColumn id="54" xr3:uid="{FD6AD7C0-D253-D04C-8B67-6124B6C5D685}" name="Term Source REF [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="30"/>
-    <tableColumn id="55" xr3:uid="{95BC5752-0FFE-8C4E-BFE3-4FED8B72A648}" name="Term Accession Number [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="29"/>
-    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="28"/>
-    <tableColumn id="57" xr3:uid="{19EC9032-1152-F940-ADB1-397E054EED4E}" name="Term Source REF [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="27"/>
-    <tableColumn id="58" xr3:uid="{40EA0154-215C-C44C-A5D6-852F5DA9A25C}" name="Term Accession Number [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="26"/>
-    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="25"/>
-    <tableColumn id="60" xr3:uid="{2836636A-01C7-9C4E-9B41-EE6FEE3D7B80}" name="Term Source REF [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="24"/>
-    <tableColumn id="61" xr3:uid="{E4A74FCF-2E01-354A-99CE-0602774F8706}" name="Term Accession Number [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="23"/>
-    <tableColumn id="141" xr3:uid="{76BC0B00-263D-ED4F-A9A2-143148146694}" name="Characteristics [Geographic Area]" dataDxfId="22"/>
-    <tableColumn id="142" xr3:uid="{752BC19A-0C01-7F45-9374-DD0350C7B0D8}" name="Term Source REF [Geogaphic Area] (#h; #tNFDI4PSO:0000074)" dataDxfId="21"/>
-    <tableColumn id="143" xr3:uid="{5E52848A-36B7-4E4F-B77F-EFA6EC9BD00B}" name="Term Accession Number [Geogaphic Area] (#h; #tNFDI4PSO:0000074)" dataDxfId="20"/>
-    <tableColumn id="144" xr3:uid="{AD03CA40-5B78-8B41-9E4D-03DCE23E11E1}" name="Characteristics [Sample Collection Date]" dataDxfId="19"/>
-    <tableColumn id="145" xr3:uid="{6AC68041-2E25-9444-831A-05A07C9D4229}" name="Term Source REF [Sample Collection Date] (#h; #tNFDI4PSO:0000075)" dataDxfId="18"/>
-    <tableColumn id="146" xr3:uid="{7C695C41-0D47-6842-83E2-1435AFB1EF52}" name="Term Accession Number [Sample Collection Date] (#h; #tNFDI4PSO:0000075)" dataDxfId="17"/>
-    <tableColumn id="147" xr3:uid="{1F9082F2-7F61-614D-B072-F3DE7238714F}" name="Characteristics [Sample Collected By]" dataDxfId="16"/>
-    <tableColumn id="148" xr3:uid="{5F6F8541-8734-6242-A386-C4FCE4A4D156}" name="Term Source REF [Sample Collected By] (#h; #tNFDI4PSO:0000076)" dataDxfId="15"/>
-    <tableColumn id="149" xr3:uid="{36185F91-0DB8-EE4B-96A2-DF807E8CD12E}" name="Term Accession Number [Sample Collected By] (#h; #tNFDI4PSO:0000076)" dataDxfId="14"/>
-    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="13"/>
-    <tableColumn id="63" xr3:uid="{D78E63DF-76E2-AE4F-A9AA-86CB096E0FD1}" name="Term Source REF [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="12"/>
-    <tableColumn id="64" xr3:uid="{4E3E838B-D518-9B41-95E4-AE65DE3C4242}" name="Term Accession Number [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="11"/>
-    <tableColumn id="75" xr3:uid="{7FBEC602-6866-EE4C-901B-A620EADE0B55}" name="Parameter [Sample Collection Method]" dataDxfId="10"/>
-    <tableColumn id="76" xr3:uid="{082E37E1-9067-2344-AFED-4C0AB2E6608F}" name="Term Source REF [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="9"/>
-    <tableColumn id="77" xr3:uid="{23CA10DE-9FDA-A94D-84CF-7C5F7143EE90}" name="Term Accession Number [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="8"/>
-    <tableColumn id="78" xr3:uid="{DD36BBD7-7DDE-4B4B-B0E7-E088C0737C72}" name="Parameter [Metabolism quenching method]" dataDxfId="7"/>
-    <tableColumn id="79" xr3:uid="{E9A2A827-A7E3-E44F-8034-982633580E8D}" name="Term Source REF [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="6"/>
-    <tableColumn id="80" xr3:uid="{ECB588C7-B9C0-8741-BE8A-1CDECCED4ED4}" name="Term Accession Number [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="5"/>
-    <tableColumn id="81" xr3:uid="{125431A9-D115-4A4B-A917-1C0A2F361D5C}" name="Parameter [Sample storage]" dataDxfId="4"/>
-    <tableColumn id="82" xr3:uid="{A56F8F05-EAAB-FD40-8F2F-AD66235065C4}" name="Term Source REF [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="3"/>
-    <tableColumn id="83" xr3:uid="{AB05BD40-EE64-3547-80D7-EDD26BB0F77A}" name="Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9B8F9057-2F20-7A45-8C27-9A36422B26D5}" name="Source Name" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{CC93B5FA-49F4-9B4C-B1F6-452471229F30}" name="Sample Name" dataDxfId="126"/>
+    <tableColumn id="101" xr3:uid="{AA189B85-0B08-424F-93B5-6C2D3D660371}" name="Characteristics [Sample type]" dataDxfId="125"/>
+    <tableColumn id="102" xr3:uid="{B5019B54-7F43-2042-A406-B19B1779B047}" name="Term Source REF [Sample type] (#h; #tNFDI4PSO:0000064)" dataDxfId="124"/>
+    <tableColumn id="103" xr3:uid="{10BC9619-E39D-4A45-853C-57DD06C07840}" name="Term Accession Number [Sample type] (#h; #tNFDI4PSO:0000064)" dataDxfId="123"/>
+    <tableColumn id="72" xr3:uid="{A33FCD3B-AD29-A742-9D63-6ECAFBEE068E}" name="Characteristics [Biological replicate]" dataDxfId="122"/>
+    <tableColumn id="73" xr3:uid="{4059FECC-FE9D-5947-9219-570196389DAE}" name="Term Source REF [Biological replicate] (#h; #tNFDI4PSO:0000042)" dataDxfId="121"/>
+    <tableColumn id="74" xr3:uid="{E04811ED-EF58-AD4F-84F5-156D9251E904}" name="Term Accession Number [Biological replicate] (#h; #tNFDI4PSO:0000042)" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{6A7FF2B3-5F1E-8245-AC4F-6198097A8123}" name="Characteristics [Organism]" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{CC831F2C-80A0-C84F-829F-23F6C78F2EEB}" name="Term Source REF [Organism] (#h; #tNFDI4PSO:0000030)" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{D6E59B6D-D53F-A840-A182-24AE5A460E1D}" name="Term Accession Number [Organism] (#h; #tNFDI4PSO:0000030)" dataDxfId="117"/>
+    <tableColumn id="114" xr3:uid="{DD7E5619-DB6E-F44E-B75B-1CA6BECA8011}" name="Characteristics [Isolate]" dataDxfId="116"/>
+    <tableColumn id="115" xr3:uid="{08C77E06-D2B6-CA44-AEE6-39AB1D06F432}" name="Term Source REF [Isolate] (#h; #tNFDI4PSO:0000065)" dataDxfId="115"/>
+    <tableColumn id="116" xr3:uid="{0E95421D-DECB-4248-99A3-002C66A0AEBF}" name="Term Accession Number [Isolate] (#h; #tNFDI4PSO:0000065)" dataDxfId="114"/>
+    <tableColumn id="107" xr3:uid="{CAC9E02B-4310-AC47-9C0B-C1B0925DA497}" name="Characteristics [Cultivar]" dataDxfId="113"/>
+    <tableColumn id="108" xr3:uid="{88369A2F-DDBC-7D42-9993-9C41B71C3C2F}" name="Term Source REF [Cultivar] (#h; #tNFDI4PSO:0000066)" dataDxfId="112"/>
+    <tableColumn id="109" xr3:uid="{C5014D52-D324-3246-B46B-898151F9B990}" name="Term Accession Number [Cultivar] (#h; #tNFDI4PSO:0000066)" dataDxfId="111"/>
+    <tableColumn id="110" xr3:uid="{700C615F-5CF8-8F43-8A5A-ABCBAE4EAD2E}" name="Characteristics [Ecotype]" dataDxfId="110"/>
+    <tableColumn id="111" xr3:uid="{BBBA29E7-DCD6-D342-B661-681AD683DD93}" name="Term Source REF [Ecotype] (#h; #tNFDI4PSO:0000067)" dataDxfId="109"/>
+    <tableColumn id="112" xr3:uid="{8EB5249F-48BB-634B-A2B1-ABD06733E545}" name="Term Accession Number [Ecotype] (#h; #tNFDI4PSO:0000067)" dataDxfId="108"/>
+    <tableColumn id="14" xr3:uid="{000DCCE3-5EF7-4F4E-A82A-AD088FF36730}" name="Characteristics [Genotype]" dataDxfId="107"/>
+    <tableColumn id="15" xr3:uid="{E2A1AEEB-EF2B-F448-824C-2953C18CC24A}" name="Term Source REF [Genotype] (#h; #tNFDI4PSO:0000031)" dataDxfId="106"/>
+    <tableColumn id="16" xr3:uid="{A998FE5F-8994-6E40-94FA-F0EF6DC905E4}" name="Term Accession Number [Genotype] (#h; #tNFDI4PSO:0000031)" dataDxfId="105"/>
+    <tableColumn id="117" xr3:uid="{FBA29C11-8E4B-6142-8B9C-9221A56EEA2B}" name="Characteristics [population]" dataDxfId="104"/>
+    <tableColumn id="118" xr3:uid="{B481BDF5-2297-0548-9D1D-97160F39EC7F}" name="Term Source REF [population] (#h; #tOBI:0000181)" dataDxfId="103"/>
+    <tableColumn id="119" xr3:uid="{F95C8EA9-3541-BC43-BA8C-78ED526D9471}" name="Term Accession Number [population] (#h; #tOBI:0000181)" dataDxfId="102"/>
+    <tableColumn id="17" xr3:uid="{0EB867DC-9BB4-6243-BEE9-01764D9FEB35}" name="Characteristics [Organism part]" dataDxfId="101"/>
+    <tableColumn id="18" xr3:uid="{B0CCF08F-B694-6C4F-94E6-E17AFD4C0A63}" name="Term Source REF [Organism part] (#h; #tNFDI4PSO:0000032)" dataDxfId="100"/>
+    <tableColumn id="19" xr3:uid="{6A02A31E-2B72-BE41-BF86-71E587B29D13}" name="Term Accession Number [Organism part] (#h; #tNFDI4PSO:0000032)" dataDxfId="99"/>
+    <tableColumn id="120" xr3:uid="{AD004493-349E-2948-B660-FFC9B04A3756}" name="Characteristics [Cell line]" dataDxfId="98"/>
+    <tableColumn id="121" xr3:uid="{2A484165-7392-6F45-8DA4-DB1A88B93DEC}" name="Term Source REF [Cell line] (#h; #tNFDI4PSO:0000068)" dataDxfId="97"/>
+    <tableColumn id="122" xr3:uid="{9AE3D69F-0281-4045-BFE6-C023EC048A62}" name="Term Accession Number [Cell line] (#h; #tNFDI4PSO:0000068)" dataDxfId="96"/>
+    <tableColumn id="123" xr3:uid="{B1A6199C-7EDD-564A-8155-ECC5A48569C0}" name="Characteristics [Cell type]" dataDxfId="95"/>
+    <tableColumn id="124" xr3:uid="{49433E8D-29BA-2E4F-9009-1F477D0C0EE1}" name="Term Source REF [Cell type] (#h; #tNFDI4PSO:0000069)" dataDxfId="94"/>
+    <tableColumn id="125" xr3:uid="{FC41F627-5506-0346-B969-E2BFB7E8F3BE}" name="Term Accession Number [Cell type] (#h; #tNFDI4PSO:0000069)" dataDxfId="93"/>
+    <tableColumn id="20" xr3:uid="{96C34AC4-65C0-774B-A5A0-1BC98C955028}" name="Characteristics [age]" dataDxfId="92"/>
+    <tableColumn id="21" xr3:uid="{325D3F43-A306-2F47-AD9C-92F61C0649E5}" name="Term Source REF [age] (#h; #tNFDI4PSO:0000033)" dataDxfId="91"/>
+    <tableColumn id="22" xr3:uid="{334AF647-E268-2E41-950D-8973A43E29C8}" name="Term Accession Number [age] (#h; #tNFDI4PSO:0000033)" dataDxfId="90"/>
+    <tableColumn id="126" xr3:uid="{D48EF60D-FFC4-DA42-8A84-9D7BEC94EB5C}" name="Characteristics [Developmental Stage]" dataDxfId="89"/>
+    <tableColumn id="127" xr3:uid="{B7FB233D-7D8A-A34E-91AE-3E96612329F2}" name="Term Source REF [Developmental Stage] (#h; #tNFDI4PSO:0000070)" dataDxfId="88"/>
+    <tableColumn id="128" xr3:uid="{0CFCFB6B-CC3F-A24A-B1A8-77F2863EAED6}" name="Term Accession Number [Developmental Stage] (#h; #tNFDI4PSO:0000070)" dataDxfId="87"/>
+    <tableColumn id="129" xr3:uid="{A1014B91-8574-664B-A628-2DDC01083E67}" name="Characteristics [Plant disease]" dataDxfId="86"/>
+    <tableColumn id="130" xr3:uid="{CF451DD4-AB45-1144-8BBF-C2C23EAE7EBC}" name="Term Source REF [Plant disease] (#h; #tNFDI4PSO:0000071)" dataDxfId="85"/>
+    <tableColumn id="131" xr3:uid="{4A90236E-F6AF-BE44-8703-08F06FE96AF5}" name="Term Accession Number [Plant disease] (#h; #tNFDI4PSO:0000071)" dataDxfId="84"/>
+    <tableColumn id="132" xr3:uid="{1F37D0D2-6260-584B-9CC0-9A72C472F841}" name="Characteristics [Plant disease stage]" dataDxfId="83"/>
+    <tableColumn id="133" xr3:uid="{2348DA4F-92E0-8547-AA7D-FCB641272A62}" name="Term Source REF [Plant disease stage] (#h; #tNFDI4PSO:0000072)" dataDxfId="82"/>
+    <tableColumn id="134" xr3:uid="{76B2929E-FEFA-C94A-9351-B07EA87DB902}" name="Term Accession Number [Plant disease stage] (#h; #tNFDI4PSO:0000072)" dataDxfId="81"/>
+    <tableColumn id="135" xr3:uid="{BEBD2093-9306-0C42-AFAE-735502002BE7}" name="Characteristics [Phenotype]" dataDxfId="80"/>
+    <tableColumn id="136" xr3:uid="{109579A2-3212-484D-A514-9571CF9305C5}" name="Term Source REF [Phenotype] (#h; #tNFDI4PSO:0000073)" dataDxfId="79"/>
+    <tableColumn id="137" xr3:uid="{77978229-5807-DE4F-A777-C5E343D79A55}" name="Term Accession Number [Phenotype] (#h; #tNFDI4PSO:0000073)" dataDxfId="78"/>
+    <tableColumn id="138" xr3:uid="{65D76AFE-F9A3-544C-B9C1-4D6C71488C92}" name="Characteristics [whole plant size]" dataDxfId="77"/>
+    <tableColumn id="139" xr3:uid="{91B73049-DC8D-D94B-8B5F-76E283D04557}" name="Term Source REF [whole plant size] (#h; #tTO:1000012)" dataDxfId="76"/>
+    <tableColumn id="140" xr3:uid="{6FB79EF4-9E54-8D45-BB9F-CE997665B054}" name="Term Accession Number [whole plant size] (#h; #tTO:1000012)" dataDxfId="75"/>
+    <tableColumn id="26" xr3:uid="{5E219BCA-059A-CC41-93BF-8CD61AA9572D}" name="Characteristics [study type]" dataDxfId="74"/>
+    <tableColumn id="27" xr3:uid="{5FF2BBBF-350F-9842-8FDF-2F895B07EADF}" name="Term Source REF [study type] (#h; #tPECO:0007231)" dataDxfId="73"/>
+    <tableColumn id="28" xr3:uid="{E12790EC-754D-3244-8A7A-1242F7942612}" name="Term Accession Number [study type] (#h; #tPECO:0007231)" dataDxfId="72"/>
+    <tableColumn id="23" xr3:uid="{E0A293FE-1EF5-A949-9C12-ADF40314B418}" name="Characteristics [plant growth medium exposure]" dataDxfId="71"/>
+    <tableColumn id="24" xr3:uid="{0C19F4A6-F9E8-1F4F-9B61-EB31E6DF451A}" name="Term Source REF [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="70"/>
+    <tableColumn id="25" xr3:uid="{7BBED07D-F814-A245-B090-723342B3D631}" name="Term Accession Number [plant growth medium exposure] (#h; #tPECO:0007147)" dataDxfId="69"/>
+    <tableColumn id="29" xr3:uid="{C386EF1A-F4F8-C543-99A0-ABD311BD175F}" name="Characteristics [growth plot design]" dataDxfId="68"/>
+    <tableColumn id="30" xr3:uid="{86FAE20B-4F89-EE4F-91E6-CE3B7E712F95}" name="Term Source REF [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="67"/>
+    <tableColumn id="31" xr3:uid="{C0949892-595C-9742-BCD1-75134FAC012F}" name="Term Accession Number [growth plot design] (#h; #tNFDI4PSO:0000001)" dataDxfId="66"/>
+    <tableColumn id="32" xr3:uid="{B90A4652-69D5-2E4F-8A64-A3A5A5CB24DB}" name="Characteristics [Growth day length]" dataDxfId="65"/>
+    <tableColumn id="33" xr3:uid="{4E2448E1-3D08-504C-8FE3-D71B801F4DC9}" name="Term Source REF [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="64"/>
+    <tableColumn id="34" xr3:uid="{D47410BE-0000-B648-8CE5-966EE8968909}" name="Term Accession Number [Growth day length] (#h; #tNFDI4PSO:0000041)" dataDxfId="63"/>
+    <tableColumn id="35" xr3:uid="{27034924-8879-044A-819B-7DC832A9D603}" name="Characteristics [light intensity exposure]" dataDxfId="62"/>
+    <tableColumn id="36" xr3:uid="{FD04748E-7F58-4A46-A167-E5EB1375A50B}" name="Term Source REF [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="61"/>
+    <tableColumn id="37" xr3:uid="{D76E6422-DF20-B94A-B5A6-4FD7F7923EBF}" name="Term Accession Number [light intensity exposure] (#h; #tPECO:0007224)" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{8E446DD1-817A-E84A-9536-47B88B72BFD8}" name="Unit [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{BCB29467-6D87-F141-98A0-60243765731F}" name="Term Source REF [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{D2565EAD-7C86-C343-800D-E37FD463093B}" name="Term Accession Number [microeinstein per square meter per second] (#h; #tUO:0000160; #u)" dataDxfId="57"/>
+    <tableColumn id="38" xr3:uid="{21746D48-E9A2-5B42-BC00-F5AFD4793AA7}" name="Characteristics [Humidity Day]" dataDxfId="56"/>
+    <tableColumn id="39" xr3:uid="{8B1D9CC4-6026-674C-9852-06A06365907B}" name="Term Source REF [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="55"/>
+    <tableColumn id="40" xr3:uid="{8CCA0026-8267-884E-8F9A-369ACCB825EA}" name="Term Accession Number [Humidity Day] (#h; #tNFDI4PSO:0000005)" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{9508FD23-5388-F64E-8286-05B533856CA2}" name="Unit [percent] (#h; #tUO:0000187; #u)" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{F796BC22-CBE1-6D41-824E-F655C3F9D5B6}" name="Term Source REF [percent] (#h; #tUO:0000187; #u)" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{32AC3DD8-82CD-4349-BFD5-0805A34144D8}" name="Term Accession Number [percent] (#h; #tUO:0000187; #u)" dataDxfId="51"/>
+    <tableColumn id="41" xr3:uid="{F4E42B79-6B62-E34C-95BE-8906E80BFBC8}" name="Characteristics [Humidity Night]" dataDxfId="50"/>
+    <tableColumn id="42" xr3:uid="{FE26FC08-E3D1-7547-8E20-1363EF47EE86}" name="Term Source REF [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="49"/>
+    <tableColumn id="43" xr3:uid="{C6D20AF0-60A8-874E-9614-2A2F483EB262}" name="Term Accession Number [Humidity Night] (#h; #tNFDI4PSO:0000006)" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{2866C2CF-81B3-694E-B2D9-F69059F54AA2}" name="Unit [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{A885FE47-7729-3B45-B73D-03FF1F114CD5}" name="Term Source REF [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="46"/>
+    <tableColumn id="65" xr3:uid="{A3AEBB25-5500-F249-866E-C98439259F17}" name="Term Accession Number [percent] (#2; #h; #tUO:0000187; #u)" dataDxfId="45"/>
+    <tableColumn id="44" xr3:uid="{F0571376-132B-F940-9609-6B59D9845B1B}" name="Characteristics [Temperature Day]" dataDxfId="44"/>
+    <tableColumn id="45" xr3:uid="{23233498-CFC4-9F46-94D5-39E7A6B5AFB5}" name="Term Source REF [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="43"/>
+    <tableColumn id="46" xr3:uid="{346D483D-D0DE-5140-A015-4AD0367BAD4D}" name="Term Accession Number [Temperature Day] (#h; #tNFDI4PSO:0000007)" dataDxfId="42"/>
+    <tableColumn id="66" xr3:uid="{57808D06-1B53-8D41-BEB4-1644A20F7763}" name="Unit [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="41"/>
+    <tableColumn id="67" xr3:uid="{A7356A0D-0EFD-3D44-9B2F-4566273E79E8}" name="Term Source REF [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="40"/>
+    <tableColumn id="68" xr3:uid="{AD21FFE5-445B-CB42-B199-FDD8BAD5635D}" name="Term Accession Number [degree Celsius] (#h; #tUO:0000027; #u)" dataDxfId="39"/>
+    <tableColumn id="47" xr3:uid="{2AB78931-B301-314A-9311-2CC2C21128D4}" name="Characteristics [Temperature Night]" dataDxfId="38"/>
+    <tableColumn id="48" xr3:uid="{3A76D4EC-C74F-0A4B-B340-8EF3D8B86ECB}" name="Term Source REF [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="37"/>
+    <tableColumn id="49" xr3:uid="{87034985-F2AC-A145-AA6A-9EDB63F919F9}" name="Term Accession Number [Temperature Night] (#h; #tNFDI4PSO:0000008)" dataDxfId="36"/>
+    <tableColumn id="69" xr3:uid="{6D54D968-A087-944D-BF64-3AC3D5B08F80}" name="Unit [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="35"/>
+    <tableColumn id="70" xr3:uid="{AE04B49D-BF47-F34B-B52A-752ECD10B8C7}" name="Term Source REF [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="34"/>
+    <tableColumn id="71" xr3:uid="{2A40040A-D450-EF49-AB82-0CEEB3D8A599}" name="Term Accession Number [degree Celsius] (#2; #h; #tUO:0000027; #u)" dataDxfId="33"/>
+    <tableColumn id="50" xr3:uid="{FC29A38A-1769-7349-A9E5-A5184C62F33A}" name="Characteristics [watering exposure]" dataDxfId="32"/>
+    <tableColumn id="51" xr3:uid="{808AA82E-ECE0-AD47-92D3-27D7C93007B7}" name="Term Source REF [watering exposure] (#h; #tPECO:0007383)" dataDxfId="31"/>
+    <tableColumn id="52" xr3:uid="{7C45B5F9-759B-E646-A40E-CB5363DF17A8}" name="Term Accession Number [watering exposure] (#h; #tPECO:0007383)" dataDxfId="30"/>
+    <tableColumn id="53" xr3:uid="{70DF5752-BECA-5342-9001-FA7F5271BC54}" name="Characteristics [plant nutrient exposure]" dataDxfId="29"/>
+    <tableColumn id="54" xr3:uid="{FD6AD7C0-D253-D04C-8B67-6124B6C5D685}" name="Term Source REF [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="28"/>
+    <tableColumn id="55" xr3:uid="{95BC5752-0FFE-8C4E-BFE3-4FED8B72A648}" name="Term Accession Number [plant nutrient exposure] (#h; #tPECO:0007241)" dataDxfId="27"/>
+    <tableColumn id="56" xr3:uid="{25540F7D-0E49-F74B-8EF6-6E2314EBD1B1}" name="Characteristics [abiotic plant exposure]" dataDxfId="26"/>
+    <tableColumn id="57" xr3:uid="{19EC9032-1152-F940-ADB1-397E054EED4E}" name="Term Source REF [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="25"/>
+    <tableColumn id="58" xr3:uid="{40EA0154-215C-C44C-A5D6-852F5DA9A25C}" name="Term Accession Number [abiotic plant exposure] (#h; #tPECO:0007191)" dataDxfId="24"/>
+    <tableColumn id="59" xr3:uid="{C208C009-B835-0041-9A5C-978B7EABB59C}" name="Characteristics [biotic plant exposure]" dataDxfId="23"/>
+    <tableColumn id="60" xr3:uid="{2836636A-01C7-9C4E-9B41-EE6FEE3D7B80}" name="Term Source REF [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="22"/>
+    <tableColumn id="61" xr3:uid="{E4A74FCF-2E01-354A-99CE-0602774F8706}" name="Term Accession Number [biotic plant exposure] (#h; #tPECO:0007357)" dataDxfId="21"/>
+    <tableColumn id="141" xr3:uid="{76BC0B00-263D-ED4F-A9A2-143148146694}" name="Characteristics [Geographic Area]" dataDxfId="20"/>
+    <tableColumn id="142" xr3:uid="{752BC19A-0C01-7F45-9374-DD0350C7B0D8}" name="Term Source REF [Geogaphic Area] (#h; #tNFDI4PSO:0000074)" dataDxfId="19"/>
+    <tableColumn id="143" xr3:uid="{5E52848A-36B7-4E4F-B77F-EFA6EC9BD00B}" name="Term Accession Number [Geogaphic Area] (#h; #tNFDI4PSO:0000074)" dataDxfId="18"/>
+    <tableColumn id="144" xr3:uid="{AD03CA40-5B78-8B41-9E4D-03DCE23E11E1}" name="Characteristics [Sample Collection Date]" dataDxfId="17"/>
+    <tableColumn id="145" xr3:uid="{6AC68041-2E25-9444-831A-05A07C9D4229}" name="Term Source REF [Sample Collection Date] (#h; #tNFDI4PSO:0000075)" dataDxfId="16"/>
+    <tableColumn id="146" xr3:uid="{7C695C41-0D47-6842-83E2-1435AFB1EF52}" name="Term Accession Number [Sample Collection Date] (#h; #tNFDI4PSO:0000075)" dataDxfId="15"/>
+    <tableColumn id="147" xr3:uid="{1F9082F2-7F61-614D-B072-F3DE7238714F}" name="Characteristics [Sample Collected By]" dataDxfId="14"/>
+    <tableColumn id="148" xr3:uid="{5F6F8541-8734-6242-A386-C4FCE4A4D156}" name="Term Source REF [Sample Collected By] (#h; #tNFDI4PSO:0000076)" dataDxfId="13"/>
+    <tableColumn id="149" xr3:uid="{36185F91-0DB8-EE4B-96A2-DF807E8CD12E}" name="Term Accession Number [Sample Collected By] (#h; #tNFDI4PSO:0000076)" dataDxfId="12"/>
+    <tableColumn id="62" xr3:uid="{12C4BED6-C71D-CC43-B976-AECFD0AF0BCF}" name="Characteristics [Time point]" dataDxfId="11"/>
+    <tableColumn id="63" xr3:uid="{D78E63DF-76E2-AE4F-A9AA-86CB096E0FD1}" name="Term Source REF [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="10"/>
+    <tableColumn id="64" xr3:uid="{4E3E838B-D518-9B41-95E4-AE65DE3C4242}" name="Term Accession Number [Time point] (#h; #tNFDI4PSO:0000034)" dataDxfId="9"/>
+    <tableColumn id="75" xr3:uid="{7FBEC602-6866-EE4C-901B-A620EADE0B55}" name="Parameter [Sample Collection Method]" dataDxfId="8"/>
+    <tableColumn id="76" xr3:uid="{082E37E1-9067-2344-AFED-4C0AB2E6608F}" name="Term Source REF [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="7"/>
+    <tableColumn id="77" xr3:uid="{23CA10DE-9FDA-A94D-84CF-7C5F7143EE90}" name="Term Accession Number [Sample Collection Method] (#h; #tNFDI4PSO:0000009)" dataDxfId="6"/>
+    <tableColumn id="78" xr3:uid="{DD36BBD7-7DDE-4B4B-B0E7-E088C0737C72}" name="Parameter [Metabolism quenching method]" dataDxfId="5"/>
+    <tableColumn id="79" xr3:uid="{E9A2A827-A7E3-E44F-8034-982633580E8D}" name="Term Source REF [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="4"/>
+    <tableColumn id="80" xr3:uid="{ECB588C7-B9C0-8741-BE8A-1CDECCED4ED4}" name="Term Accession Number [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)" dataDxfId="3"/>
+    <tableColumn id="81" xr3:uid="{125431A9-D115-4A4B-A917-1C0A2F361D5C}" name="Parameter [Sample storage]" dataDxfId="2"/>
+    <tableColumn id="82" xr3:uid="{A56F8F05-EAAB-FD40-8F2F-AD66235065C4}" name="Term Source REF [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="1"/>
+    <tableColumn id="83" xr3:uid="{AB05BD40-EE64-3547-80D7-EDD26BB0F77A}" name="Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3569,7 +3563,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="729" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -3594,7 +3588,7 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12326,11 +12320,11 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTable" Worksheet="1SPL01_plants">
-    <TableValidation DateTime="2021-04-29 14:10" SwateVersion="0.4.0" TableName="annotationTable" Userlist="" WorksheetName="1SPL01_plants">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Characteristics [Sample type]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Characteristics [Biological replicate]" Importance="3" Unit="None" ValidationFormat="None"/>
+    <TableValidation DateTime="2021-08-06 11:46" SwateVersion="0.4.7" TableName="annotationTable" Userlist="" WorksheetName="1SPL01_plants">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="Text"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="Text"/>
+      <ColumnValidation ColumnAdress="2" ColumnHeader="Characteristics [Sample type]" Importance="None" Unit="None" ValidationFormat="OntologyTerm Sample type"/>
+      <ColumnValidation ColumnAdress="5" ColumnHeader="Characteristics [Biological replicate]" Importance="3" Unit="None" ValidationFormat="Int"/>
       <ColumnValidation ColumnAdress="8" ColumnHeader="Characteristics [Organism]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Organism"/>
       <ColumnValidation ColumnAdress="11" ColumnHeader="Characteristics [Isolate]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="14" ColumnHeader="Characteristics [Cultivar]" Importance="None" Unit="None" ValidationFormat="None"/>
@@ -12359,7 +12353,7 @@
       <ColumnValidation ColumnAdress="98" ColumnHeader="Characteristics [plant nutrient exposure]" Importance="4" Unit="None" ValidationFormat="OntologyTerm plant nutrient exposure"/>
       <ColumnValidation ColumnAdress="101" ColumnHeader="Characteristics [abiotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="104" ColumnHeader="Characteristics [biotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="107" ColumnHeader="Characteristics [Geogaphic Area]" Importance="5" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="107" ColumnHeader="Characteristics [Geographic Area]" Importance="5" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="110" ColumnHeader="Characteristics [Sample Collection Date]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="113" ColumnHeader="Characteristics [Sample Collected By]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="116" ColumnHeader="Characteristics [Time point]" Importance="None" Unit="None" ValidationFormat="None"/>
@@ -12372,7 +12366,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32232BCB-4AA3-0D49-B180-4BB43230D66C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DD0D14F-19F8-4F51-9987-EE16A8E11E60}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\1SPL01_plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE26C3-1025-4123-95AA-C61FE06DDC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5366BDC0-0B06-4E14-84A7-782D57ACCC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\1SPL01_plants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5366BDC0-0B06-4E14-84A7-782D57ACCC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF223F0A-10B3-BD4B-83CB-4846F6B0EFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-25880" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -20,48 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={BB0DF719-8E80-440E-8D62-955A4A4EB390}</author>
-    <author>tc={6D385B3A-24BE-423D-9517-3E24E85C5B4F}</author>
-  </authors>
-  <commentList>
-    <comment ref="AV18" authorId="0" shapeId="0" xr:uid="{BB0DF719-8E80-440E-8D62-955A4A4EB390}">
-      <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    missing</t>
-      </text>
-    </comment>
-    <comment ref="AV19" authorId="1" shapeId="0" xr:uid="{6D385B3A-24BE-423D-9517-3E24E85C5B4F}">
-      <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    missing</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="435">
   <si>
     <t>Source Name</t>
   </si>
@@ -435,12 +399,6 @@
     <t>PECO_0007078: light quantity exposure</t>
   </si>
   <si>
-    <t>PECO_0007197: humidity exposure</t>
-  </si>
-  <si>
-    <t>ENVO_09200001: temperature of air</t>
-  </si>
-  <si>
     <t>EFO_0000724: time point</t>
   </si>
   <si>
@@ -450,15 +408,9 @@
     <t>Ontology</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unit: days? </t>
   </si>
   <si>
-    <t>Unit: hour</t>
-  </si>
-  <si>
     <t>Unit: µmol m-2 s-1</t>
   </si>
   <si>
@@ -495,12 +447,6 @@
     <t>http://purl.obolibrary.org/obo/PECO_0007224</t>
   </si>
   <si>
-    <t>http://www.ontobee.org/ontology/PECO?iri=http://purl.obolibrary.org/obo/PECO_0007197</t>
-  </si>
-  <si>
-    <t>http://www.ontobee.org/ontology/ENVO?iri=http://purl.obolibrary.org/obo/ENVO_09200001</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/PECO_0007383</t>
   </si>
   <si>
@@ -514,9 +460,6 @@
   </si>
   <si>
     <t>http://www.ebi.ac.uk/efo/EFO_0000724</t>
-  </si>
-  <si>
-    <t>Species (arabidopsis, zea mays, etc.) can directly be chosen from EFO_0000634</t>
   </si>
   <si>
     <t>EFO_0000635 applies also to more than plant kingdom</t>
@@ -846,9 +789,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C70713</t>
-  </si>
-  <si>
-    <t>Biospecimen Type</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C53471</t>
@@ -1357,9 +1297,6 @@
     <t>The ecotype of your sample</t>
   </si>
   <si>
-    <t>Placeholder until EFO is part of SwateDB</t>
-  </si>
-  <si>
     <t>The name of the input (the source) of this assay</t>
   </si>
   <si>
@@ -1435,41 +1372,6 @@
     <t>The number of hours per day the plant is exposed to growth conditions.</t>
   </si>
   <si>
-    <t>content_examples show strings, but Unit is set to hour. This will fail on a computational level</t>
-  </si>
-  <si>
-    <t>TAN is missing</t>
-  </si>
-  <si>
-    <t>User instruction missing</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">In general: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>What does "Ontology" mean? (in "Content type (Validation)") Does it mean "Ontology term"?</t>
-    </r>
-  </si>
-  <si>
-    <t>User instruction is missing</t>
-  </si>
-  <si>
     <t>The type of medium you expose(d) your plant with (e.g. 'Soil', 'Agar').</t>
   </si>
   <si>
@@ -1514,9 +1416,6 @@
     <t>The temperature during day cycle your sample is exposed to [in °C].</t>
   </si>
   <si>
-    <t>Content type "None"???</t>
-  </si>
-  <si>
     <t>The amount of water your sample is exposed to.</t>
   </si>
   <si>
@@ -1538,9 +1437,6 @@
     <t>Unit: Date</t>
   </si>
   <si>
-    <t>User instruction and TAN missing. Do we expect the value to be a person's name?</t>
-  </si>
-  <si>
     <t>The method used to collect your sample from its source (e.g. 'Scissors', 'Scalpel').</t>
   </si>
   <si>
@@ -1548,6 +1444,18 @@
   </si>
   <si>
     <t>User instruction missing. What do we expect here? The way how the sample is storaged? The conditions?</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>NCIT_C70713: Biospecimen Type</t>
+  </si>
+  <si>
+    <t>is_a http://www.ontobee.org/ontology/PECO?iri=http://purl.obolibrary.org/obo/PECO_0007197 PECO_0007197: humidity exposure</t>
+  </si>
+  <si>
+    <t>is_a: http://www.ontobee.org/ontology/ENVO?iri=http://purl.obolibrary.org/obo/ENVO_09200001 ENVO_09200001: temperature of air</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1660,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1937,9 +1845,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1952,21 +1857,27 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{13734DA0-054A-9F4C-97D4-CA0666BA285F}"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{EA6456B1-9345-674B-83C0-73CFBFB7004A}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="130">
     <dxf>
@@ -3256,7 +3167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3580,160 +3491,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3613D5-BDC4-E141-9C9A-87C99351C8EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3613D5-BDC4-E141-9C9A-87C99351C8EE}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="22" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="22" topLeftCell="DD23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="61" customWidth="1"/>
-    <col min="3" max="3" width="54.625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5" style="22" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="59.625" style="22" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="33.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="59" style="22" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="65.375" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="67.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.125" style="15" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="57.375" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="65.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="67.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="57.33203125" style="15" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="38" style="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="48.5" style="22" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="54.625" style="22" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="35.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="49.375" style="22" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="55.625" style="22" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="35.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="35.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="49.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="55.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="35.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="49.5" style="22" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="55.875" style="22" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="35.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="51.125" style="22" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="57.375" style="22" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="64.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="46.125" style="22" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="52.375" style="22" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="47.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="55.125" style="22" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="61.375" style="22" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="55.83203125" style="22" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="35.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="51.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="57.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="64.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="46.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="52.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="47.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="55.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="61.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="38" style="22" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="49.5" style="22" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="55.875" style="22" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="55.83203125" style="22" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="49" style="22" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="50.375" style="22" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="50.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="56.5" style="22" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="37.5" style="22" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="46" style="22" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="52.125" style="22" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="52.1640625" style="22" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="38" style="22" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="61.375" style="22" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="61.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="67.5" style="22" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="39.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="39.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="54" style="22" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="60.375" style="22" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="60.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="48" max="48" width="35.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="59.125" style="22" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="59.1640625" style="22" hidden="1" customWidth="1"/>
     <col min="50" max="50" width="65.5" style="22" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="38.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="51.875" style="22" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="38.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="51.83203125" style="22" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="58" style="22" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="31.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="50.375" style="22" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="31.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="50.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="56.5" style="22" hidden="1" customWidth="1"/>
     <col min="57" max="57" width="39.5" style="22" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="47.5" style="22" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="53.625" style="22" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="44.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="65.375" style="22" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="53.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="44.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="65.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="71.5" style="22" hidden="1" customWidth="1"/>
     <col min="63" max="63" width="43" style="22" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="58.625" style="22" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="64.875" style="22" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="58.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="64.83203125" style="22" hidden="1" customWidth="1"/>
     <col min="66" max="66" width="39.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="58.625" style="22" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="64.875" style="22" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="58.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="64.83203125" style="22" hidden="1" customWidth="1"/>
     <col min="69" max="69" width="39.5" style="22" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="58.5" style="22" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="64.625" style="22" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="64.6640625" style="22" hidden="1" customWidth="1"/>
     <col min="72" max="72" width="65.5" style="22" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="76.375" style="22" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="76.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="74" max="74" width="82.5" style="22" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="77.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="54.625" style="22" hidden="1" customWidth="1"/>
+    <col min="75" max="75" width="77.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="54.6640625" style="22" hidden="1" customWidth="1"/>
     <col min="77" max="77" width="61" style="22" hidden="1" customWidth="1"/>
     <col min="78" max="78" width="35.5" style="22" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="46.375" style="22" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="46.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="80" max="80" width="52.5" style="22" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="30.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="30.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="56" style="22" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="62.125" style="22" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="62.1640625" style="22" hidden="1" customWidth="1"/>
     <col min="84" max="84" width="38.5" style="22" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="49.375" style="22" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="55.625" style="22" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="79.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="57.875" style="22" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="49.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="55.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="79.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="57.83203125" style="22" hidden="1" customWidth="1"/>
     <col min="89" max="89" width="64" style="22" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="41.375" style="22" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="52.125" style="22" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="58.375" style="22" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="40.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="41.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="52.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="58.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="40.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="59" style="22" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="65.375" style="22" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="44.375" style="22" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="55.375" style="22" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="65.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="44.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="55.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="98" max="98" width="61.5" style="22" hidden="1" customWidth="1"/>
     <col min="99" max="99" width="39.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="54.375" style="22" hidden="1" customWidth="1"/>
-    <col min="101" max="101" width="60.625" style="22" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="54.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="101" max="101" width="60.6640625" style="22" hidden="1" customWidth="1"/>
     <col min="102" max="102" width="39.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="58.375" style="22" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="58.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="104" max="104" width="64.5" style="22" hidden="1" customWidth="1"/>
     <col min="105" max="105" width="39.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="57.375" style="22" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="57.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="107" max="107" width="63.5" style="22" hidden="1" customWidth="1"/>
-    <col min="108" max="108" width="85.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="56.375" style="22" hidden="1" customWidth="1"/>
+    <col min="108" max="108" width="85.5" style="22" customWidth="1"/>
+    <col min="109" max="109" width="56.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="62.5" style="22" hidden="1" customWidth="1"/>
     <col min="111" max="111" width="38" style="22" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="56.375" style="22" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="56.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="113" max="113" width="62.5" style="22" hidden="1" customWidth="1"/>
     <col min="114" max="114" width="38" style="22" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="62.625" style="22" hidden="1" customWidth="1"/>
-    <col min="116" max="116" width="68.875" style="22" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="62.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="68.83203125" style="22" hidden="1" customWidth="1"/>
     <col min="117" max="117" width="38" style="22" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="60.375" style="22" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="60.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="119" max="119" width="66.5" style="22" hidden="1" customWidth="1"/>
-    <col min="120" max="120" width="35.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="35.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="52" style="22" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="58.125" style="22" hidden="1" customWidth="1"/>
-    <col min="123" max="123" width="36.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="58.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="123" max="123" width="36.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="65" style="22" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="71.375" style="22" hidden="1" customWidth="1"/>
+    <col min="125" max="125" width="71.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="126" max="126" width="40.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="69.125" style="22" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="75.375" style="22" hidden="1" customWidth="1"/>
-    <col min="129" max="129" width="60.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="56.125" style="22" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="62.375" style="22" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="69.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="128" max="128" width="75.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="129" max="129" width="60.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="56.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="131" max="131" width="62.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="132" max="16384" width="30.5" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
@@ -3864,9 +3775,9 @@
       <c r="DZ1" s="20"/>
       <c r="EA1" s="21"/>
     </row>
-    <row r="2" spans="1:131" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3877,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>71</v>
@@ -3904,31 +3815,31 @@
         <v>4</v>
       </c>
       <c r="O2" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q2" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="P2" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>309</v>
-      </c>
       <c r="R2" s="23" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="X2" s="23" t="s">
         <v>5</v>
@@ -3940,13 +3851,13 @@
         <v>7</v>
       </c>
       <c r="AA2" s="23" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AB2" s="23" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AC2" s="23" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AD2" s="23" t="s">
         <v>8</v>
@@ -3958,22 +3869,22 @@
         <v>10</v>
       </c>
       <c r="AG2" s="23" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AH2" s="23" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AI2" s="23" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AJ2" s="23" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AK2" s="23" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AL2" s="23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AM2" s="23" t="s">
         <v>11</v>
@@ -3985,49 +3896,49 @@
         <v>13</v>
       </c>
       <c r="AP2" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="AQ2" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="AR2" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="AS2" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="AT2" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="AU2" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV2" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="AW2" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="AX2" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="AQ2" s="23" t="s">
+      <c r="AY2" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="AR2" s="23" t="s">
+      <c r="AZ2" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="AS2" s="23" t="s">
+      <c r="BA2" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="AT2" s="23" t="s">
+      <c r="BB2" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="AU2" s="23" t="s">
+      <c r="BC2" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="AV2" s="23" t="s">
+      <c r="BD2" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="AW2" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="AX2" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="AY2" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="AZ2" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="BA2" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="BB2" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="BC2" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="BD2" s="23" t="s">
-        <v>336</v>
       </c>
       <c r="BE2" s="23" t="s">
         <v>17</v>
@@ -4192,31 +4103,31 @@
         <v>52</v>
       </c>
       <c r="DG2" s="23" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="DH2" s="23" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="DI2" s="23" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="DJ2" s="23" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="DK2" s="23" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="DL2" s="23" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="DM2" s="23" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="DN2" s="23" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="DO2" s="23" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="DP2" s="23" t="s">
         <v>53</v>
@@ -4255,9 +4166,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:131" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4390,7 +4301,7 @@
       <c r="DZ3" s="23"/>
       <c r="EA3" s="23"/>
     </row>
-    <row r="4" spans="1:131" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -4523,16 +4434,16 @@
       <c r="DZ4" s="29"/>
       <c r="EA4" s="29"/>
     </row>
-    <row r="5" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
@@ -4682,16 +4593,16 @@
       <c r="DZ5" s="23"/>
       <c r="EA5" s="23"/>
     </row>
-    <row r="6" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
@@ -4835,16 +4746,16 @@
       <c r="DZ6" s="23"/>
       <c r="EA6" s="23"/>
     </row>
-    <row r="7" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
@@ -4982,16 +4893,16 @@
       <c r="DZ7" s="23"/>
       <c r="EA7" s="23"/>
     </row>
-    <row r="8" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
@@ -5121,16 +5032,16 @@
       <c r="DZ8" s="23"/>
       <c r="EA8" s="23"/>
     </row>
-    <row r="9" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -5258,16 +5169,16 @@
       <c r="DZ9" s="23"/>
       <c r="EA9" s="23"/>
     </row>
-    <row r="10" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
@@ -5395,7 +5306,7 @@
       <c r="DZ10" s="23"/>
       <c r="EA10" s="23"/>
     </row>
-    <row r="11" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -5528,45 +5439,45 @@
       <c r="DZ11" s="29"/>
       <c r="EA11" s="29"/>
     </row>
-    <row r="12" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="39" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
       <c r="L12" s="38" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
       <c r="U12" s="38" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="V12" s="38"/>
       <c r="W12" s="38"/>
@@ -5576,67 +5487,67 @@
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
       <c r="AA12" s="38" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AB12" s="38"/>
       <c r="AC12" s="38"/>
       <c r="AD12" s="38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AE12" s="38"/>
       <c r="AF12" s="38"/>
       <c r="AG12" s="38" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
       <c r="AJ12" s="38" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AN12" s="38"/>
       <c r="AO12" s="38"/>
       <c r="AP12" s="38" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ12" s="38"/>
       <c r="AR12" s="38"/>
       <c r="AS12" s="38" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AT12" s="38"/>
       <c r="AU12" s="38"/>
       <c r="AV12" s="38" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AW12" s="38"/>
       <c r="AX12" s="38"/>
       <c r="AY12" s="38" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AZ12" s="38"/>
       <c r="BA12" s="38"/>
       <c r="BB12" s="38" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="BC12" s="38"/>
       <c r="BD12" s="38"/>
       <c r="BE12" s="38" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="BF12" s="38"/>
       <c r="BG12" s="38"/>
       <c r="BH12" s="39" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="BI12" s="39"/>
       <c r="BJ12" s="39"/>
       <c r="BK12" s="39" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="BL12" s="39"/>
       <c r="BM12" s="38"/>
@@ -5646,7 +5557,7 @@
       <c r="BO12" s="38"/>
       <c r="BP12" s="38"/>
       <c r="BQ12" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="BR12" s="38"/>
       <c r="BS12" s="38"/>
@@ -5654,7 +5565,7 @@
       <c r="BU12" s="38"/>
       <c r="BV12" s="38"/>
       <c r="BW12" s="38" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="BX12" s="38"/>
       <c r="BY12" s="38"/>
@@ -5662,7 +5573,7 @@
       <c r="CA12" s="38"/>
       <c r="CB12" s="38"/>
       <c r="CC12" s="38" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="CD12" s="38"/>
       <c r="CE12" s="38"/>
@@ -5670,7 +5581,7 @@
       <c r="CG12" s="38"/>
       <c r="CH12" s="38"/>
       <c r="CI12" s="38" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="CJ12" s="38"/>
       <c r="CK12" s="38"/>
@@ -5678,7 +5589,7 @@
       <c r="CM12" s="38"/>
       <c r="CN12" s="38"/>
       <c r="CO12" s="38" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="CP12" s="38"/>
       <c r="CQ12" s="38"/>
@@ -5686,42 +5597,42 @@
       <c r="CS12" s="38"/>
       <c r="CT12" s="38"/>
       <c r="CU12" s="38" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="CV12" s="38"/>
       <c r="CW12" s="38"/>
       <c r="CX12" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="CY12" s="38"/>
       <c r="CZ12" s="38"/>
       <c r="DA12" s="38" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="DB12" s="38"/>
       <c r="DC12" s="38"/>
       <c r="DD12" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="DE12" s="38"/>
       <c r="DF12" s="38"/>
       <c r="DG12" s="38" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="DH12" s="38"/>
       <c r="DI12" s="38"/>
       <c r="DJ12" s="38" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="DK12" s="38"/>
       <c r="DL12" s="38"/>
       <c r="DM12" s="38" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="DN12" s="38"/>
       <c r="DO12" s="38"/>
       <c r="DP12" s="38" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="DQ12" s="38"/>
       <c r="DR12" s="38"/>
@@ -5741,25 +5652,25 @@
       <c r="DZ12" s="39"/>
       <c r="EA12" s="39"/>
     </row>
-    <row r="13" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="43" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
@@ -5769,17 +5680,17 @@
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
       <c r="R13" s="42" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
       <c r="U13" s="42" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="V13" s="42"/>
       <c r="W13" s="42"/>
@@ -5789,7 +5700,7 @@
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
       <c r="AA13" s="42" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AB13" s="42"/>
       <c r="AC13" s="42"/>
@@ -5798,10 +5709,10 @@
       </c>
       <c r="AE13" s="42"/>
       <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
       <c r="AK13" s="42"/>
       <c r="AL13" s="42"/>
       <c r="AM13" s="42" t="s">
@@ -5809,35 +5720,35 @@
       </c>
       <c r="AN13" s="42"/>
       <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="42"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="42"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="65"/>
       <c r="AZ13" s="42"/>
       <c r="BA13" s="42"/>
       <c r="BB13" s="42" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="BC13" s="42"/>
       <c r="BD13" s="42"/>
       <c r="BE13" s="42" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="BF13" s="42"/>
       <c r="BG13" s="42"/>
       <c r="BH13" s="42" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="BI13" s="43"/>
       <c r="BJ13" s="43"/>
       <c r="BK13" s="43" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="BL13" s="43"/>
       <c r="BM13" s="44"/>
@@ -5847,7 +5758,7 @@
       <c r="BO13" s="42"/>
       <c r="BP13" s="42"/>
       <c r="BQ13" s="42" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="BR13" s="42"/>
       <c r="BS13" s="42"/>
@@ -5855,7 +5766,7 @@
       <c r="BU13" s="42"/>
       <c r="BV13" s="42"/>
       <c r="BW13" s="44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="BX13" s="44"/>
       <c r="BY13" s="44"/>
@@ -5863,7 +5774,7 @@
       <c r="CA13" s="44"/>
       <c r="CB13" s="44"/>
       <c r="CC13" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="CD13" s="44"/>
       <c r="CE13" s="44"/>
@@ -5871,7 +5782,7 @@
       <c r="CG13" s="44"/>
       <c r="CH13" s="44"/>
       <c r="CI13" s="44" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="CJ13" s="44"/>
       <c r="CK13" s="44"/>
@@ -5879,7 +5790,7 @@
       <c r="CM13" s="44"/>
       <c r="CN13" s="44"/>
       <c r="CO13" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="CP13" s="42"/>
       <c r="CQ13" s="42"/>
@@ -5887,64 +5798,64 @@
       <c r="CS13" s="42"/>
       <c r="CT13" s="42"/>
       <c r="CU13" s="42" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="CV13" s="42"/>
       <c r="CW13" s="42"/>
       <c r="CX13" s="42" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="CY13" s="42"/>
       <c r="CZ13" s="42"/>
       <c r="DA13" s="42" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="DB13" s="42"/>
       <c r="DC13" s="42"/>
       <c r="DD13" s="42" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="DE13" s="42"/>
       <c r="DF13" s="42"/>
-      <c r="DG13" s="42"/>
-      <c r="DH13" s="42"/>
-      <c r="DI13" s="42"/>
-      <c r="DJ13" s="42"/>
-      <c r="DK13" s="42"/>
-      <c r="DL13" s="42"/>
-      <c r="DM13" s="42"/>
+      <c r="DG13" s="65"/>
+      <c r="DH13" s="65"/>
+      <c r="DI13" s="65"/>
+      <c r="DJ13" s="65"/>
+      <c r="DK13" s="65"/>
+      <c r="DL13" s="65"/>
+      <c r="DM13" s="65"/>
       <c r="DN13" s="42"/>
       <c r="DO13" s="42"/>
       <c r="DP13" s="42" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="DQ13" s="42"/>
       <c r="DR13" s="42"/>
       <c r="DS13" s="42" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="DT13" s="42"/>
       <c r="DU13" s="42"/>
       <c r="DV13" s="42" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="DW13" s="42"/>
       <c r="DX13" s="42"/>
       <c r="DY13" s="42" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="DZ13" s="43"/>
       <c r="EA13" s="43"/>
     </row>
-    <row r="14" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
@@ -5970,7 +5881,7 @@
       <c r="Y14" s="45"/>
       <c r="Z14" s="45"/>
       <c r="AA14" s="45" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AB14" s="45"/>
       <c r="AC14" s="45"/>
@@ -5999,17 +5910,17 @@
       <c r="AZ14" s="45"/>
       <c r="BA14" s="45"/>
       <c r="BB14" s="45" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="BC14" s="45"/>
       <c r="BD14" s="45"/>
       <c r="BE14" s="45" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="BF14" s="45"/>
       <c r="BG14" s="45"/>
       <c r="BH14" s="45" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="BI14" s="45"/>
       <c r="BJ14" s="45"/>
@@ -6020,7 +5931,7 @@
       <c r="BO14" s="45"/>
       <c r="BP14" s="45"/>
       <c r="BQ14" s="45" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="BR14" s="45"/>
       <c r="BS14" s="45"/>
@@ -6052,22 +5963,22 @@
       <c r="CS14" s="45"/>
       <c r="CT14" s="45"/>
       <c r="CU14" s="45" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="CV14" s="45"/>
       <c r="CW14" s="45"/>
       <c r="CX14" s="45" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="CY14" s="45"/>
       <c r="CZ14" s="45"/>
       <c r="DA14" s="45" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="DB14" s="45"/>
       <c r="DC14" s="45"/>
       <c r="DD14" s="45" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="DE14" s="45"/>
       <c r="DF14" s="45"/>
@@ -6093,15 +6004,15 @@
       <c r="DZ14" s="23"/>
       <c r="EA14" s="23"/>
     </row>
-    <row r="15" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
@@ -6112,7 +6023,7 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
@@ -6125,16 +6036,14 @@
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
-      <c r="X15" s="35" t="s">
-        <v>129</v>
-      </c>
+      <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
       <c r="Z15" s="35"/>
       <c r="AA15" s="35"/>
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
       <c r="AD15" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AE15" s="35"/>
       <c r="AF15" s="35"/>
@@ -6145,7 +6054,7 @@
       <c r="AK15" s="35"/>
       <c r="AL15" s="35"/>
       <c r="AM15" s="35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AN15" s="35"/>
       <c r="AO15" s="35"/>
@@ -6165,27 +6074,25 @@
       <c r="BC15" s="35"/>
       <c r="BD15" s="35"/>
       <c r="BE15" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BF15" s="35"/>
       <c r="BG15" s="35"/>
       <c r="BH15" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BI15" s="35"/>
       <c r="BJ15" s="35"/>
       <c r="BK15" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BL15" s="35"/>
       <c r="BM15" s="35"/>
-      <c r="BN15" s="35" t="s">
-        <v>131</v>
-      </c>
+      <c r="BN15" s="35"/>
       <c r="BO15" s="35"/>
       <c r="BP15" s="35"/>
       <c r="BQ15" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="BR15" s="35"/>
       <c r="BS15" s="35"/>
@@ -6193,7 +6100,7 @@
       <c r="BU15" s="35"/>
       <c r="BV15" s="35"/>
       <c r="BW15" s="35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="BX15" s="35"/>
       <c r="BY15" s="35"/>
@@ -6201,7 +6108,7 @@
       <c r="CA15" s="35"/>
       <c r="CB15" s="35"/>
       <c r="CC15" s="35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="CD15" s="35"/>
       <c r="CE15" s="35"/>
@@ -6209,7 +6116,7 @@
       <c r="CG15" s="35"/>
       <c r="CH15" s="35"/>
       <c r="CI15" s="35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="CJ15" s="35"/>
       <c r="CK15" s="35"/>
@@ -6222,31 +6129,25 @@
       <c r="CR15" s="35"/>
       <c r="CS15" s="35"/>
       <c r="CT15" s="35"/>
-      <c r="CU15" s="35" t="s">
-        <v>129</v>
-      </c>
+      <c r="CU15" s="35"/>
       <c r="CV15" s="35"/>
       <c r="CW15" s="35"/>
       <c r="CX15" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CY15" s="35"/>
       <c r="CZ15" s="35"/>
-      <c r="DA15" s="35" t="s">
-        <v>129</v>
-      </c>
+      <c r="DA15" s="35"/>
       <c r="DB15" s="35"/>
       <c r="DC15" s="35"/>
-      <c r="DD15" s="35" t="s">
-        <v>129</v>
-      </c>
+      <c r="DD15" s="35"/>
       <c r="DE15" s="35"/>
       <c r="DF15" s="35"/>
       <c r="DG15" s="35"/>
       <c r="DH15" s="35"/>
       <c r="DI15" s="35"/>
-      <c r="DJ15" s="66" t="s">
-        <v>442</v>
+      <c r="DJ15" s="65" t="s">
+        <v>427</v>
       </c>
       <c r="DK15" s="35"/>
       <c r="DL15" s="35"/>
@@ -6254,7 +6155,7 @@
       <c r="DN15" s="35"/>
       <c r="DO15" s="35"/>
       <c r="DP15" s="35" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="DQ15" s="35"/>
       <c r="DR15" s="35"/>
@@ -6268,209 +6169,209 @@
       <c r="DZ15" s="23"/>
       <c r="EA15" s="23"/>
     </row>
-    <row r="16" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>406</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>407</v>
+        <v>361</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>398</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="63" t="s">
-        <v>408</v>
+      <c r="I16" s="62" t="s">
+        <v>399</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="7" t="s">
-        <v>354</v>
+      <c r="L16" s="64" t="s">
+        <v>346</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="O16" s="63"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="64" t="s">
-        <v>409</v>
+      <c r="R16" s="63" t="s">
+        <v>400</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="64" t="s">
-        <v>403</v>
+      <c r="U16" s="63" t="s">
+        <v>395</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="65" t="s">
-        <v>402</v>
+      <c r="X16" s="64" t="s">
+        <v>394</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="67"/>
+      <c r="AA16" s="63"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="64" t="s">
-        <v>413</v>
+      <c r="AG16" s="63" t="s">
+        <v>404</v>
       </c>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
-      <c r="AM16" s="65" t="s">
-        <v>411</v>
+      <c r="AM16" s="64" t="s">
+        <v>402</v>
       </c>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-      <c r="AP16" s="65" t="s">
-        <v>414</v>
+      <c r="AP16" s="64" t="s">
+        <v>405</v>
       </c>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
-      <c r="AS16" s="65" t="s">
-        <v>412</v>
+      <c r="AS16" s="64" t="s">
+        <v>403</v>
       </c>
       <c r="AT16" s="35"/>
       <c r="AU16" s="35"/>
-      <c r="AV16" s="63" t="s">
-        <v>415</v>
+      <c r="AV16" s="62" t="s">
+        <v>406</v>
       </c>
       <c r="AW16" s="35"/>
       <c r="AX16" s="35"/>
-      <c r="AY16" s="66" t="s">
-        <v>416</v>
+      <c r="AY16" s="65" t="s">
+        <v>407</v>
       </c>
       <c r="AZ16" s="35"/>
       <c r="BA16" s="35"/>
-      <c r="BB16" s="63" t="s">
-        <v>417</v>
+      <c r="BB16" s="62" t="s">
+        <v>408</v>
       </c>
       <c r="BC16" s="35"/>
       <c r="BD16" s="35"/>
       <c r="BE16" s="62"/>
       <c r="BF16" s="35"/>
       <c r="BG16" s="35"/>
-      <c r="BH16" s="63" t="s">
-        <v>427</v>
+      <c r="BH16" s="62" t="s">
+        <v>413</v>
       </c>
       <c r="BI16" s="35"/>
       <c r="BJ16" s="35"/>
-      <c r="BK16" s="35"/>
+      <c r="BK16" s="65"/>
       <c r="BL16" s="35"/>
       <c r="BM16" s="35"/>
-      <c r="BN16" s="63" t="s">
-        <v>421</v>
+      <c r="BN16" s="62" t="s">
+        <v>412</v>
       </c>
       <c r="BO16" s="35"/>
       <c r="BP16" s="35"/>
-      <c r="BQ16" s="63" t="s">
-        <v>430</v>
+      <c r="BQ16" s="62" t="s">
+        <v>416</v>
       </c>
       <c r="BR16" s="35"/>
       <c r="BS16" s="35"/>
       <c r="BT16" s="35"/>
       <c r="BU16" s="35"/>
       <c r="BV16" s="35"/>
-      <c r="BW16" s="63" t="s">
-        <v>432</v>
+      <c r="BW16" s="62" t="s">
+        <v>418</v>
       </c>
       <c r="BX16" s="35"/>
       <c r="BY16" s="35"/>
       <c r="BZ16" s="35"/>
       <c r="CA16" s="35"/>
       <c r="CB16" s="35"/>
-      <c r="CC16" s="63" t="s">
-        <v>433</v>
+      <c r="CC16" s="62" t="s">
+        <v>419</v>
       </c>
       <c r="CD16" s="35"/>
       <c r="CE16" s="35"/>
       <c r="CF16" s="35"/>
       <c r="CG16" s="35"/>
       <c r="CH16" s="35"/>
-      <c r="CI16" s="63" t="s">
-        <v>434</v>
+      <c r="CI16" s="62" t="s">
+        <v>420</v>
       </c>
       <c r="CJ16" s="35"/>
       <c r="CK16" s="35"/>
       <c r="CL16" s="35"/>
       <c r="CM16" s="35"/>
       <c r="CN16" s="35"/>
-      <c r="CO16" s="63" t="s">
-        <v>431</v>
+      <c r="CO16" s="62" t="s">
+        <v>417</v>
       </c>
       <c r="CP16" s="35"/>
       <c r="CQ16" s="35"/>
       <c r="CR16" s="35"/>
       <c r="CS16" s="35"/>
       <c r="CT16" s="35"/>
-      <c r="CU16" s="63" t="s">
-        <v>436</v>
+      <c r="CU16" s="62" t="s">
+        <v>421</v>
       </c>
       <c r="CV16" s="35"/>
       <c r="CW16" s="35"/>
-      <c r="CX16" s="35"/>
-      <c r="CY16" s="35"/>
-      <c r="CZ16" s="35"/>
-      <c r="DA16" s="35"/>
-      <c r="DB16" s="35"/>
-      <c r="DC16" s="35"/>
-      <c r="DD16" s="35"/>
+      <c r="CX16" s="65"/>
+      <c r="CY16" s="65"/>
+      <c r="CZ16" s="65"/>
+      <c r="DA16" s="65"/>
+      <c r="DB16" s="65"/>
+      <c r="DC16" s="65"/>
+      <c r="DD16" s="65"/>
       <c r="DE16" s="35"/>
       <c r="DF16" s="35"/>
-      <c r="DG16" s="63" t="s">
-        <v>438</v>
+      <c r="DG16" s="62" t="s">
+        <v>423</v>
       </c>
       <c r="DH16" s="35"/>
       <c r="DI16" s="35"/>
-      <c r="DJ16" s="63" t="s">
-        <v>441</v>
+      <c r="DJ16" s="62" t="s">
+        <v>426</v>
       </c>
       <c r="DK16" s="35"/>
       <c r="DL16" s="35"/>
-      <c r="DM16" s="35"/>
-      <c r="DN16" s="35"/>
-      <c r="DO16" s="35"/>
-      <c r="DP16" s="35"/>
+      <c r="DM16" s="65"/>
+      <c r="DN16" s="65"/>
+      <c r="DO16" s="65"/>
+      <c r="DP16" s="65"/>
       <c r="DQ16" s="35"/>
       <c r="DR16" s="35"/>
-      <c r="DS16" s="63" t="s">
-        <v>444</v>
+      <c r="DS16" s="62" t="s">
+        <v>428</v>
       </c>
       <c r="DT16" s="35"/>
       <c r="DU16" s="35"/>
-      <c r="DV16" s="63" t="s">
-        <v>445</v>
+      <c r="DV16" s="62" t="s">
+        <v>429</v>
       </c>
       <c r="DW16" s="35"/>
       <c r="DX16" s="35"/>
-      <c r="DY16" s="35"/>
+      <c r="DY16" s="65"/>
       <c r="DZ16" s="23"/>
       <c r="EA16" s="23"/>
     </row>
-    <row r="17" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="35"/>
@@ -6481,9 +6382,7 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="35" t="s">
-        <v>151</v>
-      </c>
+      <c r="L17" s="35"/>
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
@@ -6498,13 +6397,13 @@
       <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
-      <c r="AA17" s="35" t="s">
-        <v>267</v>
+      <c r="AA17" s="65" t="s">
+        <v>415</v>
       </c>
       <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
       <c r="AD17" s="35" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AE17" s="35"/>
       <c r="AF17" s="35"/>
@@ -6515,7 +6414,7 @@
       <c r="AK17" s="35"/>
       <c r="AL17" s="35"/>
       <c r="AM17" s="35" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AN17" s="35"/>
       <c r="AO17" s="35"/>
@@ -6531,7 +6430,9 @@
       <c r="AY17" s="35"/>
       <c r="AZ17" s="35"/>
       <c r="BA17" s="35"/>
-      <c r="BB17" s="35"/>
+      <c r="BB17" s="66" t="s">
+        <v>414</v>
+      </c>
       <c r="BC17" s="35"/>
       <c r="BD17" s="35"/>
       <c r="BE17" s="35"/>
@@ -6553,7 +6454,7 @@
       <c r="BU17" s="35"/>
       <c r="BV17" s="35"/>
       <c r="BW17" s="35" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="BX17" s="35"/>
       <c r="BY17" s="35"/>
@@ -6567,7 +6468,7 @@
       <c r="CG17" s="35"/>
       <c r="CH17" s="35"/>
       <c r="CI17" s="35" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="CJ17" s="35"/>
       <c r="CK17" s="35"/>
@@ -6584,7 +6485,7 @@
       <c r="CV17" s="35"/>
       <c r="CW17" s="35"/>
       <c r="CX17" s="35" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="CY17" s="35"/>
       <c r="CZ17" s="35"/>
@@ -6592,7 +6493,7 @@
       <c r="DB17" s="35"/>
       <c r="DC17" s="35"/>
       <c r="DD17" s="35" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="DE17" s="35"/>
       <c r="DF17" s="35"/>
@@ -6614,28 +6515,30 @@
       <c r="DV17" s="35"/>
       <c r="DW17" s="35"/>
       <c r="DX17" s="35"/>
-      <c r="DY17" s="35"/>
+      <c r="DY17" s="62" t="s">
+        <v>430</v>
+      </c>
       <c r="DZ17" s="23"/>
       <c r="EA17" s="23"/>
     </row>
-    <row r="18" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35" t="s">
-        <v>260</v>
+        <v>432</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35" t="s">
@@ -6644,17 +6547,17 @@
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
       <c r="R18" s="35" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
@@ -6663,7 +6566,6 @@
       </c>
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
       <c r="AB18" s="35"/>
       <c r="AC18" s="35"/>
       <c r="AD18" s="35" t="s">
@@ -6672,12 +6574,12 @@
       <c r="AE18" s="35"/>
       <c r="AF18" s="35"/>
       <c r="AG18" s="35" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AH18" s="35"/>
       <c r="AI18" s="35"/>
       <c r="AJ18" s="35" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AK18" s="35"/>
       <c r="AL18" s="35"/>
@@ -6687,20 +6589,20 @@
       <c r="AN18" s="35"/>
       <c r="AO18" s="35"/>
       <c r="AP18" s="35" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AQ18" s="35"/>
       <c r="AR18" s="35"/>
       <c r="AS18" s="35" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AT18" s="35"/>
       <c r="AU18" s="35"/>
-      <c r="AV18" s="35"/>
+      <c r="AV18" s="65"/>
       <c r="AW18" s="35"/>
       <c r="AX18" s="35"/>
       <c r="AY18" s="35" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AZ18" s="35"/>
       <c r="BA18" s="35"/>
@@ -6729,23 +6631,19 @@
       <c r="BT18" s="35"/>
       <c r="BU18" s="35"/>
       <c r="BV18" s="35"/>
-      <c r="BW18" s="35" t="s">
-        <v>124</v>
-      </c>
+      <c r="BW18" s="35"/>
       <c r="BX18" s="35"/>
       <c r="BY18" s="35"/>
       <c r="BZ18" s="35"/>
       <c r="CA18" s="35"/>
       <c r="CB18" s="35"/>
-      <c r="CC18" s="35"/>
+      <c r="CC18" s="65"/>
       <c r="CD18" s="35"/>
       <c r="CE18" s="35"/>
       <c r="CF18" s="35"/>
       <c r="CG18" s="35"/>
       <c r="CH18" s="35"/>
-      <c r="CI18" s="35" t="s">
-        <v>125</v>
-      </c>
+      <c r="CI18" s="35"/>
       <c r="CJ18" s="35"/>
       <c r="CK18" s="35"/>
       <c r="CL18" s="35"/>
@@ -6770,22 +6668,22 @@
       <c r="DE18" s="35"/>
       <c r="DF18" s="35"/>
       <c r="DG18" s="35" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="DH18" s="35"/>
       <c r="DI18" s="35"/>
       <c r="DJ18" s="35" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="DK18" s="35"/>
       <c r="DL18" s="35"/>
       <c r="DM18" s="35" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="DN18" s="35"/>
       <c r="DO18" s="35"/>
       <c r="DP18" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="DQ18" s="35"/>
       <c r="DR18" s="35"/>
@@ -6799,48 +6697,48 @@
       <c r="DZ18" s="23"/>
       <c r="EA18" s="23"/>
     </row>
-    <row r="19" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="I19" s="69"/>
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
       <c r="L19" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M19" s="45"/>
       <c r="N19" s="45"/>
       <c r="O19" s="45" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="P19" s="45"/>
       <c r="Q19" s="45"/>
       <c r="R19" s="45" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="S19" s="45"/>
       <c r="T19" s="45"/>
       <c r="U19" s="45" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="V19" s="45"/>
       <c r="W19" s="45"/>
       <c r="X19" s="45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Y19" s="45"/>
       <c r="Z19" s="45"/>
@@ -6848,40 +6746,40 @@
       <c r="AB19" s="45"/>
       <c r="AC19" s="45"/>
       <c r="AD19" s="45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AE19" s="45"/>
       <c r="AF19" s="45"/>
       <c r="AG19" s="45" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AH19" s="45"/>
       <c r="AI19" s="45"/>
       <c r="AJ19" s="45" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AK19" s="45"/>
       <c r="AL19" s="45"/>
       <c r="AM19" s="45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AN19" s="45"/>
       <c r="AO19" s="45"/>
       <c r="AP19" s="45" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AQ19" s="45"/>
       <c r="AR19" s="45"/>
       <c r="AS19" s="45" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AT19" s="45"/>
       <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
+      <c r="AV19" s="69"/>
       <c r="AW19" s="45"/>
       <c r="AX19" s="45"/>
       <c r="AY19" s="45" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AZ19" s="45"/>
       <c r="BA19" s="45"/>
@@ -6895,12 +6793,12 @@
       <c r="BI19" s="45"/>
       <c r="BJ19" s="45"/>
       <c r="BK19" s="45" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="BL19" s="45"/>
       <c r="BM19" s="45"/>
       <c r="BN19" s="45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BO19" s="45"/>
       <c r="BP19" s="45"/>
@@ -6910,23 +6808,19 @@
       <c r="BT19" s="45"/>
       <c r="BU19" s="45"/>
       <c r="BV19" s="45"/>
-      <c r="BW19" s="45" t="s">
-        <v>144</v>
-      </c>
+      <c r="BW19" s="45"/>
       <c r="BX19" s="45"/>
       <c r="BY19" s="45"/>
       <c r="BZ19" s="45"/>
       <c r="CA19" s="45"/>
       <c r="CB19" s="45"/>
-      <c r="CC19" s="45"/>
+      <c r="CC19" s="69"/>
       <c r="CD19" s="45"/>
       <c r="CE19" s="45"/>
       <c r="CF19" s="45"/>
       <c r="CG19" s="45"/>
       <c r="CH19" s="45"/>
-      <c r="CI19" s="45" t="s">
-        <v>145</v>
-      </c>
+      <c r="CI19" s="45"/>
       <c r="CJ19" s="45"/>
       <c r="CK19" s="45"/>
       <c r="CL19" s="45"/>
@@ -6951,22 +6845,22 @@
       <c r="DE19" s="45"/>
       <c r="DF19" s="45"/>
       <c r="DG19" s="45" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="DH19" s="45"/>
       <c r="DI19" s="45"/>
       <c r="DJ19" s="45" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="DK19" s="45"/>
       <c r="DL19" s="45"/>
       <c r="DM19" s="45" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="DN19" s="45"/>
       <c r="DO19" s="45"/>
       <c r="DP19" s="45" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="DQ19" s="45"/>
       <c r="DR19" s="45"/>
@@ -6980,12 +6874,12 @@
       <c r="DZ19" s="23"/>
       <c r="EA19" s="23"/>
     </row>
-    <row r="20" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="35"/>
@@ -7117,12 +7011,12 @@
       <c r="DZ20" s="23"/>
       <c r="EA20" s="23"/>
     </row>
-    <row r="21" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="35"/>
@@ -7133,9 +7027,7 @@
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="68" t="s">
-        <v>425</v>
-      </c>
+      <c r="L21" s="35"/>
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
@@ -7144,80 +7036,54 @@
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
-      <c r="U21" s="63" t="s">
-        <v>404</v>
-      </c>
+      <c r="U21" s="35"/>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
-      <c r="X21" s="63" t="s">
-        <v>404</v>
-      </c>
+      <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
-      <c r="AA21" s="66" t="s">
-        <v>429</v>
+      <c r="AA21" s="35" t="s">
+        <v>259</v>
       </c>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
       <c r="AE21" s="35"/>
       <c r="AF21" s="35"/>
-      <c r="AG21" s="66" t="s">
-        <v>423</v>
-      </c>
+      <c r="AG21" s="65"/>
       <c r="AH21" s="35"/>
       <c r="AI21" s="35"/>
-      <c r="AJ21" s="66" t="s">
-        <v>423</v>
-      </c>
+      <c r="AJ21" s="65"/>
       <c r="AK21" s="35"/>
       <c r="AL21" s="35"/>
-      <c r="AM21" s="63" t="s">
-        <v>404</v>
-      </c>
+      <c r="AM21" s="62"/>
       <c r="AN21" s="35"/>
       <c r="AO21" s="35"/>
-      <c r="AP21" s="66" t="s">
-        <v>423</v>
-      </c>
+      <c r="AP21" s="65"/>
       <c r="AQ21" s="35"/>
       <c r="AR21" s="35"/>
-      <c r="AS21" s="66" t="s">
-        <v>423</v>
-      </c>
+      <c r="AS21" s="65"/>
       <c r="AT21" s="35"/>
       <c r="AU21" s="35"/>
-      <c r="AV21" s="66" t="s">
-        <v>423</v>
-      </c>
+      <c r="AV21" s="65"/>
       <c r="AW21" s="35"/>
       <c r="AX21" s="35"/>
-      <c r="AY21" s="66" t="s">
-        <v>423</v>
-      </c>
+      <c r="AY21" s="65"/>
       <c r="AZ21" s="35"/>
       <c r="BA21" s="35"/>
-      <c r="BB21" s="69" t="s">
-        <v>428</v>
-      </c>
+      <c r="BB21" s="35"/>
       <c r="BC21" s="35"/>
       <c r="BD21" s="35"/>
-      <c r="BE21" s="66" t="s">
-        <v>424</v>
-      </c>
+      <c r="BE21" s="35"/>
       <c r="BF21" s="35"/>
       <c r="BG21" s="35"/>
       <c r="BH21" s="35"/>
       <c r="BI21" s="35"/>
       <c r="BJ21" s="35"/>
-      <c r="BK21" s="66" t="s">
-        <v>426</v>
-      </c>
+      <c r="BK21" s="35"/>
       <c r="BL21" s="35"/>
       <c r="BM21" s="35"/>
-      <c r="BN21" s="63" t="s">
-        <v>422</v>
-      </c>
+      <c r="BN21" s="35"/>
       <c r="BO21" s="35"/>
       <c r="BP21" s="35"/>
       <c r="BQ21" s="35"/>
@@ -7226,7 +7092,9 @@
       <c r="BT21" s="35"/>
       <c r="BU21" s="35"/>
       <c r="BV21" s="35"/>
-      <c r="BW21" s="35"/>
+      <c r="BW21" s="65" t="s">
+        <v>433</v>
+      </c>
       <c r="BX21" s="35"/>
       <c r="BY21" s="35"/>
       <c r="BZ21" s="35"/>
@@ -7238,7 +7106,9 @@
       <c r="CF21" s="35"/>
       <c r="CG21" s="35"/>
       <c r="CH21" s="35"/>
-      <c r="CI21" s="35"/>
+      <c r="CI21" s="65" t="s">
+        <v>434</v>
+      </c>
       <c r="CJ21" s="35"/>
       <c r="CK21" s="35"/>
       <c r="CL21" s="35"/>
@@ -7250,44 +7120,28 @@
       <c r="CR21" s="35"/>
       <c r="CS21" s="35"/>
       <c r="CT21" s="35"/>
-      <c r="CU21" s="66" t="s">
-        <v>435</v>
-      </c>
+      <c r="CU21" s="35"/>
       <c r="CV21" s="35"/>
       <c r="CW21" s="35"/>
-      <c r="CX21" s="66" t="s">
-        <v>424</v>
-      </c>
+      <c r="CX21" s="35"/>
       <c r="CY21" s="35"/>
       <c r="CZ21" s="35"/>
-      <c r="DA21" s="66" t="s">
-        <v>424</v>
-      </c>
+      <c r="DA21" s="35"/>
       <c r="DB21" s="35"/>
       <c r="DC21" s="35"/>
-      <c r="DD21" s="66" t="s">
-        <v>424</v>
-      </c>
+      <c r="DD21" s="35"/>
       <c r="DE21" s="35"/>
       <c r="DF21" s="35"/>
-      <c r="DG21" s="66" t="s">
-        <v>423</v>
-      </c>
+      <c r="DG21" s="35"/>
       <c r="DH21" s="35"/>
       <c r="DI21" s="35"/>
-      <c r="DJ21" s="66" t="s">
-        <v>423</v>
-      </c>
+      <c r="DJ21" s="35"/>
       <c r="DK21" s="35"/>
       <c r="DL21" s="35"/>
-      <c r="DM21" s="63" t="s">
-        <v>443</v>
-      </c>
+      <c r="DM21" s="35"/>
       <c r="DN21" s="35"/>
       <c r="DO21" s="35"/>
-      <c r="DP21" s="66" t="s">
-        <v>424</v>
-      </c>
+      <c r="DP21" s="35"/>
       <c r="DQ21" s="35"/>
       <c r="DR21" s="35"/>
       <c r="DS21" s="35"/>
@@ -7296,13 +7150,11 @@
       <c r="DV21" s="35"/>
       <c r="DW21" s="35"/>
       <c r="DX21" s="35"/>
-      <c r="DY21" s="63" t="s">
-        <v>446</v>
-      </c>
+      <c r="DY21" s="35"/>
       <c r="DZ21" s="23"/>
       <c r="EA21" s="23"/>
     </row>
-    <row r="22" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -7435,7 +7287,7 @@
       <c r="DZ22" s="47"/>
       <c r="EA22" s="47"/>
     </row>
-    <row r="23" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -7568,139 +7420,139 @@
       <c r="DZ23" s="47"/>
       <c r="EA23" s="47"/>
     </row>
-    <row r="24" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
       <c r="AV24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
       <c r="AY24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AZ24" s="3"/>
       <c r="BA24" s="3"/>
       <c r="BB24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
       <c r="BE24" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="BF24" s="3"/>
       <c r="BG24" s="3"/>
       <c r="BH24" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="BI24" s="3"/>
       <c r="BJ24" s="3"/>
       <c r="BK24" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="BL24" s="3"/>
       <c r="BM24" s="3"/>
       <c r="BN24" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="BO24" s="3"/>
       <c r="BP24" s="3"/>
       <c r="BQ24" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="BR24" s="3"/>
       <c r="BS24" s="3"/>
       <c r="BT24" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="BU24" s="3"/>
       <c r="BV24" s="3"/>
       <c r="BW24" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="BX24" s="3"/>
       <c r="BY24" s="3"/>
@@ -7708,7 +7560,7 @@
       <c r="CA24" s="3"/>
       <c r="CB24" s="3"/>
       <c r="CC24" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="CD24" s="3"/>
       <c r="CE24" s="3"/>
@@ -7716,7 +7568,7 @@
       <c r="CG24" s="3"/>
       <c r="CH24" s="3"/>
       <c r="CI24" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
@@ -7724,7 +7576,7 @@
       <c r="CM24" s="3"/>
       <c r="CN24" s="3"/>
       <c r="CO24" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="CP24" s="3"/>
       <c r="CQ24" s="3"/>
@@ -7732,194 +7584,194 @@
       <c r="CS24" s="3"/>
       <c r="CT24" s="3"/>
       <c r="CU24" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="CV24" s="3"/>
       <c r="CW24" s="3"/>
       <c r="CX24" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="CY24" s="3"/>
       <c r="CZ24" s="3"/>
       <c r="DA24" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="DB24" s="3"/>
       <c r="DC24" s="3"/>
       <c r="DD24" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="DE24" s="3"/>
       <c r="DF24" s="3"/>
       <c r="DG24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="DH24" s="3"/>
       <c r="DI24" s="3"/>
       <c r="DJ24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="DK24" s="3"/>
       <c r="DL24" s="3"/>
       <c r="DM24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="DN24" s="3"/>
       <c r="DO24" s="3"/>
       <c r="DP24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="DQ24" s="3"/>
       <c r="DR24" s="3"/>
       <c r="DS24" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="DT24" s="3"/>
       <c r="DU24" s="3"/>
       <c r="DV24" s="4" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="DW24" s="3"/>
       <c r="DX24" s="3"/>
       <c r="DY24" s="4" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="DZ24" s="3"/>
       <c r="EA24" s="3"/>
     </row>
-    <row r="25" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
       <c r="AV25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AZ25" s="3"/>
       <c r="BA25" s="3"/>
       <c r="BB25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="BF25" s="3"/>
       <c r="BG25" s="3"/>
       <c r="BH25" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="BI25" s="3"/>
       <c r="BJ25" s="3"/>
       <c r="BK25" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="BL25" s="3"/>
       <c r="BM25" s="3"/>
       <c r="BN25" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="BO25" s="3"/>
       <c r="BP25" s="3"/>
       <c r="BQ25" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="BR25" s="3"/>
       <c r="BS25" s="3"/>
       <c r="BT25" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BU25" s="3"/>
       <c r="BV25" s="3"/>
       <c r="BW25" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="BX25" s="3"/>
       <c r="BY25" s="3"/>
@@ -7927,7 +7779,7 @@
       <c r="CA25" s="3"/>
       <c r="CB25" s="3"/>
       <c r="CC25" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="CD25" s="3"/>
       <c r="CE25" s="3"/>
@@ -7935,7 +7787,7 @@
       <c r="CG25" s="3"/>
       <c r="CH25" s="3"/>
       <c r="CI25" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
@@ -7943,7 +7795,7 @@
       <c r="CM25" s="3"/>
       <c r="CN25" s="3"/>
       <c r="CO25" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="CP25" s="3"/>
       <c r="CQ25" s="3"/>
@@ -7951,184 +7803,184 @@
       <c r="CS25" s="3"/>
       <c r="CT25" s="3"/>
       <c r="CU25" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="CV25" s="3"/>
       <c r="CW25" s="3"/>
       <c r="CX25" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="CY25" s="3"/>
       <c r="CZ25" s="3"/>
       <c r="DA25" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="DB25" s="3"/>
       <c r="DC25" s="3"/>
       <c r="DD25" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="DE25" s="3"/>
       <c r="DF25" s="3"/>
       <c r="DG25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="DH25" s="3"/>
       <c r="DI25" s="3"/>
       <c r="DJ25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="DK25" s="3"/>
       <c r="DL25" s="3"/>
       <c r="DM25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="DN25" s="3"/>
       <c r="DO25" s="3"/>
       <c r="DP25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="DQ25" s="3"/>
       <c r="DR25" s="3"/>
       <c r="DS25" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="DT25" s="3"/>
       <c r="DU25" s="3"/>
       <c r="DV25" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="DW25" s="3"/>
       <c r="DX25" s="3"/>
       <c r="DY25" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="DZ25" s="3"/>
       <c r="EA25" s="3"/>
     </row>
-    <row r="26" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
       <c r="AV26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
       <c r="AY26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AZ26" s="3"/>
       <c r="BA26" s="3"/>
       <c r="BB26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
       <c r="BE26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BF26" s="3"/>
       <c r="BG26" s="3"/>
       <c r="BH26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BI26" s="3"/>
       <c r="BJ26" s="3"/>
       <c r="BK26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BL26" s="3"/>
       <c r="BM26" s="3"/>
       <c r="BN26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BO26" s="3"/>
       <c r="BP26" s="3"/>
       <c r="BQ26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BR26" s="3"/>
       <c r="BS26" s="3"/>
@@ -8136,7 +7988,7 @@
       <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
       <c r="BW26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BX26" s="3"/>
       <c r="BY26" s="3"/>
@@ -8144,7 +7996,7 @@
       <c r="CA26" s="3"/>
       <c r="CB26" s="3"/>
       <c r="CC26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="CD26" s="3"/>
       <c r="CE26" s="3"/>
@@ -8152,7 +8004,7 @@
       <c r="CG26" s="3"/>
       <c r="CH26" s="3"/>
       <c r="CI26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
@@ -8160,7 +8012,7 @@
       <c r="CM26" s="3"/>
       <c r="CN26" s="3"/>
       <c r="CO26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="CP26" s="3"/>
       <c r="CQ26" s="3"/>
@@ -8168,184 +8020,184 @@
       <c r="CS26" s="3"/>
       <c r="CT26" s="3"/>
       <c r="CU26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="CV26" s="3"/>
       <c r="CW26" s="3"/>
       <c r="CX26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="CY26" s="3"/>
       <c r="CZ26" s="3"/>
       <c r="DA26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="DB26" s="3"/>
       <c r="DC26" s="3"/>
       <c r="DD26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="DE26" s="3"/>
       <c r="DF26" s="3"/>
       <c r="DG26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="DH26" s="3"/>
       <c r="DI26" s="3"/>
       <c r="DJ26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="DK26" s="3"/>
       <c r="DL26" s="3"/>
       <c r="DM26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="DN26" s="3"/>
       <c r="DO26" s="3"/>
       <c r="DP26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="DQ26" s="3"/>
       <c r="DR26" s="3"/>
       <c r="DS26" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="DT26" s="3"/>
       <c r="DU26" s="3"/>
       <c r="DV26" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="DW26" s="3"/>
       <c r="DX26" s="3"/>
       <c r="DY26" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="DZ26" s="3"/>
       <c r="EA26" s="3"/>
     </row>
-    <row r="27" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
       <c r="O27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="S27" s="52"/>
       <c r="T27" s="52"/>
       <c r="U27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="V27" s="52"/>
       <c r="W27" s="52"/>
       <c r="X27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
       <c r="AP27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
       <c r="AV27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
       <c r="AY27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AZ27" s="3"/>
       <c r="BA27" s="3"/>
       <c r="BB27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
       <c r="BE27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="BF27" s="3"/>
       <c r="BG27" s="3"/>
       <c r="BH27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="BI27" s="3"/>
       <c r="BJ27" s="3"/>
       <c r="BK27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="BL27" s="3"/>
       <c r="BM27" s="3"/>
       <c r="BN27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="BO27" s="3"/>
       <c r="BP27" s="3"/>
       <c r="BQ27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="BR27" s="3"/>
       <c r="BS27" s="3"/>
@@ -8353,7 +8205,7 @@
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
       <c r="BW27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="BX27" s="3"/>
       <c r="BY27" s="3"/>
@@ -8361,7 +8213,7 @@
       <c r="CA27" s="3"/>
       <c r="CB27" s="3"/>
       <c r="CC27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="CD27" s="3"/>
       <c r="CE27" s="3"/>
@@ -8369,7 +8221,7 @@
       <c r="CG27" s="3"/>
       <c r="CH27" s="3"/>
       <c r="CI27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
@@ -8377,7 +8229,7 @@
       <c r="CM27" s="3"/>
       <c r="CN27" s="3"/>
       <c r="CO27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="CP27" s="3"/>
       <c r="CQ27" s="3"/>
@@ -8385,80 +8237,80 @@
       <c r="CS27" s="3"/>
       <c r="CT27" s="3"/>
       <c r="CU27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="CV27" s="3"/>
       <c r="CW27" s="3"/>
       <c r="CX27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="CY27" s="3"/>
       <c r="CZ27" s="3"/>
       <c r="DA27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="DB27" s="3"/>
       <c r="DC27" s="3"/>
       <c r="DD27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="DE27" s="3"/>
       <c r="DF27" s="3"/>
       <c r="DG27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="DH27" s="3"/>
       <c r="DI27" s="3"/>
       <c r="DJ27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="DK27" s="3"/>
       <c r="DL27" s="3"/>
       <c r="DM27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="DN27" s="3"/>
       <c r="DO27" s="3"/>
       <c r="DP27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="DQ27" s="3"/>
       <c r="DR27" s="3"/>
       <c r="DS27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="DT27" s="3"/>
       <c r="DU27" s="3"/>
       <c r="DV27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="DW27" s="3"/>
       <c r="DX27" s="3"/>
       <c r="DY27" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="DZ27" s="3"/>
       <c r="EA27" s="3"/>
     </row>
-    <row r="28" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -8466,72 +8318,72 @@
       <c r="M28" s="52"/>
       <c r="N28" s="52"/>
       <c r="O28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P28" s="52"/>
       <c r="Q28" s="52"/>
       <c r="R28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="S28" s="52"/>
       <c r="T28" s="52"/>
       <c r="U28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="V28" s="52"/>
       <c r="W28" s="52"/>
       <c r="X28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
       <c r="AV28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AW28" s="3"/>
       <c r="AX28" s="3"/>
       <c r="AY28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AZ28" s="3"/>
       <c r="BA28" s="3"/>
       <c r="BB28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
@@ -8590,50 +8442,50 @@
       <c r="DE28" s="3"/>
       <c r="DF28" s="3"/>
       <c r="DG28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="DH28" s="3"/>
       <c r="DI28" s="3"/>
       <c r="DJ28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="DK28" s="3"/>
       <c r="DL28" s="3"/>
       <c r="DM28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="DN28" s="3"/>
       <c r="DO28" s="3"/>
       <c r="DP28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="DQ28" s="3"/>
       <c r="DR28" s="3"/>
       <c r="DS28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="DT28" s="3"/>
       <c r="DU28" s="3"/>
       <c r="DV28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="DW28" s="3"/>
       <c r="DX28" s="3"/>
       <c r="DY28" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="DZ28" s="3"/>
       <c r="EA28" s="3"/>
     </row>
-    <row r="29" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -8658,8 +8510,8 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="64" t="s">
-        <v>420</v>
+      <c r="AA29" s="63" t="s">
+        <v>411</v>
       </c>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
@@ -8766,7 +8618,7 @@
       <c r="DZ29" s="3"/>
       <c r="EA29" s="3"/>
     </row>
-    <row r="30" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8899,841 +8751,841 @@
       <c r="DZ30" s="56"/>
       <c r="EA30" s="56"/>
     </row>
-    <row r="31" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
-      <c r="AR31" s="3"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
-      <c r="AU31" s="3"/>
-      <c r="AV31" s="3"/>
-      <c r="AW31" s="3"/>
-      <c r="AX31" s="3"/>
-      <c r="AY31" s="3"/>
-      <c r="AZ31" s="3"/>
-      <c r="BA31" s="3"/>
-      <c r="BB31" s="3"/>
-      <c r="BC31" s="3"/>
-      <c r="BD31" s="3"/>
-      <c r="BE31" s="3"/>
-      <c r="BF31" s="3"/>
-      <c r="BG31" s="3"/>
-      <c r="BH31" s="3"/>
-      <c r="BI31" s="3"/>
-      <c r="BJ31" s="3"/>
-      <c r="BK31" s="3"/>
-      <c r="BL31" s="3"/>
-      <c r="BM31" s="3"/>
-      <c r="BN31" s="3"/>
-      <c r="BO31" s="3"/>
-      <c r="BP31" s="3"/>
-      <c r="BQ31" s="3"/>
-      <c r="BR31" s="3"/>
-      <c r="BS31" s="3"/>
-      <c r="BT31" s="3"/>
-      <c r="BU31" s="3"/>
-      <c r="BV31" s="3"/>
-      <c r="BW31" s="3"/>
-      <c r="BX31" s="3"/>
-      <c r="BY31" s="3"/>
-      <c r="BZ31" s="3"/>
-      <c r="CA31" s="3"/>
-      <c r="CB31" s="3"/>
-      <c r="CC31" s="3"/>
-      <c r="CD31" s="3"/>
-      <c r="CE31" s="3"/>
-      <c r="CF31" s="3"/>
-      <c r="CG31" s="3"/>
-      <c r="CH31" s="3"/>
-      <c r="CI31" s="3"/>
-      <c r="CJ31" s="3"/>
-      <c r="CK31" s="3"/>
-      <c r="CL31" s="3"/>
-      <c r="CM31" s="3"/>
-      <c r="CN31" s="3"/>
-      <c r="CO31" s="3"/>
-      <c r="CP31" s="3"/>
-      <c r="CQ31" s="3"/>
-      <c r="CR31" s="3"/>
-      <c r="CS31" s="3"/>
-      <c r="CT31" s="3"/>
-      <c r="CU31" s="3"/>
-      <c r="CV31" s="3"/>
-      <c r="CW31" s="3"/>
-      <c r="CX31" s="3"/>
-      <c r="CY31" s="3"/>
-      <c r="CZ31" s="3"/>
-      <c r="DA31" s="3"/>
-      <c r="DB31" s="3"/>
-      <c r="DC31" s="3"/>
-      <c r="DD31" s="3"/>
-      <c r="DE31" s="3"/>
-      <c r="DF31" s="3"/>
-      <c r="DG31" s="3"/>
-      <c r="DH31" s="3"/>
-      <c r="DI31" s="3"/>
-      <c r="DJ31" s="3"/>
-      <c r="DK31" s="3"/>
-      <c r="DL31" s="3"/>
-      <c r="DM31" s="3"/>
-      <c r="DN31" s="3"/>
-      <c r="DO31" s="3"/>
-      <c r="DP31" s="3"/>
-      <c r="DQ31" s="3"/>
-      <c r="DR31" s="3"/>
-      <c r="DS31" s="3"/>
-      <c r="DT31" s="3"/>
-      <c r="DU31" s="3"/>
-      <c r="DV31" s="3"/>
-      <c r="DW31" s="3"/>
-      <c r="DX31" s="3"/>
-      <c r="DY31" s="3"/>
+        <v>369</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="63"/>
+      <c r="AV31" s="63"/>
+      <c r="AW31" s="63"/>
+      <c r="AX31" s="63"/>
+      <c r="AY31" s="63"/>
+      <c r="AZ31" s="63"/>
+      <c r="BA31" s="63"/>
+      <c r="BB31" s="63"/>
+      <c r="BC31" s="63"/>
+      <c r="BD31" s="63"/>
+      <c r="BE31" s="63"/>
+      <c r="BF31" s="63"/>
+      <c r="BG31" s="63"/>
+      <c r="BH31" s="63"/>
+      <c r="BI31" s="63"/>
+      <c r="BJ31" s="63"/>
+      <c r="BK31" s="63"/>
+      <c r="BL31" s="63"/>
+      <c r="BM31" s="63"/>
+      <c r="BN31" s="63"/>
+      <c r="BO31" s="63"/>
+      <c r="BP31" s="63"/>
+      <c r="BQ31" s="63"/>
+      <c r="BR31" s="63"/>
+      <c r="BS31" s="63"/>
+      <c r="BT31" s="63"/>
+      <c r="BU31" s="63"/>
+      <c r="BV31" s="63"/>
+      <c r="BW31" s="63"/>
+      <c r="BX31" s="63"/>
+      <c r="BY31" s="63"/>
+      <c r="BZ31" s="63"/>
+      <c r="CA31" s="63"/>
+      <c r="CB31" s="63"/>
+      <c r="CC31" s="63"/>
+      <c r="CD31" s="63"/>
+      <c r="CE31" s="63"/>
+      <c r="CF31" s="63"/>
+      <c r="CG31" s="63"/>
+      <c r="CH31" s="63"/>
+      <c r="CI31" s="63"/>
+      <c r="CJ31" s="63"/>
+      <c r="CK31" s="63"/>
+      <c r="CL31" s="63"/>
+      <c r="CM31" s="63"/>
+      <c r="CN31" s="63"/>
+      <c r="CO31" s="63"/>
+      <c r="CP31" s="63"/>
+      <c r="CQ31" s="63"/>
+      <c r="CR31" s="63"/>
+      <c r="CS31" s="63"/>
+      <c r="CT31" s="63"/>
+      <c r="CU31" s="63"/>
+      <c r="CV31" s="63"/>
+      <c r="CW31" s="63"/>
+      <c r="CX31" s="63"/>
+      <c r="CY31" s="63"/>
+      <c r="CZ31" s="63"/>
+      <c r="DA31" s="63"/>
+      <c r="DB31" s="63"/>
+      <c r="DC31" s="63"/>
+      <c r="DD31" s="63"/>
+      <c r="DE31" s="63"/>
+      <c r="DF31" s="63"/>
+      <c r="DG31" s="63"/>
+      <c r="DH31" s="63"/>
+      <c r="DI31" s="63"/>
+      <c r="DJ31" s="63"/>
+      <c r="DK31" s="63"/>
+      <c r="DL31" s="63"/>
+      <c r="DM31" s="63"/>
+      <c r="DN31" s="63"/>
+      <c r="DO31" s="63"/>
+      <c r="DP31" s="63"/>
+      <c r="DQ31" s="63"/>
+      <c r="DR31" s="63"/>
+      <c r="DS31" s="63"/>
+      <c r="DT31" s="63"/>
+      <c r="DU31" s="63"/>
+      <c r="DV31" s="63"/>
+      <c r="DW31" s="63"/>
+      <c r="DX31" s="63"/>
+      <c r="DY31" s="63"/>
       <c r="DZ31" s="3"/>
       <c r="EA31" s="3"/>
     </row>
-    <row r="32" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="3"/>
-      <c r="AP32" s="3"/>
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="3"/>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
-      <c r="AU32" s="3"/>
-      <c r="AV32" s="3"/>
-      <c r="AW32" s="3"/>
-      <c r="AX32" s="3"/>
-      <c r="AY32" s="3"/>
-      <c r="AZ32" s="3"/>
-      <c r="BA32" s="3"/>
-      <c r="BB32" s="3"/>
-      <c r="BC32" s="3"/>
-      <c r="BD32" s="3"/>
-      <c r="BE32" s="3"/>
-      <c r="BF32" s="3"/>
-      <c r="BG32" s="3"/>
-      <c r="BH32" s="3"/>
-      <c r="BI32" s="3"/>
-      <c r="BJ32" s="3"/>
-      <c r="BK32" s="3"/>
-      <c r="BL32" s="3"/>
-      <c r="BM32" s="3"/>
-      <c r="BN32" s="3"/>
-      <c r="BO32" s="3"/>
-      <c r="BP32" s="3"/>
-      <c r="BQ32" s="3"/>
-      <c r="BR32" s="3"/>
-      <c r="BS32" s="3"/>
-      <c r="BT32" s="3"/>
-      <c r="BU32" s="3"/>
-      <c r="BV32" s="3"/>
-      <c r="BW32" s="3"/>
-      <c r="BX32" s="3"/>
-      <c r="BY32" s="3"/>
-      <c r="BZ32" s="3"/>
-      <c r="CA32" s="3"/>
-      <c r="CB32" s="3"/>
-      <c r="CC32" s="3"/>
-      <c r="CD32" s="3"/>
-      <c r="CE32" s="3"/>
-      <c r="CF32" s="3"/>
-      <c r="CG32" s="3"/>
-      <c r="CH32" s="3"/>
-      <c r="CI32" s="3"/>
-      <c r="CJ32" s="3"/>
-      <c r="CK32" s="3"/>
-      <c r="CL32" s="3"/>
-      <c r="CM32" s="3"/>
-      <c r="CN32" s="3"/>
-      <c r="CO32" s="3"/>
-      <c r="CP32" s="3"/>
-      <c r="CQ32" s="3"/>
-      <c r="CR32" s="3"/>
-      <c r="CS32" s="3"/>
-      <c r="CT32" s="3"/>
-      <c r="CU32" s="3"/>
-      <c r="CV32" s="3"/>
-      <c r="CW32" s="3"/>
-      <c r="CX32" s="3"/>
-      <c r="CY32" s="3"/>
-      <c r="CZ32" s="3"/>
-      <c r="DA32" s="3"/>
-      <c r="DB32" s="3"/>
-      <c r="DC32" s="3"/>
-      <c r="DD32" s="3"/>
-      <c r="DE32" s="3"/>
-      <c r="DF32" s="3"/>
-      <c r="DG32" s="3"/>
-      <c r="DH32" s="3"/>
-      <c r="DI32" s="3"/>
-      <c r="DJ32" s="3"/>
-      <c r="DK32" s="3"/>
-      <c r="DL32" s="3"/>
-      <c r="DM32" s="3"/>
-      <c r="DN32" s="3"/>
-      <c r="DO32" s="3"/>
-      <c r="DP32" s="3"/>
-      <c r="DQ32" s="3"/>
-      <c r="DR32" s="3"/>
-      <c r="DS32" s="3"/>
-      <c r="DT32" s="3"/>
-      <c r="DU32" s="3"/>
-      <c r="DV32" s="3"/>
-      <c r="DW32" s="3"/>
-      <c r="DX32" s="3"/>
-      <c r="DY32" s="3"/>
+        <v>370</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="63"/>
+      <c r="AN32" s="63"/>
+      <c r="AO32" s="63"/>
+      <c r="AP32" s="63"/>
+      <c r="AQ32" s="63"/>
+      <c r="AR32" s="63"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="63"/>
+      <c r="AU32" s="63"/>
+      <c r="AV32" s="63"/>
+      <c r="AW32" s="63"/>
+      <c r="AX32" s="63"/>
+      <c r="AY32" s="63"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="63"/>
+      <c r="BB32" s="63"/>
+      <c r="BC32" s="63"/>
+      <c r="BD32" s="63"/>
+      <c r="BE32" s="63"/>
+      <c r="BF32" s="63"/>
+      <c r="BG32" s="63"/>
+      <c r="BH32" s="63"/>
+      <c r="BI32" s="63"/>
+      <c r="BJ32" s="63"/>
+      <c r="BK32" s="63"/>
+      <c r="BL32" s="63"/>
+      <c r="BM32" s="63"/>
+      <c r="BN32" s="63"/>
+      <c r="BO32" s="63"/>
+      <c r="BP32" s="63"/>
+      <c r="BQ32" s="63"/>
+      <c r="BR32" s="63"/>
+      <c r="BS32" s="63"/>
+      <c r="BT32" s="63"/>
+      <c r="BU32" s="63"/>
+      <c r="BV32" s="63"/>
+      <c r="BW32" s="63"/>
+      <c r="BX32" s="63"/>
+      <c r="BY32" s="63"/>
+      <c r="BZ32" s="63"/>
+      <c r="CA32" s="63"/>
+      <c r="CB32" s="63"/>
+      <c r="CC32" s="63"/>
+      <c r="CD32" s="63"/>
+      <c r="CE32" s="63"/>
+      <c r="CF32" s="63"/>
+      <c r="CG32" s="63"/>
+      <c r="CH32" s="63"/>
+      <c r="CI32" s="63"/>
+      <c r="CJ32" s="63"/>
+      <c r="CK32" s="63"/>
+      <c r="CL32" s="63"/>
+      <c r="CM32" s="63"/>
+      <c r="CN32" s="63"/>
+      <c r="CO32" s="63"/>
+      <c r="CP32" s="63"/>
+      <c r="CQ32" s="63"/>
+      <c r="CR32" s="63"/>
+      <c r="CS32" s="63"/>
+      <c r="CT32" s="63"/>
+      <c r="CU32" s="63"/>
+      <c r="CV32" s="63"/>
+      <c r="CW32" s="63"/>
+      <c r="CX32" s="63"/>
+      <c r="CY32" s="63"/>
+      <c r="CZ32" s="63"/>
+      <c r="DA32" s="63"/>
+      <c r="DB32" s="63"/>
+      <c r="DC32" s="63"/>
+      <c r="DD32" s="63"/>
+      <c r="DE32" s="63"/>
+      <c r="DF32" s="63"/>
+      <c r="DG32" s="63"/>
+      <c r="DH32" s="63"/>
+      <c r="DI32" s="63"/>
+      <c r="DJ32" s="63"/>
+      <c r="DK32" s="63"/>
+      <c r="DL32" s="63"/>
+      <c r="DM32" s="63"/>
+      <c r="DN32" s="63"/>
+      <c r="DO32" s="63"/>
+      <c r="DP32" s="63"/>
+      <c r="DQ32" s="63"/>
+      <c r="DR32" s="63"/>
+      <c r="DS32" s="63"/>
+      <c r="DT32" s="63"/>
+      <c r="DU32" s="63"/>
+      <c r="DV32" s="63"/>
+      <c r="DW32" s="63"/>
+      <c r="DX32" s="63"/>
+      <c r="DY32" s="63"/>
       <c r="DZ32" s="3"/>
       <c r="EA32" s="3"/>
     </row>
-    <row r="33" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
-      <c r="BH33" s="3"/>
-      <c r="BI33" s="3"/>
-      <c r="BJ33" s="3"/>
-      <c r="BK33" s="3"/>
-      <c r="BL33" s="3"/>
-      <c r="BM33" s="3"/>
-      <c r="BN33" s="3"/>
-      <c r="BO33" s="3"/>
-      <c r="BP33" s="3"/>
-      <c r="BQ33" s="3"/>
-      <c r="BR33" s="3"/>
-      <c r="BS33" s="3"/>
-      <c r="BT33" s="3"/>
-      <c r="BU33" s="3"/>
-      <c r="BV33" s="3"/>
-      <c r="BW33" s="3"/>
-      <c r="BX33" s="3"/>
-      <c r="BY33" s="3"/>
-      <c r="BZ33" s="3"/>
-      <c r="CA33" s="3"/>
-      <c r="CB33" s="3"/>
-      <c r="CC33" s="3"/>
-      <c r="CD33" s="3"/>
-      <c r="CE33" s="3"/>
-      <c r="CF33" s="3"/>
-      <c r="CG33" s="3"/>
-      <c r="CH33" s="3"/>
-      <c r="CI33" s="3"/>
-      <c r="CJ33" s="3"/>
-      <c r="CK33" s="3"/>
-      <c r="CL33" s="3"/>
-      <c r="CM33" s="3"/>
-      <c r="CN33" s="3"/>
-      <c r="CO33" s="3"/>
-      <c r="CP33" s="3"/>
-      <c r="CQ33" s="3"/>
-      <c r="CR33" s="3"/>
-      <c r="CS33" s="3"/>
-      <c r="CT33" s="3"/>
-      <c r="CU33" s="3"/>
-      <c r="CV33" s="3"/>
-      <c r="CW33" s="3"/>
-      <c r="CX33" s="3"/>
-      <c r="CY33" s="3"/>
-      <c r="CZ33" s="3"/>
-      <c r="DA33" s="3"/>
-      <c r="DB33" s="3"/>
-      <c r="DC33" s="3"/>
-      <c r="DD33" s="3"/>
-      <c r="DE33" s="3"/>
-      <c r="DF33" s="3"/>
-      <c r="DG33" s="3"/>
-      <c r="DH33" s="3"/>
-      <c r="DI33" s="3"/>
-      <c r="DJ33" s="3"/>
-      <c r="DK33" s="3"/>
-      <c r="DL33" s="3"/>
-      <c r="DM33" s="3"/>
-      <c r="DN33" s="3"/>
-      <c r="DO33" s="3"/>
-      <c r="DP33" s="3"/>
-      <c r="DQ33" s="3"/>
-      <c r="DR33" s="3"/>
-      <c r="DS33" s="3"/>
-      <c r="DT33" s="3"/>
-      <c r="DU33" s="3"/>
-      <c r="DV33" s="3"/>
-      <c r="DW33" s="3"/>
-      <c r="DX33" s="3"/>
-      <c r="DY33" s="3"/>
+        <v>392</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="63"/>
+      <c r="AO33" s="63"/>
+      <c r="AP33" s="63"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="63"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="63"/>
+      <c r="AU33" s="63"/>
+      <c r="AV33" s="63"/>
+      <c r="AW33" s="63"/>
+      <c r="AX33" s="63"/>
+      <c r="AY33" s="63"/>
+      <c r="AZ33" s="63"/>
+      <c r="BA33" s="63"/>
+      <c r="BB33" s="63"/>
+      <c r="BC33" s="63"/>
+      <c r="BD33" s="63"/>
+      <c r="BE33" s="63"/>
+      <c r="BF33" s="63"/>
+      <c r="BG33" s="63"/>
+      <c r="BH33" s="63"/>
+      <c r="BI33" s="63"/>
+      <c r="BJ33" s="63"/>
+      <c r="BK33" s="63"/>
+      <c r="BL33" s="63"/>
+      <c r="BM33" s="63"/>
+      <c r="BN33" s="63"/>
+      <c r="BO33" s="63"/>
+      <c r="BP33" s="63"/>
+      <c r="BQ33" s="63"/>
+      <c r="BR33" s="63"/>
+      <c r="BS33" s="63"/>
+      <c r="BT33" s="63"/>
+      <c r="BU33" s="63"/>
+      <c r="BV33" s="63"/>
+      <c r="BW33" s="63"/>
+      <c r="BX33" s="63"/>
+      <c r="BY33" s="63"/>
+      <c r="BZ33" s="63"/>
+      <c r="CA33" s="63"/>
+      <c r="CB33" s="63"/>
+      <c r="CC33" s="63"/>
+      <c r="CD33" s="63"/>
+      <c r="CE33" s="63"/>
+      <c r="CF33" s="63"/>
+      <c r="CG33" s="63"/>
+      <c r="CH33" s="63"/>
+      <c r="CI33" s="63"/>
+      <c r="CJ33" s="63"/>
+      <c r="CK33" s="63"/>
+      <c r="CL33" s="63"/>
+      <c r="CM33" s="63"/>
+      <c r="CN33" s="63"/>
+      <c r="CO33" s="63"/>
+      <c r="CP33" s="63"/>
+      <c r="CQ33" s="63"/>
+      <c r="CR33" s="63"/>
+      <c r="CS33" s="63"/>
+      <c r="CT33" s="63"/>
+      <c r="CU33" s="63"/>
+      <c r="CV33" s="63"/>
+      <c r="CW33" s="63"/>
+      <c r="CX33" s="63"/>
+      <c r="CY33" s="63"/>
+      <c r="CZ33" s="63"/>
+      <c r="DA33" s="63"/>
+      <c r="DB33" s="63"/>
+      <c r="DC33" s="63"/>
+      <c r="DD33" s="63"/>
+      <c r="DE33" s="63"/>
+      <c r="DF33" s="63"/>
+      <c r="DG33" s="63"/>
+      <c r="DH33" s="63"/>
+      <c r="DI33" s="63"/>
+      <c r="DJ33" s="63"/>
+      <c r="DK33" s="63"/>
+      <c r="DL33" s="63"/>
+      <c r="DM33" s="63"/>
+      <c r="DN33" s="63"/>
+      <c r="DO33" s="63"/>
+      <c r="DP33" s="63"/>
+      <c r="DQ33" s="63"/>
+      <c r="DR33" s="63"/>
+      <c r="DS33" s="63"/>
+      <c r="DT33" s="63"/>
+      <c r="DU33" s="63"/>
+      <c r="DV33" s="63"/>
+      <c r="DW33" s="63"/>
+      <c r="DX33" s="63"/>
+      <c r="DY33" s="63"/>
       <c r="DZ33" s="3"/>
       <c r="EA33" s="3"/>
     </row>
-    <row r="34" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3"/>
-      <c r="BG34" s="3"/>
-      <c r="BH34" s="3"/>
-      <c r="BI34" s="3"/>
-      <c r="BJ34" s="3"/>
-      <c r="BK34" s="3"/>
-      <c r="BL34" s="3"/>
-      <c r="BM34" s="3"/>
-      <c r="BN34" s="3"/>
-      <c r="BO34" s="3"/>
-      <c r="BP34" s="3"/>
-      <c r="BQ34" s="3"/>
-      <c r="BR34" s="3"/>
-      <c r="BS34" s="3"/>
-      <c r="BT34" s="3"/>
-      <c r="BU34" s="3"/>
-      <c r="BV34" s="3"/>
-      <c r="BW34" s="3"/>
-      <c r="BX34" s="3"/>
-      <c r="BY34" s="3"/>
-      <c r="BZ34" s="3"/>
-      <c r="CA34" s="3"/>
-      <c r="CB34" s="3"/>
-      <c r="CC34" s="3"/>
-      <c r="CD34" s="3"/>
-      <c r="CE34" s="3"/>
-      <c r="CF34" s="3"/>
-      <c r="CG34" s="3"/>
-      <c r="CH34" s="3"/>
-      <c r="CI34" s="3"/>
-      <c r="CJ34" s="3"/>
-      <c r="CK34" s="3"/>
-      <c r="CL34" s="3"/>
-      <c r="CM34" s="3"/>
-      <c r="CN34" s="3"/>
-      <c r="CO34" s="3"/>
-      <c r="CP34" s="3"/>
-      <c r="CQ34" s="3"/>
-      <c r="CR34" s="3"/>
-      <c r="CS34" s="3"/>
-      <c r="CT34" s="3"/>
-      <c r="CU34" s="3"/>
-      <c r="CV34" s="3"/>
-      <c r="CW34" s="3"/>
-      <c r="CX34" s="3"/>
-      <c r="CY34" s="3"/>
-      <c r="CZ34" s="3"/>
-      <c r="DA34" s="3"/>
-      <c r="DB34" s="3"/>
-      <c r="DC34" s="3"/>
-      <c r="DD34" s="3"/>
-      <c r="DE34" s="3"/>
-      <c r="DF34" s="3"/>
-      <c r="DG34" s="3"/>
-      <c r="DH34" s="3"/>
-      <c r="DI34" s="3"/>
-      <c r="DJ34" s="3"/>
-      <c r="DK34" s="3"/>
-      <c r="DL34" s="3"/>
-      <c r="DM34" s="3"/>
-      <c r="DN34" s="3"/>
-      <c r="DO34" s="3"/>
-      <c r="DP34" s="3"/>
-      <c r="DQ34" s="3"/>
-      <c r="DR34" s="3"/>
-      <c r="DS34" s="3"/>
-      <c r="DT34" s="3"/>
-      <c r="DU34" s="3"/>
-      <c r="DV34" s="3"/>
-      <c r="DW34" s="3"/>
-      <c r="DX34" s="3"/>
-      <c r="DY34" s="3"/>
+        <v>373</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="63"/>
+      <c r="AN34" s="63"/>
+      <c r="AO34" s="63"/>
+      <c r="AP34" s="63"/>
+      <c r="AQ34" s="63"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="63"/>
+      <c r="AU34" s="63"/>
+      <c r="AV34" s="63"/>
+      <c r="AW34" s="63"/>
+      <c r="AX34" s="63"/>
+      <c r="AY34" s="63"/>
+      <c r="AZ34" s="63"/>
+      <c r="BA34" s="63"/>
+      <c r="BB34" s="63"/>
+      <c r="BC34" s="63"/>
+      <c r="BD34" s="63"/>
+      <c r="BE34" s="63"/>
+      <c r="BF34" s="63"/>
+      <c r="BG34" s="63"/>
+      <c r="BH34" s="63"/>
+      <c r="BI34" s="63"/>
+      <c r="BJ34" s="63"/>
+      <c r="BK34" s="63"/>
+      <c r="BL34" s="63"/>
+      <c r="BM34" s="63"/>
+      <c r="BN34" s="63"/>
+      <c r="BO34" s="63"/>
+      <c r="BP34" s="63"/>
+      <c r="BQ34" s="63"/>
+      <c r="BR34" s="63"/>
+      <c r="BS34" s="63"/>
+      <c r="BT34" s="63"/>
+      <c r="BU34" s="63"/>
+      <c r="BV34" s="63"/>
+      <c r="BW34" s="63"/>
+      <c r="BX34" s="63"/>
+      <c r="BY34" s="63"/>
+      <c r="BZ34" s="63"/>
+      <c r="CA34" s="63"/>
+      <c r="CB34" s="63"/>
+      <c r="CC34" s="63"/>
+      <c r="CD34" s="63"/>
+      <c r="CE34" s="63"/>
+      <c r="CF34" s="63"/>
+      <c r="CG34" s="63"/>
+      <c r="CH34" s="63"/>
+      <c r="CI34" s="63"/>
+      <c r="CJ34" s="63"/>
+      <c r="CK34" s="63"/>
+      <c r="CL34" s="63"/>
+      <c r="CM34" s="63"/>
+      <c r="CN34" s="63"/>
+      <c r="CO34" s="63"/>
+      <c r="CP34" s="63"/>
+      <c r="CQ34" s="63"/>
+      <c r="CR34" s="63"/>
+      <c r="CS34" s="63"/>
+      <c r="CT34" s="63"/>
+      <c r="CU34" s="63"/>
+      <c r="CV34" s="63"/>
+      <c r="CW34" s="63"/>
+      <c r="CX34" s="63"/>
+      <c r="CY34" s="63"/>
+      <c r="CZ34" s="63"/>
+      <c r="DA34" s="63"/>
+      <c r="DB34" s="63"/>
+      <c r="DC34" s="63"/>
+      <c r="DD34" s="63"/>
+      <c r="DE34" s="63"/>
+      <c r="DF34" s="63"/>
+      <c r="DG34" s="63"/>
+      <c r="DH34" s="63"/>
+      <c r="DI34" s="63"/>
+      <c r="DJ34" s="63"/>
+      <c r="DK34" s="63"/>
+      <c r="DL34" s="63"/>
+      <c r="DM34" s="63"/>
+      <c r="DN34" s="63"/>
+      <c r="DO34" s="63"/>
+      <c r="DP34" s="63"/>
+      <c r="DQ34" s="63"/>
+      <c r="DR34" s="63"/>
+      <c r="DS34" s="63"/>
+      <c r="DT34" s="63"/>
+      <c r="DU34" s="63"/>
+      <c r="DV34" s="63"/>
+      <c r="DW34" s="63"/>
+      <c r="DX34" s="63"/>
+      <c r="DY34" s="63"/>
       <c r="DZ34" s="3"/>
       <c r="EA34" s="3"/>
     </row>
-    <row r="35" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
-      <c r="BD35" s="3"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="3"/>
-      <c r="BG35" s="3"/>
-      <c r="BH35" s="3"/>
-      <c r="BI35" s="3"/>
-      <c r="BJ35" s="3"/>
-      <c r="BK35" s="3"/>
-      <c r="BL35" s="3"/>
-      <c r="BM35" s="3"/>
-      <c r="BN35" s="3"/>
-      <c r="BO35" s="3"/>
-      <c r="BP35" s="3"/>
-      <c r="BQ35" s="3"/>
-      <c r="BR35" s="3"/>
-      <c r="BS35" s="3"/>
-      <c r="BT35" s="3"/>
-      <c r="BU35" s="3"/>
-      <c r="BV35" s="3"/>
-      <c r="BW35" s="3"/>
-      <c r="BX35" s="3"/>
-      <c r="BY35" s="3"/>
-      <c r="BZ35" s="3"/>
-      <c r="CA35" s="3"/>
-      <c r="CB35" s="3"/>
-      <c r="CC35" s="3"/>
-      <c r="CD35" s="3"/>
-      <c r="CE35" s="3"/>
-      <c r="CF35" s="3"/>
-      <c r="CG35" s="3"/>
-      <c r="CH35" s="3"/>
-      <c r="CI35" s="3"/>
-      <c r="CJ35" s="3"/>
-      <c r="CK35" s="3"/>
-      <c r="CL35" s="3"/>
-      <c r="CM35" s="3"/>
-      <c r="CN35" s="3"/>
-      <c r="CO35" s="3"/>
-      <c r="CP35" s="3"/>
-      <c r="CQ35" s="3"/>
-      <c r="CR35" s="3"/>
-      <c r="CS35" s="3"/>
-      <c r="CT35" s="3"/>
-      <c r="CU35" s="3"/>
-      <c r="CV35" s="3"/>
-      <c r="CW35" s="3"/>
-      <c r="CX35" s="3"/>
-      <c r="CY35" s="3"/>
-      <c r="CZ35" s="3"/>
-      <c r="DA35" s="3"/>
-      <c r="DB35" s="3"/>
-      <c r="DC35" s="3"/>
-      <c r="DD35" s="3"/>
-      <c r="DE35" s="3"/>
-      <c r="DF35" s="3"/>
-      <c r="DG35" s="3"/>
-      <c r="DH35" s="3"/>
-      <c r="DI35" s="3"/>
-      <c r="DJ35" s="3"/>
-      <c r="DK35" s="3"/>
-      <c r="DL35" s="3"/>
-      <c r="DM35" s="3"/>
-      <c r="DN35" s="3"/>
-      <c r="DO35" s="3"/>
-      <c r="DP35" s="3"/>
-      <c r="DQ35" s="3"/>
-      <c r="DR35" s="3"/>
-      <c r="DS35" s="3"/>
-      <c r="DT35" s="3"/>
-      <c r="DU35" s="3"/>
-      <c r="DV35" s="3"/>
-      <c r="DW35" s="3"/>
-      <c r="DX35" s="3"/>
-      <c r="DY35" s="3"/>
+        <v>374</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="63"/>
+      <c r="AO35" s="63"/>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="63"/>
+      <c r="AR35" s="63"/>
+      <c r="AS35" s="63"/>
+      <c r="AT35" s="63"/>
+      <c r="AU35" s="63"/>
+      <c r="AV35" s="63"/>
+      <c r="AW35" s="63"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="63"/>
+      <c r="AZ35" s="63"/>
+      <c r="BA35" s="63"/>
+      <c r="BB35" s="63"/>
+      <c r="BC35" s="63"/>
+      <c r="BD35" s="63"/>
+      <c r="BE35" s="63"/>
+      <c r="BF35" s="63"/>
+      <c r="BG35" s="63"/>
+      <c r="BH35" s="63"/>
+      <c r="BI35" s="63"/>
+      <c r="BJ35" s="63"/>
+      <c r="BK35" s="63"/>
+      <c r="BL35" s="63"/>
+      <c r="BM35" s="63"/>
+      <c r="BN35" s="63"/>
+      <c r="BO35" s="63"/>
+      <c r="BP35" s="63"/>
+      <c r="BQ35" s="63"/>
+      <c r="BR35" s="63"/>
+      <c r="BS35" s="63"/>
+      <c r="BT35" s="63"/>
+      <c r="BU35" s="63"/>
+      <c r="BV35" s="63"/>
+      <c r="BW35" s="63"/>
+      <c r="BX35" s="63"/>
+      <c r="BY35" s="63"/>
+      <c r="BZ35" s="63"/>
+      <c r="CA35" s="63"/>
+      <c r="CB35" s="63"/>
+      <c r="CC35" s="63"/>
+      <c r="CD35" s="63"/>
+      <c r="CE35" s="63"/>
+      <c r="CF35" s="63"/>
+      <c r="CG35" s="63"/>
+      <c r="CH35" s="63"/>
+      <c r="CI35" s="63"/>
+      <c r="CJ35" s="63"/>
+      <c r="CK35" s="63"/>
+      <c r="CL35" s="63"/>
+      <c r="CM35" s="63"/>
+      <c r="CN35" s="63"/>
+      <c r="CO35" s="63"/>
+      <c r="CP35" s="63"/>
+      <c r="CQ35" s="63"/>
+      <c r="CR35" s="63"/>
+      <c r="CS35" s="63"/>
+      <c r="CT35" s="63"/>
+      <c r="CU35" s="63"/>
+      <c r="CV35" s="63"/>
+      <c r="CW35" s="63"/>
+      <c r="CX35" s="63"/>
+      <c r="CY35" s="63"/>
+      <c r="CZ35" s="63"/>
+      <c r="DA35" s="63"/>
+      <c r="DB35" s="63"/>
+      <c r="DC35" s="63"/>
+      <c r="DD35" s="63"/>
+      <c r="DE35" s="63"/>
+      <c r="DF35" s="63"/>
+      <c r="DG35" s="63"/>
+      <c r="DH35" s="63"/>
+      <c r="DI35" s="63"/>
+      <c r="DJ35" s="63"/>
+      <c r="DK35" s="63"/>
+      <c r="DL35" s="63"/>
+      <c r="DM35" s="63"/>
+      <c r="DN35" s="63"/>
+      <c r="DO35" s="63"/>
+      <c r="DP35" s="63"/>
+      <c r="DQ35" s="63"/>
+      <c r="DR35" s="63"/>
+      <c r="DS35" s="63"/>
+      <c r="DT35" s="63"/>
+      <c r="DU35" s="63"/>
+      <c r="DV35" s="63"/>
+      <c r="DW35" s="63"/>
+      <c r="DX35" s="63"/>
+      <c r="DY35" s="63"/>
       <c r="DZ35" s="3"/>
       <c r="EA35" s="3"/>
     </row>
-    <row r="36" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="3"/>
-      <c r="AR36" s="3"/>
-      <c r="AS36" s="3"/>
-      <c r="AT36" s="3"/>
-      <c r="AU36" s="3"/>
-      <c r="AV36" s="3"/>
-      <c r="AW36" s="3"/>
-      <c r="AX36" s="3"/>
-      <c r="AY36" s="3"/>
-      <c r="AZ36" s="3"/>
-      <c r="BA36" s="3"/>
-      <c r="BB36" s="3"/>
-      <c r="BC36" s="3"/>
-      <c r="BD36" s="3"/>
-      <c r="BE36" s="3"/>
-      <c r="BF36" s="3"/>
-      <c r="BG36" s="3"/>
-      <c r="BH36" s="3"/>
-      <c r="BI36" s="3"/>
-      <c r="BJ36" s="3"/>
-      <c r="BK36" s="3"/>
-      <c r="BL36" s="3"/>
-      <c r="BM36" s="3"/>
-      <c r="BN36" s="3"/>
-      <c r="BO36" s="3"/>
-      <c r="BP36" s="3"/>
-      <c r="BQ36" s="3"/>
-      <c r="BR36" s="3"/>
-      <c r="BS36" s="3"/>
-      <c r="BT36" s="3"/>
-      <c r="BU36" s="3"/>
-      <c r="BV36" s="3"/>
-      <c r="BW36" s="3"/>
-      <c r="BX36" s="3"/>
-      <c r="BY36" s="3"/>
-      <c r="BZ36" s="3"/>
-      <c r="CA36" s="3"/>
-      <c r="CB36" s="3"/>
-      <c r="CC36" s="3"/>
-      <c r="CD36" s="3"/>
-      <c r="CE36" s="3"/>
-      <c r="CF36" s="3"/>
-      <c r="CG36" s="3"/>
-      <c r="CH36" s="3"/>
-      <c r="CI36" s="3"/>
-      <c r="CJ36" s="3"/>
-      <c r="CK36" s="3"/>
-      <c r="CL36" s="3"/>
-      <c r="CM36" s="3"/>
-      <c r="CN36" s="3"/>
-      <c r="CO36" s="3"/>
-      <c r="CP36" s="3"/>
-      <c r="CQ36" s="3"/>
-      <c r="CR36" s="3"/>
-      <c r="CS36" s="3"/>
-      <c r="CT36" s="3"/>
-      <c r="CU36" s="3"/>
-      <c r="CV36" s="3"/>
-      <c r="CW36" s="3"/>
-      <c r="CX36" s="3"/>
-      <c r="CY36" s="3"/>
-      <c r="CZ36" s="3"/>
-      <c r="DA36" s="3"/>
-      <c r="DB36" s="3"/>
-      <c r="DC36" s="3"/>
-      <c r="DD36" s="3"/>
-      <c r="DE36" s="3"/>
-      <c r="DF36" s="3"/>
-      <c r="DG36" s="3"/>
-      <c r="DH36" s="3"/>
-      <c r="DI36" s="3"/>
-      <c r="DJ36" s="3"/>
-      <c r="DK36" s="3"/>
-      <c r="DL36" s="3"/>
-      <c r="DM36" s="3"/>
-      <c r="DN36" s="3"/>
-      <c r="DO36" s="3"/>
-      <c r="DP36" s="3"/>
-      <c r="DQ36" s="3"/>
-      <c r="DR36" s="3"/>
-      <c r="DS36" s="3"/>
-      <c r="DT36" s="3"/>
-      <c r="DU36" s="3"/>
-      <c r="DV36" s="3"/>
-      <c r="DW36" s="3"/>
-      <c r="DX36" s="3"/>
-      <c r="DY36" s="3"/>
+        <v>375</v>
+      </c>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="63"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+      <c r="AG36" s="63"/>
+      <c r="AH36" s="63"/>
+      <c r="AI36" s="63"/>
+      <c r="AJ36" s="63"/>
+      <c r="AK36" s="63"/>
+      <c r="AL36" s="63"/>
+      <c r="AM36" s="63"/>
+      <c r="AN36" s="63"/>
+      <c r="AO36" s="63"/>
+      <c r="AP36" s="63"/>
+      <c r="AQ36" s="63"/>
+      <c r="AR36" s="63"/>
+      <c r="AS36" s="63"/>
+      <c r="AT36" s="63"/>
+      <c r="AU36" s="63"/>
+      <c r="AV36" s="63"/>
+      <c r="AW36" s="63"/>
+      <c r="AX36" s="63"/>
+      <c r="AY36" s="63"/>
+      <c r="AZ36" s="63"/>
+      <c r="BA36" s="63"/>
+      <c r="BB36" s="63"/>
+      <c r="BC36" s="63"/>
+      <c r="BD36" s="63"/>
+      <c r="BE36" s="63"/>
+      <c r="BF36" s="63"/>
+      <c r="BG36" s="63"/>
+      <c r="BH36" s="63"/>
+      <c r="BI36" s="63"/>
+      <c r="BJ36" s="63"/>
+      <c r="BK36" s="63"/>
+      <c r="BL36" s="63"/>
+      <c r="BM36" s="63"/>
+      <c r="BN36" s="63"/>
+      <c r="BO36" s="63"/>
+      <c r="BP36" s="63"/>
+      <c r="BQ36" s="63"/>
+      <c r="BR36" s="63"/>
+      <c r="BS36" s="63"/>
+      <c r="BT36" s="63"/>
+      <c r="BU36" s="63"/>
+      <c r="BV36" s="63"/>
+      <c r="BW36" s="63"/>
+      <c r="BX36" s="63"/>
+      <c r="BY36" s="63"/>
+      <c r="BZ36" s="63"/>
+      <c r="CA36" s="63"/>
+      <c r="CB36" s="63"/>
+      <c r="CC36" s="63"/>
+      <c r="CD36" s="63"/>
+      <c r="CE36" s="63"/>
+      <c r="CF36" s="63"/>
+      <c r="CG36" s="63"/>
+      <c r="CH36" s="63"/>
+      <c r="CI36" s="63"/>
+      <c r="CJ36" s="63"/>
+      <c r="CK36" s="63"/>
+      <c r="CL36" s="63"/>
+      <c r="CM36" s="63"/>
+      <c r="CN36" s="63"/>
+      <c r="CO36" s="63"/>
+      <c r="CP36" s="63"/>
+      <c r="CQ36" s="63"/>
+      <c r="CR36" s="63"/>
+      <c r="CS36" s="63"/>
+      <c r="CT36" s="63"/>
+      <c r="CU36" s="63"/>
+      <c r="CV36" s="63"/>
+      <c r="CW36" s="63"/>
+      <c r="CX36" s="63"/>
+      <c r="CY36" s="63"/>
+      <c r="CZ36" s="63"/>
+      <c r="DA36" s="63"/>
+      <c r="DB36" s="63"/>
+      <c r="DC36" s="63"/>
+      <c r="DD36" s="63"/>
+      <c r="DE36" s="63"/>
+      <c r="DF36" s="63"/>
+      <c r="DG36" s="63"/>
+      <c r="DH36" s="63"/>
+      <c r="DI36" s="63"/>
+      <c r="DJ36" s="63"/>
+      <c r="DK36" s="63"/>
+      <c r="DL36" s="63"/>
+      <c r="DM36" s="63"/>
+      <c r="DN36" s="63"/>
+      <c r="DO36" s="63"/>
+      <c r="DP36" s="63"/>
+      <c r="DQ36" s="63"/>
+      <c r="DR36" s="63"/>
+      <c r="DS36" s="63"/>
+      <c r="DT36" s="63"/>
+      <c r="DU36" s="63"/>
+      <c r="DV36" s="63"/>
+      <c r="DW36" s="63"/>
+      <c r="DX36" s="63"/>
+      <c r="DY36" s="63"/>
       <c r="DZ36" s="3"/>
       <c r="EA36" s="3"/>
     </row>
-    <row r="37" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -9866,131 +9718,131 @@
       <c r="DZ37" s="56"/>
       <c r="EA37" s="56"/>
     </row>
-    <row r="38" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="63"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
       <c r="AS38" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
       <c r="AV38" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AW38" s="3"/>
       <c r="AX38" s="3"/>
       <c r="AY38" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AZ38" s="3"/>
       <c r="BA38" s="3"/>
       <c r="BB38" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="BC38" s="3"/>
       <c r="BD38" s="3"/>
       <c r="BE38" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BF38" s="3"/>
       <c r="BG38" s="3"/>
       <c r="BH38" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BI38" s="3"/>
       <c r="BJ38" s="3"/>
       <c r="BK38" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BL38" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BM38" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BN38" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BO38" s="3"/>
       <c r="BP38" s="3"/>
       <c r="BQ38" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BR38" s="3"/>
       <c r="BS38" s="3"/>
@@ -9998,7 +9850,7 @@
       <c r="BU38" s="3"/>
       <c r="BV38" s="3"/>
       <c r="BW38" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BX38" s="3"/>
       <c r="BY38" s="3"/>
@@ -10006,7 +9858,7 @@
       <c r="CA38" s="3"/>
       <c r="CB38" s="3"/>
       <c r="CC38" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="CD38" s="3"/>
       <c r="CE38" s="3"/>
@@ -10014,7 +9866,7 @@
       <c r="CG38" s="3"/>
       <c r="CH38" s="3"/>
       <c r="CI38" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="CJ38" s="3"/>
       <c r="CK38" s="3"/>
@@ -10022,7 +9874,7 @@
       <c r="CM38" s="3"/>
       <c r="CN38" s="3"/>
       <c r="CO38" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="CP38" s="3"/>
       <c r="CQ38" s="3"/>
@@ -10030,149 +9882,149 @@
       <c r="CS38" s="3"/>
       <c r="CT38" s="3"/>
       <c r="CU38" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="CV38" s="3"/>
       <c r="CW38" s="3"/>
       <c r="CX38" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="CY38" s="3"/>
       <c r="CZ38" s="3"/>
       <c r="DA38" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="DB38" s="3"/>
       <c r="DC38" s="3"/>
       <c r="DD38" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="DE38" s="3"/>
       <c r="DF38" s="3"/>
       <c r="DG38" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="DH38" s="3"/>
       <c r="DI38" s="3"/>
       <c r="DJ38" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="DK38" s="3"/>
       <c r="DL38" s="3"/>
       <c r="DM38" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="DN38" s="3"/>
       <c r="DO38" s="3"/>
-      <c r="DP38" s="3"/>
-      <c r="DQ38" s="3"/>
-      <c r="DR38" s="3"/>
-      <c r="DS38" s="3"/>
-      <c r="DT38" s="3"/>
-      <c r="DU38" s="3"/>
-      <c r="DV38" s="3"/>
-      <c r="DW38" s="3"/>
-      <c r="DX38" s="3"/>
-      <c r="DY38" s="3"/>
+      <c r="DP38" s="63"/>
+      <c r="DQ38" s="63"/>
+      <c r="DR38" s="63"/>
+      <c r="DS38" s="63"/>
+      <c r="DT38" s="63"/>
+      <c r="DU38" s="63"/>
+      <c r="DV38" s="63"/>
+      <c r="DW38" s="63"/>
+      <c r="DX38" s="63"/>
+      <c r="DY38" s="63"/>
       <c r="DZ38" s="3"/>
       <c r="EA38" s="3"/>
     </row>
-    <row r="39" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="I39" s="64"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AK39" s="7"/>
       <c r="AL39" s="7"/>
       <c r="AM39" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
       <c r="AP39" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7"/>
       <c r="AS39" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AT39" s="7"/>
       <c r="AU39" s="7"/>
       <c r="AV39" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AW39" s="7"/>
       <c r="AX39" s="7"/>
       <c r="AY39" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AZ39" s="7"/>
       <c r="BA39" s="7"/>
       <c r="BB39" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="BC39" s="7"/>
       <c r="BD39" s="7"/>
@@ -10207,7 +10059,7 @@
       <c r="CG39" s="7"/>
       <c r="CH39" s="7"/>
       <c r="CI39" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="CJ39" s="7"/>
       <c r="CK39" s="7"/>
@@ -10215,412 +10067,414 @@
       <c r="CM39" s="7"/>
       <c r="CN39" s="7"/>
       <c r="CO39" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="CP39" s="7"/>
       <c r="CQ39" s="7"/>
       <c r="CR39" s="7"/>
       <c r="CS39" s="7"/>
       <c r="CT39" s="7"/>
-      <c r="CU39" s="4"/>
+      <c r="CU39" s="70"/>
       <c r="CV39" s="7"/>
       <c r="CW39" s="7"/>
-      <c r="CX39" s="4"/>
-      <c r="CY39" s="7"/>
-      <c r="CZ39" s="7"/>
-      <c r="DA39" s="4"/>
-      <c r="DB39" s="7"/>
-      <c r="DC39" s="7"/>
-      <c r="DD39" s="4"/>
+      <c r="CX39" s="70"/>
+      <c r="CY39" s="64"/>
+      <c r="CZ39" s="64"/>
+      <c r="DA39" s="70"/>
+      <c r="DB39" s="64"/>
+      <c r="DC39" s="64"/>
+      <c r="DD39" s="70"/>
       <c r="DE39" s="7"/>
       <c r="DF39" s="7"/>
       <c r="DG39" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="DH39" s="7"/>
       <c r="DI39" s="7"/>
       <c r="DJ39" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="DK39" s="7"/>
       <c r="DL39" s="7"/>
       <c r="DM39" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="DN39" s="7"/>
       <c r="DO39" s="7"/>
-      <c r="DP39" s="7"/>
-      <c r="DQ39" s="7"/>
-      <c r="DR39" s="7"/>
-      <c r="DS39" s="7"/>
-      <c r="DT39" s="7"/>
-      <c r="DU39" s="7"/>
-      <c r="DV39" s="7"/>
-      <c r="DW39" s="7"/>
-      <c r="DX39" s="7"/>
-      <c r="DY39" s="7"/>
+      <c r="DP39" s="64"/>
+      <c r="DQ39" s="64"/>
+      <c r="DR39" s="64"/>
+      <c r="DS39" s="64"/>
+      <c r="DT39" s="64"/>
+      <c r="DU39" s="64"/>
+      <c r="DV39" s="64"/>
+      <c r="DW39" s="64"/>
+      <c r="DX39" s="64"/>
+      <c r="DY39" s="64"/>
       <c r="DZ39" s="7"/>
       <c r="EA39" s="7"/>
     </row>
-    <row r="40" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="52" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AN40" s="3"/>
-      <c r="AO40" s="3"/>
-      <c r="AP40" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AQ40" s="3"/>
-      <c r="AR40" s="3"/>
-      <c r="AS40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AW40" s="3"/>
-      <c r="AX40" s="3"/>
-      <c r="AY40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ40" s="3"/>
-      <c r="BA40" s="3"/>
-      <c r="BB40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BC40" s="3"/>
-      <c r="BD40" s="3"/>
-      <c r="BE40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BF40" s="3"/>
-      <c r="BG40" s="3"/>
-      <c r="BH40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI40" s="3"/>
-      <c r="BJ40" s="3"/>
-      <c r="BK40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BL40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BM40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BN40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BO40" s="3"/>
-      <c r="BP40" s="3"/>
-      <c r="BQ40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BR40" s="3"/>
-      <c r="BS40" s="3"/>
-      <c r="BT40" s="3"/>
-      <c r="BU40" s="3"/>
-      <c r="BV40" s="3"/>
-      <c r="BW40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BX40" s="3"/>
-      <c r="BY40" s="3"/>
-      <c r="BZ40" s="3"/>
-      <c r="CA40" s="3"/>
-      <c r="CB40" s="3"/>
-      <c r="CC40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="CD40" s="3"/>
-      <c r="CE40" s="3"/>
-      <c r="CF40" s="3"/>
-      <c r="CG40" s="3"/>
-      <c r="CH40" s="3"/>
-      <c r="CI40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="CJ40" s="3"/>
-      <c r="CK40" s="3"/>
-      <c r="CL40" s="3"/>
-      <c r="CM40" s="3"/>
-      <c r="CN40" s="3"/>
-      <c r="CO40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="CP40" s="3"/>
-      <c r="CQ40" s="3"/>
-      <c r="CR40" s="3"/>
-      <c r="CS40" s="3"/>
-      <c r="CT40" s="3"/>
-      <c r="CU40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="CV40" s="3"/>
-      <c r="CW40" s="3"/>
-      <c r="CX40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="CY40" s="3"/>
-      <c r="CZ40" s="3"/>
-      <c r="DA40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="DB40" s="3"/>
-      <c r="DC40" s="3"/>
-      <c r="DD40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="DE40" s="3"/>
-      <c r="DF40" s="3"/>
-      <c r="DG40" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="DH40" s="3"/>
-      <c r="DI40" s="3"/>
-      <c r="DJ40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="DK40" s="3"/>
-      <c r="DL40" s="3"/>
-      <c r="DM40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="DN40" s="3"/>
-      <c r="DO40" s="3"/>
-      <c r="DP40" s="3"/>
-      <c r="DQ40" s="3"/>
-      <c r="DR40" s="3"/>
-      <c r="DS40" s="3"/>
-      <c r="DT40" s="3"/>
-      <c r="DU40" s="3"/>
-      <c r="DV40" s="3"/>
-      <c r="DW40" s="3"/>
-      <c r="DX40" s="3"/>
-      <c r="DY40" s="3"/>
+        <v>371</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK40" s="63"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN40" s="63"/>
+      <c r="AO40" s="63"/>
+      <c r="AP40" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="AQ40" s="63"/>
+      <c r="AR40" s="63"/>
+      <c r="AS40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT40" s="63"/>
+      <c r="AU40" s="63"/>
+      <c r="AV40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW40" s="63"/>
+      <c r="AX40" s="63"/>
+      <c r="AY40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ40" s="63"/>
+      <c r="BA40" s="63"/>
+      <c r="BB40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC40" s="63"/>
+      <c r="BD40" s="63"/>
+      <c r="BE40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF40" s="63"/>
+      <c r="BG40" s="63"/>
+      <c r="BH40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI40" s="63"/>
+      <c r="BJ40" s="63"/>
+      <c r="BK40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="BL40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="BO40" s="63"/>
+      <c r="BP40" s="63"/>
+      <c r="BQ40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR40" s="63"/>
+      <c r="BS40" s="63"/>
+      <c r="BT40" s="63"/>
+      <c r="BU40" s="63"/>
+      <c r="BV40" s="63"/>
+      <c r="BW40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX40" s="63"/>
+      <c r="BY40" s="63"/>
+      <c r="BZ40" s="63"/>
+      <c r="CA40" s="63"/>
+      <c r="CB40" s="63"/>
+      <c r="CC40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD40" s="63"/>
+      <c r="CE40" s="63"/>
+      <c r="CF40" s="63"/>
+      <c r="CG40" s="63"/>
+      <c r="CH40" s="63"/>
+      <c r="CI40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="CJ40" s="63"/>
+      <c r="CK40" s="63"/>
+      <c r="CL40" s="63"/>
+      <c r="CM40" s="63"/>
+      <c r="CN40" s="63"/>
+      <c r="CO40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="CP40" s="63"/>
+      <c r="CQ40" s="63"/>
+      <c r="CR40" s="63"/>
+      <c r="CS40" s="63"/>
+      <c r="CT40" s="63"/>
+      <c r="CU40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="CV40" s="63"/>
+      <c r="CW40" s="63"/>
+      <c r="CX40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="CY40" s="63"/>
+      <c r="CZ40" s="63"/>
+      <c r="DA40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="DB40" s="63"/>
+      <c r="DC40" s="63"/>
+      <c r="DD40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="DE40" s="63"/>
+      <c r="DF40" s="63"/>
+      <c r="DG40" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="DH40" s="63"/>
+      <c r="DI40" s="63"/>
+      <c r="DJ40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="DK40" s="63"/>
+      <c r="DL40" s="63"/>
+      <c r="DM40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="DN40" s="63"/>
+      <c r="DO40" s="63"/>
+      <c r="DP40" s="63"/>
+      <c r="DQ40" s="63"/>
+      <c r="DR40" s="63"/>
+      <c r="DS40" s="63"/>
+      <c r="DT40" s="63"/>
+      <c r="DU40" s="63"/>
+      <c r="DV40" s="63"/>
+      <c r="DW40" s="63"/>
+      <c r="DX40" s="63"/>
+      <c r="DY40" s="63"/>
       <c r="DZ40" s="3"/>
       <c r="EA40" s="3"/>
     </row>
-    <row r="41" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="52" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="3"/>
-      <c r="AQ41" s="3"/>
-      <c r="AR41" s="3"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
-      <c r="AX41" s="3"/>
-      <c r="AY41" s="3"/>
-      <c r="AZ41" s="3"/>
-      <c r="BA41" s="3"/>
-      <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
-      <c r="BD41" s="3"/>
-      <c r="BE41" s="3"/>
-      <c r="BF41" s="3"/>
-      <c r="BG41" s="3"/>
-      <c r="BH41" s="3"/>
-      <c r="BI41" s="3"/>
-      <c r="BJ41" s="3"/>
-      <c r="BK41" s="3"/>
-      <c r="BL41" s="3"/>
-      <c r="BM41" s="3"/>
-      <c r="BN41" s="3"/>
-      <c r="BO41" s="3"/>
-      <c r="BP41" s="3"/>
-      <c r="BQ41" s="3"/>
-      <c r="BR41" s="3"/>
-      <c r="BS41" s="3"/>
-      <c r="BT41" s="3"/>
-      <c r="BU41" s="3"/>
-      <c r="BV41" s="3"/>
-      <c r="BW41" s="3"/>
-      <c r="BX41" s="3"/>
-      <c r="BY41" s="3"/>
-      <c r="BZ41" s="3"/>
-      <c r="CA41" s="3"/>
-      <c r="CB41" s="3"/>
-      <c r="CC41" s="3"/>
-      <c r="CD41" s="3"/>
-      <c r="CE41" s="3"/>
-      <c r="CF41" s="3"/>
-      <c r="CG41" s="3"/>
-      <c r="CH41" s="3"/>
-      <c r="CI41" s="4"/>
-      <c r="CJ41" s="3"/>
-      <c r="CK41" s="3"/>
-      <c r="CL41" s="3"/>
-      <c r="CM41" s="3"/>
-      <c r="CN41" s="3"/>
-      <c r="CO41" s="4"/>
-      <c r="CP41" s="3"/>
-      <c r="CQ41" s="3"/>
-      <c r="CR41" s="3"/>
-      <c r="CS41" s="3"/>
-      <c r="CT41" s="3"/>
-      <c r="CU41" s="4"/>
-      <c r="CV41" s="3"/>
-      <c r="CW41" s="3"/>
-      <c r="CX41" s="4"/>
-      <c r="CY41" s="3"/>
-      <c r="CZ41" s="3"/>
-      <c r="DA41" s="4"/>
-      <c r="DB41" s="3"/>
-      <c r="DC41" s="3"/>
-      <c r="DD41" s="4"/>
-      <c r="DE41" s="3"/>
-      <c r="DF41" s="3"/>
-      <c r="DG41" s="3"/>
-      <c r="DH41" s="3"/>
-      <c r="DI41" s="3"/>
-      <c r="DJ41" s="3"/>
-      <c r="DK41" s="3"/>
-      <c r="DL41" s="3"/>
-      <c r="DM41" s="3"/>
-      <c r="DN41" s="3"/>
-      <c r="DO41" s="3"/>
-      <c r="DP41" s="3"/>
-      <c r="DQ41" s="3"/>
-      <c r="DR41" s="3"/>
-      <c r="DS41" s="3"/>
-      <c r="DT41" s="3"/>
-      <c r="DU41" s="3"/>
-      <c r="DV41" s="3"/>
-      <c r="DW41" s="3"/>
-      <c r="DX41" s="3"/>
-      <c r="DY41" s="3"/>
+        <v>373</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
+      <c r="AB41" s="63"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="63"/>
+      <c r="AK41" s="63"/>
+      <c r="AL41" s="63"/>
+      <c r="AM41" s="63"/>
+      <c r="AN41" s="63"/>
+      <c r="AO41" s="63"/>
+      <c r="AP41" s="63"/>
+      <c r="AQ41" s="63"/>
+      <c r="AR41" s="63"/>
+      <c r="AS41" s="63"/>
+      <c r="AT41" s="63"/>
+      <c r="AU41" s="63"/>
+      <c r="AV41" s="63"/>
+      <c r="AW41" s="63"/>
+      <c r="AX41" s="63"/>
+      <c r="AY41" s="63"/>
+      <c r="AZ41" s="63"/>
+      <c r="BA41" s="63"/>
+      <c r="BB41" s="63"/>
+      <c r="BC41" s="63"/>
+      <c r="BD41" s="63"/>
+      <c r="BE41" s="63"/>
+      <c r="BF41" s="63"/>
+      <c r="BG41" s="63"/>
+      <c r="BH41" s="63"/>
+      <c r="BI41" s="63"/>
+      <c r="BJ41" s="63"/>
+      <c r="BK41" s="63"/>
+      <c r="BL41" s="63"/>
+      <c r="BM41" s="63"/>
+      <c r="BN41" s="63"/>
+      <c r="BO41" s="63"/>
+      <c r="BP41" s="63"/>
+      <c r="BQ41" s="63"/>
+      <c r="BR41" s="63"/>
+      <c r="BS41" s="63"/>
+      <c r="BT41" s="63"/>
+      <c r="BU41" s="63"/>
+      <c r="BV41" s="63"/>
+      <c r="BW41" s="63"/>
+      <c r="BX41" s="63"/>
+      <c r="BY41" s="63"/>
+      <c r="BZ41" s="63"/>
+      <c r="CA41" s="63"/>
+      <c r="CB41" s="63"/>
+      <c r="CC41" s="63"/>
+      <c r="CD41" s="63"/>
+      <c r="CE41" s="63"/>
+      <c r="CF41" s="63"/>
+      <c r="CG41" s="63"/>
+      <c r="CH41" s="63"/>
+      <c r="CI41" s="70"/>
+      <c r="CJ41" s="63"/>
+      <c r="CK41" s="63"/>
+      <c r="CL41" s="63"/>
+      <c r="CM41" s="63"/>
+      <c r="CN41" s="63"/>
+      <c r="CO41" s="70"/>
+      <c r="CP41" s="63"/>
+      <c r="CQ41" s="63"/>
+      <c r="CR41" s="63"/>
+      <c r="CS41" s="63"/>
+      <c r="CT41" s="63"/>
+      <c r="CU41" s="70"/>
+      <c r="CV41" s="63"/>
+      <c r="CW41" s="63"/>
+      <c r="CX41" s="70"/>
+      <c r="CY41" s="63"/>
+      <c r="CZ41" s="63"/>
+      <c r="DA41" s="70"/>
+      <c r="DB41" s="63"/>
+      <c r="DC41" s="63"/>
+      <c r="DD41" s="70"/>
+      <c r="DE41" s="63"/>
+      <c r="DF41" s="63"/>
+      <c r="DG41" s="63"/>
+      <c r="DH41" s="63"/>
+      <c r="DI41" s="63"/>
+      <c r="DJ41" s="63"/>
+      <c r="DK41" s="63"/>
+      <c r="DL41" s="63"/>
+      <c r="DM41" s="63"/>
+      <c r="DN41" s="63"/>
+      <c r="DO41" s="63"/>
+      <c r="DP41" s="63"/>
+      <c r="DQ41" s="63"/>
+      <c r="DR41" s="63"/>
+      <c r="DS41" s="63"/>
+      <c r="DT41" s="63"/>
+      <c r="DU41" s="63"/>
+      <c r="DV41" s="63"/>
+      <c r="DW41" s="63"/>
+      <c r="DX41" s="63"/>
+      <c r="DY41" s="63"/>
       <c r="DZ41" s="3"/>
       <c r="EA41" s="3"/>
     </row>
-    <row r="42" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="52" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -10751,15 +10605,15 @@
       <c r="DZ42" s="3"/>
       <c r="EA42" s="3"/>
     </row>
-    <row r="43" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -10890,7 +10744,7 @@
       <c r="DZ43" s="3"/>
       <c r="EA43" s="3"/>
     </row>
-    <row r="44" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -11023,65 +10877,65 @@
       <c r="DZ44" s="56"/>
       <c r="EA44" s="56"/>
     </row>
-    <row r="45" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+        <v>369</v>
+      </c>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="63"/>
+      <c r="AA45" s="63"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
-      <c r="AG45" s="3"/>
+      <c r="AG45" s="63"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
-      <c r="AM45" s="3"/>
-      <c r="AN45" s="3"/>
-      <c r="AO45" s="3"/>
-      <c r="AP45" s="3"/>
+      <c r="AM45" s="63"/>
+      <c r="AN45" s="63"/>
+      <c r="AO45" s="63"/>
+      <c r="AP45" s="63"/>
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
       <c r="AS45" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
@@ -11170,65 +11024,65 @@
       <c r="DZ45" s="3"/>
       <c r="EA45" s="3"/>
     </row>
-    <row r="46" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+        <v>370</v>
+      </c>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="T46" s="64"/>
+      <c r="U46" s="64"/>
+      <c r="V46" s="64"/>
+      <c r="W46" s="64"/>
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="64"/>
+      <c r="AA46" s="64"/>
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
       <c r="AD46" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
-      <c r="AG46" s="7"/>
+      <c r="AG46" s="64"/>
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
-      <c r="AM46" s="7"/>
-      <c r="AN46" s="7"/>
-      <c r="AO46" s="7"/>
-      <c r="AP46" s="7"/>
+      <c r="AM46" s="64"/>
+      <c r="AN46" s="64"/>
+      <c r="AO46" s="64"/>
+      <c r="AP46" s="64"/>
       <c r="AQ46" s="7"/>
       <c r="AR46" s="7"/>
       <c r="AS46" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AT46" s="7"/>
       <c r="AU46" s="7"/>
@@ -11317,65 +11171,65 @@
       <c r="DZ46" s="7"/>
       <c r="EA46" s="7"/>
     </row>
-    <row r="47" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+        <v>371</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="63"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="63"/>
+      <c r="Y47" s="63"/>
+      <c r="Z47" s="63"/>
+      <c r="AA47" s="63"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
-      <c r="AG47" s="3"/>
+      <c r="AG47" s="63"/>
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
-      <c r="AM47" s="3"/>
-      <c r="AN47" s="3"/>
-      <c r="AO47" s="3"/>
-      <c r="AP47" s="3"/>
+      <c r="AM47" s="63"/>
+      <c r="AN47" s="63"/>
+      <c r="AO47" s="63"/>
+      <c r="AP47" s="63"/>
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
       <c r="AS47" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AT47" s="3"/>
       <c r="AU47" s="3"/>
@@ -11464,65 +11318,65 @@
       <c r="DZ47" s="3"/>
       <c r="EA47" s="3"/>
     </row>
-    <row r="48" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+        <v>373</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
+      <c r="Z48" s="63"/>
+      <c r="AA48" s="63"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
+      <c r="AG48" s="63"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
+      <c r="AM48" s="63"/>
+      <c r="AN48" s="63"/>
+      <c r="AO48" s="63"/>
+      <c r="AP48" s="63"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3"/>
       <c r="AS48" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
@@ -11611,55 +11465,55 @@
       <c r="DZ48" s="3"/>
       <c r="EA48" s="3"/>
     </row>
-    <row r="49" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+        <v>374</v>
+      </c>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="63"/>
+      <c r="Y49" s="63"/>
+      <c r="Z49" s="63"/>
+      <c r="AA49" s="63"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
-      <c r="AG49" s="3"/>
+      <c r="AG49" s="63"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
-      <c r="AN49" s="3"/>
-      <c r="AO49" s="3"/>
-      <c r="AP49" s="3"/>
+      <c r="AM49" s="63"/>
+      <c r="AN49" s="63"/>
+      <c r="AO49" s="63"/>
+      <c r="AP49" s="63"/>
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
@@ -11750,22 +11604,22 @@
       <c r="DZ49" s="3"/>
       <c r="EA49" s="3"/>
     </row>
-    <row r="50" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+        <v>375</v>
+      </c>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -11789,16 +11643,16 @@
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
-      <c r="AG50" s="3"/>
+      <c r="AG50" s="63"/>
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
-      <c r="AM50" s="3"/>
-      <c r="AN50" s="3"/>
-      <c r="AO50" s="3"/>
-      <c r="AP50" s="3"/>
+      <c r="AM50" s="63"/>
+      <c r="AN50" s="63"/>
+      <c r="AO50" s="63"/>
+      <c r="AP50" s="63"/>
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
       <c r="AS50" s="3"/>
@@ -11889,7 +11743,7 @@
       <c r="DZ50" s="3"/>
       <c r="EA50" s="3"/>
     </row>
-    <row r="51" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -12022,7 +11876,7 @@
       <c r="DZ51" s="56"/>
       <c r="EA51" s="56"/>
     </row>
-    <row r="52" spans="1:131" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:131" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="61"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -12152,7 +12006,7 @@
       <c r="DZ52" s="22"/>
       <c r="EA52" s="22"/>
     </row>
-    <row r="53" spans="1:131" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:131" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="61"/>
       <c r="B53" s="16"/>
       <c r="C53" s="17"/>
@@ -12293,26 +12147,23 @@
     <hyperlink ref="BK19" r:id="rId6" xr:uid="{D7227EB5-9B42-B545-BA04-521D6E38E0F8}"/>
     <hyperlink ref="BN19" r:id="rId7" xr:uid="{1C56C540-530B-C945-BBE9-F24F23C928CC}"/>
     <hyperlink ref="BQ14" r:id="rId8" xr:uid="{1616A6BE-D395-F242-B788-7489CE1AFB13}"/>
-    <hyperlink ref="BW19" r:id="rId9" xr:uid="{5DE46495-148F-D144-B942-FC7C271EDA25}"/>
-    <hyperlink ref="CI19" r:id="rId10" xr:uid="{B00A5799-7479-E949-923F-E858A1FF7F22}"/>
-    <hyperlink ref="DD14" r:id="rId11" xr:uid="{200B1907-4268-0C4F-8276-F20AD3FB0494}"/>
-    <hyperlink ref="DA14" r:id="rId12" xr:uid="{2970D27C-15E1-8E42-A4A4-E8020760CC67}"/>
-    <hyperlink ref="DP19" r:id="rId13" xr:uid="{4689904D-E741-0C48-A86B-BCE0D191CB6D}"/>
-    <hyperlink ref="CU14" r:id="rId14" xr:uid="{F3212A69-A568-4644-984E-26F1D445A631}"/>
-    <hyperlink ref="CX14" r:id="rId15" xr:uid="{A62734F2-AF4C-BE42-88AE-6D2BD12B380F}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{932E020F-8E08-EC43-AF4E-4EB58B5E5316}"/>
-    <hyperlink ref="L19" r:id="rId17" xr:uid="{33667BC1-F73B-FD4F-B474-FA56F341B5D7}"/>
-    <hyperlink ref="O19" r:id="rId18" xr:uid="{9573F35D-826B-41E6-AD6A-322935A6479E}"/>
-    <hyperlink ref="R19" r:id="rId19" xr:uid="{B2BF5E18-80D9-4622-81BC-9DE60A6C0408}"/>
-    <hyperlink ref="AP19" r:id="rId20" xr:uid="{4B65F4D0-46C1-416C-BEFD-3602E3DE8B36}"/>
-    <hyperlink ref="AA14" r:id="rId21" xr:uid="{A9BB021D-D603-4DA3-9793-CD9AF4038366}"/>
-    <hyperlink ref="BB14" r:id="rId22" xr:uid="{72206427-3727-4313-B638-BBC3C65C1897}"/>
+    <hyperlink ref="DD14" r:id="rId9" xr:uid="{200B1907-4268-0C4F-8276-F20AD3FB0494}"/>
+    <hyperlink ref="DA14" r:id="rId10" xr:uid="{2970D27C-15E1-8E42-A4A4-E8020760CC67}"/>
+    <hyperlink ref="DP19" r:id="rId11" xr:uid="{4689904D-E741-0C48-A86B-BCE0D191CB6D}"/>
+    <hyperlink ref="CU14" r:id="rId12" xr:uid="{F3212A69-A568-4644-984E-26F1D445A631}"/>
+    <hyperlink ref="CX14" r:id="rId13" xr:uid="{A62734F2-AF4C-BE42-88AE-6D2BD12B380F}"/>
+    <hyperlink ref="F19" r:id="rId14" xr:uid="{932E020F-8E08-EC43-AF4E-4EB58B5E5316}"/>
+    <hyperlink ref="L19" r:id="rId15" xr:uid="{33667BC1-F73B-FD4F-B474-FA56F341B5D7}"/>
+    <hyperlink ref="O19" r:id="rId16" xr:uid="{9573F35D-826B-41E6-AD6A-322935A6479E}"/>
+    <hyperlink ref="R19" r:id="rId17" xr:uid="{B2BF5E18-80D9-4622-81BC-9DE60A6C0408}"/>
+    <hyperlink ref="AP19" r:id="rId18" xr:uid="{4B65F4D0-46C1-416C-BEFD-3602E3DE8B36}"/>
+    <hyperlink ref="AA14" r:id="rId19" xr:uid="{A9BB021D-D603-4DA3-9793-CD9AF4038366}"/>
+    <hyperlink ref="BB14" r:id="rId20" xr:uid="{72206427-3727-4313-B638-BBC3C65C1897}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E8BAD-320C-9F4A-B94B-F1E2F1728D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E5B9E0-B47D-C840-93E1-9209F1B25173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="398">
   <si>
     <t>Source Name</t>
   </si>
@@ -1034,9 +1034,6 @@
     <t>SWATE_annotation_table</t>
   </si>
   <si>
-    <t>SWATE templating version (July 26, 2021)</t>
-  </si>
-  <si>
     <t>content_examples</t>
   </si>
   <si>
@@ -1324,9 +1321,6 @@
     <t>is_a URI</t>
   </si>
   <si>
-    <t>is_a TAN</t>
-  </si>
-  <si>
     <t>The watering routine for your plant.</t>
   </si>
   <si>
@@ -1340,6 +1334,15 @@
   </si>
   <si>
     <t>NFDI4PSO:0000076</t>
+  </si>
+  <si>
+    <t>is_a term</t>
+  </si>
+  <si>
+    <t>SWATE templating version (August 18, 2021)</t>
+  </si>
+  <si>
+    <t>Use to specify subclasses of existing terms</t>
   </si>
 </sst>
 </file>
@@ -3380,18 +3383,18 @@
   <dimension ref="A1:EA55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="24" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="24" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" style="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.83203125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="54.6640625" style="61" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="57.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5" style="22" hidden="1" customWidth="1"/>
@@ -3528,7 +3531,7 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
@@ -3987,7 +3990,7 @@
         <v>52</v>
       </c>
       <c r="DG2" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="DH2" s="23" t="s">
         <v>288</v>
@@ -4320,7 +4323,7 @@
     </row>
     <row r="5" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -4479,7 +4482,7 @@
     </row>
     <row r="6" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -4632,7 +4635,7 @@
     </row>
     <row r="7" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -4779,7 +4782,7 @@
     </row>
     <row r="8" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -4918,7 +4921,7 @@
     </row>
     <row r="9" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -5055,7 +5058,7 @@
     </row>
     <row r="10" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -5325,13 +5328,13 @@
     </row>
     <row r="12" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -5501,7 +5504,7 @@
       <c r="DE12" s="38"/>
       <c r="DF12" s="38"/>
       <c r="DG12" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="DH12" s="38"/>
       <c r="DI12" s="38"/>
@@ -5538,13 +5541,13 @@
     </row>
     <row r="13" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
@@ -5594,12 +5597,12 @@
       <c r="AE13" s="42"/>
       <c r="AF13" s="42"/>
       <c r="AG13" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AH13" s="42"/>
       <c r="AI13" s="42"/>
       <c r="AJ13" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AK13" s="42"/>
       <c r="AL13" s="42"/>
@@ -5609,22 +5612,22 @@
       <c r="AN13" s="42"/>
       <c r="AO13" s="42"/>
       <c r="AP13" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AQ13" s="42"/>
       <c r="AR13" s="42"/>
       <c r="AS13" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AT13" s="42"/>
       <c r="AU13" s="42"/>
       <c r="AV13" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AW13" s="42"/>
       <c r="AX13" s="42"/>
       <c r="AY13" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AZ13" s="42"/>
       <c r="BA13" s="42"/>
@@ -5714,17 +5717,17 @@
       <c r="DE13" s="42"/>
       <c r="DF13" s="42"/>
       <c r="DG13" s="42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="DH13" s="42"/>
       <c r="DI13" s="42"/>
       <c r="DJ13" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="DK13" s="42"/>
       <c r="DL13" s="42"/>
       <c r="DM13" s="42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="DN13" s="42"/>
       <c r="DO13" s="42"/>
@@ -5751,13 +5754,13 @@
     </row>
     <row r="14" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
@@ -5783,7 +5786,7 @@
       <c r="Y14" s="45"/>
       <c r="Z14" s="45"/>
       <c r="AA14" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AB14" s="45"/>
       <c r="AC14" s="45"/>
@@ -5812,7 +5815,7 @@
       <c r="AZ14" s="45"/>
       <c r="BA14" s="45"/>
       <c r="BB14" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BC14" s="45"/>
       <c r="BD14" s="45"/>
@@ -5908,13 +5911,13 @@
     </row>
     <row r="15" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
@@ -6049,7 +6052,7 @@
       <c r="DH15" s="35"/>
       <c r="DI15" s="35"/>
       <c r="DJ15" s="65" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="DK15" s="35"/>
       <c r="DL15" s="35"/>
@@ -6073,23 +6076,23 @@
     </row>
     <row r="16" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>172</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
@@ -6102,17 +6105,17 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
@@ -6125,7 +6128,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
@@ -6135,32 +6138,32 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AT16" s="35"/>
       <c r="AU16" s="35"/>
       <c r="AV16" s="62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AW16" s="35"/>
       <c r="AX16" s="35"/>
       <c r="AY16" s="65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AZ16" s="35"/>
       <c r="BA16" s="35"/>
       <c r="BB16" s="62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BC16" s="35"/>
       <c r="BD16" s="35"/>
@@ -6168,7 +6171,7 @@
       <c r="BF16" s="35"/>
       <c r="BG16" s="35"/>
       <c r="BH16" s="62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BI16" s="35"/>
       <c r="BJ16" s="35"/>
@@ -6176,12 +6179,12 @@
       <c r="BL16" s="35"/>
       <c r="BM16" s="35"/>
       <c r="BN16" s="62" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BO16" s="35"/>
       <c r="BP16" s="35"/>
       <c r="BQ16" s="62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BR16" s="35"/>
       <c r="BS16" s="35"/>
@@ -6189,7 +6192,7 @@
       <c r="BU16" s="35"/>
       <c r="BV16" s="35"/>
       <c r="BW16" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BX16" s="35"/>
       <c r="BY16" s="35"/>
@@ -6197,7 +6200,7 @@
       <c r="CA16" s="35"/>
       <c r="CB16" s="35"/>
       <c r="CC16" s="62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="CD16" s="35"/>
       <c r="CE16" s="35"/>
@@ -6205,7 +6208,7 @@
       <c r="CG16" s="35"/>
       <c r="CH16" s="35"/>
       <c r="CI16" s="62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="CJ16" s="35"/>
       <c r="CK16" s="35"/>
@@ -6213,7 +6216,7 @@
       <c r="CM16" s="35"/>
       <c r="CN16" s="35"/>
       <c r="CO16" s="62" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="CP16" s="35"/>
       <c r="CQ16" s="35"/>
@@ -6221,7 +6224,7 @@
       <c r="CS16" s="35"/>
       <c r="CT16" s="35"/>
       <c r="CU16" s="62" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="CV16" s="35"/>
       <c r="CW16" s="35"/>
@@ -6235,12 +6238,12 @@
       <c r="DE16" s="35"/>
       <c r="DF16" s="35"/>
       <c r="DG16" s="62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="DH16" s="35"/>
       <c r="DI16" s="35"/>
       <c r="DJ16" s="62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DK16" s="35"/>
       <c r="DL16" s="35"/>
@@ -6251,12 +6254,12 @@
       <c r="DQ16" s="35"/>
       <c r="DR16" s="35"/>
       <c r="DS16" s="62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="DT16" s="35"/>
       <c r="DU16" s="35"/>
       <c r="DV16" s="62" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DW16" s="35"/>
       <c r="DX16" s="35"/>
@@ -6266,10 +6269,10 @@
     </row>
     <row r="17" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="35"/>
@@ -6296,7 +6299,7 @@
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
       <c r="AA17" s="65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
@@ -6310,7 +6313,7 @@
       <c r="AK17" s="35"/>
       <c r="AL17" s="35"/>
       <c r="AM17" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AN17" s="35"/>
       <c r="AO17" s="35"/>
@@ -6327,7 +6330,7 @@
       <c r="AZ17" s="35"/>
       <c r="BA17" s="35"/>
       <c r="BB17" s="66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BC17" s="35"/>
       <c r="BD17" s="35"/>
@@ -6406,20 +6409,20 @@
       <c r="DW17" s="35"/>
       <c r="DX17" s="35"/>
       <c r="DY17" s="62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DZ17" s="23"/>
       <c r="EA17" s="23"/>
     </row>
     <row r="18" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="C18" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -6552,13 +6555,13 @@
     </row>
     <row r="19" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
@@ -6691,12 +6694,14 @@
     </row>
     <row r="20" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="C20" s="9"/>
+        <v>395</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>397</v>
+      </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
@@ -6828,12 +6833,14 @@
     </row>
     <row r="21" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C21" s="9"/>
+        <v>389</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>397</v>
+      </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
@@ -6965,10 +6972,10 @@
     </row>
     <row r="22" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="35"/>
@@ -7102,10 +7109,10 @@
     </row>
     <row r="23" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="35"/>
@@ -7511,121 +7518,121 @@
         <v>136</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
       <c r="AV26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
       <c r="AY26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AZ26" s="3"/>
       <c r="BA26" s="3"/>
       <c r="BB26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
       <c r="BE26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BF26" s="3"/>
       <c r="BG26" s="3"/>
       <c r="BH26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BI26" s="3"/>
       <c r="BJ26" s="3"/>
       <c r="BK26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BL26" s="3"/>
       <c r="BM26" s="3"/>
       <c r="BN26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BO26" s="3"/>
       <c r="BP26" s="3"/>
       <c r="BQ26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BR26" s="3"/>
       <c r="BS26" s="3"/>
@@ -7635,7 +7642,7 @@
       <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
       <c r="BW26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BX26" s="3"/>
       <c r="BY26" s="3"/>
@@ -7643,7 +7650,7 @@
       <c r="CA26" s="3"/>
       <c r="CB26" s="3"/>
       <c r="CC26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="CD26" s="3"/>
       <c r="CE26" s="3"/>
@@ -7651,7 +7658,7 @@
       <c r="CG26" s="3"/>
       <c r="CH26" s="3"/>
       <c r="CI26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
@@ -7659,7 +7666,7 @@
       <c r="CM26" s="3"/>
       <c r="CN26" s="3"/>
       <c r="CO26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="CP26" s="3"/>
       <c r="CQ26" s="3"/>
@@ -7667,57 +7674,57 @@
       <c r="CS26" s="3"/>
       <c r="CT26" s="3"/>
       <c r="CU26" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="CV26" s="3"/>
       <c r="CW26" s="3"/>
       <c r="CX26" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="CY26" s="3"/>
       <c r="CZ26" s="3"/>
       <c r="DA26" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DB26" s="3"/>
       <c r="DC26" s="3"/>
       <c r="DD26" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DE26" s="3"/>
       <c r="DF26" s="3"/>
       <c r="DG26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DH26" s="3"/>
       <c r="DI26" s="3"/>
       <c r="DJ26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DK26" s="3"/>
       <c r="DL26" s="3"/>
       <c r="DM26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DN26" s="3"/>
       <c r="DO26" s="3"/>
       <c r="DP26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DQ26" s="3"/>
       <c r="DR26" s="3"/>
       <c r="DS26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DT26" s="3"/>
       <c r="DU26" s="3"/>
       <c r="DV26" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DW26" s="3"/>
       <c r="DX26" s="3"/>
       <c r="DY26" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DZ26" s="3"/>
       <c r="EA26" s="3"/>
@@ -7730,121 +7737,121 @@
         <v>224</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
       <c r="AP27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
       <c r="AV27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
       <c r="AY27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AZ27" s="3"/>
       <c r="BA27" s="3"/>
       <c r="BB27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
       <c r="BE27" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BF27" s="3"/>
       <c r="BG27" s="3"/>
       <c r="BH27" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BI27" s="3"/>
       <c r="BJ27" s="3"/>
       <c r="BK27" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BL27" s="3"/>
       <c r="BM27" s="3"/>
       <c r="BN27" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BO27" s="3"/>
       <c r="BP27" s="3"/>
       <c r="BQ27" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BR27" s="3"/>
       <c r="BS27" s="3"/>
@@ -7854,7 +7861,7 @@
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
       <c r="BW27" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BX27" s="3"/>
       <c r="BY27" s="3"/>
@@ -7862,7 +7869,7 @@
       <c r="CA27" s="3"/>
       <c r="CB27" s="3"/>
       <c r="CC27" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="CD27" s="3"/>
       <c r="CE27" s="3"/>
@@ -7870,7 +7877,7 @@
       <c r="CG27" s="3"/>
       <c r="CH27" s="3"/>
       <c r="CI27" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
@@ -7878,7 +7885,7 @@
       <c r="CM27" s="3"/>
       <c r="CN27" s="3"/>
       <c r="CO27" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="CP27" s="3"/>
       <c r="CQ27" s="3"/>
@@ -7886,57 +7893,57 @@
       <c r="CS27" s="3"/>
       <c r="CT27" s="3"/>
       <c r="CU27" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="CV27" s="3"/>
       <c r="CW27" s="3"/>
       <c r="CX27" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="CY27" s="3"/>
       <c r="CZ27" s="3"/>
       <c r="DA27" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="DB27" s="3"/>
       <c r="DC27" s="3"/>
       <c r="DD27" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="DE27" s="3"/>
       <c r="DF27" s="3"/>
       <c r="DG27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="DH27" s="3"/>
       <c r="DI27" s="3"/>
       <c r="DJ27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="DK27" s="3"/>
       <c r="DL27" s="3"/>
       <c r="DM27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="DN27" s="3"/>
       <c r="DO27" s="3"/>
       <c r="DP27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="DQ27" s="3"/>
       <c r="DR27" s="3"/>
       <c r="DS27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="DT27" s="3"/>
       <c r="DU27" s="3"/>
       <c r="DV27" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="DW27" s="3"/>
       <c r="DX27" s="3"/>
       <c r="DY27" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="DZ27" s="3"/>
       <c r="EA27" s="3"/>
@@ -7949,7 +7956,7 @@
         <v>296</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>139</v>
@@ -8163,124 +8170,124 @@
         <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
       <c r="O29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P29" s="52"/>
       <c r="Q29" s="52"/>
       <c r="R29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S29" s="52"/>
       <c r="T29" s="52"/>
       <c r="U29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V29" s="52"/>
       <c r="W29" s="52"/>
       <c r="X29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
       <c r="AS29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
       <c r="AV29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AW29" s="3"/>
       <c r="AX29" s="3"/>
       <c r="AY29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AZ29" s="3"/>
       <c r="BA29" s="3"/>
       <c r="BB29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
       <c r="BE29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BF29" s="3"/>
       <c r="BG29" s="3"/>
       <c r="BH29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BI29" s="3"/>
       <c r="BJ29" s="3"/>
       <c r="BK29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BL29" s="3"/>
       <c r="BM29" s="3"/>
       <c r="BN29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BO29" s="3"/>
       <c r="BP29" s="3"/>
       <c r="BQ29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BR29" s="3"/>
       <c r="BS29" s="3"/>
@@ -8288,7 +8295,7 @@
       <c r="BU29" s="3"/>
       <c r="BV29" s="3"/>
       <c r="BW29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BX29" s="3"/>
       <c r="BY29" s="3"/>
@@ -8296,7 +8303,7 @@
       <c r="CA29" s="3"/>
       <c r="CB29" s="3"/>
       <c r="CC29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CD29" s="3"/>
       <c r="CE29" s="3"/>
@@ -8304,7 +8311,7 @@
       <c r="CG29" s="3"/>
       <c r="CH29" s="3"/>
       <c r="CI29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CJ29" s="3"/>
       <c r="CK29" s="3"/>
@@ -8312,7 +8319,7 @@
       <c r="CM29" s="3"/>
       <c r="CN29" s="3"/>
       <c r="CO29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CP29" s="3"/>
       <c r="CQ29" s="3"/>
@@ -8320,57 +8327,57 @@
       <c r="CS29" s="3"/>
       <c r="CT29" s="3"/>
       <c r="CU29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CV29" s="3"/>
       <c r="CW29" s="3"/>
       <c r="CX29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CY29" s="3"/>
       <c r="CZ29" s="3"/>
       <c r="DA29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DB29" s="3"/>
       <c r="DC29" s="3"/>
       <c r="DD29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DE29" s="3"/>
       <c r="DF29" s="3"/>
       <c r="DG29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DH29" s="3"/>
       <c r="DI29" s="3"/>
       <c r="DJ29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DK29" s="3"/>
       <c r="DL29" s="3"/>
       <c r="DM29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DN29" s="3"/>
       <c r="DO29" s="3"/>
       <c r="DP29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DQ29" s="3"/>
       <c r="DR29" s="3"/>
       <c r="DS29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DT29" s="3"/>
       <c r="DU29" s="3"/>
       <c r="DV29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DW29" s="3"/>
       <c r="DX29" s="3"/>
       <c r="DY29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DZ29" s="3"/>
       <c r="EA29" s="3"/>
@@ -8383,17 +8390,17 @@
         <v>173</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -8401,72 +8408,72 @@
       <c r="M30" s="52"/>
       <c r="N30" s="52"/>
       <c r="O30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P30" s="52"/>
       <c r="Q30" s="52"/>
       <c r="R30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S30" s="52"/>
       <c r="T30" s="52"/>
       <c r="U30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V30" s="52"/>
       <c r="W30" s="52"/>
       <c r="X30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
       <c r="AV30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AW30" s="3"/>
       <c r="AX30" s="3"/>
       <c r="AY30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AZ30" s="3"/>
       <c r="BA30" s="3"/>
       <c r="BB30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
@@ -8525,37 +8532,37 @@
       <c r="DE30" s="3"/>
       <c r="DF30" s="3"/>
       <c r="DG30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DH30" s="3"/>
       <c r="DI30" s="3"/>
       <c r="DJ30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DK30" s="3"/>
       <c r="DL30" s="3"/>
       <c r="DM30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DN30" s="3"/>
       <c r="DO30" s="3"/>
       <c r="DP30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DQ30" s="3"/>
       <c r="DR30" s="3"/>
       <c r="DS30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DT30" s="3"/>
       <c r="DU30" s="3"/>
       <c r="DV30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DW30" s="3"/>
       <c r="DX30" s="3"/>
       <c r="DY30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DZ30" s="3"/>
       <c r="EA30" s="3"/>
@@ -8568,7 +8575,7 @@
         <v>174</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -8840,7 +8847,7 @@
         <v>136</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="67"/>
@@ -8979,7 +8986,7 @@
         <v>224</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D34" s="67"/>
       <c r="E34" s="67"/>
@@ -9118,7 +9125,7 @@
         <v>296</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="67"/>
@@ -9254,10 +9261,10 @@
         <v>175</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="D36" s="67"/>
       <c r="E36" s="67"/>
@@ -9396,7 +9403,7 @@
         <v>173</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="67"/>
@@ -9535,7 +9542,7 @@
         <v>174</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D38" s="67"/>
       <c r="E38" s="67"/>
@@ -9807,7 +9814,7 @@
         <v>136</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>178</v>
@@ -10018,7 +10025,7 @@
         <v>224</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>202</v>
@@ -10203,7 +10210,7 @@
         <v>296</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D42" s="67" t="s">
         <v>139</v>
@@ -10217,7 +10224,7 @@
       <c r="G42" s="63"/>
       <c r="H42" s="63"/>
       <c r="I42" s="63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J42" s="63"/>
       <c r="K42" s="63"/>
@@ -10413,10 +10420,10 @@
         <v>177</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="D43" s="67"/>
       <c r="E43" s="67"/>
@@ -10555,7 +10562,7 @@
         <v>173</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -10694,7 +10701,7 @@
         <v>174</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -10966,7 +10973,7 @@
         <v>136</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D47" s="67"/>
       <c r="E47" s="67"/>
@@ -11113,7 +11120,7 @@
         <v>224</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D48" s="68"/>
       <c r="E48" s="68"/>
@@ -11260,7 +11267,7 @@
         <v>296</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D49" s="67"/>
       <c r="E49" s="67"/>
@@ -11404,10 +11411,10 @@
         <v>297</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="D50" s="67"/>
       <c r="E50" s="67"/>
@@ -11554,7 +11561,7 @@
         <v>173</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D51" s="67"/>
       <c r="E51" s="67"/>
@@ -11693,7 +11700,7 @@
         <v>174</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D52" s="67"/>
       <c r="E52" s="67"/>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/1SPL01_plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E5B9E0-B47D-C840-93E1-9209F1B25173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D515BF9-2A7C-4C40-8787-852C75A05F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="399">
   <si>
     <t>Source Name</t>
   </si>
@@ -1343,6 +1343,9 @@
   </si>
   <si>
     <t>Use to specify subclasses of existing terms</t>
+  </si>
+  <si>
+    <t>ER Additional information</t>
   </si>
 </sst>
 </file>
@@ -3386,7 +3389,7 @@
       <pane xSplit="3" ySplit="24" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9400,7 +9403,7 @@
         <v>175</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>173</v>
+        <v>398</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>332</v>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/1SPL01_plants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\1SPL01_plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D515BF9-2A7C-4C40-8787-852C75A05F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A8F16B-94FA-427A-99A9-8B6D811C1E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="407">
   <si>
     <t>Source Name</t>
   </si>
@@ -1347,6 +1347,31 @@
   <si>
     <t>ER Additional information</t>
   </si>
+  <si>
+    <t>SAMPLING - Sample type</t>
+  </si>
+  <si>
+    <t>A unique identifier from a particular source (a batch of samples can 
+have a unique Sample name as identified in the Sample table). It’s usually associated with an output spectral data filename.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>SAMPLING - Replicate</t>
+  </si>
+  <si>
+    <t>SAMPLING - Genotype</t>
+  </si>
+  <si>
+    <t>SAMPLING - Variant</t>
+  </si>
+  <si>
+    <t>SAMPLING - Organism</t>
+  </si>
+  <si>
+    <t>SAMPLING - Organism part</t>
+  </si>
 </sst>
 </file>
 
@@ -1357,7 +1382,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1441,6 +1466,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1550,7 +1580,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1762,12 +1792,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{13734DA0-054A-9F4C-97D4-CA0666BA285F}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{EA6456B1-9345-674B-83C0-73CFBFB7004A}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="130">
     <dxf>
@@ -2914,9 +2953,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Oliver Maus" id="{06737596-97D3-4074-B2C0-70AD6A22C7E8}" userId="855bec4539777958" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3057,7 +3094,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3351,17 +3388,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AV18" dT="2021-07-30T15:40:01.28" personId="{06737596-97D3-4074-B2C0-70AD6A22C7E8}" id="{BB0DF719-8E80-440E-8D62-955A4A4EB390}">
-    <text>missing</text>
-  </threadedComment>
-  <threadedComment ref="AV19" dT="2021-07-30T15:40:13.93" personId="{06737596-97D3-4074-B2C0-70AD6A22C7E8}" id="{6D385B3A-24BE-423D-9517-3E24E85C5B4F}">
-    <text>missing</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="right" visibility="0" width="729" row="2">
@@ -3385,150 +3411,150 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="24" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="DP38" sqref="DP38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="57.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="51.375" style="61" customWidth="1"/>
+    <col min="4" max="4" width="57.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5" style="22" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="59.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.625" style="22" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="33.625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="59" style="22" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="65.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="67.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.1640625" style="15" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="57.33203125" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="65.375" style="22" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="67.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.125" style="15" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="57.375" style="15" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="38" style="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="48.5" style="22" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="54.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="35.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="49.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="55.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="35.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="54.625" style="22" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="35.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="49.375" style="22" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="55.625" style="22" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="35.125" style="22" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="49.5" style="22" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="55.83203125" style="22" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="35.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="51.1640625" style="22" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="57.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="64.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="46.1640625" style="22" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="52.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="47.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="55.1640625" style="22" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="61.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="55.875" style="22" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="35.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="51.125" style="22" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="57.375" style="22" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="64.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="46.125" style="22" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="52.375" style="22" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="47.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="55.125" style="22" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="61.375" style="22" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="38" style="22" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="49.5" style="22" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="55.83203125" style="22" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="55.875" style="22" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="49" style="22" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="50.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="50.375" style="22" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="56.5" style="22" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="37.5" style="22" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="46" style="22" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="52.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="52.125" style="22" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="38" style="22" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="61.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="61.375" style="22" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="67.5" style="22" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="39.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="39.375" style="22" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="54" style="22" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="60.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="60.375" style="22" hidden="1" customWidth="1"/>
     <col min="48" max="48" width="35.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="59.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="59.125" style="22" hidden="1" customWidth="1"/>
     <col min="50" max="50" width="65.5" style="22" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="38.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="51.83203125" style="22" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="38.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="51.875" style="22" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="58" style="22" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="31.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="50.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="31.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="50.375" style="22" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="56.5" style="22" hidden="1" customWidth="1"/>
     <col min="57" max="57" width="39.5" style="22" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="47.5" style="22" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="53.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="44.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="65.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="53.625" style="22" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="44.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="65.375" style="22" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="71.5" style="22" hidden="1" customWidth="1"/>
     <col min="63" max="63" width="43" style="22" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="58.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="64.83203125" style="22" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="58.625" style="22" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="64.875" style="22" hidden="1" customWidth="1"/>
     <col min="66" max="66" width="39.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="58.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="64.83203125" style="22" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="58.625" style="22" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="64.875" style="22" hidden="1" customWidth="1"/>
     <col min="69" max="69" width="39.5" style="22" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="58.5" style="22" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="64.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="64.625" style="22" hidden="1" customWidth="1"/>
     <col min="72" max="72" width="65.5" style="22" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="76.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="76.375" style="22" hidden="1" customWidth="1"/>
     <col min="74" max="74" width="82.5" style="22" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="61.83203125" style="22" customWidth="1"/>
-    <col min="76" max="76" width="54.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="75" max="75" width="61.875" style="22" customWidth="1"/>
+    <col min="76" max="76" width="54.625" style="22" hidden="1" customWidth="1"/>
     <col min="77" max="77" width="61" style="22" hidden="1" customWidth="1"/>
     <col min="78" max="78" width="35.5" style="22" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="46.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="46.375" style="22" hidden="1" customWidth="1"/>
     <col min="80" max="80" width="52.5" style="22" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="30.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="30.625" style="22" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="56" style="22" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="62.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="62.125" style="22" hidden="1" customWidth="1"/>
     <col min="84" max="84" width="38.5" style="22" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="49.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="55.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="79.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="57.83203125" style="22" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="49.375" style="22" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="55.625" style="22" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="79.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="57.875" style="22" hidden="1" customWidth="1"/>
     <col min="89" max="89" width="64" style="22" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="41.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="52.1640625" style="22" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="58.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="40.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="41.375" style="22" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="52.125" style="22" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="58.375" style="22" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="40.875" style="22" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="59" style="22" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="65.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="44.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="55.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="65.375" style="22" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="44.375" style="22" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="55.375" style="22" hidden="1" customWidth="1"/>
     <col min="98" max="98" width="61.5" style="22" hidden="1" customWidth="1"/>
     <col min="99" max="99" width="39.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="54.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="101" max="101" width="60.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="54.375" style="22" hidden="1" customWidth="1"/>
+    <col min="101" max="101" width="60.625" style="22" hidden="1" customWidth="1"/>
     <col min="102" max="102" width="39.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="58.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="58.375" style="22" hidden="1" customWidth="1"/>
     <col min="104" max="104" width="64.5" style="22" hidden="1" customWidth="1"/>
     <col min="105" max="105" width="39.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="57.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="57.375" style="22" hidden="1" customWidth="1"/>
     <col min="107" max="107" width="63.5" style="22" hidden="1" customWidth="1"/>
     <col min="108" max="108" width="85.5" style="22" customWidth="1"/>
-    <col min="109" max="109" width="56.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="109" max="109" width="56.375" style="22" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="62.5" style="22" hidden="1" customWidth="1"/>
     <col min="111" max="111" width="38" style="22" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="56.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="56.375" style="22" hidden="1" customWidth="1"/>
     <col min="113" max="113" width="62.5" style="22" hidden="1" customWidth="1"/>
     <col min="114" max="114" width="38" style="22" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="62.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="116" max="116" width="68.83203125" style="22" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="62.625" style="22" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="68.875" style="22" hidden="1" customWidth="1"/>
     <col min="117" max="117" width="38" style="22" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="60.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="60.375" style="22" hidden="1" customWidth="1"/>
     <col min="119" max="119" width="66.5" style="22" hidden="1" customWidth="1"/>
-    <col min="120" max="120" width="35.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="35.125" style="22" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="52" style="22" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="58.1640625" style="22" hidden="1" customWidth="1"/>
-    <col min="123" max="123" width="36.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="58.125" style="22" hidden="1" customWidth="1"/>
+    <col min="123" max="123" width="36.375" style="22" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="65" style="22" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="71.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="125" max="125" width="71.375" style="22" hidden="1" customWidth="1"/>
     <col min="126" max="126" width="40.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="69.1640625" style="22" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="75.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="129" max="129" width="60.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="56.1640625" style="22" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="62.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="69.125" style="22" hidden="1" customWidth="1"/>
+    <col min="128" max="128" width="75.375" style="22" hidden="1" customWidth="1"/>
+    <col min="129" max="129" width="60.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="56.125" style="22" hidden="1" customWidth="1"/>
+    <col min="131" max="131" width="62.375" style="22" hidden="1" customWidth="1"/>
     <col min="132" max="16384" width="30.5" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>310</v>
       </c>
@@ -3665,7 +3691,7 @@
       <c r="DZ1" s="20"/>
       <c r="EA1" s="21"/>
     </row>
-    <row r="2" spans="1:131" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:131" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>310</v>
       </c>
@@ -4056,7 +4082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:131" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:131" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>310</v>
       </c>
@@ -4191,7 +4217,7 @@
       <c r="DZ3" s="23"/>
       <c r="EA3" s="23"/>
     </row>
-    <row r="4" spans="1:131" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:131" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -4324,7 +4350,7 @@
       <c r="DZ4" s="29"/>
       <c r="EA4" s="29"/>
     </row>
-    <row r="5" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>311</v>
       </c>
@@ -4483,7 +4509,7 @@
       <c r="DZ5" s="23"/>
       <c r="EA5" s="23"/>
     </row>
-    <row r="6" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>311</v>
       </c>
@@ -4636,7 +4662,7 @@
       <c r="DZ6" s="23"/>
       <c r="EA6" s="23"/>
     </row>
-    <row r="7" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>311</v>
       </c>
@@ -4783,7 +4809,7 @@
       <c r="DZ7" s="23"/>
       <c r="EA7" s="23"/>
     </row>
-    <row r="8" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>311</v>
       </c>
@@ -4922,7 +4948,7 @@
       <c r="DZ8" s="23"/>
       <c r="EA8" s="23"/>
     </row>
-    <row r="9" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>311</v>
       </c>
@@ -5059,7 +5085,7 @@
       <c r="DZ9" s="23"/>
       <c r="EA9" s="23"/>
     </row>
-    <row r="10" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>311</v>
       </c>
@@ -5196,7 +5222,7 @@
       <c r="DZ10" s="23"/>
       <c r="EA10" s="23"/>
     </row>
-    <row r="11" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -5329,7 +5355,7 @@
       <c r="DZ11" s="29"/>
       <c r="EA11" s="29"/>
     </row>
-    <row r="12" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>312</v>
       </c>
@@ -5542,7 +5568,7 @@
       <c r="DZ12" s="39"/>
       <c r="EA12" s="39"/>
     </row>
-    <row r="13" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>312</v>
       </c>
@@ -5755,7 +5781,7 @@
       <c r="DZ13" s="43"/>
       <c r="EA13" s="43"/>
     </row>
-    <row r="14" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>312</v>
       </c>
@@ -5912,7 +5938,7 @@
       <c r="DZ14" s="23"/>
       <c r="EA14" s="23"/>
     </row>
-    <row r="15" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>312</v>
       </c>
@@ -6077,7 +6103,7 @@
       <c r="DZ15" s="23"/>
       <c r="EA15" s="23"/>
     </row>
-    <row r="16" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>318</v>
       </c>
@@ -6270,7 +6296,7 @@
       <c r="DZ16" s="23"/>
       <c r="EA16" s="23"/>
     </row>
-    <row r="17" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>318</v>
       </c>
@@ -6417,7 +6443,7 @@
       <c r="DZ17" s="23"/>
       <c r="EA17" s="23"/>
     </row>
-    <row r="18" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>321</v>
       </c>
@@ -6556,7 +6582,7 @@
       <c r="DZ18" s="23"/>
       <c r="EA18" s="23"/>
     </row>
-    <row r="19" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>321</v>
       </c>
@@ -6695,7 +6721,7 @@
       <c r="DZ19" s="23"/>
       <c r="EA19" s="23"/>
     </row>
-    <row r="20" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>321</v>
       </c>
@@ -6834,7 +6860,7 @@
       <c r="DZ20" s="23"/>
       <c r="EA20" s="23"/>
     </row>
-    <row r="21" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>321</v>
       </c>
@@ -6973,7 +6999,7 @@
       <c r="DZ21" s="23"/>
       <c r="EA21" s="23"/>
     </row>
-    <row r="22" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>321</v>
       </c>
@@ -7110,7 +7136,7 @@
       <c r="DZ22" s="23"/>
       <c r="EA22" s="23"/>
     </row>
-    <row r="23" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>321</v>
       </c>
@@ -7247,7 +7273,7 @@
       <c r="DZ23" s="23"/>
       <c r="EA23" s="23"/>
     </row>
-    <row r="24" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -7380,7 +7406,7 @@
       <c r="DZ24" s="47"/>
       <c r="EA24" s="47"/>
     </row>
-    <row r="25" spans="1:131" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:131" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -7513,7 +7539,7 @@
       <c r="DZ25" s="47"/>
       <c r="EA25" s="47"/>
     </row>
-    <row r="26" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>176</v>
       </c>
@@ -7732,7 +7758,7 @@
       <c r="DZ26" s="3"/>
       <c r="EA26" s="3"/>
     </row>
-    <row r="27" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>176</v>
       </c>
@@ -7951,7 +7977,7 @@
       <c r="DZ27" s="3"/>
       <c r="EA27" s="3"/>
     </row>
-    <row r="28" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>176</v>
       </c>
@@ -8168,7 +8194,7 @@
       <c r="DZ28" s="3"/>
       <c r="EA28" s="3"/>
     </row>
-    <row r="29" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>176</v>
       </c>
@@ -8385,7 +8411,7 @@
       <c r="DZ29" s="3"/>
       <c r="EA29" s="3"/>
     </row>
-    <row r="30" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>176</v>
       </c>
@@ -8570,7 +8596,7 @@
       <c r="DZ30" s="3"/>
       <c r="EA30" s="3"/>
     </row>
-    <row r="31" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>176</v>
       </c>
@@ -8709,7 +8735,7 @@
       <c r="DZ31" s="3"/>
       <c r="EA31" s="3"/>
     </row>
-    <row r="32" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -8842,7 +8868,7 @@
       <c r="DZ32" s="56"/>
       <c r="EA32" s="56"/>
     </row>
-    <row r="33" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>175</v>
       </c>
@@ -8852,136 +8878,346 @@
       <c r="C33" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D33" s="67"/>
+      <c r="D33" s="67" t="s">
+        <v>0</v>
+      </c>
       <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
+      <c r="F33" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="I33" s="71" t="s">
+        <v>402</v>
+      </c>
       <c r="J33" s="63"/>
       <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
+      <c r="L33" s="63" t="s">
+        <v>405</v>
+      </c>
       <c r="M33" s="63"/>
       <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
+      <c r="O33" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="P33" s="63"/>
       <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
+      <c r="R33" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="S33" s="63"/>
       <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
+      <c r="U33" s="63" t="s">
+        <v>404</v>
+      </c>
       <c r="V33" s="63"/>
       <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
+      <c r="X33" s="71" t="s">
+        <v>403</v>
+      </c>
       <c r="Y33" s="63"/>
       <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
+      <c r="AA33" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="AB33" s="63"/>
       <c r="AC33" s="63"/>
-      <c r="AD33" s="63"/>
+      <c r="AD33" s="63" t="s">
+        <v>406</v>
+      </c>
       <c r="AE33" s="63"/>
       <c r="AF33" s="63"/>
-      <c r="AG33" s="63"/>
+      <c r="AG33" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="AH33" s="63"/>
       <c r="AI33" s="63"/>
-      <c r="AJ33" s="63"/>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="63"/>
-      <c r="AM33" s="63"/>
-      <c r="AN33" s="63"/>
-      <c r="AO33" s="63"/>
-      <c r="AP33" s="63"/>
+      <c r="AJ33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AK33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AL33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AM33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AP33" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="AQ33" s="63"/>
       <c r="AR33" s="63"/>
-      <c r="AS33" s="63"/>
-      <c r="AT33" s="63"/>
-      <c r="AU33" s="63"/>
-      <c r="AV33" s="63"/>
-      <c r="AW33" s="63"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="63"/>
-      <c r="AZ33" s="63"/>
-      <c r="BA33" s="63"/>
-      <c r="BB33" s="63"/>
-      <c r="BC33" s="63"/>
-      <c r="BD33" s="63"/>
-      <c r="BE33" s="63"/>
-      <c r="BF33" s="63"/>
-      <c r="BG33" s="63"/>
-      <c r="BH33" s="63"/>
-      <c r="BI33" s="63"/>
-      <c r="BJ33" s="63"/>
-      <c r="BK33" s="63"/>
-      <c r="BL33" s="63"/>
-      <c r="BM33" s="63"/>
-      <c r="BN33" s="63"/>
-      <c r="BO33" s="63"/>
-      <c r="BP33" s="63"/>
-      <c r="BQ33" s="63"/>
-      <c r="BR33" s="63"/>
-      <c r="BS33" s="63"/>
-      <c r="BT33" s="63"/>
-      <c r="BU33" s="63"/>
-      <c r="BV33" s="63"/>
-      <c r="BW33" s="63"/>
-      <c r="BX33" s="63"/>
-      <c r="BY33" s="63"/>
-      <c r="BZ33" s="63"/>
-      <c r="CA33" s="63"/>
-      <c r="CB33" s="63"/>
-      <c r="CC33" s="63"/>
-      <c r="CD33" s="63"/>
-      <c r="CE33" s="63"/>
-      <c r="CF33" s="63"/>
-      <c r="CG33" s="63"/>
-      <c r="CH33" s="63"/>
-      <c r="CI33" s="63"/>
-      <c r="CJ33" s="63"/>
-      <c r="CK33" s="63"/>
-      <c r="CL33" s="63"/>
-      <c r="CM33" s="63"/>
-      <c r="CN33" s="63"/>
-      <c r="CO33" s="63"/>
-      <c r="CP33" s="63"/>
-      <c r="CQ33" s="63"/>
-      <c r="CR33" s="63"/>
-      <c r="CS33" s="63"/>
-      <c r="CT33" s="63"/>
-      <c r="CU33" s="63"/>
-      <c r="CV33" s="63"/>
-      <c r="CW33" s="63"/>
-      <c r="CX33" s="63"/>
-      <c r="CY33" s="63"/>
-      <c r="CZ33" s="63"/>
-      <c r="DA33" s="63"/>
-      <c r="DB33" s="63"/>
-      <c r="DC33" s="63"/>
-      <c r="DD33" s="63"/>
-      <c r="DE33" s="63"/>
-      <c r="DF33" s="63"/>
-      <c r="DG33" s="63"/>
-      <c r="DH33" s="63"/>
-      <c r="DI33" s="63"/>
-      <c r="DJ33" s="63"/>
-      <c r="DK33" s="63"/>
-      <c r="DL33" s="63"/>
-      <c r="DM33" s="63"/>
-      <c r="DN33" s="63"/>
-      <c r="DO33" s="63"/>
-      <c r="DP33" s="63"/>
-      <c r="DQ33" s="63"/>
-      <c r="DR33" s="63"/>
-      <c r="DS33" s="63"/>
-      <c r="DT33" s="63"/>
-      <c r="DU33" s="63"/>
-      <c r="DV33" s="63"/>
-      <c r="DW33" s="63"/>
-      <c r="DX33" s="63"/>
-      <c r="DY33" s="63"/>
+      <c r="AS33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AT33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AU33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AW33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AX33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AY33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AZ33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BA33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BB33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BC33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BD33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BE33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BF33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BG33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BH33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BI33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BJ33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BK33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BL33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BM33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BN33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BO33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BP33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BQ33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BR33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BS33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BT33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BU33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BV33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BW33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BX33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BY33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BZ33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CA33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CB33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CC33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CD33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CE33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CF33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CG33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CH33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CI33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CJ33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CK33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CM33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CN33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CO33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CP33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CQ33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CR33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CS33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CT33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CU33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CV33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CW33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CX33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CY33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CZ33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DA33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DB33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DC33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DD33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DE33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DF33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DG33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DH33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DI33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DJ33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DK33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DL33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DM33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DN33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DO33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DP33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DQ33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DR33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DS33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DT33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DU33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DV33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DW33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DX33" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DY33" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="DZ33" s="3"/>
       <c r="EA33" s="3"/>
     </row>
-    <row r="34" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>175</v>
       </c>
@@ -8991,136 +9227,346 @@
       <c r="C34" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="D34" s="67"/>
+      <c r="D34" s="68" t="s">
+        <v>400</v>
+      </c>
       <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
+      <c r="F34" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="G34" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="H34" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="I34" s="67" t="s">
+        <v>401</v>
+      </c>
       <c r="J34" s="63"/>
       <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
+      <c r="L34" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="M34" s="63"/>
       <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
+      <c r="O34" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="P34" s="63"/>
       <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
+      <c r="R34" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="S34" s="63"/>
       <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
+      <c r="U34" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="V34" s="63"/>
       <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
+      <c r="X34" s="67" t="s">
+        <v>401</v>
+      </c>
       <c r="Y34" s="63"/>
       <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
+      <c r="AA34" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="AB34" s="63"/>
       <c r="AC34" s="63"/>
-      <c r="AD34" s="63"/>
+      <c r="AD34" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="AE34" s="63"/>
       <c r="AF34" s="63"/>
-      <c r="AG34" s="63"/>
+      <c r="AG34" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="AH34" s="63"/>
       <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="63"/>
-      <c r="AM34" s="63"/>
-      <c r="AN34" s="63"/>
-      <c r="AO34" s="63"/>
-      <c r="AP34" s="63"/>
+      <c r="AJ34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AK34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AL34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AM34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AP34" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="AQ34" s="63"/>
       <c r="AR34" s="63"/>
-      <c r="AS34" s="63"/>
-      <c r="AT34" s="63"/>
-      <c r="AU34" s="63"/>
-      <c r="AV34" s="63"/>
-      <c r="AW34" s="63"/>
-      <c r="AX34" s="63"/>
-      <c r="AY34" s="63"/>
-      <c r="AZ34" s="63"/>
-      <c r="BA34" s="63"/>
-      <c r="BB34" s="63"/>
-      <c r="BC34" s="63"/>
-      <c r="BD34" s="63"/>
-      <c r="BE34" s="63"/>
-      <c r="BF34" s="63"/>
-      <c r="BG34" s="63"/>
-      <c r="BH34" s="63"/>
-      <c r="BI34" s="63"/>
-      <c r="BJ34" s="63"/>
-      <c r="BK34" s="63"/>
-      <c r="BL34" s="63"/>
-      <c r="BM34" s="63"/>
-      <c r="BN34" s="63"/>
-      <c r="BO34" s="63"/>
-      <c r="BP34" s="63"/>
-      <c r="BQ34" s="63"/>
-      <c r="BR34" s="63"/>
-      <c r="BS34" s="63"/>
-      <c r="BT34" s="63"/>
-      <c r="BU34" s="63"/>
-      <c r="BV34" s="63"/>
-      <c r="BW34" s="63"/>
-      <c r="BX34" s="63"/>
-      <c r="BY34" s="63"/>
-      <c r="BZ34" s="63"/>
-      <c r="CA34" s="63"/>
-      <c r="CB34" s="63"/>
-      <c r="CC34" s="63"/>
-      <c r="CD34" s="63"/>
-      <c r="CE34" s="63"/>
-      <c r="CF34" s="63"/>
-      <c r="CG34" s="63"/>
-      <c r="CH34" s="63"/>
-      <c r="CI34" s="63"/>
-      <c r="CJ34" s="63"/>
-      <c r="CK34" s="63"/>
-      <c r="CL34" s="63"/>
-      <c r="CM34" s="63"/>
-      <c r="CN34" s="63"/>
-      <c r="CO34" s="63"/>
-      <c r="CP34" s="63"/>
-      <c r="CQ34" s="63"/>
-      <c r="CR34" s="63"/>
-      <c r="CS34" s="63"/>
-      <c r="CT34" s="63"/>
-      <c r="CU34" s="63"/>
-      <c r="CV34" s="63"/>
-      <c r="CW34" s="63"/>
-      <c r="CX34" s="63"/>
-      <c r="CY34" s="63"/>
-      <c r="CZ34" s="63"/>
-      <c r="DA34" s="63"/>
-      <c r="DB34" s="63"/>
-      <c r="DC34" s="63"/>
-      <c r="DD34" s="63"/>
-      <c r="DE34" s="63"/>
-      <c r="DF34" s="63"/>
-      <c r="DG34" s="63"/>
-      <c r="DH34" s="63"/>
-      <c r="DI34" s="63"/>
-      <c r="DJ34" s="63"/>
-      <c r="DK34" s="63"/>
-      <c r="DL34" s="63"/>
-      <c r="DM34" s="63"/>
-      <c r="DN34" s="63"/>
-      <c r="DO34" s="63"/>
-      <c r="DP34" s="63"/>
-      <c r="DQ34" s="63"/>
-      <c r="DR34" s="63"/>
-      <c r="DS34" s="63"/>
-      <c r="DT34" s="63"/>
-      <c r="DU34" s="63"/>
-      <c r="DV34" s="63"/>
-      <c r="DW34" s="63"/>
-      <c r="DX34" s="63"/>
-      <c r="DY34" s="63"/>
+      <c r="AS34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AT34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AU34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AW34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AX34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AY34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AZ34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BA34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BB34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BC34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BD34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BE34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BF34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BG34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BH34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BI34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BJ34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BK34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BL34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BM34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BN34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BO34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BP34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BQ34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BR34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BS34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BT34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BU34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BV34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BW34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BX34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BY34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BZ34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CA34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CB34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CC34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CD34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CE34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CF34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CG34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CH34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CI34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CJ34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CK34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CM34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CN34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CO34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CP34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CQ34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CR34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CS34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CT34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CU34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CV34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CW34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CX34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CY34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="CZ34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DA34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DB34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DC34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DD34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DE34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DF34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DG34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DH34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DI34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DJ34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DK34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DL34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DM34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DN34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DO34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DP34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DQ34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DR34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DS34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DT34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DU34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DV34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DW34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DX34" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="DY34" s="63" t="s">
+        <v>401</v>
+      </c>
       <c r="DZ34" s="3"/>
       <c r="EA34" s="3"/>
     </row>
-    <row r="35" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>175</v>
       </c>
@@ -9130,136 +9576,346 @@
       <c r="C35" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D35" s="67"/>
+      <c r="D35" s="67" t="s">
+        <v>139</v>
+      </c>
       <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
+      <c r="F35" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="67" t="s">
+        <v>138</v>
+      </c>
       <c r="J35" s="63"/>
       <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
+      <c r="L35" s="63" t="s">
+        <v>138</v>
+      </c>
       <c r="M35" s="63"/>
       <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
+      <c r="O35" s="63" t="s">
+        <v>138</v>
+      </c>
       <c r="P35" s="63"/>
       <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
+      <c r="R35" s="63" t="s">
+        <v>138</v>
+      </c>
       <c r="S35" s="63"/>
       <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
+      <c r="U35" s="63" t="s">
+        <v>138</v>
+      </c>
       <c r="V35" s="63"/>
       <c r="W35" s="63"/>
-      <c r="X35" s="63"/>
+      <c r="X35" s="67" t="s">
+        <v>138</v>
+      </c>
       <c r="Y35" s="63"/>
       <c r="Z35" s="63"/>
-      <c r="AA35" s="63"/>
+      <c r="AA35" s="63" t="s">
+        <v>138</v>
+      </c>
       <c r="AB35" s="63"/>
       <c r="AC35" s="63"/>
-      <c r="AD35" s="63"/>
+      <c r="AD35" s="63" t="s">
+        <v>138</v>
+      </c>
       <c r="AE35" s="63"/>
       <c r="AF35" s="63"/>
-      <c r="AG35" s="63"/>
+      <c r="AG35" s="63" t="s">
+        <v>138</v>
+      </c>
       <c r="AH35" s="63"/>
       <c r="AI35" s="63"/>
-      <c r="AJ35" s="63"/>
-      <c r="AK35" s="63"/>
-      <c r="AL35" s="63"/>
-      <c r="AM35" s="63"/>
-      <c r="AN35" s="63"/>
-      <c r="AO35" s="63"/>
-      <c r="AP35" s="63"/>
+      <c r="AJ35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP35" s="63" t="s">
+        <v>138</v>
+      </c>
       <c r="AQ35" s="63"/>
       <c r="AR35" s="63"/>
-      <c r="AS35" s="63"/>
-      <c r="AT35" s="63"/>
-      <c r="AU35" s="63"/>
-      <c r="AV35" s="63"/>
-      <c r="AW35" s="63"/>
-      <c r="AX35" s="63"/>
-      <c r="AY35" s="63"/>
-      <c r="AZ35" s="63"/>
-      <c r="BA35" s="63"/>
-      <c r="BB35" s="63"/>
-      <c r="BC35" s="63"/>
-      <c r="BD35" s="63"/>
-      <c r="BE35" s="63"/>
-      <c r="BF35" s="63"/>
-      <c r="BG35" s="63"/>
-      <c r="BH35" s="63"/>
-      <c r="BI35" s="63"/>
-      <c r="BJ35" s="63"/>
-      <c r="BK35" s="63"/>
-      <c r="BL35" s="63"/>
-      <c r="BM35" s="63"/>
-      <c r="BN35" s="63"/>
-      <c r="BO35" s="63"/>
-      <c r="BP35" s="63"/>
-      <c r="BQ35" s="63"/>
-      <c r="BR35" s="63"/>
-      <c r="BS35" s="63"/>
-      <c r="BT35" s="63"/>
-      <c r="BU35" s="63"/>
-      <c r="BV35" s="63"/>
-      <c r="BW35" s="63"/>
-      <c r="BX35" s="63"/>
-      <c r="BY35" s="63"/>
-      <c r="BZ35" s="63"/>
-      <c r="CA35" s="63"/>
-      <c r="CB35" s="63"/>
-      <c r="CC35" s="63"/>
-      <c r="CD35" s="63"/>
-      <c r="CE35" s="63"/>
-      <c r="CF35" s="63"/>
-      <c r="CG35" s="63"/>
-      <c r="CH35" s="63"/>
-      <c r="CI35" s="63"/>
-      <c r="CJ35" s="63"/>
-      <c r="CK35" s="63"/>
-      <c r="CL35" s="63"/>
-      <c r="CM35" s="63"/>
-      <c r="CN35" s="63"/>
-      <c r="CO35" s="63"/>
-      <c r="CP35" s="63"/>
-      <c r="CQ35" s="63"/>
-      <c r="CR35" s="63"/>
-      <c r="CS35" s="63"/>
-      <c r="CT35" s="63"/>
-      <c r="CU35" s="63"/>
-      <c r="CV35" s="63"/>
-      <c r="CW35" s="63"/>
-      <c r="CX35" s="63"/>
-      <c r="CY35" s="63"/>
-      <c r="CZ35" s="63"/>
-      <c r="DA35" s="63"/>
-      <c r="DB35" s="63"/>
-      <c r="DC35" s="63"/>
-      <c r="DD35" s="63"/>
-      <c r="DE35" s="63"/>
-      <c r="DF35" s="63"/>
-      <c r="DG35" s="63"/>
-      <c r="DH35" s="63"/>
-      <c r="DI35" s="63"/>
-      <c r="DJ35" s="63"/>
-      <c r="DK35" s="63"/>
-      <c r="DL35" s="63"/>
-      <c r="DM35" s="63"/>
-      <c r="DN35" s="63"/>
-      <c r="DO35" s="63"/>
-      <c r="DP35" s="63"/>
-      <c r="DQ35" s="63"/>
-      <c r="DR35" s="63"/>
-      <c r="DS35" s="63"/>
-      <c r="DT35" s="63"/>
-      <c r="DU35" s="63"/>
-      <c r="DV35" s="63"/>
-      <c r="DW35" s="63"/>
-      <c r="DX35" s="63"/>
-      <c r="DY35" s="63"/>
+      <c r="AS35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BY35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CB35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CI35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CK35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CL35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CM35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CN35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CO35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CP35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CQ35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CR35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CS35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CT35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CV35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CX35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CY35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="CZ35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DA35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DB35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DC35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DD35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DE35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DF35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DG35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DH35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DI35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DJ35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DK35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DL35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DM35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DN35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DO35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DP35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DQ35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DR35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DS35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DT35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DU35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DV35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DW35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DX35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="DY35" s="63" t="s">
+        <v>138</v>
+      </c>
       <c r="DZ35" s="3"/>
       <c r="EA35" s="3"/>
     </row>
-    <row r="36" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>175</v>
       </c>
@@ -9269,136 +9925,346 @@
       <c r="C36" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D36" s="67"/>
+      <c r="D36" s="67" t="s">
+        <v>336</v>
+      </c>
       <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
+      <c r="F36" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="H36" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>336</v>
+      </c>
       <c r="J36" s="63"/>
       <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
+      <c r="L36" s="63" t="s">
+        <v>336</v>
+      </c>
       <c r="M36" s="63"/>
       <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
+      <c r="O36" s="63" t="s">
+        <v>336</v>
+      </c>
       <c r="P36" s="63"/>
       <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
+      <c r="R36" s="63" t="s">
+        <v>336</v>
+      </c>
       <c r="S36" s="63"/>
       <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
+      <c r="U36" s="63" t="s">
+        <v>336</v>
+      </c>
       <c r="V36" s="63"/>
       <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
+      <c r="X36" s="67" t="s">
+        <v>336</v>
+      </c>
       <c r="Y36" s="63"/>
       <c r="Z36" s="63"/>
-      <c r="AA36" s="63"/>
+      <c r="AA36" s="63" t="s">
+        <v>336</v>
+      </c>
       <c r="AB36" s="63"/>
       <c r="AC36" s="63"/>
-      <c r="AD36" s="63"/>
+      <c r="AD36" s="63" t="s">
+        <v>336</v>
+      </c>
       <c r="AE36" s="63"/>
       <c r="AF36" s="63"/>
-      <c r="AG36" s="63"/>
+      <c r="AG36" s="63" t="s">
+        <v>336</v>
+      </c>
       <c r="AH36" s="63"/>
       <c r="AI36" s="63"/>
-      <c r="AJ36" s="63"/>
-      <c r="AK36" s="63"/>
-      <c r="AL36" s="63"/>
-      <c r="AM36" s="63"/>
-      <c r="AN36" s="63"/>
-      <c r="AO36" s="63"/>
-      <c r="AP36" s="63"/>
+      <c r="AJ36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AO36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP36" s="63" t="s">
+        <v>336</v>
+      </c>
       <c r="AQ36" s="63"/>
       <c r="AR36" s="63"/>
-      <c r="AS36" s="63"/>
-      <c r="AT36" s="63"/>
-      <c r="AU36" s="63"/>
-      <c r="AV36" s="63"/>
-      <c r="AW36" s="63"/>
-      <c r="AX36" s="63"/>
-      <c r="AY36" s="63"/>
-      <c r="AZ36" s="63"/>
-      <c r="BA36" s="63"/>
-      <c r="BB36" s="63"/>
-      <c r="BC36" s="63"/>
-      <c r="BD36" s="63"/>
-      <c r="BE36" s="63"/>
-      <c r="BF36" s="63"/>
-      <c r="BG36" s="63"/>
-      <c r="BH36" s="63"/>
-      <c r="BI36" s="63"/>
-      <c r="BJ36" s="63"/>
-      <c r="BK36" s="63"/>
-      <c r="BL36" s="63"/>
-      <c r="BM36" s="63"/>
-      <c r="BN36" s="63"/>
-      <c r="BO36" s="63"/>
-      <c r="BP36" s="63"/>
-      <c r="BQ36" s="63"/>
-      <c r="BR36" s="63"/>
-      <c r="BS36" s="63"/>
-      <c r="BT36" s="63"/>
-      <c r="BU36" s="63"/>
-      <c r="BV36" s="63"/>
-      <c r="BW36" s="63"/>
-      <c r="BX36" s="63"/>
-      <c r="BY36" s="63"/>
-      <c r="BZ36" s="63"/>
-      <c r="CA36" s="63"/>
-      <c r="CB36" s="63"/>
-      <c r="CC36" s="63"/>
-      <c r="CD36" s="63"/>
-      <c r="CE36" s="63"/>
-      <c r="CF36" s="63"/>
-      <c r="CG36" s="63"/>
-      <c r="CH36" s="63"/>
-      <c r="CI36" s="63"/>
-      <c r="CJ36" s="63"/>
-      <c r="CK36" s="63"/>
-      <c r="CL36" s="63"/>
-      <c r="CM36" s="63"/>
-      <c r="CN36" s="63"/>
-      <c r="CO36" s="63"/>
-      <c r="CP36" s="63"/>
-      <c r="CQ36" s="63"/>
-      <c r="CR36" s="63"/>
-      <c r="CS36" s="63"/>
-      <c r="CT36" s="63"/>
-      <c r="CU36" s="63"/>
-      <c r="CV36" s="63"/>
-      <c r="CW36" s="63"/>
-      <c r="CX36" s="63"/>
-      <c r="CY36" s="63"/>
-      <c r="CZ36" s="63"/>
-      <c r="DA36" s="63"/>
-      <c r="DB36" s="63"/>
-      <c r="DC36" s="63"/>
-      <c r="DD36" s="63"/>
-      <c r="DE36" s="63"/>
-      <c r="DF36" s="63"/>
-      <c r="DG36" s="63"/>
-      <c r="DH36" s="63"/>
-      <c r="DI36" s="63"/>
-      <c r="DJ36" s="63"/>
-      <c r="DK36" s="63"/>
-      <c r="DL36" s="63"/>
-      <c r="DM36" s="63"/>
-      <c r="DN36" s="63"/>
-      <c r="DO36" s="63"/>
-      <c r="DP36" s="63"/>
-      <c r="DQ36" s="63"/>
-      <c r="DR36" s="63"/>
-      <c r="DS36" s="63"/>
-      <c r="DT36" s="63"/>
-      <c r="DU36" s="63"/>
-      <c r="DV36" s="63"/>
-      <c r="DW36" s="63"/>
-      <c r="DX36" s="63"/>
-      <c r="DY36" s="63"/>
+      <c r="AS36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AU36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AV36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AW36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AX36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AY36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AZ36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BA36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BB36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BC36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BD36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BE36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BF36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BG36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BH36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BI36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BJ36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BK36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BL36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BM36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BN36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BO36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BP36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BQ36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BR36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BT36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BU36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BV36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BW36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BX36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BY36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="BZ36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CA36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CC36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CD36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CE36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CF36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CG36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CH36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CI36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CJ36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CK36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CL36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CM36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CN36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CO36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CP36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CQ36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CR36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CS36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CT36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CU36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CV36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CW36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CX36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CY36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="CZ36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DA36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DB36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DC36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DD36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DE36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DF36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DG36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DH36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DI36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DJ36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DK36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DL36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DM36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DN36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DO36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DP36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DQ36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DR36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DS36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DT36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DU36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DV36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DW36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DX36" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="DY36" s="63" t="s">
+        <v>336</v>
+      </c>
       <c r="DZ36" s="3"/>
       <c r="EA36" s="3"/>
     </row>
-    <row r="37" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>175</v>
       </c>
@@ -9408,136 +10274,136 @@
       <c r="C37" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="63"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="63"/>
-      <c r="Z37" s="63"/>
-      <c r="AA37" s="63"/>
-      <c r="AB37" s="63"/>
-      <c r="AC37" s="63"/>
-      <c r="AD37" s="63"/>
-      <c r="AE37" s="63"/>
-      <c r="AF37" s="63"/>
-      <c r="AG37" s="63"/>
-      <c r="AH37" s="63"/>
-      <c r="AI37" s="63"/>
-      <c r="AJ37" s="63"/>
-      <c r="AK37" s="63"/>
-      <c r="AL37" s="63"/>
-      <c r="AM37" s="63"/>
-      <c r="AN37" s="63"/>
-      <c r="AO37" s="63"/>
-      <c r="AP37" s="63"/>
-      <c r="AQ37" s="63"/>
-      <c r="AR37" s="63"/>
-      <c r="AS37" s="63"/>
-      <c r="AT37" s="63"/>
-      <c r="AU37" s="63"/>
-      <c r="AV37" s="63"/>
-      <c r="AW37" s="63"/>
-      <c r="AX37" s="63"/>
-      <c r="AY37" s="63"/>
-      <c r="AZ37" s="63"/>
-      <c r="BA37" s="63"/>
-      <c r="BB37" s="63"/>
-      <c r="BC37" s="63"/>
-      <c r="BD37" s="63"/>
-      <c r="BE37" s="63"/>
-      <c r="BF37" s="63"/>
-      <c r="BG37" s="63"/>
-      <c r="BH37" s="63"/>
-      <c r="BI37" s="63"/>
-      <c r="BJ37" s="63"/>
-      <c r="BK37" s="63"/>
-      <c r="BL37" s="63"/>
-      <c r="BM37" s="63"/>
-      <c r="BN37" s="63"/>
-      <c r="BO37" s="63"/>
-      <c r="BP37" s="63"/>
-      <c r="BQ37" s="63"/>
-      <c r="BR37" s="63"/>
-      <c r="BS37" s="63"/>
-      <c r="BT37" s="63"/>
-      <c r="BU37" s="63"/>
-      <c r="BV37" s="63"/>
-      <c r="BW37" s="63"/>
-      <c r="BX37" s="63"/>
-      <c r="BY37" s="63"/>
-      <c r="BZ37" s="63"/>
-      <c r="CA37" s="63"/>
-      <c r="CB37" s="63"/>
-      <c r="CC37" s="63"/>
-      <c r="CD37" s="63"/>
-      <c r="CE37" s="63"/>
-      <c r="CF37" s="63"/>
-      <c r="CG37" s="63"/>
-      <c r="CH37" s="63"/>
-      <c r="CI37" s="63"/>
-      <c r="CJ37" s="63"/>
-      <c r="CK37" s="63"/>
-      <c r="CL37" s="63"/>
-      <c r="CM37" s="63"/>
-      <c r="CN37" s="63"/>
-      <c r="CO37" s="63"/>
-      <c r="CP37" s="63"/>
-      <c r="CQ37" s="63"/>
-      <c r="CR37" s="63"/>
-      <c r="CS37" s="63"/>
-      <c r="CT37" s="63"/>
-      <c r="CU37" s="63"/>
-      <c r="CV37" s="63"/>
-      <c r="CW37" s="63"/>
-      <c r="CX37" s="63"/>
-      <c r="CY37" s="63"/>
-      <c r="CZ37" s="63"/>
-      <c r="DA37" s="63"/>
-      <c r="DB37" s="63"/>
-      <c r="DC37" s="63"/>
-      <c r="DD37" s="63"/>
-      <c r="DE37" s="63"/>
-      <c r="DF37" s="63"/>
-      <c r="DG37" s="63"/>
-      <c r="DH37" s="63"/>
-      <c r="DI37" s="63"/>
-      <c r="DJ37" s="63"/>
-      <c r="DK37" s="63"/>
-      <c r="DL37" s="63"/>
-      <c r="DM37" s="63"/>
-      <c r="DN37" s="63"/>
-      <c r="DO37" s="63"/>
-      <c r="DP37" s="63"/>
-      <c r="DQ37" s="63"/>
-      <c r="DR37" s="63"/>
-      <c r="DS37" s="63"/>
-      <c r="DT37" s="63"/>
-      <c r="DU37" s="63"/>
-      <c r="DV37" s="63"/>
-      <c r="DW37" s="63"/>
-      <c r="DX37" s="63"/>
-      <c r="DY37" s="63"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="73"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="73"/>
+      <c r="AH37" s="73"/>
+      <c r="AI37" s="73"/>
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="73"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="73"/>
+      <c r="AN37" s="73"/>
+      <c r="AO37" s="73"/>
+      <c r="AP37" s="73"/>
+      <c r="AQ37" s="73"/>
+      <c r="AR37" s="73"/>
+      <c r="AS37" s="73"/>
+      <c r="AT37" s="73"/>
+      <c r="AU37" s="73"/>
+      <c r="AV37" s="73"/>
+      <c r="AW37" s="73"/>
+      <c r="AX37" s="73"/>
+      <c r="AY37" s="73"/>
+      <c r="AZ37" s="73"/>
+      <c r="BA37" s="73"/>
+      <c r="BB37" s="73"/>
+      <c r="BC37" s="73"/>
+      <c r="BD37" s="73"/>
+      <c r="BE37" s="73"/>
+      <c r="BF37" s="73"/>
+      <c r="BG37" s="73"/>
+      <c r="BH37" s="73"/>
+      <c r="BI37" s="73"/>
+      <c r="BJ37" s="73"/>
+      <c r="BK37" s="73"/>
+      <c r="BL37" s="73"/>
+      <c r="BM37" s="73"/>
+      <c r="BN37" s="73"/>
+      <c r="BO37" s="73"/>
+      <c r="BP37" s="73"/>
+      <c r="BQ37" s="73"/>
+      <c r="BR37" s="73"/>
+      <c r="BS37" s="73"/>
+      <c r="BT37" s="73"/>
+      <c r="BU37" s="73"/>
+      <c r="BV37" s="73"/>
+      <c r="BW37" s="73"/>
+      <c r="BX37" s="73"/>
+      <c r="BY37" s="73"/>
+      <c r="BZ37" s="73"/>
+      <c r="CA37" s="73"/>
+      <c r="CB37" s="73"/>
+      <c r="CC37" s="73"/>
+      <c r="CD37" s="73"/>
+      <c r="CE37" s="73"/>
+      <c r="CF37" s="73"/>
+      <c r="CG37" s="73"/>
+      <c r="CH37" s="73"/>
+      <c r="CI37" s="73"/>
+      <c r="CJ37" s="73"/>
+      <c r="CK37" s="73"/>
+      <c r="CL37" s="73"/>
+      <c r="CM37" s="73"/>
+      <c r="CN37" s="73"/>
+      <c r="CO37" s="73"/>
+      <c r="CP37" s="73"/>
+      <c r="CQ37" s="73"/>
+      <c r="CR37" s="73"/>
+      <c r="CS37" s="73"/>
+      <c r="CT37" s="73"/>
+      <c r="CU37" s="73"/>
+      <c r="CV37" s="73"/>
+      <c r="CW37" s="73"/>
+      <c r="CX37" s="73"/>
+      <c r="CY37" s="73"/>
+      <c r="CZ37" s="73"/>
+      <c r="DA37" s="73"/>
+      <c r="DB37" s="73"/>
+      <c r="DC37" s="73"/>
+      <c r="DD37" s="73"/>
+      <c r="DE37" s="73"/>
+      <c r="DF37" s="73"/>
+      <c r="DG37" s="73"/>
+      <c r="DH37" s="73"/>
+      <c r="DI37" s="73"/>
+      <c r="DJ37" s="73"/>
+      <c r="DK37" s="73"/>
+      <c r="DL37" s="73"/>
+      <c r="DM37" s="73"/>
+      <c r="DN37" s="73"/>
+      <c r="DO37" s="73"/>
+      <c r="DP37" s="73"/>
+      <c r="DQ37" s="73"/>
+      <c r="DR37" s="73"/>
+      <c r="DS37" s="73"/>
+      <c r="DT37" s="73"/>
+      <c r="DU37" s="73"/>
+      <c r="DV37" s="73"/>
+      <c r="DW37" s="73"/>
+      <c r="DX37" s="73"/>
+      <c r="DY37" s="73"/>
       <c r="DZ37" s="3"/>
       <c r="EA37" s="3"/>
     </row>
-    <row r="38" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>175</v>
       </c>
@@ -9547,136 +10413,136 @@
       <c r="C38" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
-      <c r="AD38" s="63"/>
-      <c r="AE38" s="63"/>
-      <c r="AF38" s="63"/>
-      <c r="AG38" s="63"/>
-      <c r="AH38" s="63"/>
-      <c r="AI38" s="63"/>
-      <c r="AJ38" s="63"/>
-      <c r="AK38" s="63"/>
-      <c r="AL38" s="63"/>
-      <c r="AM38" s="63"/>
-      <c r="AN38" s="63"/>
-      <c r="AO38" s="63"/>
-      <c r="AP38" s="63"/>
-      <c r="AQ38" s="63"/>
-      <c r="AR38" s="63"/>
-      <c r="AS38" s="63"/>
-      <c r="AT38" s="63"/>
-      <c r="AU38" s="63"/>
-      <c r="AV38" s="63"/>
-      <c r="AW38" s="63"/>
-      <c r="AX38" s="63"/>
-      <c r="AY38" s="63"/>
-      <c r="AZ38" s="63"/>
-      <c r="BA38" s="63"/>
-      <c r="BB38" s="63"/>
-      <c r="BC38" s="63"/>
-      <c r="BD38" s="63"/>
-      <c r="BE38" s="63"/>
-      <c r="BF38" s="63"/>
-      <c r="BG38" s="63"/>
-      <c r="BH38" s="63"/>
-      <c r="BI38" s="63"/>
-      <c r="BJ38" s="63"/>
-      <c r="BK38" s="63"/>
-      <c r="BL38" s="63"/>
-      <c r="BM38" s="63"/>
-      <c r="BN38" s="63"/>
-      <c r="BO38" s="63"/>
-      <c r="BP38" s="63"/>
-      <c r="BQ38" s="63"/>
-      <c r="BR38" s="63"/>
-      <c r="BS38" s="63"/>
-      <c r="BT38" s="63"/>
-      <c r="BU38" s="63"/>
-      <c r="BV38" s="63"/>
-      <c r="BW38" s="63"/>
-      <c r="BX38" s="63"/>
-      <c r="BY38" s="63"/>
-      <c r="BZ38" s="63"/>
-      <c r="CA38" s="63"/>
-      <c r="CB38" s="63"/>
-      <c r="CC38" s="63"/>
-      <c r="CD38" s="63"/>
-      <c r="CE38" s="63"/>
-      <c r="CF38" s="63"/>
-      <c r="CG38" s="63"/>
-      <c r="CH38" s="63"/>
-      <c r="CI38" s="63"/>
-      <c r="CJ38" s="63"/>
-      <c r="CK38" s="63"/>
-      <c r="CL38" s="63"/>
-      <c r="CM38" s="63"/>
-      <c r="CN38" s="63"/>
-      <c r="CO38" s="63"/>
-      <c r="CP38" s="63"/>
-      <c r="CQ38" s="63"/>
-      <c r="CR38" s="63"/>
-      <c r="CS38" s="63"/>
-      <c r="CT38" s="63"/>
-      <c r="CU38" s="63"/>
-      <c r="CV38" s="63"/>
-      <c r="CW38" s="63"/>
-      <c r="CX38" s="63"/>
-      <c r="CY38" s="63"/>
-      <c r="CZ38" s="63"/>
-      <c r="DA38" s="63"/>
-      <c r="DB38" s="63"/>
-      <c r="DC38" s="63"/>
-      <c r="DD38" s="63"/>
-      <c r="DE38" s="63"/>
-      <c r="DF38" s="63"/>
-      <c r="DG38" s="63"/>
-      <c r="DH38" s="63"/>
-      <c r="DI38" s="63"/>
-      <c r="DJ38" s="63"/>
-      <c r="DK38" s="63"/>
-      <c r="DL38" s="63"/>
-      <c r="DM38" s="63"/>
-      <c r="DN38" s="63"/>
-      <c r="DO38" s="63"/>
-      <c r="DP38" s="63"/>
-      <c r="DQ38" s="63"/>
-      <c r="DR38" s="63"/>
-      <c r="DS38" s="63"/>
-      <c r="DT38" s="63"/>
-      <c r="DU38" s="63"/>
-      <c r="DV38" s="63"/>
-      <c r="DW38" s="63"/>
-      <c r="DX38" s="63"/>
-      <c r="DY38" s="63"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="73"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="73"/>
+      <c r="AG38" s="73"/>
+      <c r="AH38" s="73"/>
+      <c r="AI38" s="73"/>
+      <c r="AJ38" s="73"/>
+      <c r="AK38" s="73"/>
+      <c r="AL38" s="73"/>
+      <c r="AM38" s="73"/>
+      <c r="AN38" s="73"/>
+      <c r="AO38" s="73"/>
+      <c r="AP38" s="73"/>
+      <c r="AQ38" s="73"/>
+      <c r="AR38" s="73"/>
+      <c r="AS38" s="73"/>
+      <c r="AT38" s="73"/>
+      <c r="AU38" s="73"/>
+      <c r="AV38" s="73"/>
+      <c r="AW38" s="73"/>
+      <c r="AX38" s="73"/>
+      <c r="AY38" s="73"/>
+      <c r="AZ38" s="73"/>
+      <c r="BA38" s="73"/>
+      <c r="BB38" s="73"/>
+      <c r="BC38" s="73"/>
+      <c r="BD38" s="73"/>
+      <c r="BE38" s="73"/>
+      <c r="BF38" s="73"/>
+      <c r="BG38" s="73"/>
+      <c r="BH38" s="73"/>
+      <c r="BI38" s="73"/>
+      <c r="BJ38" s="73"/>
+      <c r="BK38" s="73"/>
+      <c r="BL38" s="73"/>
+      <c r="BM38" s="73"/>
+      <c r="BN38" s="73"/>
+      <c r="BO38" s="73"/>
+      <c r="BP38" s="73"/>
+      <c r="BQ38" s="73"/>
+      <c r="BR38" s="73"/>
+      <c r="BS38" s="73"/>
+      <c r="BT38" s="73"/>
+      <c r="BU38" s="73"/>
+      <c r="BV38" s="73"/>
+      <c r="BW38" s="73"/>
+      <c r="BX38" s="73"/>
+      <c r="BY38" s="73"/>
+      <c r="BZ38" s="73"/>
+      <c r="CA38" s="73"/>
+      <c r="CB38" s="73"/>
+      <c r="CC38" s="73"/>
+      <c r="CD38" s="73"/>
+      <c r="CE38" s="73"/>
+      <c r="CF38" s="73"/>
+      <c r="CG38" s="73"/>
+      <c r="CH38" s="73"/>
+      <c r="CI38" s="73"/>
+      <c r="CJ38" s="73"/>
+      <c r="CK38" s="73"/>
+      <c r="CL38" s="73"/>
+      <c r="CM38" s="73"/>
+      <c r="CN38" s="73"/>
+      <c r="CO38" s="73"/>
+      <c r="CP38" s="73"/>
+      <c r="CQ38" s="73"/>
+      <c r="CR38" s="73"/>
+      <c r="CS38" s="73"/>
+      <c r="CT38" s="73"/>
+      <c r="CU38" s="73"/>
+      <c r="CV38" s="73"/>
+      <c r="CW38" s="73"/>
+      <c r="CX38" s="73"/>
+      <c r="CY38" s="73"/>
+      <c r="CZ38" s="73"/>
+      <c r="DA38" s="73"/>
+      <c r="DB38" s="73"/>
+      <c r="DC38" s="73"/>
+      <c r="DD38" s="73"/>
+      <c r="DE38" s="73"/>
+      <c r="DF38" s="73"/>
+      <c r="DG38" s="73"/>
+      <c r="DH38" s="73"/>
+      <c r="DI38" s="73"/>
+      <c r="DJ38" s="73"/>
+      <c r="DK38" s="73"/>
+      <c r="DL38" s="73"/>
+      <c r="DM38" s="73"/>
+      <c r="DN38" s="73"/>
+      <c r="DO38" s="73"/>
+      <c r="DP38" s="73"/>
+      <c r="DQ38" s="73"/>
+      <c r="DR38" s="73"/>
+      <c r="DS38" s="73"/>
+      <c r="DT38" s="73"/>
+      <c r="DU38" s="73"/>
+      <c r="DV38" s="73"/>
+      <c r="DW38" s="73"/>
+      <c r="DX38" s="73"/>
+      <c r="DY38" s="73"/>
       <c r="DZ38" s="3"/>
       <c r="EA38" s="3"/>
     </row>
-    <row r="39" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="54"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -9809,7 +10675,7 @@
       <c r="DZ39" s="56"/>
       <c r="EA39" s="56"/>
     </row>
-    <row r="40" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
         <v>177</v>
       </c>
@@ -10020,7 +10886,7 @@
       <c r="DZ40" s="3"/>
       <c r="EA40" s="3"/>
     </row>
-    <row r="41" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>177</v>
       </c>
@@ -10205,7 +11071,7 @@
       <c r="DZ41" s="7"/>
       <c r="EA41" s="7"/>
     </row>
-    <row r="42" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
         <v>177</v>
       </c>
@@ -10418,7 +11284,7 @@
       <c r="DZ42" s="3"/>
       <c r="EA42" s="3"/>
     </row>
-    <row r="43" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
         <v>177</v>
       </c>
@@ -10557,7 +11423,7 @@
       <c r="DZ43" s="3"/>
       <c r="EA43" s="3"/>
     </row>
-    <row r="44" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>177</v>
       </c>
@@ -10696,7 +11562,7 @@
       <c r="DZ44" s="3"/>
       <c r="EA44" s="3"/>
     </row>
-    <row r="45" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
         <v>177</v>
       </c>
@@ -10835,7 +11701,7 @@
       <c r="DZ45" s="3"/>
       <c r="EA45" s="3"/>
     </row>
-    <row r="46" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -10968,7 +11834,7 @@
       <c r="DZ46" s="56"/>
       <c r="EA46" s="56"/>
     </row>
-    <row r="47" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>297</v>
       </c>
@@ -11115,7 +11981,7 @@
       <c r="DZ47" s="3"/>
       <c r="EA47" s="3"/>
     </row>
-    <row r="48" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>297</v>
       </c>
@@ -11262,7 +12128,7 @@
       <c r="DZ48" s="7"/>
       <c r="EA48" s="7"/>
     </row>
-    <row r="49" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>297</v>
       </c>
@@ -11409,7 +12275,7 @@
       <c r="DZ49" s="3"/>
       <c r="EA49" s="3"/>
     </row>
-    <row r="50" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>297</v>
       </c>
@@ -11556,7 +12422,7 @@
       <c r="DZ50" s="3"/>
       <c r="EA50" s="3"/>
     </row>
-    <row r="51" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>297</v>
       </c>
@@ -11695,7 +12561,7 @@
       <c r="DZ51" s="3"/>
       <c r="EA51" s="3"/>
     </row>
-    <row r="52" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>297</v>
       </c>
@@ -11834,7 +12700,7 @@
       <c r="DZ52" s="3"/>
       <c r="EA52" s="3"/>
     </row>
-    <row r="53" spans="1:131" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:131" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="54"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -11967,7 +12833,7 @@
       <c r="DZ53" s="56"/>
       <c r="EA53" s="56"/>
     </row>
-    <row r="54" spans="1:131" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:131" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="61"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -12097,7 +12963,7 @@
       <c r="DZ54" s="22"/>
       <c r="EA54" s="22"/>
     </row>
-    <row r="55" spans="1:131" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:131" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="61"/>
       <c r="B55" s="16"/>
       <c r="C55" s="17"/>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\1SPL01_plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572DC572-5D94-47A0-9BDD-9AA9FEE5F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01D20AE-CC2D-4728-BA56-D27C959070EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-19440" yWindow="-1920" windowWidth="19543" windowHeight="12497" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -2803,7 +2803,7 @@
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7169,7 +7169,7 @@
       <c r="I24" s="51"/>
       <c r="J24" s="51"/>
       <c r="K24" s="51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L24" s="51"/>
       <c r="M24" s="51"/>
@@ -7199,7 +7199,7 @@
       <c r="AA24" s="51"/>
       <c r="AB24" s="51"/>
       <c r="AC24" s="51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD24" s="51"/>
       <c r="AE24" s="51"/>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\1SPL01_plants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\1SPL01_plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01D20AE-CC2D-4728-BA56-D27C959070EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2888FA-F4EA-4ABA-BD70-6E4BA665EB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19440" yWindow="-1920" windowWidth="19543" windowHeight="12497" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -2803,7 +2803,7 @@
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\1SPL01_plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2888FA-F4EA-4ABA-BD70-6E4BA665EB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB656E8-487B-463E-87F5-A79AEBF2F72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\1SPL01_plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA3E311-818C-48D9-9366-B7DD679EFE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB4B273-BEEE-47AD-B027-D5FA45069516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,8 +34,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A6730C41-F5DE-4F01-A3FC-095AF4373E4D}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A6730C41-F5DE-4F01-A3FC-095AF4373E4D}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=f12e98ee-a4e7-4ada-ba56-1e13cce1a44b</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
   <si>
     <t>Source Name</t>
   </si>
@@ -389,6 +409,144 @@
   </si>
   <si>
     <t>Characteristics [Time point]</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>f12e98ee-a4e7-4ada-ba56-1e13cce1a44b</t>
+  </si>
+  <si>
+    <t>Plant growth</t>
+  </si>
+  <si>
+    <t>Template to describe a plant growth study as well as sample collection and handling.</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>METABOLIGHTS</t>
+  </si>
+  <si>
+    <t>PRIDE</t>
+  </si>
+  <si>
+    <t>BIOSAMPLE</t>
+  </si>
+  <si>
+    <t>Plants</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Plant study</t>
+  </si>
+  <si>
+    <t>Jabeen</t>
+  </si>
+  <si>
+    <t>Brilhaus</t>
+  </si>
+  <si>
+    <t>Maus</t>
+  </si>
+  <si>
+    <t>Hajira</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>annotationTableUnluckyVampirebat89</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
   </si>
 </sst>
 </file>
@@ -400,7 +558,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,19 +566,121 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -429,11 +689,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -491,6 +781,78 @@
       <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
     </dxf>
     <dxf>
@@ -525,78 +887,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,6 +899,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{BFA4ADC4-8771-41AF-BD0E-9E56E7CC4977}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,59 +975,59 @@
     <tableColumn id="51" xr3:uid="{2D525B40-3237-4017-98F0-27AD5E830BF7}" name="Characteristics [Growth day length]"/>
     <tableColumn id="52" xr3:uid="{A55C0CA4-8AE0-49C3-A41C-3AE50E40758A}" name="Term Source REF (NFDI4PSO:0000041)"/>
     <tableColumn id="53" xr3:uid="{1477EDD7-1DCB-4770-BA05-F1CC0EFA9AD5}" name="Term Accession Number (NFDI4PSO:0000041)"/>
-    <tableColumn id="135" xr3:uid="{85247456-E764-4D3E-BF93-12E412A41198}" name="Characteristics [light intensity exposure]" dataDxfId="28"/>
-    <tableColumn id="136" xr3:uid="{93A50CDC-1E60-4366-AB54-D4E7EE771BBF}" name="Unit" dataDxfId="27"/>
-    <tableColumn id="137" xr3:uid="{23F71F80-EA30-4D98-9A5D-F47C1E28CA7D}" name="Term Source REF (PECO:0007224)" dataDxfId="26"/>
-    <tableColumn id="138" xr3:uid="{C7FAED94-6AB6-4857-B12A-3D43248B98D9}" name="Term Accession Number (PECO:0007224)" dataDxfId="25"/>
-    <tableColumn id="139" xr3:uid="{C3243056-CD27-4381-8490-101CEDC788A9}" name="Characteristics [Humidity Day]" dataDxfId="24"/>
-    <tableColumn id="140" xr3:uid="{1859E1B1-1EAC-418E-BACC-2BB44F677FFE}" name="Unit (#2)" dataDxfId="23"/>
-    <tableColumn id="141" xr3:uid="{798016FD-2838-4531-9398-3279D6A08C58}" name="Term Source REF (NFDI4PSO:0000005)" dataDxfId="22"/>
-    <tableColumn id="142" xr3:uid="{DA5B416D-F4A5-4D4E-8C25-A2ED3C4C82D4}" name="Term Accession Number (NFDI4PSO:0000005)" dataDxfId="21"/>
-    <tableColumn id="143" xr3:uid="{CFD14F66-5E52-44A1-8428-78197BFDC3B7}" name="Characteristics [Humidity Night]" dataDxfId="20"/>
-    <tableColumn id="144" xr3:uid="{CAB23864-751E-4921-B093-E7F5F36CAB4A}" name="Unit (#3)" dataDxfId="19"/>
-    <tableColumn id="145" xr3:uid="{C79AD268-C4B2-49CA-AC34-43CF8297D031}" name="Term Source REF (NFDI4PSO:0000006)" dataDxfId="18"/>
-    <tableColumn id="146" xr3:uid="{62B5FED7-2365-42A3-9552-8A0FA76E9908}" name="Term Accession Number (NFDI4PSO:0000006)" dataDxfId="17"/>
-    <tableColumn id="147" xr3:uid="{97BBD5E2-CDBA-451A-B789-7CF61859FFCB}" name="Characteristics [Temperature Day]" dataDxfId="16"/>
-    <tableColumn id="148" xr3:uid="{1C080C4C-851A-4E7C-896C-124F4716BA8C}" name="Unit (#4)" dataDxfId="15"/>
-    <tableColumn id="149" xr3:uid="{11E152AF-B6D8-46FF-B4D5-EC76EE12832C}" name="Term Source REF (NFDI4PSO:0000007)" dataDxfId="14"/>
-    <tableColumn id="150" xr3:uid="{FA942BE5-5F5A-4091-B5F2-EA84CB5A7C27}" name="Term Accession Number (NFDI4PSO:0000007)" dataDxfId="13"/>
-    <tableColumn id="151" xr3:uid="{6408990A-DF70-48CB-B8A8-528E0DD3D4F7}" name="Characteristics [Temperature Night]" dataDxfId="12"/>
-    <tableColumn id="152" xr3:uid="{7F17C2AE-76E7-4343-9112-49EADE039C2E}" name="Unit (#5)" dataDxfId="11"/>
-    <tableColumn id="153" xr3:uid="{A0CCAF50-1E7F-4ECE-B83C-CF1AFBBF54E2}" name="Term Source REF (NFDI4PSO:0000008)" dataDxfId="10"/>
-    <tableColumn id="154" xr3:uid="{9E0149D4-5109-4383-99E6-4D9EE5914487}" name="Term Accession Number (NFDI4PSO:0000008)" dataDxfId="9"/>
-    <tableColumn id="155" xr3:uid="{0D428223-9C3F-4A3F-ABC9-B6497EC9F4C7}" name="Characteristics [watering exposure]" dataDxfId="8"/>
-    <tableColumn id="156" xr3:uid="{0A90F49E-9F46-4E82-B592-5446DD648569}" name="Term Source REF (PECO:0007383)" dataDxfId="7"/>
-    <tableColumn id="157" xr3:uid="{6216E053-90BE-49F8-9C0C-7A6470F6D3DE}" name="Term Accession Number (PECO:0007383)" dataDxfId="6"/>
-    <tableColumn id="158" xr3:uid="{1ACB13C6-536F-41C7-91F2-B62AEB2DA8A4}" name="Characteristics [plant nutrient exposure]" dataDxfId="5"/>
-    <tableColumn id="159" xr3:uid="{97FEA8C0-4955-47E8-8E42-EFE66F8E2530}" name="Term Source REF (PECO:0007241)" dataDxfId="4"/>
-    <tableColumn id="160" xr3:uid="{159271F8-4343-4546-81D3-E7AE0438BF91}" name="Term Accession Number (PECO:0007241)" dataDxfId="3"/>
-    <tableColumn id="161" xr3:uid="{AC98601D-DB44-45A0-9639-848DD3D97821}" name="Characteristics [abiotic plant exposure]" dataDxfId="2"/>
-    <tableColumn id="162" xr3:uid="{1EF71984-AE79-45A3-B85C-3D63B9A45000}" name="Term Source REF (PECO:0007191)" dataDxfId="1"/>
-    <tableColumn id="163" xr3:uid="{58575740-B787-4889-B047-BE8097574A83}" name="Term Accession Number (PECO:0007191)" dataDxfId="0"/>
-    <tableColumn id="99" xr3:uid="{0AD23E00-4026-4DE6-9B26-1D80067F6D23}" name="Characteristics [biotic plant exposure]" dataDxfId="52"/>
-    <tableColumn id="100" xr3:uid="{A73EA20C-30F6-4F5A-BE9C-1F95EDAD2075}" name="Term Source REF (PECO:0007357)" dataDxfId="51"/>
-    <tableColumn id="101" xr3:uid="{7BC176DE-D288-440D-AE07-B17C6C087D41}" name="Term Accession Number (PECO:0007357)" dataDxfId="50"/>
-    <tableColumn id="102" xr3:uid="{E4B7F22F-69B7-45D9-A3CD-B8F269AFECB1}" name="Characteristics [Geogaphic Area]" dataDxfId="49"/>
-    <tableColumn id="103" xr3:uid="{571169D2-47B6-40AA-8E2B-8629455DE18E}" name="Term Source REF (NFDI4PSO:0000074)" dataDxfId="48"/>
-    <tableColumn id="104" xr3:uid="{B601805D-FC55-4818-BE56-E15EAC614D1A}" name="Term Accession Number (NFDI4PSO:0000074)" dataDxfId="47"/>
-    <tableColumn id="105" xr3:uid="{820EF1CB-22B2-4D90-A62E-60758945BF10}" name="Characteristics [Sample Collection Date]" dataDxfId="46"/>
-    <tableColumn id="106" xr3:uid="{20297405-2B24-48CF-B8F1-5C8FD0C57F7C}" name="Term Source REF (NFDI4PSO:0000075)" dataDxfId="45"/>
-    <tableColumn id="107" xr3:uid="{3D2321BF-EE54-4E22-8362-620DB8FCDC80}" name="Term Accession Number (NFDI4PSO:0000075)" dataDxfId="44"/>
-    <tableColumn id="108" xr3:uid="{7C136999-9BAF-43E5-855D-D97F492175D8}" name="Characteristics [Sample Collected By]" dataDxfId="43"/>
-    <tableColumn id="109" xr3:uid="{CDD0FBA0-5918-486C-BB4F-FBA37D34F559}" name="Term Source REF (NFDI4PSO:0000076)" dataDxfId="42"/>
-    <tableColumn id="110" xr3:uid="{9EEEA931-289F-4558-A4CD-BAA5A89EDBCB}" name="Term Accession Number (NFDI4PSO:0000076)" dataDxfId="41"/>
-    <tableColumn id="111" xr3:uid="{D539A2BF-683E-4EB0-A3FA-26F36AB2D491}" name="Characteristics [Time point]" dataDxfId="40"/>
-    <tableColumn id="112" xr3:uid="{67D48280-3922-4AE2-A629-EAEB3D5641B8}" name="Term Source REF (NFDI4PSO:0000034)" dataDxfId="39"/>
-    <tableColumn id="113" xr3:uid="{615E7959-5992-4D06-8A7B-DD39B89C4EEC}" name="Term Accession Number (NFDI4PSO:0000034)" dataDxfId="38"/>
-    <tableColumn id="114" xr3:uid="{4D9D42EB-53DB-46E9-AC66-722486F5B239}" name="Parameter [Sample Collection Method]" dataDxfId="37"/>
-    <tableColumn id="115" xr3:uid="{13DC542E-9758-4841-8D94-D7C3116C0568}" name="Term Source REF (NFDI4PSO:0000009)" dataDxfId="36"/>
-    <tableColumn id="116" xr3:uid="{36345937-CA63-443C-9D9D-BD0EAAAF7812}" name="Term Accession Number (NFDI4PSO:0000009)" dataDxfId="35"/>
-    <tableColumn id="117" xr3:uid="{05864A64-95DE-44E0-8966-107156CE7021}" name="Parameter [Metabolism quenching method]" dataDxfId="34"/>
-    <tableColumn id="118" xr3:uid="{3D7DB003-4188-49D2-94CA-D993FAD9E4F0}" name="Term Source REF (NFDI4PSO:0000010)" dataDxfId="33"/>
-    <tableColumn id="119" xr3:uid="{786911B1-BB7C-4948-A507-1360E791FD32}" name="Term Accession Number (NFDI4PSO:0000010)" dataDxfId="32"/>
-    <tableColumn id="120" xr3:uid="{9ACB2720-1CAC-4E92-BC80-C750A5BB4732}" name="Parameter [Sample storage]" dataDxfId="31"/>
-    <tableColumn id="121" xr3:uid="{F17CF920-3ACC-4E28-BDDF-4EAB2A03C00F}" name="Term Source REF (NFDI4PSO:0000011)" dataDxfId="30"/>
-    <tableColumn id="122" xr3:uid="{89F0B1DF-DB89-45C5-91DE-1DD5DA8F371D}" name="Term Accession Number (NFDI4PSO:0000011)" dataDxfId="29"/>
+    <tableColumn id="135" xr3:uid="{85247456-E764-4D3E-BF93-12E412A41198}" name="Characteristics [light intensity exposure]" dataDxfId="52"/>
+    <tableColumn id="136" xr3:uid="{93A50CDC-1E60-4366-AB54-D4E7EE771BBF}" name="Unit" dataDxfId="51"/>
+    <tableColumn id="137" xr3:uid="{23F71F80-EA30-4D98-9A5D-F47C1E28CA7D}" name="Term Source REF (PECO:0007224)" dataDxfId="50"/>
+    <tableColumn id="138" xr3:uid="{C7FAED94-6AB6-4857-B12A-3D43248B98D9}" name="Term Accession Number (PECO:0007224)" dataDxfId="49"/>
+    <tableColumn id="139" xr3:uid="{C3243056-CD27-4381-8490-101CEDC788A9}" name="Characteristics [Humidity Day]" dataDxfId="48"/>
+    <tableColumn id="140" xr3:uid="{1859E1B1-1EAC-418E-BACC-2BB44F677FFE}" name="Unit (#2)" dataDxfId="47"/>
+    <tableColumn id="141" xr3:uid="{798016FD-2838-4531-9398-3279D6A08C58}" name="Term Source REF (NFDI4PSO:0000005)" dataDxfId="46"/>
+    <tableColumn id="142" xr3:uid="{DA5B416D-F4A5-4D4E-8C25-A2ED3C4C82D4}" name="Term Accession Number (NFDI4PSO:0000005)" dataDxfId="45"/>
+    <tableColumn id="143" xr3:uid="{CFD14F66-5E52-44A1-8428-78197BFDC3B7}" name="Characteristics [Humidity Night]" dataDxfId="44"/>
+    <tableColumn id="144" xr3:uid="{CAB23864-751E-4921-B093-E7F5F36CAB4A}" name="Unit (#3)" dataDxfId="43"/>
+    <tableColumn id="145" xr3:uid="{C79AD268-C4B2-49CA-AC34-43CF8297D031}" name="Term Source REF (NFDI4PSO:0000006)" dataDxfId="42"/>
+    <tableColumn id="146" xr3:uid="{62B5FED7-2365-42A3-9552-8A0FA76E9908}" name="Term Accession Number (NFDI4PSO:0000006)" dataDxfId="41"/>
+    <tableColumn id="147" xr3:uid="{97BBD5E2-CDBA-451A-B789-7CF61859FFCB}" name="Characteristics [Temperature Day]" dataDxfId="40"/>
+    <tableColumn id="148" xr3:uid="{1C080C4C-851A-4E7C-896C-124F4716BA8C}" name="Unit (#4)" dataDxfId="39"/>
+    <tableColumn id="149" xr3:uid="{11E152AF-B6D8-46FF-B4D5-EC76EE12832C}" name="Term Source REF (NFDI4PSO:0000007)" dataDxfId="38"/>
+    <tableColumn id="150" xr3:uid="{FA942BE5-5F5A-4091-B5F2-EA84CB5A7C27}" name="Term Accession Number (NFDI4PSO:0000007)" dataDxfId="37"/>
+    <tableColumn id="151" xr3:uid="{6408990A-DF70-48CB-B8A8-528E0DD3D4F7}" name="Characteristics [Temperature Night]" dataDxfId="36"/>
+    <tableColumn id="152" xr3:uid="{7F17C2AE-76E7-4343-9112-49EADE039C2E}" name="Unit (#5)" dataDxfId="35"/>
+    <tableColumn id="153" xr3:uid="{A0CCAF50-1E7F-4ECE-B83C-CF1AFBBF54E2}" name="Term Source REF (NFDI4PSO:0000008)" dataDxfId="34"/>
+    <tableColumn id="154" xr3:uid="{9E0149D4-5109-4383-99E6-4D9EE5914487}" name="Term Accession Number (NFDI4PSO:0000008)" dataDxfId="33"/>
+    <tableColumn id="155" xr3:uid="{0D428223-9C3F-4A3F-ABC9-B6497EC9F4C7}" name="Characteristics [watering exposure]" dataDxfId="32"/>
+    <tableColumn id="156" xr3:uid="{0A90F49E-9F46-4E82-B592-5446DD648569}" name="Term Source REF (PECO:0007383)" dataDxfId="31"/>
+    <tableColumn id="157" xr3:uid="{6216E053-90BE-49F8-9C0C-7A6470F6D3DE}" name="Term Accession Number (PECO:0007383)" dataDxfId="30"/>
+    <tableColumn id="158" xr3:uid="{1ACB13C6-536F-41C7-91F2-B62AEB2DA8A4}" name="Characteristics [plant nutrient exposure]" dataDxfId="29"/>
+    <tableColumn id="159" xr3:uid="{97FEA8C0-4955-47E8-8E42-EFE66F8E2530}" name="Term Source REF (PECO:0007241)" dataDxfId="28"/>
+    <tableColumn id="160" xr3:uid="{159271F8-4343-4546-81D3-E7AE0438BF91}" name="Term Accession Number (PECO:0007241)" dataDxfId="27"/>
+    <tableColumn id="161" xr3:uid="{AC98601D-DB44-45A0-9639-848DD3D97821}" name="Characteristics [abiotic plant exposure]" dataDxfId="26"/>
+    <tableColumn id="162" xr3:uid="{1EF71984-AE79-45A3-B85C-3D63B9A45000}" name="Term Source REF (PECO:0007191)" dataDxfId="25"/>
+    <tableColumn id="163" xr3:uid="{58575740-B787-4889-B047-BE8097574A83}" name="Term Accession Number (PECO:0007191)" dataDxfId="24"/>
+    <tableColumn id="99" xr3:uid="{0AD23E00-4026-4DE6-9B26-1D80067F6D23}" name="Characteristics [biotic plant exposure]" dataDxfId="23"/>
+    <tableColumn id="100" xr3:uid="{A73EA20C-30F6-4F5A-BE9C-1F95EDAD2075}" name="Term Source REF (PECO:0007357)" dataDxfId="22"/>
+    <tableColumn id="101" xr3:uid="{7BC176DE-D288-440D-AE07-B17C6C087D41}" name="Term Accession Number (PECO:0007357)" dataDxfId="21"/>
+    <tableColumn id="102" xr3:uid="{E4B7F22F-69B7-45D9-A3CD-B8F269AFECB1}" name="Characteristics [Geogaphic Area]" dataDxfId="20"/>
+    <tableColumn id="103" xr3:uid="{571169D2-47B6-40AA-8E2B-8629455DE18E}" name="Term Source REF (NFDI4PSO:0000074)" dataDxfId="19"/>
+    <tableColumn id="104" xr3:uid="{B601805D-FC55-4818-BE56-E15EAC614D1A}" name="Term Accession Number (NFDI4PSO:0000074)" dataDxfId="18"/>
+    <tableColumn id="105" xr3:uid="{820EF1CB-22B2-4D90-A62E-60758945BF10}" name="Characteristics [Sample Collection Date]" dataDxfId="17"/>
+    <tableColumn id="106" xr3:uid="{20297405-2B24-48CF-B8F1-5C8FD0C57F7C}" name="Term Source REF (NFDI4PSO:0000075)" dataDxfId="16"/>
+    <tableColumn id="107" xr3:uid="{3D2321BF-EE54-4E22-8362-620DB8FCDC80}" name="Term Accession Number (NFDI4PSO:0000075)" dataDxfId="15"/>
+    <tableColumn id="108" xr3:uid="{7C136999-9BAF-43E5-855D-D97F492175D8}" name="Characteristics [Sample Collected By]" dataDxfId="14"/>
+    <tableColumn id="109" xr3:uid="{CDD0FBA0-5918-486C-BB4F-FBA37D34F559}" name="Term Source REF (NFDI4PSO:0000076)" dataDxfId="13"/>
+    <tableColumn id="110" xr3:uid="{9EEEA931-289F-4558-A4CD-BAA5A89EDBCB}" name="Term Accession Number (NFDI4PSO:0000076)" dataDxfId="12"/>
+    <tableColumn id="111" xr3:uid="{D539A2BF-683E-4EB0-A3FA-26F36AB2D491}" name="Characteristics [Time point]" dataDxfId="11"/>
+    <tableColumn id="112" xr3:uid="{67D48280-3922-4AE2-A629-EAEB3D5641B8}" name="Term Source REF (NFDI4PSO:0000034)" dataDxfId="10"/>
+    <tableColumn id="113" xr3:uid="{615E7959-5992-4D06-8A7B-DD39B89C4EEC}" name="Term Accession Number (NFDI4PSO:0000034)" dataDxfId="9"/>
+    <tableColumn id="114" xr3:uid="{4D9D42EB-53DB-46E9-AC66-722486F5B239}" name="Parameter [Sample Collection Method]" dataDxfId="8"/>
+    <tableColumn id="115" xr3:uid="{13DC542E-9758-4841-8D94-D7C3116C0568}" name="Term Source REF (NFDI4PSO:0000009)" dataDxfId="7"/>
+    <tableColumn id="116" xr3:uid="{36345937-CA63-443C-9D9D-BD0EAAAF7812}" name="Term Accession Number (NFDI4PSO:0000009)" dataDxfId="6"/>
+    <tableColumn id="117" xr3:uid="{05864A64-95DE-44E0-8966-107156CE7021}" name="Parameter [Metabolism quenching method]" dataDxfId="5"/>
+    <tableColumn id="118" xr3:uid="{3D7DB003-4188-49D2-94CA-D993FAD9E4F0}" name="Term Source REF (NFDI4PSO:0000010)" dataDxfId="4"/>
+    <tableColumn id="119" xr3:uid="{786911B1-BB7C-4948-A507-1360E791FD32}" name="Term Accession Number (NFDI4PSO:0000010)" dataDxfId="3"/>
+    <tableColumn id="120" xr3:uid="{9ACB2720-1CAC-4E92-BC80-C750A5BB4732}" name="Parameter [Sample storage]" dataDxfId="2"/>
+    <tableColumn id="121" xr3:uid="{F17CF920-3ACC-4E28-BDDF-4EAB2A03C00F}" name="Term Source REF (NFDI4PSO:0000011)" dataDxfId="1"/>
+    <tableColumn id="122" xr3:uid="{89F0B1DF-DB89-45C5-91DE-1DD5DA8F371D}" name="Term Accession Number (NFDI4PSO:0000011)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{8929A4D6-2D94-4C25-8C8A-5E4C6021B93A}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1033,9 +1329,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T15:43:02.72" personId="{BFA4ADC4-8771-41AF-BD0E-9E56E7CC4977}" id="{A6730C41-F5DE-4F01-A3FC-095AF4373E4D}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T15:43:02.72" personId="{BFA4ADC4-8771-41AF-BD0E-9E56E7CC4977}" id="{870147F0-D856-45E5-BAAA-42E6AA783338}" parentId="{A6730C41-F5DE-4F01-A3FC-095AF4373E4D}">
+    <text>id=f12e98ee-a4e7-4ada-ba56-1e13cce1a44b</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="610" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1595,4 +1902,326 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableUnluckyVampirebat89">
+    <TableValidation DateTime="2021-11-03 16:47" SwateVersion="0.5.1" TableName="annotationTableUnluckyVampirebat89" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Characteristics [Sample type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Characteristics [Biological replicate]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Characteristics [Organism]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Characteristics [Isolate]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Characteristics [Cultivar]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Characteristics [Ecotype]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="19" ColumnHeader="Characteristics [Genotype]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="22" ColumnHeader="Characteristics [population]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="25" ColumnHeader="Characteristics [Organism part]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="28" ColumnHeader="Characteristics [Cell line]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="31" ColumnHeader="Characteristics [Cell type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="34" ColumnHeader="Characteristics [Plant age]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="37" ColumnHeader="Characteristics [Developmental Stage]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="40" ColumnHeader="Characteristics [Plant disease]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="43" ColumnHeader="Characteristics [Plant disease stage]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="46" ColumnHeader="Characteristics [Phenotype]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="49" ColumnHeader="Characteristics [whole plant size]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="52" ColumnHeader="Characteristics [study type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="55" ColumnHeader="Characteristics [plant growth medium exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="58" ColumnHeader="Characteristics [growth plot design]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="61" ColumnHeader="Characteristics [Growth day length]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="64" ColumnHeader="Characteristics [light intensity exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="68" ColumnHeader="Characteristics [Humidity Day]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="72" ColumnHeader="Characteristics [Humidity Night]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="76" ColumnHeader="Characteristics [Temperature Day]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="80" ColumnHeader="Characteristics [Temperature Night]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="84" ColumnHeader="Characteristics [watering exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="87" ColumnHeader="Characteristics [plant nutrient exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="90" ColumnHeader="Characteristics [abiotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="93" ColumnHeader="Characteristics [biotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="96" ColumnHeader="Characteristics [Geogaphic Area]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="99" ColumnHeader="Characteristics [Sample Collection Date]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="102" ColumnHeader="Characteristics [Sample Collected By]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="105" ColumnHeader="Characteristics [Time point]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="108" ColumnHeader="Parameter [Sample Collection Method]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="111" ColumnHeader="Parameter [Metabolism quenching method]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="114" ColumnHeader="Parameter [Sample storage]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="117" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6958E146-EC71-4441-974C-EF34F37AE1B4}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\1SPL01_plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB4B273-BEEE-47AD-B027-D5FA45069516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E8374F-2142-4636-86F3-EAFE5A3A458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
+    <sheet name="GEO_RNASEQ" sheetId="4" r:id="rId3"/>
+    <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="5" r:id="rId4"/>
+    <sheet name="BIOSAMPLE_PLANTS" sheetId="6" r:id="rId5"/>
+    <sheet name="PRIDE_PROTEOMICS" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="256">
   <si>
     <t>Source Name</t>
   </si>
@@ -547,6 +551,282 @@
   </si>
   <si>
     <t>1.1.6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000064</t>
+  </si>
+  <si>
+    <t>NFDI4PSO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000064</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000042</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000042</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000030</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000030</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000065</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000065</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000066</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000066</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000067</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000067</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000031</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000031</t>
+  </si>
+  <si>
+    <t>OBI:0000181</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000181</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000032</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000032</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000068</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000068</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000069</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000069</t>
+  </si>
+  <si>
+    <t>Characteristics [age]</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000033</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000033</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000070</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000070</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000071</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000071</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000072</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000072</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000073</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000073</t>
+  </si>
+  <si>
+    <t>TO:1000012</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/TO_1000012</t>
+  </si>
+  <si>
+    <t>PECO:0007231</t>
+  </si>
+  <si>
+    <t>PECO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PECO_0007231</t>
+  </si>
+  <si>
+    <t>PECO:0007147</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PECO_0007147</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000001</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000001</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000041</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000041</t>
+  </si>
+  <si>
+    <t>PECO:0007224</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PECO_0007224</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000005</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000005</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000006</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000006</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000007</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000007</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000008</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000008</t>
+  </si>
+  <si>
+    <t>PECO:0007383</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PECO_0007383</t>
+  </si>
+  <si>
+    <t>PECO:0007241</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PECO_0007241</t>
+  </si>
+  <si>
+    <t>PECO:0007191</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PECO_0007191</t>
+  </si>
+  <si>
+    <t>PECO:0007357</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PECO_0007357</t>
+  </si>
+  <si>
+    <t>Characteristics [Geographic Area]</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000074</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000074</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000075</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000075</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000076</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000076</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000034</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000034</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000009</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000009</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000010</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000010</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000011</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000011</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2172,6 +2452,6202 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J30" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" t="s">
+        <v>164</v>
+      </c>
+      <c r="L30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" t="s">
+        <v>164</v>
+      </c>
+      <c r="J34" t="s">
+        <v>164</v>
+      </c>
+      <c r="K34" t="s">
+        <v>164</v>
+      </c>
+      <c r="L34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K35" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K36" t="s">
+        <v>164</v>
+      </c>
+      <c r="L36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" t="s">
+        <v>164</v>
+      </c>
+      <c r="J37" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" t="s">
+        <v>164</v>
+      </c>
+      <c r="K38" t="s">
+        <v>164</v>
+      </c>
+      <c r="L38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" t="s">
+        <v>164</v>
+      </c>
+      <c r="I40" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" t="s">
+        <v>164</v>
+      </c>
+      <c r="K40" t="s">
+        <v>164</v>
+      </c>
+      <c r="L40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J30" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" t="s">
+        <v>164</v>
+      </c>
+      <c r="L30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" t="s">
+        <v>164</v>
+      </c>
+      <c r="J34" t="s">
+        <v>164</v>
+      </c>
+      <c r="K34" t="s">
+        <v>164</v>
+      </c>
+      <c r="L34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K35" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K36" t="s">
+        <v>164</v>
+      </c>
+      <c r="L36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" t="s">
+        <v>164</v>
+      </c>
+      <c r="J37" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" t="s">
+        <v>164</v>
+      </c>
+      <c r="K38" t="s">
+        <v>164</v>
+      </c>
+      <c r="L38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" t="s">
+        <v>164</v>
+      </c>
+      <c r="I40" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" t="s">
+        <v>164</v>
+      </c>
+      <c r="K40" t="s">
+        <v>164</v>
+      </c>
+      <c r="L40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J30" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" t="s">
+        <v>164</v>
+      </c>
+      <c r="L30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" t="s">
+        <v>164</v>
+      </c>
+      <c r="J34" t="s">
+        <v>164</v>
+      </c>
+      <c r="K34" t="s">
+        <v>164</v>
+      </c>
+      <c r="L34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K35" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K36" t="s">
+        <v>164</v>
+      </c>
+      <c r="L36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" t="s">
+        <v>164</v>
+      </c>
+      <c r="J37" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" t="s">
+        <v>164</v>
+      </c>
+      <c r="K38" t="s">
+        <v>164</v>
+      </c>
+      <c r="L38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" t="s">
+        <v>164</v>
+      </c>
+      <c r="I40" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" t="s">
+        <v>164</v>
+      </c>
+      <c r="K40" t="s">
+        <v>164</v>
+      </c>
+      <c r="L40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J30" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" t="s">
+        <v>164</v>
+      </c>
+      <c r="L30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" t="s">
+        <v>164</v>
+      </c>
+      <c r="J34" t="s">
+        <v>164</v>
+      </c>
+      <c r="K34" t="s">
+        <v>164</v>
+      </c>
+      <c r="L34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K35" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K36" t="s">
+        <v>164</v>
+      </c>
+      <c r="L36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" t="s">
+        <v>164</v>
+      </c>
+      <c r="J37" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" t="s">
+        <v>164</v>
+      </c>
+      <c r="K38" t="s">
+        <v>164</v>
+      </c>
+      <c r="L38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" t="s">
+        <v>164</v>
+      </c>
+      <c r="I40" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" t="s">
+        <v>164</v>
+      </c>
+      <c r="K40" t="s">
+        <v>164</v>
+      </c>
+      <c r="L40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableUnluckyVampirebat89">

--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\1SPL01_plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F521806-79EC-48DF-AC07-DA867DCED756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F86A42-0FB6-4318-8EB1-2691FBA95640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="372">
   <si>
     <t>Source Name</t>
   </si>
@@ -548,9 +548,6 @@
   </si>
   <si>
     <t>annotationTableUnluckyVampirebat89</t>
-  </si>
-  <si>
-    <t>1.1.6</t>
   </si>
   <si>
     <t/>
@@ -1091,6 +1088,102 @@
   <si>
     <t>Controlled vocabulary term to describe a single cell type.
 Cell Type ontology CV terms are allowed [7].</t>
+  </si>
+  <si>
+    <t>cell culture</t>
+  </si>
+  <si>
+    <t>mixed culture</t>
+  </si>
+  <si>
+    <t>tissue sample</t>
+  </si>
+  <si>
+    <t>whole organism</t>
+  </si>
+  <si>
+    <t>single cell</t>
+  </si>
+  <si>
+    <t>metagenomic assembly</t>
+  </si>
+  <si>
+    <t>A. thaliana</t>
+  </si>
+  <si>
+    <t>Z. mays</t>
+  </si>
+  <si>
+    <t>Wildtype</t>
+  </si>
+  <si>
+    <t>Mutant</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days after germination / sowing </t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Climate chamber</t>
+  </si>
+  <si>
+    <t>Green house</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>Hydroponic</t>
+  </si>
+  <si>
+    <t>Agar</t>
+  </si>
+  <si>
+    <t>Completely Randomized Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomized Block Design </t>
+  </si>
+  <si>
+    <t>Split Plot Design</t>
+  </si>
+  <si>
+    <t>12/12</t>
+  </si>
+  <si>
+    <t>10/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short day </t>
+  </si>
+  <si>
+    <t>Long day</t>
+  </si>
+  <si>
+    <t>Scissors</t>
+  </si>
+  <si>
+    <t>Scalpel</t>
+  </si>
+  <si>
+    <t>Shock-freeze in liquid nitrogen</t>
+  </si>
+  <si>
+    <t>-80 °C</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1195,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,6 +1207,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1245,8 +1345,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1290,7 +1391,8 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D09CA6D9-E6C7-4433-8F48-8CA6F5BF0770}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="53">
@@ -1478,8 +1580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}" name="annotationTableUnluckyVampirebat89" displayName="annotationTableUnluckyVampirebat89" ref="A1:DN2" totalsRowShown="0">
-  <autoFilter ref="A1:DN2" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}" name="annotationTableUnluckyVampirebat89" displayName="annotationTableUnluckyVampirebat89" ref="A1:DN7" totalsRowShown="0">
+  <autoFilter ref="A1:DN7" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}"/>
   <tableColumns count="118">
     <tableColumn id="1" xr3:uid="{109E9A2A-74AF-4992-BC42-D1BBEEE95875}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{F925471A-8FD2-431D-9CE0-50F5A85F2A09}" name="Characteristics [Sample type]"/>
@@ -1915,6 +2017,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="662" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -1928,9 +2033,19 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{69DBD596-3B4B-48BF-B4DF-94D773B822EC}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
-  <dimension ref="A1:DN2"/>
+  <dimension ref="A1:DN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2412,6 +2527,33 @@
       </c>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" t="s">
+        <v>346</v>
+      </c>
+      <c r="T2" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>354</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>357</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>360</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>363</v>
+      </c>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
@@ -2456,15 +2598,352 @@
       <c r="DB2" s="3"/>
       <c r="DC2" s="3"/>
       <c r="DD2" s="3"/>
-      <c r="DE2" s="3"/>
+      <c r="DE2" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="DF2" s="3"/>
       <c r="DG2" s="3"/>
-      <c r="DH2" s="3"/>
+      <c r="DH2" s="3" t="s">
+        <v>369</v>
+      </c>
       <c r="DI2" s="3"/>
       <c r="DJ2" s="3"/>
-      <c r="DK2" s="3"/>
+      <c r="DK2" s="3" t="s">
+        <v>370</v>
+      </c>
       <c r="DL2" s="3"/>
       <c r="DM2" s="3"/>
+    </row>
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" t="s">
+        <v>347</v>
+      </c>
+      <c r="T3" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>351</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>358</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>361</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>364</v>
+      </c>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
+      <c r="CN3" s="3"/>
+      <c r="CO3" s="3"/>
+      <c r="CP3" s="3"/>
+      <c r="CQ3" s="3"/>
+      <c r="CR3" s="3"/>
+      <c r="CS3" s="3"/>
+      <c r="CT3" s="3"/>
+      <c r="CU3" s="3"/>
+      <c r="CV3" s="3"/>
+      <c r="CW3" s="3"/>
+      <c r="CX3" s="3"/>
+      <c r="CY3" s="3"/>
+      <c r="CZ3" s="3"/>
+      <c r="DA3" s="3"/>
+      <c r="DB3" s="3"/>
+      <c r="DC3" s="3"/>
+      <c r="DD3" s="3"/>
+      <c r="DE3" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="DF3" s="3"/>
+      <c r="DG3" s="3"/>
+      <c r="DH3" s="3"/>
+      <c r="DI3" s="3"/>
+      <c r="DJ3" s="3"/>
+      <c r="DK3" s="3"/>
+      <c r="DL3" s="3"/>
+      <c r="DM3" s="3"/>
+    </row>
+    <row r="4" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>356</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>359</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>362</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>365</v>
+      </c>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="3"/>
+      <c r="CR4" s="3"/>
+      <c r="CS4" s="3"/>
+      <c r="CT4" s="3"/>
+      <c r="CU4" s="3"/>
+      <c r="CV4" s="3"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="3"/>
+      <c r="CY4" s="3"/>
+      <c r="CZ4" s="3"/>
+      <c r="DA4" s="3"/>
+      <c r="DB4" s="3"/>
+      <c r="DC4" s="3"/>
+      <c r="DD4" s="3"/>
+      <c r="DE4" s="3"/>
+      <c r="DF4" s="3"/>
+      <c r="DG4" s="3"/>
+      <c r="DH4" s="3"/>
+      <c r="DI4" s="3"/>
+      <c r="DJ4" s="3"/>
+      <c r="DK4" s="3"/>
+      <c r="DL4" s="3"/>
+      <c r="DM4" s="3"/>
+    </row>
+    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>343</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>366</v>
+      </c>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="3"/>
+      <c r="CM5" s="3"/>
+      <c r="CN5" s="3"/>
+      <c r="CO5" s="3"/>
+      <c r="CP5" s="3"/>
+      <c r="CQ5" s="3"/>
+      <c r="CR5" s="3"/>
+      <c r="CS5" s="3"/>
+      <c r="CT5" s="3"/>
+      <c r="CU5" s="3"/>
+      <c r="CV5" s="3"/>
+      <c r="CW5" s="3"/>
+      <c r="CX5" s="3"/>
+      <c r="CY5" s="3"/>
+      <c r="CZ5" s="3"/>
+      <c r="DA5" s="3"/>
+      <c r="DB5" s="3"/>
+      <c r="DC5" s="3"/>
+      <c r="DD5" s="3"/>
+      <c r="DE5" s="3"/>
+      <c r="DF5" s="3"/>
+      <c r="DG5" s="3"/>
+      <c r="DH5" s="3"/>
+      <c r="DI5" s="3"/>
+      <c r="DJ5" s="3"/>
+      <c r="DK5" s="3"/>
+      <c r="DL5" s="3"/>
+      <c r="DM5" s="3"/>
+    </row>
+    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>344</v>
+      </c>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
+      <c r="CL6" s="3"/>
+      <c r="CM6" s="3"/>
+      <c r="CN6" s="3"/>
+      <c r="CO6" s="3"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="3"/>
+      <c r="CR6" s="3"/>
+      <c r="CS6" s="3"/>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="3"/>
+      <c r="CV6" s="3"/>
+      <c r="CW6" s="3"/>
+      <c r="CX6" s="3"/>
+      <c r="CY6" s="3"/>
+      <c r="CZ6" s="3"/>
+      <c r="DA6" s="3"/>
+      <c r="DB6" s="3"/>
+      <c r="DC6" s="3"/>
+      <c r="DD6" s="3"/>
+      <c r="DE6" s="3"/>
+      <c r="DF6" s="3"/>
+      <c r="DG6" s="3"/>
+      <c r="DH6" s="3"/>
+      <c r="DI6" s="3"/>
+      <c r="DJ6" s="3"/>
+      <c r="DK6" s="3"/>
+      <c r="DL6" s="3"/>
+      <c r="DM6" s="3"/>
+    </row>
+    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>345</v>
+      </c>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="2"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
+      <c r="CH7" s="3"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="3"/>
+      <c r="CW7" s="3"/>
+      <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
+      <c r="CZ7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DB7" s="3"/>
+      <c r="DC7" s="3"/>
+      <c r="DD7" s="3"/>
+      <c r="DE7" s="3"/>
+      <c r="DF7" s="3"/>
+      <c r="DG7" s="3"/>
+      <c r="DH7" s="3"/>
+      <c r="DI7" s="3"/>
+      <c r="DJ7" s="3"/>
+      <c r="DK7" s="3"/>
+      <c r="DL7" s="3"/>
+      <c r="DM7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2478,9 +2957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2512,7 +2989,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>163</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2768,40 +3245,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2809,35 +3286,35 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2845,35 +3322,35 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="I3" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2881,37 +3358,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I4" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2919,37 +3396,37 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>180</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I5" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2957,35 +3434,35 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>267</v>
-      </c>
       <c r="I6" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2993,37 +3470,37 @@
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>184</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I7" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3031,37 +3508,37 @@
         <v>56</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>186</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I8" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3069,37 +3546,37 @@
         <v>14</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>188</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I9" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3107,37 +3584,37 @@
         <v>17</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>190</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I10" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3145,37 +3622,37 @@
         <v>20</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>193</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I11" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3183,37 +3660,37 @@
         <v>23</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I12" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3221,37 +3698,37 @@
         <v>26</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>197</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I13" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3259,75 +3736,75 @@
         <v>29</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>199</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I14" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>202</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I15" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3335,37 +3812,37 @@
         <v>35</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="E16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I16" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3373,37 +3850,37 @@
         <v>38</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>206</v>
-      </c>
       <c r="E17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I17" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3411,37 +3888,37 @@
         <v>41</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>208</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I18" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K18" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3449,37 +3926,37 @@
         <v>44</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>210</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G19" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I19" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3487,37 +3964,37 @@
         <v>47</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>213</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I20" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3525,35 +4002,35 @@
         <v>101</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>216</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G21" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="I21" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3561,35 +4038,35 @@
         <v>102</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G22" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="I22" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -3597,35 +4074,35 @@
         <v>103</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G23" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="I23" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3633,35 +4110,35 @@
         <v>50</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G24" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H24" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="I24" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3669,35 +4146,35 @@
         <v>53</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="I25" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3705,35 +4182,35 @@
         <v>105</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>226</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="I26" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3741,35 +4218,35 @@
         <v>106</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G27" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="I27" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3777,35 +4254,35 @@
         <v>107</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>230</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="I28" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3813,35 +4290,35 @@
         <v>108</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>232</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G29" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="I29" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3849,35 +4326,35 @@
         <v>111</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G30" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>271</v>
-      </c>
       <c r="I30" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3885,35 +4362,35 @@
         <v>112</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G31" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>271</v>
-      </c>
       <c r="I31" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3921,35 +4398,35 @@
         <v>113</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G32" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>271</v>
-      </c>
       <c r="I32" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3957,73 +4434,73 @@
         <v>104</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>240</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H33" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="H33" s="15" t="s">
-        <v>271</v>
-      </c>
       <c r="I33" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G34" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I34" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4031,37 +4508,37 @@
         <v>115</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G35" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H35" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I35" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K35" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J35" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -4069,37 +4546,37 @@
         <v>116</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>247</v>
-      </c>
       <c r="E36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G36" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H36" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I36" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4107,37 +4584,37 @@
         <v>117</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="E37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G37" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H37" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I37" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4145,37 +4622,37 @@
         <v>92</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>251</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H38" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I38" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K38" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="L38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4183,37 +4660,37 @@
         <v>95</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>253</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G39" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H39" s="15" t="s">
-        <v>273</v>
-      </c>
       <c r="I39" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J39" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="K39" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4221,37 +4698,37 @@
         <v>98</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H40" s="15" t="s">
-        <v>273</v>
-      </c>
       <c r="I40" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="K40" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4283,40 +4760,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4324,37 +4801,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>275</v>
-      </c>
       <c r="I2" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="K2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4362,37 +4839,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4400,37 +4877,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4438,37 +4915,37 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>180</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4476,37 +4953,37 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I6" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="K6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4514,37 +4991,37 @@
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>184</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4552,37 +5029,37 @@
         <v>56</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>186</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4590,37 +5067,37 @@
         <v>14</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>188</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4628,37 +5105,37 @@
         <v>17</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>190</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4666,37 +5143,37 @@
         <v>20</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>193</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4704,37 +5181,37 @@
         <v>23</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I12" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="K12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4742,37 +5219,37 @@
         <v>26</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>197</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -4780,75 +5257,75 @@
         <v>29</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>199</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>202</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4856,37 +5333,37 @@
         <v>35</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="E16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -4894,37 +5371,37 @@
         <v>38</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>206</v>
-      </c>
       <c r="E17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -4932,37 +5409,37 @@
         <v>41</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>208</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -4970,37 +5447,37 @@
         <v>44</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>210</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -5008,37 +5485,37 @@
         <v>47</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>213</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -5046,37 +5523,37 @@
         <v>101</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>216</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -5084,37 +5561,37 @@
         <v>102</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -5122,37 +5599,37 @@
         <v>103</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -5160,37 +5637,37 @@
         <v>50</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -5198,37 +5675,37 @@
         <v>53</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -5236,37 +5713,37 @@
         <v>105</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>226</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -5274,37 +5751,37 @@
         <v>106</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -5312,37 +5789,37 @@
         <v>107</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>230</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -5350,37 +5827,37 @@
         <v>108</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>232</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -5388,37 +5865,37 @@
         <v>111</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -5426,37 +5903,37 @@
         <v>112</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -5464,37 +5941,37 @@
         <v>113</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5502,75 +5979,75 @@
         <v>104</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>240</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5578,37 +6055,37 @@
         <v>115</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -5616,37 +6093,37 @@
         <v>116</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>247</v>
-      </c>
       <c r="E36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -5654,37 +6131,37 @@
         <v>117</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="E37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -5692,37 +6169,37 @@
         <v>92</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>251</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -5730,37 +6207,37 @@
         <v>95</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>253</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -5768,37 +6245,37 @@
         <v>98</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5830,40 +6307,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5871,35 +6348,35 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>284</v>
-      </c>
       <c r="I2" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5907,35 +6384,35 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>286</v>
-      </c>
       <c r="I3" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5943,35 +6420,35 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="I4" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5979,31 +6456,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>180</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6011,35 +6488,35 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>291</v>
-      </c>
       <c r="I6" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6047,35 +6524,35 @@
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>184</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>294</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -6083,35 +6560,35 @@
         <v>56</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>186</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6119,35 +6596,35 @@
         <v>14</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>188</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>298</v>
-      </c>
       <c r="I9" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -6155,35 +6632,35 @@
         <v>17</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>190</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="I10" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6191,35 +6668,35 @@
         <v>20</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>193</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="I11" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6227,35 +6704,35 @@
         <v>23</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>304</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -6263,35 +6740,35 @@
         <v>26</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>197</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="I13" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -6299,71 +6776,71 @@
         <v>29</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>199</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="I14" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>202</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>310</v>
-      </c>
       <c r="I15" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6371,35 +6848,35 @@
         <v>35</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="E16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>312</v>
-      </c>
       <c r="I16" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -6407,35 +6884,35 @@
         <v>38</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>206</v>
-      </c>
       <c r="E17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>314</v>
-      </c>
       <c r="I17" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -6443,35 +6920,35 @@
         <v>41</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>208</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>316</v>
-      </c>
       <c r="I18" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -6479,35 +6956,35 @@
         <v>44</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>210</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G19" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>318</v>
-      </c>
       <c r="I19" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -6515,35 +6992,35 @@
         <v>47</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>213</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>320</v>
-      </c>
       <c r="I20" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -6551,33 +7028,33 @@
         <v>101</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>216</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -6585,33 +7062,33 @@
         <v>102</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -6619,33 +7096,33 @@
         <v>103</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -6653,33 +7130,33 @@
         <v>50</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -6687,33 +7164,33 @@
         <v>53</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -6721,33 +7198,33 @@
         <v>105</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>226</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -6755,33 +7232,33 @@
         <v>106</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -6789,35 +7266,35 @@
         <v>107</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>230</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>323</v>
-      </c>
       <c r="I28" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -6825,35 +7302,35 @@
         <v>108</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>232</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G29" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>323</v>
-      </c>
       <c r="I29" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -6861,33 +7338,33 @@
         <v>111</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -6895,33 +7372,33 @@
         <v>112</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -6929,33 +7406,33 @@
         <v>113</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -6963,69 +7440,69 @@
         <v>104</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>240</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G34" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="I34" s="15" t="s">
         <v>326</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>327</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -7033,35 +7510,35 @@
         <v>115</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G35" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="H35" s="15" t="s">
-        <v>329</v>
-      </c>
       <c r="I35" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -7069,35 +7546,35 @@
         <v>116</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>247</v>
-      </c>
       <c r="E36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G36" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="H36" s="15" t="s">
-        <v>331</v>
-      </c>
       <c r="I36" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -7105,29 +7582,29 @@
         <v>117</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="E37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -7135,29 +7612,29 @@
         <v>92</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>251</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -7165,29 +7642,29 @@
         <v>95</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>253</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -7195,29 +7672,29 @@
         <v>98</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -7249,40 +7726,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7290,19 +7767,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -7310,7 +7787,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7318,19 +7795,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -7338,7 +7815,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7346,19 +7823,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -7366,7 +7843,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7374,19 +7851,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>180</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -7394,7 +7871,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7402,35 +7879,35 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>334</v>
-      </c>
       <c r="J6" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7438,19 +7915,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>184</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -7458,7 +7935,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7466,19 +7943,19 @@
         <v>56</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>186</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -7486,7 +7963,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7494,19 +7971,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>188</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -7514,7 +7991,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7522,19 +7999,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>190</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -7542,7 +8019,7 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7550,19 +8027,19 @@
         <v>20</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>193</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -7570,7 +8047,7 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7578,35 +8055,35 @@
         <v>23</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>336</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -7614,19 +8091,19 @@
         <v>26</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>197</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -7634,7 +8111,7 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -7642,55 +8119,55 @@
         <v>29</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>199</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>338</v>
-      </c>
       <c r="I14" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>202</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -7698,7 +8175,7 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7706,19 +8183,19 @@
         <v>35</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="E16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -7726,7 +8203,7 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -7734,35 +8211,35 @@
         <v>38</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>206</v>
-      </c>
       <c r="E17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>340</v>
-      </c>
       <c r="I17" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -7770,19 +8247,19 @@
         <v>41</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>208</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -7790,7 +8267,7 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -7798,19 +8275,19 @@
         <v>44</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>210</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -7818,7 +8295,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -7826,19 +8303,19 @@
         <v>47</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>213</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -7846,7 +8323,7 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -7854,19 +8331,19 @@
         <v>101</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>216</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -7874,7 +8351,7 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -7882,19 +8359,19 @@
         <v>102</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -7902,7 +8379,7 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -7910,19 +8387,19 @@
         <v>103</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -7930,7 +8407,7 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -7938,19 +8415,19 @@
         <v>50</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -7958,7 +8435,7 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -7966,19 +8443,19 @@
         <v>53</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -7986,7 +8463,7 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -7994,19 +8471,19 @@
         <v>105</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>226</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -8014,7 +8491,7 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -8022,19 +8499,19 @@
         <v>106</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -8042,7 +8519,7 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -8050,19 +8527,19 @@
         <v>107</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>230</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -8070,7 +8547,7 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -8078,19 +8555,19 @@
         <v>108</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>232</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -8098,7 +8575,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -8106,19 +8583,19 @@
         <v>111</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -8126,7 +8603,7 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -8134,19 +8611,19 @@
         <v>112</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -8154,7 +8631,7 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -8162,19 +8639,19 @@
         <v>113</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -8182,7 +8659,7 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -8190,19 +8667,19 @@
         <v>104</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>240</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -8210,27 +8687,27 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -8238,7 +8715,7 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -8246,19 +8723,19 @@
         <v>115</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -8266,7 +8743,7 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -8274,19 +8751,19 @@
         <v>116</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>247</v>
-      </c>
       <c r="E36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -8294,7 +8771,7 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -8302,19 +8779,19 @@
         <v>117</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="E37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -8322,7 +8799,7 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -8330,19 +8807,19 @@
         <v>92</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>251</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -8350,7 +8827,7 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -8358,19 +8835,19 @@
         <v>95</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>253</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -8378,7 +8855,7 @@
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -8386,19 +8863,19 @@
         <v>98</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -8406,7 +8883,7 @@
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -8417,17 +8894,17 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableUnluckyVampirebat89">
-    <TableValidation DateTime="2021-11-03 16:47" SwateVersion="0.5.1" TableName="annotationTableUnluckyVampirebat89" Userlist="">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Characteristics [Sample type]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="4" ColumnHeader="Characteristics [Biological replicate]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="7" ColumnHeader="Characteristics [Organism]" Importance="None" Unit="None" ValidationFormat="None"/>
+    <TableValidation DateTime="2021-12-13 18:58" SwateVersion="0.5.1" TableName="annotationTableUnluckyVampirebat89" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Characteristics [Sample type]" Importance="None" Unit="None" ValidationFormat="OntologyTerm (Sample type)"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Characteristics [Biological replicate]" Importance="3" Unit="None" ValidationFormat="Int"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Characteristics [Organism]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Organism"/>
       <ColumnValidation ColumnAdress="10" ColumnHeader="Characteristics [Isolate]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="13" ColumnHeader="Characteristics [Cultivar]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="16" ColumnHeader="Characteristics [Ecotype]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="19" ColumnHeader="Characteristics [Genotype]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="22" ColumnHeader="Characteristics [population]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="25" ColumnHeader="Characteristics [Organism part]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="25" ColumnHeader="Characteristics [Organism part]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (Organism part)"/>
       <ColumnValidation ColumnAdress="28" ColumnHeader="Characteristics [Cell line]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="31" ColumnHeader="Characteristics [Cell type]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="34" ColumnHeader="Characteristics [Plant age]" Importance="None" Unit="None" ValidationFormat="None"/>
@@ -8436,34 +8913,34 @@
       <ColumnValidation ColumnAdress="43" ColumnHeader="Characteristics [Plant disease stage]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="46" ColumnHeader="Characteristics [Phenotype]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="49" ColumnHeader="Characteristics [whole plant size]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="52" ColumnHeader="Characteristics [study type]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="55" ColumnHeader="Characteristics [plant growth medium exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="58" ColumnHeader="Characteristics [growth plot design]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="52" ColumnHeader="Characteristics [study type]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (study type)"/>
+      <ColumnValidation ColumnAdress="55" ColumnHeader="Characteristics [plant growth medium exposure]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (plant growth medium exposure)"/>
+      <ColumnValidation ColumnAdress="58" ColumnHeader="Characteristics [growth plot design]" Importance="4" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="61" ColumnHeader="Characteristics [Growth day length]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="64" ColumnHeader="Characteristics [light intensity exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="68" ColumnHeader="Characteristics [Humidity Day]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="72" ColumnHeader="Characteristics [Humidity Night]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="76" ColumnHeader="Characteristics [Temperature Day]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="80" ColumnHeader="Characteristics [Temperature Night]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="64" ColumnHeader="Characteristics [light intensity exposure]" Importance="4" Unit="None" ValidationFormat="UnitTerm (microeinstein per square meter per second)"/>
+      <ColumnValidation ColumnAdress="68" ColumnHeader="Characteristics [Humidity Day]" Importance="4" Unit="None" ValidationFormat="UnitTerm percent"/>
+      <ColumnValidation ColumnAdress="72" ColumnHeader="Characteristics [Humidity Night]" Importance="4" Unit="None" ValidationFormat="UnitTerm percent"/>
+      <ColumnValidation ColumnAdress="76" ColumnHeader="Characteristics [Temperature Day]" Importance="4" Unit="None" ValidationFormat="UnitTerm (degree Celsius)"/>
+      <ColumnValidation ColumnAdress="80" ColumnHeader="Characteristics [Temperature Night]" Importance="4" Unit="None" ValidationFormat="UnitTerm (degree Celsius)"/>
       <ColumnValidation ColumnAdress="84" ColumnHeader="Characteristics [watering exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="87" ColumnHeader="Characteristics [plant nutrient exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="87" ColumnHeader="Characteristics [plant nutrient exposure]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (plant nutrient exposure)"/>
       <ColumnValidation ColumnAdress="90" ColumnHeader="Characteristics [abiotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="93" ColumnHeader="Characteristics [biotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="96" ColumnHeader="Characteristics [Geogaphic Area]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="96" ColumnHeader="Characteristics [Geogaphic Area]" Importance="5" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="99" ColumnHeader="Characteristics [Sample Collection Date]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="102" ColumnHeader="Characteristics [Sample Collected By]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="105" ColumnHeader="Characteristics [Time point]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="108" ColumnHeader="Parameter [Sample Collection Method]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="111" ColumnHeader="Parameter [Metabolism quenching method]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="114" ColumnHeader="Parameter [Sample storage]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="117" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="108" ColumnHeader="Parameter [Sample Collection Method]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="111" ColumnHeader="Parameter [Metabolism quenching method]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="114" ColumnHeader="Parameter [Sample storage]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="117" ColumnHeader="Sample Name" Importance="5" Unit="None" ValidationFormat="Text"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6958E146-EC71-4441-974C-EF34F37AE1B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEDB4332-9D2A-4E03-BD3A-B64AA2728A00}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/1SPL01_plants/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\1SPL01_plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F86A42-0FB6-4318-8EB1-2691FBA95640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DAC0D6-0303-46B7-B9E1-BAD4CB496697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="390">
   <si>
     <t>Source Name</t>
   </si>
@@ -1120,36 +1120,18 @@
     <t>Mutant</t>
   </si>
   <si>
-    <t>Leaf</t>
-  </si>
-  <si>
-    <t>Root</t>
-  </si>
-  <si>
-    <t>Flower</t>
-  </si>
-  <si>
     <t xml:space="preserve">Days after germination / sowing </t>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
     <t>Climate chamber</t>
   </si>
   <si>
     <t>Green house</t>
   </si>
   <si>
-    <t>Soil</t>
-  </si>
-  <si>
     <t>Hydroponic</t>
   </si>
   <si>
-    <t>Agar</t>
-  </si>
-  <si>
     <t>Completely Randomized Design</t>
   </si>
   <si>
@@ -1159,12 +1141,6 @@
     <t>Split Plot Design</t>
   </si>
   <si>
-    <t>12/12</t>
-  </si>
-  <si>
-    <t>10/14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Short day </t>
   </si>
   <si>
@@ -1183,7 +1159,85 @@
     <t>-80 °C</t>
   </si>
   <si>
-    <t>1.1.8</t>
+    <t>ENVO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_02000008</t>
+  </si>
+  <si>
+    <t>NCBITaxon</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1306155</t>
+  </si>
+  <si>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PO_0025034</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PO_0009046</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000352</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_00001998</t>
+  </si>
+  <si>
+    <t>agar</t>
+  </si>
+  <si>
+    <t>CHEBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_2509</t>
+  </si>
+  <si>
+    <t>microeinstein per square meter per second</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000160</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000187</t>
+  </si>
+  <si>
+    <t>degree Celsius</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000027</t>
+  </si>
+  <si>
+    <t>1.1.9</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1390,6 +1444,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 3" xfId="1" xr:uid="{D09CA6D9-E6C7-4433-8F48-8CA6F5BF0770}"/>
@@ -2014,7 +2069,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="629" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="662" row="2">
@@ -2047,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:DN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2071,11 +2126,11 @@
     <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="37.85546875" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="43.7109375" hidden="1" customWidth="1"/>
@@ -2085,7 +2140,7 @@
     <col min="32" max="32" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -2098,11 +2153,11 @@
     <col min="45" max="45" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="28" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="30.140625" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="37.140625" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="50" max="50" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="30.140625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="37.140625" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="32.42578125" hidden="1" customWidth="1"/>
     <col min="55" max="55" width="39.5703125" hidden="1" customWidth="1"/>
@@ -2113,7 +2168,8 @@
     <col min="60" max="60" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="61" max="61" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="35" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="0" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="65" max="65" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="7.140625" hidden="1" customWidth="1"/>
     <col min="67" max="67" width="32.42578125" hidden="1" customWidth="1"/>
@@ -2144,26 +2200,26 @@
     <col min="92" max="92" width="32.42578125" hidden="1" customWidth="1"/>
     <col min="93" max="93" width="39.5703125" hidden="1" customWidth="1"/>
     <col min="94" max="94" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="43" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="39.5703125" hidden="1" customWidth="1"/>
     <col min="97" max="97" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="28.28515625" hidden="1" customWidth="1"/>
-    <col min="99" max="99" width="43" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="100" max="100" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="28.28515625" hidden="1" customWidth="1"/>
+    <col min="101" max="101" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="103" max="103" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="43" hidden="1" customWidth="1"/>
-    <col min="105" max="105" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="105" max="105" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="106" max="106" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="28.28515625" hidden="1" customWidth="1"/>
-    <col min="108" max="108" width="43" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="108" max="108" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="109" max="109" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="111" max="111" width="28.28515625" hidden="1" customWidth="1"/>
+    <col min="110" max="110" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="111" max="111" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="43" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="114" max="114" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="114" max="114" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="115" max="115" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="117" max="117" width="43.7109375" hidden="1" customWidth="1"/>
@@ -2530,50 +2586,134 @@
       <c r="B2" t="s">
         <v>340</v>
       </c>
+      <c r="C2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" t="s">
+        <v>364</v>
+      </c>
       <c r="H2" t="s">
         <v>346</v>
       </c>
+      <c r="I2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" t="s">
+        <v>367</v>
+      </c>
       <c r="T2" t="s">
         <v>348</v>
       </c>
+      <c r="U2" t="s">
+        <v>367</v>
+      </c>
+      <c r="V2" t="s">
+        <v>367</v>
+      </c>
       <c r="Z2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI2" t="s">
         <v>350</v>
       </c>
-      <c r="AI2" t="s">
-        <v>353</v>
+      <c r="AJ2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>367</v>
       </c>
       <c r="BA2" t="s">
+        <v>375</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>363</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>376</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>377</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>363</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BG2" t="s">
         <v>354</v>
       </c>
-      <c r="BD2" t="s">
-        <v>357</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>360</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>363</v>
+      <c r="BH2" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>367</v>
+      </c>
+      <c r="BJ2" s="16">
+        <v>44542</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>367</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>367</v>
       </c>
       <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
+      <c r="BN2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
+      <c r="BR2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BU2" s="2"/>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
+      <c r="BV2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
+      <c r="BZ2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
+      <c r="CD2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CG2" s="3"/>
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
@@ -2599,66 +2739,156 @@
       <c r="DC2" s="3"/>
       <c r="DD2" s="3"/>
       <c r="DE2" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="DF2" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="DF2" s="3"/>
-      <c r="DG2" s="3"/>
+      <c r="DG2" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="DH2" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="DI2" s="3"/>
-      <c r="DJ2" s="3"/>
+        <v>361</v>
+      </c>
+      <c r="DI2" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="DK2" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="DL2" s="3"/>
-      <c r="DM2" s="3"/>
+        <v>362</v>
+      </c>
+      <c r="DL2" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="DM2" s="3" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="3" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>341</v>
       </c>
+      <c r="C3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" t="s">
+        <v>366</v>
+      </c>
       <c r="H3" t="s">
         <v>347</v>
       </c>
+      <c r="I3" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" t="s">
+        <v>367</v>
+      </c>
       <c r="T3" t="s">
         <v>349</v>
       </c>
+      <c r="U3" t="s">
+        <v>367</v>
+      </c>
+      <c r="V3" t="s">
+        <v>367</v>
+      </c>
       <c r="Z3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA3" t="s">
         <v>351</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>353</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BG3" t="s">
         <v>355</v>
       </c>
-      <c r="BD3" t="s">
-        <v>358</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>361</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>364</v>
+      <c r="BH3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BJ3" s="16">
+        <v>44483</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>367</v>
       </c>
       <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
+      <c r="BN3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2"/>
+      <c r="BR3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
+      <c r="BV3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BY3" s="3"/>
-      <c r="BZ3" s="3"/>
-      <c r="CA3" s="3"/>
-      <c r="CB3" s="3"/>
+      <c r="BZ3" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CC3" s="3"/>
-      <c r="CD3" s="3"/>
-      <c r="CE3" s="3"/>
-      <c r="CF3" s="3"/>
+      <c r="CD3" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CG3" s="3"/>
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
@@ -2684,10 +2914,14 @@
       <c r="DC3" s="3"/>
       <c r="DD3" s="3"/>
       <c r="DE3" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="DF3" s="3"/>
-      <c r="DG3" s="3"/>
+        <v>360</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="DG3" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="DH3" s="3"/>
       <c r="DI3" s="3"/>
       <c r="DJ3" s="3"/>
@@ -2699,41 +2933,107 @@
       <c r="B4" t="s">
         <v>342</v>
       </c>
+      <c r="C4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
       <c r="Z4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>374</v>
+      </c>
+      <c r="BA4" t="s">
         <v>352</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
+        <v>367</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>379</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>380</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>381</v>
+      </c>
+      <c r="BG4" t="s">
         <v>356</v>
       </c>
-      <c r="BD4" t="s">
-        <v>359</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>362</v>
+      <c r="BH4" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>367</v>
       </c>
       <c r="BJ4" t="s">
-        <v>365</v>
+        <v>357</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>367</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>367</v>
       </c>
       <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
+      <c r="BN4" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
+      <c r="BR4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BS4" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BT4" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
+      <c r="BV4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BW4" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BX4" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BY4" s="3"/>
-      <c r="BZ4" s="3"/>
-      <c r="CA4" s="3"/>
-      <c r="CB4" s="3"/>
+      <c r="BZ4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CA4" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CB4" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CC4" s="3"/>
-      <c r="CD4" s="3"/>
-      <c r="CE4" s="3"/>
-      <c r="CF4" s="3"/>
+      <c r="CD4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CE4" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CG4" s="3"/>
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
@@ -2772,29 +3072,71 @@
       <c r="B5" t="s">
         <v>343</v>
       </c>
+      <c r="C5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
       <c r="BJ5" t="s">
-        <v>366</v>
+        <v>358</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>367</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>367</v>
       </c>
       <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
+      <c r="BN5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="BQ5" s="2"/>
-      <c r="BR5" s="2"/>
-      <c r="BS5" s="2"/>
-      <c r="BT5" s="2"/>
+      <c r="BR5" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BS5" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BT5" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BU5" s="2"/>
-      <c r="BV5" s="2"/>
-      <c r="BW5" s="2"/>
-      <c r="BX5" s="2"/>
+      <c r="BV5" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BW5" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BX5" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BY5" s="3"/>
-      <c r="BZ5" s="3"/>
-      <c r="CA5" s="3"/>
-      <c r="CB5" s="3"/>
+      <c r="BZ5" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CA5" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CB5" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CC5" s="3"/>
-      <c r="CD5" s="3"/>
-      <c r="CE5" s="3"/>
-      <c r="CF5" s="3"/>
+      <c r="CD5" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CE5" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF5" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CG5" s="3"/>
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
@@ -2833,26 +3175,62 @@
       <c r="B6" t="s">
         <v>344</v>
       </c>
+      <c r="C6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" t="s">
+        <v>367</v>
+      </c>
       <c r="BM6" s="1"/>
-      <c r="BN6" s="1"/>
-      <c r="BO6" s="1"/>
-      <c r="BP6" s="1"/>
+      <c r="BN6" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="2"/>
-      <c r="BT6" s="2"/>
+      <c r="BR6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BS6" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BT6" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BU6" s="2"/>
-      <c r="BV6" s="2"/>
-      <c r="BW6" s="2"/>
-      <c r="BX6" s="2"/>
+      <c r="BV6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BW6" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BX6" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BY6" s="3"/>
-      <c r="BZ6" s="3"/>
-      <c r="CA6" s="3"/>
-      <c r="CB6" s="3"/>
+      <c r="BZ6" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CA6" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CB6" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CC6" s="3"/>
-      <c r="CD6" s="3"/>
-      <c r="CE6" s="3"/>
-      <c r="CF6" s="3"/>
+      <c r="CD6" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CE6" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF6" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
@@ -2891,26 +3269,62 @@
       <c r="B7" t="s">
         <v>345</v>
       </c>
+      <c r="C7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" t="s">
+        <v>367</v>
+      </c>
       <c r="BM7" s="1"/>
-      <c r="BN7" s="1"/>
-      <c r="BO7" s="1"/>
-      <c r="BP7" s="1"/>
+      <c r="BN7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="BQ7" s="2"/>
-      <c r="BR7" s="2"/>
-      <c r="BS7" s="2"/>
-      <c r="BT7" s="2"/>
+      <c r="BR7" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BS7" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BT7" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BU7" s="2"/>
-      <c r="BV7" s="2"/>
-      <c r="BW7" s="2"/>
-      <c r="BX7" s="2"/>
+      <c r="BV7" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BW7" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BX7" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="BY7" s="3"/>
-      <c r="BZ7" s="3"/>
-      <c r="CA7" s="3"/>
-      <c r="CB7" s="3"/>
+      <c r="BZ7" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CA7" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CB7" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CC7" s="3"/>
-      <c r="CD7" s="3"/>
-      <c r="CE7" s="3"/>
-      <c r="CF7" s="3"/>
+      <c r="CD7" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CE7" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF7" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="CG7" s="3"/>
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
@@ -2957,7 +3371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2989,7 +3403,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
